--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD26351-7F50-A74F-86CC-0DB68861E8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA02D4C-221A-4E4D-984F-831C0BAE0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phenological_monitoring!$A$1:$E$621</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phenological_monitoring!$A$1:$E$620</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="650">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1623,9 +1623,6 @@
   </si>
   <si>
     <t>Quma_WarmS/WarmF_B1_R5</t>
-  </si>
-  <si>
-    <t>Quma_WarmS/WarmF_B2_R6</t>
   </si>
   <si>
     <t>Quma_WarmS/WarmF_B2_R7</t>
@@ -2637,8 +2634,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:I621" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I621" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:I620" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="7"/>
@@ -2971,11 +2968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I621"/>
+  <dimension ref="A1:I620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A471" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E486" sqref="E486"/>
+      <selection pane="topRight" activeCell="D508" sqref="D508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3004,13 +3001,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H1" t="s">
         <v>646</v>
       </c>
-      <c r="H1" t="s">
-        <v>647</v>
-      </c>
       <c r="I1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -13352,7 +13349,7 @@
         <v>382</v>
       </c>
       <c r="F399" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G399">
         <v>0</v>
@@ -13459,7 +13456,7 @@
         <v>382</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I403"/>
     </row>
@@ -14260,7 +14257,7 @@
         <v>382</v>
       </c>
       <c r="F434" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G434">
         <v>0</v>
@@ -16253,7 +16250,7 @@
         <v>533</v>
       </c>
       <c r="B511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C511" t="s">
         <v>73</v>
@@ -16383,10 +16380,10 @@
         <v>538</v>
       </c>
       <c r="B516">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C516" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D516" t="s">
         <v>464</v>
@@ -16513,7 +16510,7 @@
         <v>543</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C521" t="s">
         <v>89</v>
@@ -16643,7 +16640,7 @@
         <v>548</v>
       </c>
       <c r="B526">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C526" t="s">
         <v>89</v>
@@ -16773,16 +16770,16 @@
         <v>553</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C531" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D531" t="s">
-        <v>464</v>
+        <v>554</v>
       </c>
       <c r="E531" t="s">
-        <v>465</v>
+        <v>555</v>
       </c>
       <c r="G531">
         <v>0</v>
@@ -16796,7 +16793,7 @@
     </row>
     <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -16805,10 +16802,10 @@
         <v>7</v>
       </c>
       <c r="D532" t="s">
+        <v>554</v>
+      </c>
+      <c r="E532" t="s">
         <v>555</v>
-      </c>
-      <c r="E532" t="s">
-        <v>556</v>
       </c>
       <c r="G532">
         <v>0</v>
@@ -16831,10 +16828,10 @@
         <v>7</v>
       </c>
       <c r="D533" t="s">
+        <v>554</v>
+      </c>
+      <c r="E533" t="s">
         <v>555</v>
-      </c>
-      <c r="E533" t="s">
-        <v>556</v>
       </c>
       <c r="G533">
         <v>0</v>
@@ -16857,10 +16854,10 @@
         <v>7</v>
       </c>
       <c r="D534" t="s">
+        <v>554</v>
+      </c>
+      <c r="E534" t="s">
         <v>555</v>
-      </c>
-      <c r="E534" t="s">
-        <v>556</v>
       </c>
       <c r="G534">
         <v>0</v>
@@ -16883,10 +16880,10 @@
         <v>7</v>
       </c>
       <c r="D535" t="s">
+        <v>554</v>
+      </c>
+      <c r="E535" t="s">
         <v>555</v>
-      </c>
-      <c r="E535" t="s">
-        <v>556</v>
       </c>
       <c r="G535">
         <v>0</v>
@@ -16903,16 +16900,16 @@
         <v>560</v>
       </c>
       <c r="B536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C536" t="s">
         <v>7</v>
       </c>
       <c r="D536" t="s">
+        <v>554</v>
+      </c>
+      <c r="E536" t="s">
         <v>555</v>
-      </c>
-      <c r="E536" t="s">
-        <v>556</v>
       </c>
       <c r="G536">
         <v>0</v>
@@ -16935,10 +16932,10 @@
         <v>7</v>
       </c>
       <c r="D537" t="s">
+        <v>554</v>
+      </c>
+      <c r="E537" t="s">
         <v>555</v>
-      </c>
-      <c r="E537" t="s">
-        <v>556</v>
       </c>
       <c r="G537">
         <v>0</v>
@@ -16961,10 +16958,10 @@
         <v>7</v>
       </c>
       <c r="D538" t="s">
+        <v>554</v>
+      </c>
+      <c r="E538" t="s">
         <v>555</v>
-      </c>
-      <c r="E538" t="s">
-        <v>556</v>
       </c>
       <c r="G538">
         <v>0</v>
@@ -16987,10 +16984,10 @@
         <v>7</v>
       </c>
       <c r="D539" t="s">
+        <v>554</v>
+      </c>
+      <c r="E539" t="s">
         <v>555</v>
-      </c>
-      <c r="E539" t="s">
-        <v>556</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -17013,10 +17010,10 @@
         <v>7</v>
       </c>
       <c r="D540" t="s">
+        <v>554</v>
+      </c>
+      <c r="E540" t="s">
         <v>555</v>
-      </c>
-      <c r="E540" t="s">
-        <v>556</v>
       </c>
       <c r="G540">
         <v>0</v>
@@ -17033,16 +17030,16 @@
         <v>565</v>
       </c>
       <c r="B541">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C541" t="s">
         <v>7</v>
       </c>
       <c r="D541" t="s">
+        <v>554</v>
+      </c>
+      <c r="E541" t="s">
         <v>555</v>
-      </c>
-      <c r="E541" t="s">
-        <v>556</v>
       </c>
       <c r="G541">
         <v>0</v>
@@ -17065,10 +17062,10 @@
         <v>7</v>
       </c>
       <c r="D542" t="s">
+        <v>554</v>
+      </c>
+      <c r="E542" t="s">
         <v>555</v>
-      </c>
-      <c r="E542" t="s">
-        <v>556</v>
       </c>
       <c r="G542">
         <v>0</v>
@@ -17091,10 +17088,10 @@
         <v>7</v>
       </c>
       <c r="D543" t="s">
+        <v>554</v>
+      </c>
+      <c r="E543" t="s">
         <v>555</v>
-      </c>
-      <c r="E543" t="s">
-        <v>556</v>
       </c>
       <c r="G543">
         <v>0</v>
@@ -17117,10 +17114,10 @@
         <v>7</v>
       </c>
       <c r="D544" t="s">
+        <v>554</v>
+      </c>
+      <c r="E544" t="s">
         <v>555</v>
-      </c>
-      <c r="E544" t="s">
-        <v>556</v>
       </c>
       <c r="G544">
         <v>0</v>
@@ -17143,10 +17140,10 @@
         <v>7</v>
       </c>
       <c r="D545" t="s">
+        <v>554</v>
+      </c>
+      <c r="E545" t="s">
         <v>555</v>
-      </c>
-      <c r="E545" t="s">
-        <v>556</v>
       </c>
       <c r="G545">
         <v>0</v>
@@ -17163,16 +17160,16 @@
         <v>570</v>
       </c>
       <c r="B546">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C546" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D546" t="s">
+        <v>554</v>
+      </c>
+      <c r="E546" t="s">
         <v>555</v>
-      </c>
-      <c r="E546" t="s">
-        <v>556</v>
       </c>
       <c r="G546">
         <v>0</v>
@@ -17195,10 +17192,10 @@
         <v>25</v>
       </c>
       <c r="D547" t="s">
+        <v>554</v>
+      </c>
+      <c r="E547" t="s">
         <v>555</v>
-      </c>
-      <c r="E547" t="s">
-        <v>556</v>
       </c>
       <c r="G547">
         <v>0</v>
@@ -17221,10 +17218,10 @@
         <v>25</v>
       </c>
       <c r="D548" t="s">
+        <v>554</v>
+      </c>
+      <c r="E548" t="s">
         <v>555</v>
-      </c>
-      <c r="E548" t="s">
-        <v>556</v>
       </c>
       <c r="G548">
         <v>0</v>
@@ -17247,10 +17244,10 @@
         <v>25</v>
       </c>
       <c r="D549" t="s">
+        <v>554</v>
+      </c>
+      <c r="E549" t="s">
         <v>555</v>
-      </c>
-      <c r="E549" t="s">
-        <v>556</v>
       </c>
       <c r="G549">
         <v>0</v>
@@ -17273,10 +17270,10 @@
         <v>25</v>
       </c>
       <c r="D550" t="s">
+        <v>554</v>
+      </c>
+      <c r="E550" t="s">
         <v>555</v>
-      </c>
-      <c r="E550" t="s">
-        <v>556</v>
       </c>
       <c r="G550">
         <v>0</v>
@@ -17293,16 +17290,16 @@
         <v>575</v>
       </c>
       <c r="B551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C551" t="s">
         <v>25</v>
       </c>
       <c r="D551" t="s">
+        <v>554</v>
+      </c>
+      <c r="E551" t="s">
         <v>555</v>
-      </c>
-      <c r="E551" t="s">
-        <v>556</v>
       </c>
       <c r="G551">
         <v>0</v>
@@ -17325,10 +17322,10 @@
         <v>25</v>
       </c>
       <c r="D552" t="s">
+        <v>554</v>
+      </c>
+      <c r="E552" t="s">
         <v>555</v>
-      </c>
-      <c r="E552" t="s">
-        <v>556</v>
       </c>
       <c r="G552">
         <v>0</v>
@@ -17351,10 +17348,10 @@
         <v>25</v>
       </c>
       <c r="D553" t="s">
+        <v>554</v>
+      </c>
+      <c r="E553" t="s">
         <v>555</v>
-      </c>
-      <c r="E553" t="s">
-        <v>556</v>
       </c>
       <c r="G553">
         <v>0</v>
@@ -17377,10 +17374,10 @@
         <v>25</v>
       </c>
       <c r="D554" t="s">
+        <v>554</v>
+      </c>
+      <c r="E554" t="s">
         <v>555</v>
-      </c>
-      <c r="E554" t="s">
-        <v>556</v>
       </c>
       <c r="G554">
         <v>0</v>
@@ -17403,10 +17400,10 @@
         <v>25</v>
       </c>
       <c r="D555" t="s">
+        <v>554</v>
+      </c>
+      <c r="E555" t="s">
         <v>555</v>
-      </c>
-      <c r="E555" t="s">
-        <v>556</v>
       </c>
       <c r="G555">
         <v>0</v>
@@ -17423,16 +17420,16 @@
         <v>580</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C556" t="s">
         <v>25</v>
       </c>
       <c r="D556" t="s">
+        <v>554</v>
+      </c>
+      <c r="E556" t="s">
         <v>555</v>
-      </c>
-      <c r="E556" t="s">
-        <v>556</v>
       </c>
       <c r="G556">
         <v>0</v>
@@ -17455,10 +17452,10 @@
         <v>25</v>
       </c>
       <c r="D557" t="s">
+        <v>554</v>
+      </c>
+      <c r="E557" t="s">
         <v>555</v>
-      </c>
-      <c r="E557" t="s">
-        <v>556</v>
       </c>
       <c r="G557">
         <v>0</v>
@@ -17481,10 +17478,10 @@
         <v>25</v>
       </c>
       <c r="D558" t="s">
+        <v>554</v>
+      </c>
+      <c r="E558" t="s">
         <v>555</v>
-      </c>
-      <c r="E558" t="s">
-        <v>556</v>
       </c>
       <c r="G558">
         <v>0</v>
@@ -17507,10 +17504,10 @@
         <v>25</v>
       </c>
       <c r="D559" t="s">
+        <v>554</v>
+      </c>
+      <c r="E559" t="s">
         <v>555</v>
-      </c>
-      <c r="E559" t="s">
-        <v>556</v>
       </c>
       <c r="G559">
         <v>0</v>
@@ -17533,10 +17530,10 @@
         <v>25</v>
       </c>
       <c r="D560" t="s">
+        <v>554</v>
+      </c>
+      <c r="E560" t="s">
         <v>555</v>
-      </c>
-      <c r="E560" t="s">
-        <v>556</v>
       </c>
       <c r="G560">
         <v>0</v>
@@ -17553,16 +17550,16 @@
         <v>585</v>
       </c>
       <c r="B561">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C561" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D561" t="s">
+        <v>554</v>
+      </c>
+      <c r="E561" t="s">
         <v>555</v>
-      </c>
-      <c r="E561" t="s">
-        <v>556</v>
       </c>
       <c r="G561">
         <v>0</v>
@@ -17585,10 +17582,10 @@
         <v>41</v>
       </c>
       <c r="D562" t="s">
+        <v>554</v>
+      </c>
+      <c r="E562" t="s">
         <v>555</v>
-      </c>
-      <c r="E562" t="s">
-        <v>556</v>
       </c>
       <c r="G562">
         <v>0</v>
@@ -17611,10 +17608,10 @@
         <v>41</v>
       </c>
       <c r="D563" t="s">
+        <v>554</v>
+      </c>
+      <c r="E563" t="s">
         <v>555</v>
-      </c>
-      <c r="E563" t="s">
-        <v>556</v>
       </c>
       <c r="G563">
         <v>0</v>
@@ -17637,10 +17634,10 @@
         <v>41</v>
       </c>
       <c r="D564" t="s">
+        <v>554</v>
+      </c>
+      <c r="E564" t="s">
         <v>555</v>
-      </c>
-      <c r="E564" t="s">
-        <v>556</v>
       </c>
       <c r="G564">
         <v>0</v>
@@ -17663,10 +17660,10 @@
         <v>41</v>
       </c>
       <c r="D565" t="s">
+        <v>554</v>
+      </c>
+      <c r="E565" t="s">
         <v>555</v>
-      </c>
-      <c r="E565" t="s">
-        <v>556</v>
       </c>
       <c r="G565">
         <v>0</v>
@@ -17683,16 +17680,16 @@
         <v>590</v>
       </c>
       <c r="B566">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C566" t="s">
         <v>41</v>
       </c>
       <c r="D566" t="s">
+        <v>554</v>
+      </c>
+      <c r="E566" t="s">
         <v>555</v>
-      </c>
-      <c r="E566" t="s">
-        <v>556</v>
       </c>
       <c r="G566">
         <v>0</v>
@@ -17715,10 +17712,10 @@
         <v>41</v>
       </c>
       <c r="D567" t="s">
+        <v>554</v>
+      </c>
+      <c r="E567" t="s">
         <v>555</v>
-      </c>
-      <c r="E567" t="s">
-        <v>556</v>
       </c>
       <c r="G567">
         <v>0</v>
@@ -17741,10 +17738,10 @@
         <v>41</v>
       </c>
       <c r="D568" t="s">
+        <v>554</v>
+      </c>
+      <c r="E568" t="s">
         <v>555</v>
-      </c>
-      <c r="E568" t="s">
-        <v>556</v>
       </c>
       <c r="G568">
         <v>0</v>
@@ -17767,10 +17764,10 @@
         <v>41</v>
       </c>
       <c r="D569" t="s">
+        <v>554</v>
+      </c>
+      <c r="E569" t="s">
         <v>555</v>
-      </c>
-      <c r="E569" t="s">
-        <v>556</v>
       </c>
       <c r="G569">
         <v>0</v>
@@ -17793,10 +17790,10 @@
         <v>41</v>
       </c>
       <c r="D570" t="s">
+        <v>554</v>
+      </c>
+      <c r="E570" t="s">
         <v>555</v>
-      </c>
-      <c r="E570" t="s">
-        <v>556</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -17813,16 +17810,16 @@
         <v>595</v>
       </c>
       <c r="B571">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C571" t="s">
         <v>41</v>
       </c>
       <c r="D571" t="s">
+        <v>554</v>
+      </c>
+      <c r="E571" t="s">
         <v>555</v>
-      </c>
-      <c r="E571" t="s">
-        <v>556</v>
       </c>
       <c r="G571">
         <v>0</v>
@@ -17845,10 +17842,10 @@
         <v>41</v>
       </c>
       <c r="D572" t="s">
+        <v>554</v>
+      </c>
+      <c r="E572" t="s">
         <v>555</v>
-      </c>
-      <c r="E572" t="s">
-        <v>556</v>
       </c>
       <c r="G572">
         <v>0</v>
@@ -17871,10 +17868,10 @@
         <v>41</v>
       </c>
       <c r="D573" t="s">
+        <v>554</v>
+      </c>
+      <c r="E573" t="s">
         <v>555</v>
-      </c>
-      <c r="E573" t="s">
-        <v>556</v>
       </c>
       <c r="G573">
         <v>0</v>
@@ -17897,10 +17894,10 @@
         <v>41</v>
       </c>
       <c r="D574" t="s">
+        <v>554</v>
+      </c>
+      <c r="E574" t="s">
         <v>555</v>
-      </c>
-      <c r="E574" t="s">
-        <v>556</v>
       </c>
       <c r="G574">
         <v>0</v>
@@ -17923,10 +17920,10 @@
         <v>41</v>
       </c>
       <c r="D575" t="s">
+        <v>554</v>
+      </c>
+      <c r="E575" t="s">
         <v>555</v>
-      </c>
-      <c r="E575" t="s">
-        <v>556</v>
       </c>
       <c r="G575">
         <v>0</v>
@@ -17943,16 +17940,16 @@
         <v>600</v>
       </c>
       <c r="B576">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C576" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D576" t="s">
+        <v>554</v>
+      </c>
+      <c r="E576" t="s">
         <v>555</v>
-      </c>
-      <c r="E576" t="s">
-        <v>556</v>
       </c>
       <c r="G576">
         <v>0</v>
@@ -17975,10 +17972,10 @@
         <v>57</v>
       </c>
       <c r="D577" t="s">
+        <v>554</v>
+      </c>
+      <c r="E577" t="s">
         <v>555</v>
-      </c>
-      <c r="E577" t="s">
-        <v>556</v>
       </c>
       <c r="G577">
         <v>0</v>
@@ -18001,10 +17998,10 @@
         <v>57</v>
       </c>
       <c r="D578" t="s">
+        <v>554</v>
+      </c>
+      <c r="E578" t="s">
         <v>555</v>
-      </c>
-      <c r="E578" t="s">
-        <v>556</v>
       </c>
       <c r="G578">
         <v>0</v>
@@ -18027,10 +18024,10 @@
         <v>57</v>
       </c>
       <c r="D579" t="s">
+        <v>554</v>
+      </c>
+      <c r="E579" t="s">
         <v>555</v>
-      </c>
-      <c r="E579" t="s">
-        <v>556</v>
       </c>
       <c r="G579">
         <v>0</v>
@@ -18053,10 +18050,10 @@
         <v>57</v>
       </c>
       <c r="D580" t="s">
+        <v>554</v>
+      </c>
+      <c r="E580" t="s">
         <v>555</v>
-      </c>
-      <c r="E580" t="s">
-        <v>556</v>
       </c>
       <c r="G580">
         <v>0</v>
@@ -18073,16 +18070,16 @@
         <v>605</v>
       </c>
       <c r="B581">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C581" t="s">
         <v>57</v>
       </c>
       <c r="D581" t="s">
+        <v>554</v>
+      </c>
+      <c r="E581" t="s">
         <v>555</v>
-      </c>
-      <c r="E581" t="s">
-        <v>556</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -18105,10 +18102,10 @@
         <v>57</v>
       </c>
       <c r="D582" t="s">
+        <v>554</v>
+      </c>
+      <c r="E582" t="s">
         <v>555</v>
-      </c>
-      <c r="E582" t="s">
-        <v>556</v>
       </c>
       <c r="G582">
         <v>0</v>
@@ -18131,10 +18128,10 @@
         <v>57</v>
       </c>
       <c r="D583" t="s">
+        <v>554</v>
+      </c>
+      <c r="E583" t="s">
         <v>555</v>
-      </c>
-      <c r="E583" t="s">
-        <v>556</v>
       </c>
       <c r="G583">
         <v>0</v>
@@ -18157,10 +18154,10 @@
         <v>57</v>
       </c>
       <c r="D584" t="s">
+        <v>554</v>
+      </c>
+      <c r="E584" t="s">
         <v>555</v>
-      </c>
-      <c r="E584" t="s">
-        <v>556</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -18183,10 +18180,10 @@
         <v>57</v>
       </c>
       <c r="D585" t="s">
+        <v>554</v>
+      </c>
+      <c r="E585" t="s">
         <v>555</v>
-      </c>
-      <c r="E585" t="s">
-        <v>556</v>
       </c>
       <c r="G585">
         <v>0</v>
@@ -18203,16 +18200,16 @@
         <v>610</v>
       </c>
       <c r="B586">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C586" t="s">
         <v>57</v>
       </c>
       <c r="D586" t="s">
+        <v>554</v>
+      </c>
+      <c r="E586" t="s">
         <v>555</v>
-      </c>
-      <c r="E586" t="s">
-        <v>556</v>
       </c>
       <c r="G586">
         <v>0</v>
@@ -18235,10 +18232,10 @@
         <v>57</v>
       </c>
       <c r="D587" t="s">
+        <v>554</v>
+      </c>
+      <c r="E587" t="s">
         <v>555</v>
-      </c>
-      <c r="E587" t="s">
-        <v>556</v>
       </c>
       <c r="G587">
         <v>0</v>
@@ -18261,10 +18258,10 @@
         <v>57</v>
       </c>
       <c r="D588" t="s">
+        <v>554</v>
+      </c>
+      <c r="E588" t="s">
         <v>555</v>
-      </c>
-      <c r="E588" t="s">
-        <v>556</v>
       </c>
       <c r="G588">
         <v>0</v>
@@ -18287,10 +18284,10 @@
         <v>57</v>
       </c>
       <c r="D589" t="s">
+        <v>554</v>
+      </c>
+      <c r="E589" t="s">
         <v>555</v>
-      </c>
-      <c r="E589" t="s">
-        <v>556</v>
       </c>
       <c r="G589">
         <v>0</v>
@@ -18313,10 +18310,10 @@
         <v>57</v>
       </c>
       <c r="D590" t="s">
+        <v>554</v>
+      </c>
+      <c r="E590" t="s">
         <v>555</v>
-      </c>
-      <c r="E590" t="s">
-        <v>556</v>
       </c>
       <c r="G590">
         <v>0</v>
@@ -18333,16 +18330,16 @@
         <v>615</v>
       </c>
       <c r="B591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C591" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D591" t="s">
+        <v>554</v>
+      </c>
+      <c r="E591" t="s">
         <v>555</v>
-      </c>
-      <c r="E591" t="s">
-        <v>556</v>
       </c>
       <c r="G591">
         <v>0</v>
@@ -18365,10 +18362,10 @@
         <v>73</v>
       </c>
       <c r="D592" t="s">
+        <v>554</v>
+      </c>
+      <c r="E592" t="s">
         <v>555</v>
-      </c>
-      <c r="E592" t="s">
-        <v>556</v>
       </c>
       <c r="G592">
         <v>0</v>
@@ -18391,10 +18388,10 @@
         <v>73</v>
       </c>
       <c r="D593" t="s">
+        <v>554</v>
+      </c>
+      <c r="E593" t="s">
         <v>555</v>
-      </c>
-      <c r="E593" t="s">
-        <v>556</v>
       </c>
       <c r="G593">
         <v>0</v>
@@ -18417,10 +18414,10 @@
         <v>73</v>
       </c>
       <c r="D594" t="s">
+        <v>554</v>
+      </c>
+      <c r="E594" t="s">
         <v>555</v>
-      </c>
-      <c r="E594" t="s">
-        <v>556</v>
       </c>
       <c r="G594">
         <v>0</v>
@@ -18443,10 +18440,10 @@
         <v>73</v>
       </c>
       <c r="D595" t="s">
+        <v>554</v>
+      </c>
+      <c r="E595" t="s">
         <v>555</v>
-      </c>
-      <c r="E595" t="s">
-        <v>556</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -18463,16 +18460,16 @@
         <v>620</v>
       </c>
       <c r="B596">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C596" t="s">
         <v>73</v>
       </c>
       <c r="D596" t="s">
+        <v>554</v>
+      </c>
+      <c r="E596" t="s">
         <v>555</v>
-      </c>
-      <c r="E596" t="s">
-        <v>556</v>
       </c>
       <c r="G596">
         <v>0</v>
@@ -18495,10 +18492,10 @@
         <v>73</v>
       </c>
       <c r="D597" t="s">
+        <v>554</v>
+      </c>
+      <c r="E597" t="s">
         <v>555</v>
-      </c>
-      <c r="E597" t="s">
-        <v>556</v>
       </c>
       <c r="G597">
         <v>0</v>
@@ -18521,10 +18518,10 @@
         <v>73</v>
       </c>
       <c r="D598" t="s">
+        <v>554</v>
+      </c>
+      <c r="E598" t="s">
         <v>555</v>
-      </c>
-      <c r="E598" t="s">
-        <v>556</v>
       </c>
       <c r="G598">
         <v>0</v>
@@ -18547,10 +18544,10 @@
         <v>73</v>
       </c>
       <c r="D599" t="s">
+        <v>554</v>
+      </c>
+      <c r="E599" t="s">
         <v>555</v>
-      </c>
-      <c r="E599" t="s">
-        <v>556</v>
       </c>
       <c r="G599">
         <v>0</v>
@@ -18573,10 +18570,10 @@
         <v>73</v>
       </c>
       <c r="D600" t="s">
+        <v>554</v>
+      </c>
+      <c r="E600" t="s">
         <v>555</v>
-      </c>
-      <c r="E600" t="s">
-        <v>556</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -18593,16 +18590,16 @@
         <v>625</v>
       </c>
       <c r="B601">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C601" t="s">
         <v>73</v>
       </c>
       <c r="D601" t="s">
+        <v>554</v>
+      </c>
+      <c r="E601" t="s">
         <v>555</v>
-      </c>
-      <c r="E601" t="s">
-        <v>556</v>
       </c>
       <c r="G601">
         <v>0</v>
@@ -18625,10 +18622,10 @@
         <v>73</v>
       </c>
       <c r="D602" t="s">
+        <v>554</v>
+      </c>
+      <c r="E602" t="s">
         <v>555</v>
-      </c>
-      <c r="E602" t="s">
-        <v>556</v>
       </c>
       <c r="G602">
         <v>0</v>
@@ -18651,10 +18648,10 @@
         <v>73</v>
       </c>
       <c r="D603" t="s">
+        <v>554</v>
+      </c>
+      <c r="E603" t="s">
         <v>555</v>
-      </c>
-      <c r="E603" t="s">
-        <v>556</v>
       </c>
       <c r="G603">
         <v>0</v>
@@ -18677,10 +18674,10 @@
         <v>73</v>
       </c>
       <c r="D604" t="s">
+        <v>554</v>
+      </c>
+      <c r="E604" t="s">
         <v>555</v>
-      </c>
-      <c r="E604" t="s">
-        <v>556</v>
       </c>
       <c r="G604">
         <v>0</v>
@@ -18703,10 +18700,10 @@
         <v>73</v>
       </c>
       <c r="D605" t="s">
+        <v>554</v>
+      </c>
+      <c r="E605" t="s">
         <v>555</v>
-      </c>
-      <c r="E605" t="s">
-        <v>556</v>
       </c>
       <c r="G605">
         <v>0</v>
@@ -18723,16 +18720,16 @@
         <v>630</v>
       </c>
       <c r="B606">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C606" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D606" t="s">
+        <v>554</v>
+      </c>
+      <c r="E606" t="s">
         <v>555</v>
-      </c>
-      <c r="E606" t="s">
-        <v>556</v>
       </c>
       <c r="G606">
         <v>0</v>
@@ -18755,10 +18752,10 @@
         <v>89</v>
       </c>
       <c r="D607" t="s">
+        <v>554</v>
+      </c>
+      <c r="E607" t="s">
         <v>555</v>
-      </c>
-      <c r="E607" t="s">
-        <v>556</v>
       </c>
       <c r="G607">
         <v>0</v>
@@ -18781,10 +18778,10 @@
         <v>89</v>
       </c>
       <c r="D608" t="s">
+        <v>554</v>
+      </c>
+      <c r="E608" t="s">
         <v>555</v>
-      </c>
-      <c r="E608" t="s">
-        <v>556</v>
       </c>
       <c r="G608">
         <v>0</v>
@@ -18807,10 +18804,10 @@
         <v>89</v>
       </c>
       <c r="D609" t="s">
+        <v>554</v>
+      </c>
+      <c r="E609" t="s">
         <v>555</v>
-      </c>
-      <c r="E609" t="s">
-        <v>556</v>
       </c>
       <c r="G609">
         <v>0</v>
@@ -18833,10 +18830,10 @@
         <v>89</v>
       </c>
       <c r="D610" t="s">
+        <v>554</v>
+      </c>
+      <c r="E610" t="s">
         <v>555</v>
-      </c>
-      <c r="E610" t="s">
-        <v>556</v>
       </c>
       <c r="G610">
         <v>0</v>
@@ -18853,16 +18850,16 @@
         <v>635</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C611" t="s">
         <v>89</v>
       </c>
       <c r="D611" t="s">
+        <v>554</v>
+      </c>
+      <c r="E611" t="s">
         <v>555</v>
-      </c>
-      <c r="E611" t="s">
-        <v>556</v>
       </c>
       <c r="G611">
         <v>0</v>
@@ -18885,10 +18882,10 @@
         <v>89</v>
       </c>
       <c r="D612" t="s">
+        <v>554</v>
+      </c>
+      <c r="E612" t="s">
         <v>555</v>
-      </c>
-      <c r="E612" t="s">
-        <v>556</v>
       </c>
       <c r="G612">
         <v>0</v>
@@ -18911,10 +18908,10 @@
         <v>89</v>
       </c>
       <c r="D613" t="s">
+        <v>554</v>
+      </c>
+      <c r="E613" t="s">
         <v>555</v>
-      </c>
-      <c r="E613" t="s">
-        <v>556</v>
       </c>
       <c r="G613">
         <v>0</v>
@@ -18937,10 +18934,10 @@
         <v>89</v>
       </c>
       <c r="D614" t="s">
+        <v>554</v>
+      </c>
+      <c r="E614" t="s">
         <v>555</v>
-      </c>
-      <c r="E614" t="s">
-        <v>556</v>
       </c>
       <c r="G614">
         <v>0</v>
@@ -18963,10 +18960,10 @@
         <v>89</v>
       </c>
       <c r="D615" t="s">
+        <v>554</v>
+      </c>
+      <c r="E615" t="s">
         <v>555</v>
-      </c>
-      <c r="E615" t="s">
-        <v>556</v>
       </c>
       <c r="G615">
         <v>0</v>
@@ -18983,16 +18980,16 @@
         <v>640</v>
       </c>
       <c r="B616">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C616" t="s">
         <v>89</v>
       </c>
       <c r="D616" t="s">
+        <v>554</v>
+      </c>
+      <c r="E616" t="s">
         <v>555</v>
-      </c>
-      <c r="E616" t="s">
-        <v>556</v>
       </c>
       <c r="G616">
         <v>0</v>
@@ -19015,10 +19012,10 @@
         <v>89</v>
       </c>
       <c r="D617" t="s">
+        <v>554</v>
+      </c>
+      <c r="E617" t="s">
         <v>555</v>
-      </c>
-      <c r="E617" t="s">
-        <v>556</v>
       </c>
       <c r="G617">
         <v>0</v>
@@ -19041,10 +19038,10 @@
         <v>89</v>
       </c>
       <c r="D618" t="s">
+        <v>554</v>
+      </c>
+      <c r="E618" t="s">
         <v>555</v>
-      </c>
-      <c r="E618" t="s">
-        <v>556</v>
       </c>
       <c r="G618">
         <v>0</v>
@@ -19067,10 +19064,10 @@
         <v>89</v>
       </c>
       <c r="D619" t="s">
+        <v>554</v>
+      </c>
+      <c r="E619" t="s">
         <v>555</v>
-      </c>
-      <c r="E619" t="s">
-        <v>556</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -19093,11 +19090,11 @@
         <v>89</v>
       </c>
       <c r="D620" t="s">
+        <v>554</v>
+      </c>
+      <c r="E620" t="s">
         <v>555</v>
       </c>
-      <c r="E620" t="s">
-        <v>556</v>
-      </c>
       <c r="G620">
         <v>0</v>
       </c>
@@ -19105,32 +19102,6 @@
         <v>0</v>
       </c>
       <c r="I620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
-        <v>645</v>
-      </c>
-      <c r="B621">
-        <v>3</v>
-      </c>
-      <c r="C621" t="s">
-        <v>89</v>
-      </c>
-      <c r="D621" t="s">
-        <v>555</v>
-      </c>
-      <c r="E621" t="s">
-        <v>556</v>
-      </c>
-      <c r="G621">
-        <v>0</v>
-      </c>
-      <c r="H621">
-        <v>0</v>
-      </c>
-      <c r="I621">
         <v>0</v>
       </c>
     </row>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA02D4C-221A-4E4D-984F-831C0BAE0FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AB754C-A730-0C43-9809-18B443F3ECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="653">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1986,6 +1986,15 @@
   </si>
   <si>
     <t>doy62: probably the replicate missing its tag. Pheno stage 1 on doy62</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>dead</t>
   </si>
 </sst>
 </file>
@@ -2483,9 +2492,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2531,7 +2542,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2634,18 +2653,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:I620" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:J620" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="betula"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2968,11 +2999,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I620"/>
+  <dimension ref="A1:J620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScale="226" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D508" sqref="D508"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2981,7 +3012,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3009,8 +3040,11 @@
       <c r="I1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3035,8 +3069,9 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3061,8 +3096,9 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3087,8 +3123,9 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3113,8 +3150,9 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3139,8 +3177,9 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3165,8 +3204,9 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3191,8 +3231,9 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3217,8 +3258,9 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3243,8 +3285,9 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3269,8 +3312,9 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3295,8 +3339,9 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3321,8 +3366,9 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3347,8 +3393,9 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3373,8 +3420,9 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3399,8 +3447,9 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3425,8 +3474,9 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3451,8 +3501,9 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3477,8 +3528,9 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3503,8 +3555,9 @@
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3529,8 +3582,9 @@
       <c r="I21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3555,8 +3609,9 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3581,8 +3636,9 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3607,8 +3663,9 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3633,8 +3690,9 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3659,8 +3717,9 @@
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3685,8 +3744,9 @@
       <c r="I27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3711,8 +3771,9 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3737,8 +3798,9 @@
       <c r="I29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3763,8 +3825,9 @@
       <c r="I30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3789,8 +3852,9 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3815,8 +3879,9 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3906,9 @@
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3867,8 +3933,9 @@
       <c r="I34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3893,8 +3960,9 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3919,8 +3987,9 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -3945,8 +4014,9 @@
       <c r="I37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -3971,8 +4041,9 @@
       <c r="I38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -3997,8 +4068,9 @@
       <c r="I39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4023,8 +4095,9 @@
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4049,8 +4122,9 @@
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4149,9 @@
       <c r="I42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4101,8 +4176,9 @@
       <c r="I43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4127,8 +4203,9 @@
       <c r="I44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4153,8 +4230,9 @@
       <c r="I45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4179,8 +4257,9 @@
       <c r="I46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4205,8 +4284,9 @@
       <c r="I47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4231,8 +4311,9 @@
       <c r="I48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4257,8 +4338,9 @@
       <c r="I49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4283,8 +4365,9 @@
       <c r="I50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4309,8 +4392,9 @@
       <c r="I51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4335,8 +4419,9 @@
       <c r="I52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4361,8 +4446,9 @@
       <c r="I53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4387,8 +4473,9 @@
       <c r="I54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4413,8 +4500,9 @@
       <c r="I55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4439,8 +4527,9 @@
       <c r="I56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4465,8 +4554,9 @@
       <c r="I57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4491,8 +4581,9 @@
       <c r="I58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4517,8 +4608,9 @@
       <c r="I59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4543,8 +4635,9 @@
       <c r="I60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4569,8 +4662,9 @@
       <c r="I61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4595,8 +4689,9 @@
       <c r="I62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4621,8 +4716,9 @@
       <c r="I63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4743,9 @@
       <c r="I64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4673,8 +4770,9 @@
       <c r="I65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4699,8 +4797,9 @@
       <c r="I66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4725,8 +4824,9 @@
       <c r="I67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4751,8 +4851,9 @@
       <c r="I68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4777,8 +4878,9 @@
       <c r="I69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4803,8 +4905,9 @@
       <c r="I70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4829,8 +4932,9 @@
       <c r="I71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4855,8 +4959,9 @@
       <c r="I72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4881,8 +4986,9 @@
       <c r="I73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4907,8 +5013,9 @@
       <c r="I74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4933,8 +5040,9 @@
       <c r="I75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4959,8 +5067,9 @@
       <c r="I76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4985,8 +5094,9 @@
       <c r="I77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5011,8 +5121,9 @@
       <c r="I78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5037,8 +5148,9 @@
       <c r="I79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5063,8 +5175,9 @@
       <c r="I80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5089,8 +5202,9 @@
       <c r="I81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5115,8 +5229,9 @@
       <c r="I82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5141,8 +5256,9 @@
       <c r="I83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5167,8 +5283,9 @@
       <c r="I84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5193,8 +5310,9 @@
       <c r="I85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5219,8 +5337,9 @@
       <c r="I86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5245,8 +5364,9 @@
       <c r="I87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5271,8 +5391,9 @@
       <c r="I88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5297,8 +5418,9 @@
       <c r="I89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5323,8 +5445,9 @@
       <c r="I90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5349,8 +5472,9 @@
       <c r="I91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5375,8 +5499,11 @@
       <c r="I92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -5401,8 +5528,11 @@
       <c r="I93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5427,8 +5557,11 @@
       <c r="I94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -5453,8 +5586,11 @@
       <c r="I95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -5479,8 +5615,11 @@
       <c r="I96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -5505,8 +5644,11 @@
       <c r="I97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5531,8 +5673,11 @@
       <c r="I98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5557,8 +5702,11 @@
       <c r="I99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -5583,8 +5731,11 @@
       <c r="I100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -5609,8 +5760,11 @@
       <c r="I101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -5635,8 +5789,11 @@
       <c r="I102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -5661,8 +5818,11 @@
       <c r="I103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5687,8 +5847,11 @@
       <c r="I104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5713,8 +5876,11 @@
       <c r="I105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -5739,8 +5905,11 @@
       <c r="I106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -5765,8 +5934,11 @@
       <c r="I107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5791,8 +5963,11 @@
       <c r="I108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5817,8 +5992,11 @@
       <c r="I109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -5843,8 +6021,11 @@
       <c r="I110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -5869,8 +6050,11 @@
       <c r="I111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -5895,8 +6079,11 @@
       <c r="I112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -5921,8 +6108,11 @@
       <c r="I113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -5947,8 +6137,11 @@
       <c r="I114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -5973,8 +6166,11 @@
       <c r="I115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -5999,8 +6195,11 @@
       <c r="I116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6025,8 +6224,11 @@
       <c r="I117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6051,8 +6253,11 @@
       <c r="I118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6077,8 +6282,11 @@
       <c r="I119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6103,8 +6311,11 @@
       <c r="I120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6129,8 +6340,11 @@
       <c r="I121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6155,8 +6369,11 @@
       <c r="I122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -6181,8 +6398,11 @@
       <c r="I123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -6207,8 +6427,11 @@
       <c r="I124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -6233,8 +6456,11 @@
       <c r="I125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -6259,8 +6485,11 @@
       <c r="I126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -6285,8 +6514,11 @@
       <c r="I127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -6311,8 +6543,11 @@
       <c r="I128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -6337,8 +6572,11 @@
       <c r="I129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -6363,8 +6601,11 @@
       <c r="I130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -6389,8 +6630,11 @@
       <c r="I131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -6415,8 +6659,11 @@
       <c r="I132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6441,8 +6688,11 @@
       <c r="I133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -6467,8 +6717,11 @@
       <c r="I134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -6493,8 +6746,11 @@
       <c r="I135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6519,8 +6775,11 @@
       <c r="I136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -6545,8 +6804,11 @@
       <c r="I137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -6571,8 +6833,11 @@
       <c r="I138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -6597,8 +6862,11 @@
       <c r="I139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6623,8 +6891,11 @@
       <c r="I140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6649,8 +6920,11 @@
       <c r="I141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6675,8 +6949,11 @@
       <c r="I142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6701,8 +6978,11 @@
       <c r="I143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -6727,8 +7007,11 @@
       <c r="I144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -6753,8 +7036,11 @@
       <c r="I145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -6779,8 +7065,11 @@
       <c r="I146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -6805,8 +7094,11 @@
       <c r="I147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -6831,8 +7123,11 @@
       <c r="I148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -6857,8 +7152,11 @@
       <c r="I149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -6883,8 +7181,11 @@
       <c r="I150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -6909,8 +7210,11 @@
       <c r="I151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -6935,8 +7239,11 @@
       <c r="I152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -6961,8 +7268,11 @@
       <c r="I153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -6987,8 +7297,11 @@
       <c r="I154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -7013,8 +7326,11 @@
       <c r="I155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -7039,8 +7355,11 @@
       <c r="I156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -7065,8 +7384,11 @@
       <c r="I157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -7091,8 +7413,11 @@
       <c r="I158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -7117,8 +7442,11 @@
       <c r="I159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -7143,8 +7471,11 @@
       <c r="I160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -7169,8 +7500,11 @@
       <c r="I161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -7195,8 +7529,11 @@
       <c r="I162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -7221,8 +7558,11 @@
       <c r="I163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -7247,8 +7587,11 @@
       <c r="I164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -7273,8 +7616,11 @@
       <c r="I165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -7299,8 +7645,11 @@
       <c r="I166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -7325,8 +7674,11 @@
       <c r="I167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -7351,8 +7703,11 @@
       <c r="I168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -7377,8 +7732,11 @@
       <c r="I169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -7403,8 +7761,11 @@
       <c r="I170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -7429,8 +7790,11 @@
       <c r="I171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -7455,8 +7819,11 @@
       <c r="I172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -7481,8 +7848,11 @@
       <c r="I173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -7507,8 +7877,11 @@
       <c r="I174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -7533,8 +7906,11 @@
       <c r="I175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -7559,8 +7935,11 @@
       <c r="I176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -7585,8 +7964,11 @@
       <c r="I177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -7611,8 +7993,11 @@
       <c r="I178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -7637,8 +8022,11 @@
       <c r="I179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -7663,8 +8051,11 @@
       <c r="I180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -7689,8 +8080,11 @@
       <c r="I181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -7715,8 +8109,9 @@
       <c r="I182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -7741,8 +8136,9 @@
       <c r="I183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -7767,8 +8163,9 @@
       <c r="I184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -7793,8 +8190,9 @@
       <c r="I185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -7819,8 +8217,9 @@
       <c r="I186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -7845,8 +8244,9 @@
       <c r="I187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -7871,8 +8271,9 @@
       <c r="I188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -7897,8 +8298,9 @@
       <c r="I189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -7923,8 +8325,9 @@
       <c r="I190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -7949,8 +8352,9 @@
       <c r="I191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -7975,8 +8379,9 @@
       <c r="I192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -8001,8 +8406,9 @@
       <c r="I193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -8027,8 +8433,9 @@
       <c r="I194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -8053,8 +8460,9 @@
       <c r="I195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -8079,8 +8487,9 @@
       <c r="I196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -8105,8 +8514,9 @@
       <c r="I197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -8131,8 +8541,9 @@
       <c r="I198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -8157,8 +8568,9 @@
       <c r="I199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -8183,8 +8595,9 @@
       <c r="I200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -8209,8 +8622,9 @@
       <c r="I201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -8235,8 +8649,9 @@
       <c r="I202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -8261,8 +8676,9 @@
       <c r="I203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -8287,8 +8703,9 @@
       <c r="I204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -8313,8 +8730,9 @@
       <c r="I205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -8339,8 +8757,9 @@
       <c r="I206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="2"/>
+    </row>
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -8365,8 +8784,9 @@
       <c r="I207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="2"/>
+    </row>
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -8391,8 +8811,9 @@
       <c r="I208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -8417,8 +8838,9 @@
       <c r="I209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -8443,8 +8865,9 @@
       <c r="I210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="2"/>
+    </row>
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -8469,8 +8892,9 @@
       <c r="I211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="2"/>
+    </row>
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -8495,8 +8919,9 @@
       <c r="I212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="2"/>
+    </row>
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -8521,8 +8946,9 @@
       <c r="I213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="2"/>
+    </row>
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -8547,8 +8973,9 @@
       <c r="I214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="2"/>
+    </row>
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -8573,8 +9000,9 @@
       <c r="I215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="2"/>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -8599,8 +9027,9 @@
       <c r="I216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="2"/>
+    </row>
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -8625,8 +9054,9 @@
       <c r="I217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="2"/>
+    </row>
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -8651,8 +9081,9 @@
       <c r="I218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="2"/>
+    </row>
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -8677,8 +9108,9 @@
       <c r="I219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="2"/>
+    </row>
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -8703,8 +9135,9 @@
       <c r="I220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="2"/>
+    </row>
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -8729,8 +9162,9 @@
       <c r="I221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="2"/>
+    </row>
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -8755,8 +9189,9 @@
       <c r="I222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -8781,8 +9216,9 @@
       <c r="I223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="2"/>
+    </row>
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -8807,8 +9243,9 @@
       <c r="I224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="2"/>
+    </row>
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -8833,8 +9270,9 @@
       <c r="I225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="2"/>
+    </row>
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -8859,8 +9297,9 @@
       <c r="I226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="2"/>
+    </row>
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -8885,8 +9324,9 @@
       <c r="I227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="2"/>
+    </row>
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -8911,8 +9351,9 @@
       <c r="I228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="2"/>
+    </row>
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -8937,8 +9378,9 @@
       <c r="I229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="2"/>
+    </row>
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -8963,8 +9405,9 @@
       <c r="I230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="2"/>
+    </row>
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -8989,8 +9432,9 @@
       <c r="I231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -9015,8 +9459,9 @@
       <c r="I232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="2"/>
+    </row>
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -9041,8 +9486,9 @@
       <c r="I233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="2"/>
+    </row>
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -9067,8 +9513,9 @@
       <c r="I234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="2"/>
+    </row>
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -9093,8 +9540,9 @@
       <c r="I235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="2"/>
+    </row>
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -9119,8 +9567,9 @@
       <c r="I236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="2"/>
+    </row>
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -9145,8 +9594,9 @@
       <c r="I237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="2"/>
+    </row>
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -9171,8 +9621,9 @@
       <c r="I238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="2"/>
+    </row>
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -9197,8 +9648,9 @@
       <c r="I239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="2"/>
+    </row>
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -9223,8 +9675,9 @@
       <c r="I240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -9249,8 +9702,9 @@
       <c r="I241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="2"/>
+    </row>
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -9275,8 +9729,9 @@
       <c r="I242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="2"/>
+    </row>
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -9301,8 +9756,9 @@
       <c r="I243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="2"/>
+    </row>
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -9327,8 +9783,9 @@
       <c r="I244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="2"/>
+    </row>
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -9353,8 +9810,9 @@
       <c r="I245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="2"/>
+    </row>
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -9379,8 +9837,9 @@
       <c r="I246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="2"/>
+    </row>
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -9405,8 +9864,9 @@
       <c r="I247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="2"/>
+    </row>
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -9431,8 +9891,9 @@
       <c r="I248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="2"/>
+    </row>
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -9457,8 +9918,9 @@
       <c r="I249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="2"/>
+    </row>
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -9483,8 +9945,9 @@
       <c r="I250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="2"/>
+    </row>
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -9509,8 +9972,9 @@
       <c r="I251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="2"/>
+    </row>
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -9535,8 +9999,9 @@
       <c r="I252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="2"/>
+    </row>
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -9561,8 +10026,9 @@
       <c r="I253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253" s="2"/>
+    </row>
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -9587,8 +10053,9 @@
       <c r="I254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="2"/>
+    </row>
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -9613,8 +10080,9 @@
       <c r="I255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="2"/>
+    </row>
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -9639,8 +10107,9 @@
       <c r="I256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -9665,8 +10134,9 @@
       <c r="I257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -9691,8 +10161,9 @@
       <c r="I258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="2"/>
+    </row>
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -9717,8 +10188,9 @@
       <c r="I259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="2"/>
+    </row>
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -9743,8 +10215,9 @@
       <c r="I260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="2"/>
+    </row>
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -9769,8 +10242,9 @@
       <c r="I261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="2"/>
+    </row>
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -9795,8 +10269,9 @@
       <c r="I262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="2"/>
+    </row>
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -9821,8 +10296,9 @@
       <c r="I263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="2"/>
+    </row>
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -9847,8 +10323,9 @@
       <c r="I264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264" s="2"/>
+    </row>
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -9873,8 +10350,9 @@
       <c r="I265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265" s="2"/>
+    </row>
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -9899,8 +10377,9 @@
       <c r="I266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266" s="2"/>
+    </row>
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -9925,8 +10404,9 @@
       <c r="I267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="2"/>
+    </row>
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -9951,8 +10431,9 @@
       <c r="I268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="2"/>
+    </row>
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -9977,8 +10458,9 @@
       <c r="I269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269" s="2"/>
+    </row>
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -10003,8 +10485,9 @@
       <c r="I270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270" s="2"/>
+    </row>
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -10029,8 +10512,9 @@
       <c r="I271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271" s="2"/>
+    </row>
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -10055,8 +10539,9 @@
       <c r="I272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="2"/>
+    </row>
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -10081,8 +10566,9 @@
       <c r="I273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -10107,8 +10593,9 @@
       <c r="I274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -10133,8 +10620,9 @@
       <c r="I275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -10159,8 +10647,9 @@
       <c r="I276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -10185,8 +10674,9 @@
       <c r="I277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="2"/>
+    </row>
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -10211,8 +10701,9 @@
       <c r="I278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="2"/>
+    </row>
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -10237,8 +10728,9 @@
       <c r="I279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="2"/>
+    </row>
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -10263,8 +10755,9 @@
       <c r="I280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="2"/>
+    </row>
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -10289,8 +10782,9 @@
       <c r="I281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="2"/>
+    </row>
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -10315,8 +10809,9 @@
       <c r="I282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J282" s="2"/>
+    </row>
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -10341,8 +10836,9 @@
       <c r="I283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J283" s="2"/>
+    </row>
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -10367,8 +10863,9 @@
       <c r="I284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J284" s="2"/>
+    </row>
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -10393,8 +10890,9 @@
       <c r="I285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J285" s="2"/>
+    </row>
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -10419,8 +10917,9 @@
       <c r="I286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J286" s="2"/>
+    </row>
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -10445,8 +10944,9 @@
       <c r="I287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J287" s="2"/>
+    </row>
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -10471,8 +10971,9 @@
       <c r="I288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J288" s="2"/>
+    </row>
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -10497,8 +10998,9 @@
       <c r="I289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" s="2"/>
+    </row>
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -10523,8 +11025,9 @@
       <c r="I290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" s="2"/>
+    </row>
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -10549,8 +11052,9 @@
       <c r="I291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J291" s="2"/>
+    </row>
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -10575,8 +11079,9 @@
       <c r="I292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J292" s="2"/>
+    </row>
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -10601,8 +11106,9 @@
       <c r="I293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J293" s="2"/>
+    </row>
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -10627,8 +11133,9 @@
       <c r="I294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J294" s="2"/>
+    </row>
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -10653,8 +11160,9 @@
       <c r="I295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J295" s="2"/>
+    </row>
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -10679,8 +11187,9 @@
       <c r="I296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J296" s="2"/>
+    </row>
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -10705,8 +11214,9 @@
       <c r="I297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J297" s="2"/>
+    </row>
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -10731,8 +11241,9 @@
       <c r="I298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J298" s="2"/>
+    </row>
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -10757,8 +11268,9 @@
       <c r="I299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J299" s="2"/>
+    </row>
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -10783,8 +11295,9 @@
       <c r="I300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J300" s="2"/>
+    </row>
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -10809,8 +11322,9 @@
       <c r="I301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J301" s="2"/>
+    </row>
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -10835,8 +11349,9 @@
       <c r="I302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J302" s="2"/>
+    </row>
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -10861,8 +11376,9 @@
       <c r="I303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J303" s="2"/>
+    </row>
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -10887,8 +11403,9 @@
       <c r="I304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J304" s="2"/>
+    </row>
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -10913,8 +11430,9 @@
       <c r="I305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J305" s="2"/>
+    </row>
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -10939,8 +11457,9 @@
       <c r="I306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J306" s="2"/>
+    </row>
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -10965,8 +11484,9 @@
       <c r="I307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J307" s="2"/>
+    </row>
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -10991,8 +11511,9 @@
       <c r="I308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J308" s="2"/>
+    </row>
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -11017,8 +11538,9 @@
       <c r="I309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J309" s="2"/>
+    </row>
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -11043,8 +11565,9 @@
       <c r="I310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J310" s="2"/>
+    </row>
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -11069,8 +11592,9 @@
       <c r="I311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J311" s="2"/>
+    </row>
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -11095,8 +11619,9 @@
       <c r="I312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J312" s="2"/>
+    </row>
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -11121,8 +11646,9 @@
       <c r="I313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J313" s="2"/>
+    </row>
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -11147,8 +11673,9 @@
       <c r="I314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J314" s="2"/>
+    </row>
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -11173,8 +11700,9 @@
       <c r="I315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J315" s="2"/>
+    </row>
+    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -11199,8 +11727,9 @@
       <c r="I316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J316" s="2"/>
+    </row>
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -11225,8 +11754,9 @@
       <c r="I317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J317" s="2"/>
+    </row>
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -11251,8 +11781,9 @@
       <c r="I318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J318" s="2"/>
+    </row>
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -11277,8 +11808,9 @@
       <c r="I319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J319" s="2"/>
+    </row>
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -11303,8 +11835,9 @@
       <c r="I320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J320" s="2"/>
+    </row>
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -11329,8 +11862,9 @@
       <c r="I321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J321" s="2"/>
+    </row>
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -11355,8 +11889,9 @@
       <c r="I322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J322" s="2"/>
+    </row>
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -11381,8 +11916,9 @@
       <c r="I323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J323" s="2"/>
+    </row>
+    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -11407,8 +11943,9 @@
       <c r="I324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J324" s="2"/>
+    </row>
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -11433,8 +11970,9 @@
       <c r="I325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J325" s="2"/>
+    </row>
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -11459,8 +11997,9 @@
       <c r="I326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J326" s="2"/>
+    </row>
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -11485,8 +12024,9 @@
       <c r="I327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J327" s="2"/>
+    </row>
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -11511,8 +12051,9 @@
       <c r="I328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J328" s="2"/>
+    </row>
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -11537,8 +12078,9 @@
       <c r="I329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J329" s="2"/>
+    </row>
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -11563,8 +12105,9 @@
       <c r="I330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J330" s="2"/>
+    </row>
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -11589,8 +12132,9 @@
       <c r="I331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J331" s="2"/>
+    </row>
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -11615,8 +12159,9 @@
       <c r="I332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J332" s="2"/>
+    </row>
+    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -11641,8 +12186,9 @@
       <c r="I333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J333" s="2"/>
+    </row>
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -11667,8 +12213,9 @@
       <c r="I334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J334" s="2"/>
+    </row>
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -11693,8 +12240,9 @@
       <c r="I335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J335" s="2"/>
+    </row>
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -11719,8 +12267,9 @@
       <c r="I336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J336" s="2"/>
+    </row>
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -11745,8 +12294,9 @@
       <c r="I337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J337" s="2"/>
+    </row>
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -11771,8 +12321,9 @@
       <c r="I338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J338" s="2"/>
+    </row>
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -11797,8 +12348,9 @@
       <c r="I339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J339" s="2"/>
+    </row>
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -11823,8 +12375,9 @@
       <c r="I340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J340" s="2"/>
+    </row>
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -11849,8 +12402,9 @@
       <c r="I341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J341" s="2"/>
+    </row>
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -11875,8 +12429,9 @@
       <c r="I342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J342" s="2"/>
+    </row>
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -11901,8 +12456,9 @@
       <c r="I343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J343" s="2"/>
+    </row>
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -11927,8 +12483,9 @@
       <c r="I344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J344" s="2"/>
+    </row>
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -11953,8 +12510,9 @@
       <c r="I345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J345" s="2"/>
+    </row>
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -11979,8 +12537,9 @@
       <c r="I346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J346" s="2"/>
+    </row>
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -12005,8 +12564,9 @@
       <c r="I347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J347" s="2"/>
+    </row>
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -12031,8 +12591,9 @@
       <c r="I348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J348" s="2"/>
+    </row>
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -12057,8 +12618,9 @@
       <c r="I349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J349" s="2"/>
+    </row>
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -12083,8 +12645,9 @@
       <c r="I350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J350" s="2"/>
+    </row>
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -12109,8 +12672,9 @@
       <c r="I351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J351" s="2"/>
+    </row>
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -12135,8 +12699,9 @@
       <c r="I352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J352" s="2"/>
+    </row>
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -12161,8 +12726,9 @@
       <c r="I353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J353" s="2"/>
+    </row>
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -12187,8 +12753,9 @@
       <c r="I354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J354" s="2"/>
+    </row>
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -12213,8 +12780,9 @@
       <c r="I355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J355" s="2"/>
+    </row>
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -12239,8 +12807,9 @@
       <c r="I356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J356" s="2"/>
+    </row>
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -12265,8 +12834,9 @@
       <c r="I357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J357" s="2"/>
+    </row>
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -12291,8 +12861,9 @@
       <c r="I358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J358" s="2"/>
+    </row>
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -12317,8 +12888,9 @@
       <c r="I359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J359" s="2"/>
+    </row>
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -12343,8 +12915,9 @@
       <c r="I360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J360" s="2"/>
+    </row>
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -12369,8 +12942,9 @@
       <c r="I361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J361" s="2"/>
+    </row>
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -12395,8 +12969,11 @@
       <c r="I362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J362" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -12421,8 +12998,11 @@
       <c r="I363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J363" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -12447,8 +13027,11 @@
       <c r="I364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J364" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -12473,8 +13056,11 @@
       <c r="I365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J365" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -12499,8 +13085,11 @@
       <c r="I366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J366" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -12525,8 +13114,11 @@
       <c r="I367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J367" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -12551,8 +13143,11 @@
       <c r="I368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J368" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -12577,8 +13172,11 @@
       <c r="I369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J369" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -12603,8 +13201,11 @@
       <c r="I370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J370" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -12629,8 +13230,11 @@
       <c r="I371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J371" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -12655,8 +13259,11 @@
       <c r="I372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J372" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -12681,8 +13288,11 @@
       <c r="I373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J373" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -12707,8 +13317,11 @@
       <c r="I374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J374" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -12733,8 +13346,11 @@
       <c r="I375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J375" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -12759,8 +13375,11 @@
       <c r="I376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J376" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -12785,8 +13404,11 @@
       <c r="I377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J377" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -12811,8 +13433,11 @@
       <c r="I378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J378" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -12837,8 +13462,11 @@
       <c r="I379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J379" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -12854,17 +13482,23 @@
       <c r="E380" t="s">
         <v>382</v>
       </c>
+      <c r="F380" t="s">
+        <v>652</v>
+      </c>
       <c r="G380">
         <v>0</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J380" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -12889,8 +13523,11 @@
       <c r="I381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J381" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -12915,8 +13552,11 @@
       <c r="I382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J382" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -12941,8 +13581,11 @@
       <c r="I383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J383" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -12967,8 +13610,11 @@
       <c r="I384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J384" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -12993,8 +13639,11 @@
       <c r="I385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J385" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -13019,8 +13668,11 @@
       <c r="I386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J386" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -13045,8 +13697,11 @@
       <c r="I387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J387" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -13071,8 +13726,11 @@
       <c r="I388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J388" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -13097,8 +13755,11 @@
       <c r="I389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J389" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -13123,8 +13784,11 @@
       <c r="I390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J390" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -13149,8 +13813,11 @@
       <c r="I391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J391" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -13175,8 +13842,11 @@
       <c r="I392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J392" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -13201,8 +13871,11 @@
       <c r="I393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J393" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -13227,8 +13900,11 @@
       <c r="I394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J394" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -13253,8 +13929,11 @@
       <c r="I395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J395" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -13279,8 +13958,11 @@
       <c r="I396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J396" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -13305,8 +13987,11 @@
       <c r="I397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J397" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -13331,8 +14016,11 @@
       <c r="I398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J398" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -13358,10 +14046,13 @@
         <v>1</v>
       </c>
       <c r="I399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J399" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -13386,8 +14077,11 @@
       <c r="I400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J400" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -13412,8 +14106,11 @@
       <c r="I401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J401" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -13430,7 +14127,7 @@
         <v>382</v>
       </c>
       <c r="G402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -13438,8 +14135,11 @@
       <c r="I402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J402" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>423</v>
       </c>
@@ -13459,8 +14159,11 @@
         <v>649</v>
       </c>
       <c r="I403"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J403" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -13485,8 +14188,11 @@
       <c r="I404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J404" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -13511,8 +14217,11 @@
       <c r="I405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J405" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -13537,8 +14246,11 @@
       <c r="I406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J406" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -13563,8 +14275,11 @@
       <c r="I407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J407" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -13589,8 +14304,11 @@
       <c r="I408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J408" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -13615,8 +14333,11 @@
       <c r="I409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J409" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -13641,8 +14362,11 @@
       <c r="I410">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J410" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -13667,8 +14391,11 @@
       <c r="I411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J411" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -13693,8 +14420,11 @@
       <c r="I412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J412" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -13719,8 +14449,11 @@
       <c r="I413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J413" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -13745,8 +14478,11 @@
       <c r="I414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J414" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -13771,8 +14507,11 @@
       <c r="I415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J415" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -13797,8 +14536,11 @@
       <c r="I416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J416" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -13823,8 +14565,11 @@
       <c r="I417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J417" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -13849,8 +14594,11 @@
       <c r="I418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J418" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -13875,8 +14623,11 @@
       <c r="I419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J419" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -13901,8 +14652,11 @@
       <c r="I420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -13927,8 +14681,11 @@
       <c r="I421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J421" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -13953,8 +14710,11 @@
       <c r="I422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J422" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -13979,8 +14739,11 @@
       <c r="I423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -14005,8 +14768,11 @@
       <c r="I424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J424" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -14031,8 +14797,11 @@
       <c r="I425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J425" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -14055,10 +14824,13 @@
         <v>1</v>
       </c>
       <c r="I426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="J426" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -14083,8 +14855,11 @@
       <c r="I427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J427" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -14109,8 +14884,11 @@
       <c r="I428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J428" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -14135,8 +14913,11 @@
       <c r="I429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J429" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -14161,8 +14942,11 @@
       <c r="I430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J430" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -14187,8 +14971,11 @@
       <c r="I431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J431" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -14213,8 +15000,11 @@
       <c r="I432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J432" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -14239,8 +15029,11 @@
       <c r="I433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J433" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -14268,8 +15061,11 @@
       <c r="I434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J434" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -14294,8 +15090,11 @@
       <c r="I435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J435" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -14320,8 +15119,11 @@
       <c r="I436">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J436" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -14346,8 +15148,11 @@
       <c r="I437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J437" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -14372,8 +15177,11 @@
       <c r="I438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J438" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -14398,8 +15206,11 @@
       <c r="I439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J439" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -14424,8 +15235,11 @@
       <c r="I440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J440" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -14450,8 +15264,11 @@
       <c r="I441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J441" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -14476,8 +15293,11 @@
       <c r="I442">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J442" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>463</v>
       </c>
@@ -14502,8 +15322,9 @@
       <c r="I443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J443" s="2"/>
+    </row>
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -14528,8 +15349,9 @@
       <c r="I444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J444" s="2"/>
+    </row>
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -14554,8 +15376,9 @@
       <c r="I445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J445" s="2"/>
+    </row>
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -14580,8 +15403,9 @@
       <c r="I446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J446" s="2"/>
+    </row>
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -14606,8 +15430,9 @@
       <c r="I447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J447" s="2"/>
+    </row>
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -14632,8 +15457,9 @@
       <c r="I448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J448" s="2"/>
+    </row>
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -14658,8 +15484,9 @@
       <c r="I449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J449" s="2"/>
+    </row>
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -14684,8 +15511,9 @@
       <c r="I450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J450" s="2"/>
+    </row>
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -14710,8 +15538,9 @@
       <c r="I451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J451" s="2"/>
+    </row>
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -14736,8 +15565,9 @@
       <c r="I452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J452" s="2"/>
+    </row>
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -14762,8 +15592,9 @@
       <c r="I453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J453" s="2"/>
+    </row>
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -14788,8 +15619,9 @@
       <c r="I454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J454" s="2"/>
+    </row>
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -14814,8 +15646,9 @@
       <c r="I455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J455" s="2"/>
+    </row>
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -14840,8 +15673,9 @@
       <c r="I456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J456" s="2"/>
+    </row>
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -14866,8 +15700,9 @@
       <c r="I457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J457" s="2"/>
+    </row>
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -14892,8 +15727,9 @@
       <c r="I458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J458" s="2"/>
+    </row>
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -14918,8 +15754,9 @@
       <c r="I459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J459" s="2"/>
+    </row>
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -14944,8 +15781,9 @@
       <c r="I460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J460" s="2"/>
+    </row>
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -14970,8 +15808,9 @@
       <c r="I461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J461" s="2"/>
+    </row>
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -14996,8 +15835,9 @@
       <c r="I462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J462" s="2"/>
+    </row>
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -15022,8 +15862,9 @@
       <c r="I463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J463" s="2"/>
+    </row>
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -15048,8 +15889,9 @@
       <c r="I464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J464" s="2"/>
+    </row>
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -15074,8 +15916,9 @@
       <c r="I465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J465" s="2"/>
+    </row>
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -15100,8 +15943,9 @@
       <c r="I466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J466" s="2"/>
+    </row>
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -15126,8 +15970,9 @@
       <c r="I467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J467" s="2"/>
+    </row>
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -15152,8 +15997,9 @@
       <c r="I468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J468" s="2"/>
+    </row>
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -15178,8 +16024,9 @@
       <c r="I469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J469" s="2"/>
+    </row>
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -15204,8 +16051,9 @@
       <c r="I470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J470" s="2"/>
+    </row>
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -15230,8 +16078,9 @@
       <c r="I471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J471" s="2"/>
+    </row>
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -15256,8 +16105,9 @@
       <c r="I472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J472" s="2"/>
+    </row>
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -15282,8 +16132,9 @@
       <c r="I473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J473" s="2"/>
+    </row>
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -15308,8 +16159,9 @@
       <c r="I474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J474" s="2"/>
+    </row>
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -15334,8 +16186,9 @@
       <c r="I475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J475" s="2"/>
+    </row>
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -15360,8 +16213,9 @@
       <c r="I476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J476" s="2"/>
+    </row>
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -15386,8 +16240,9 @@
       <c r="I477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J477" s="2"/>
+    </row>
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -15412,8 +16267,9 @@
       <c r="I478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J478" s="2"/>
+    </row>
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -15438,8 +16294,9 @@
       <c r="I479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J479" s="2"/>
+    </row>
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -15464,8 +16321,9 @@
       <c r="I480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J480" s="2"/>
+    </row>
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -15490,8 +16348,9 @@
       <c r="I481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J481" s="2"/>
+    </row>
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -15516,8 +16375,9 @@
       <c r="I482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J482" s="2"/>
+    </row>
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -15542,8 +16402,9 @@
       <c r="I483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J483" s="2"/>
+    </row>
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -15568,8 +16429,9 @@
       <c r="I484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J484" s="2"/>
+    </row>
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -15594,8 +16456,9 @@
       <c r="I485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J485" s="2"/>
+    </row>
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -15620,8 +16483,9 @@
       <c r="I486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J486" s="2"/>
+    </row>
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -15646,8 +16510,9 @@
       <c r="I487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J487" s="2"/>
+    </row>
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -15672,8 +16537,9 @@
       <c r="I488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J488" s="2"/>
+    </row>
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -15698,8 +16564,9 @@
       <c r="I489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J489" s="2"/>
+    </row>
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -15724,8 +16591,9 @@
       <c r="I490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J490" s="2"/>
+    </row>
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -15750,8 +16618,9 @@
       <c r="I491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J491" s="2"/>
+    </row>
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -15776,8 +16645,9 @@
       <c r="I492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J492" s="2"/>
+    </row>
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -15802,8 +16672,9 @@
       <c r="I493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J493" s="2"/>
+    </row>
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -15828,8 +16699,9 @@
       <c r="I494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J494" s="2"/>
+    </row>
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -15854,8 +16726,9 @@
       <c r="I495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J495" s="2"/>
+    </row>
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -15880,8 +16753,9 @@
       <c r="I496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J496" s="2"/>
+    </row>
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -15906,8 +16780,9 @@
       <c r="I497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J497" s="2"/>
+    </row>
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -15932,8 +16807,9 @@
       <c r="I498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J498" s="2"/>
+    </row>
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -15958,8 +16834,9 @@
       <c r="I499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J499" s="2"/>
+    </row>
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -15984,8 +16861,9 @@
       <c r="I500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J500" s="2"/>
+    </row>
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -16010,8 +16888,9 @@
       <c r="I501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J501" s="2"/>
+    </row>
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -16036,8 +16915,9 @@
       <c r="I502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J502" s="2"/>
+    </row>
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -16062,8 +16942,9 @@
       <c r="I503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J503" s="2"/>
+    </row>
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -16088,8 +16969,9 @@
       <c r="I504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J504" s="2"/>
+    </row>
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -16114,8 +16996,9 @@
       <c r="I505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J505" s="2"/>
+    </row>
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -16140,8 +17023,9 @@
       <c r="I506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J506" s="2"/>
+    </row>
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -16166,8 +17050,9 @@
       <c r="I507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J507" s="2"/>
+    </row>
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -16192,8 +17077,9 @@
       <c r="I508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J508" s="2"/>
+    </row>
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -16218,8 +17104,9 @@
       <c r="I509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J509" s="2"/>
+    </row>
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -16244,8 +17131,9 @@
       <c r="I510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J510" s="2"/>
+    </row>
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -16270,8 +17158,9 @@
       <c r="I511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J511" s="2"/>
+    </row>
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -16296,8 +17185,9 @@
       <c r="I512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J512" s="2"/>
+    </row>
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -16322,8 +17212,9 @@
       <c r="I513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J513" s="2"/>
+    </row>
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -16348,8 +17239,9 @@
       <c r="I514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J514" s="2"/>
+    </row>
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -16374,8 +17266,9 @@
       <c r="I515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J515" s="2"/>
+    </row>
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -16400,8 +17293,9 @@
       <c r="I516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J516" s="2"/>
+    </row>
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -16426,8 +17320,9 @@
       <c r="I517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J517" s="2"/>
+    </row>
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -16452,8 +17347,9 @@
       <c r="I518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J518" s="2"/>
+    </row>
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -16478,8 +17374,9 @@
       <c r="I519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J519" s="2"/>
+    </row>
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -16504,8 +17401,9 @@
       <c r="I520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J520" s="2"/>
+    </row>
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -16530,8 +17428,9 @@
       <c r="I521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J521" s="2"/>
+    </row>
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -16556,8 +17455,9 @@
       <c r="I522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J522" s="2"/>
+    </row>
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -16582,8 +17482,9 @@
       <c r="I523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J523" s="2"/>
+    </row>
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -16608,8 +17509,9 @@
       <c r="I524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J524" s="2"/>
+    </row>
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -16634,8 +17536,9 @@
       <c r="I525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J525" s="2"/>
+    </row>
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -16660,8 +17563,9 @@
       <c r="I526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J526" s="2"/>
+    </row>
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -16686,8 +17590,9 @@
       <c r="I527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J527" s="2"/>
+    </row>
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -16712,8 +17617,9 @@
       <c r="I528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J528" s="2"/>
+    </row>
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -16738,8 +17644,9 @@
       <c r="I529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J529" s="2"/>
+    </row>
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -16764,8 +17671,9 @@
       <c r="I530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J530" s="2"/>
+    </row>
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -16790,8 +17698,9 @@
       <c r="I531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J531" s="2"/>
+    </row>
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -16816,8 +17725,9 @@
       <c r="I532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J532" s="2"/>
+    </row>
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -16842,8 +17752,9 @@
       <c r="I533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J533" s="2"/>
+    </row>
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -16868,8 +17779,9 @@
       <c r="I534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J534" s="2"/>
+    </row>
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -16894,8 +17806,9 @@
       <c r="I535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J535" s="2"/>
+    </row>
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -16920,8 +17833,9 @@
       <c r="I536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J536" s="2"/>
+    </row>
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -16946,8 +17860,9 @@
       <c r="I537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J537" s="2"/>
+    </row>
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -16972,8 +17887,9 @@
       <c r="I538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J538" s="2"/>
+    </row>
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -16998,8 +17914,9 @@
       <c r="I539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J539" s="2"/>
+    </row>
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -17024,8 +17941,9 @@
       <c r="I540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J540" s="2"/>
+    </row>
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -17050,8 +17968,9 @@
       <c r="I541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J541" s="2"/>
+    </row>
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -17076,8 +17995,9 @@
       <c r="I542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J542" s="2"/>
+    </row>
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -17102,8 +18022,9 @@
       <c r="I543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J543" s="2"/>
+    </row>
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -17128,8 +18049,9 @@
       <c r="I544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J544" s="2"/>
+    </row>
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -17154,8 +18076,9 @@
       <c r="I545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J545" s="2"/>
+    </row>
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -17180,8 +18103,9 @@
       <c r="I546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J546" s="2"/>
+    </row>
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -17206,8 +18130,9 @@
       <c r="I547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J547" s="2"/>
+    </row>
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -17232,8 +18157,9 @@
       <c r="I548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J548" s="2"/>
+    </row>
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -17258,8 +18184,9 @@
       <c r="I549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J549" s="2"/>
+    </row>
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -17284,8 +18211,9 @@
       <c r="I550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J550" s="2"/>
+    </row>
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -17310,8 +18238,9 @@
       <c r="I551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J551" s="2"/>
+    </row>
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -17336,8 +18265,9 @@
       <c r="I552">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J552" s="2"/>
+    </row>
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -17362,8 +18292,9 @@
       <c r="I553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J553" s="2"/>
+    </row>
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -17388,8 +18319,9 @@
       <c r="I554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J554" s="2"/>
+    </row>
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -17414,8 +18346,9 @@
       <c r="I555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J555" s="2"/>
+    </row>
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -17440,8 +18373,9 @@
       <c r="I556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J556" s="2"/>
+    </row>
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -17466,8 +18400,9 @@
       <c r="I557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J557" s="2"/>
+    </row>
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -17492,8 +18427,9 @@
       <c r="I558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J558" s="2"/>
+    </row>
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -17518,8 +18454,9 @@
       <c r="I559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J559" s="2"/>
+    </row>
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -17544,8 +18481,9 @@
       <c r="I560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J560" s="2"/>
+    </row>
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -17570,8 +18508,9 @@
       <c r="I561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J561" s="2"/>
+    </row>
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -17596,8 +18535,9 @@
       <c r="I562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J562" s="2"/>
+    </row>
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -17622,8 +18562,9 @@
       <c r="I563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J563" s="2"/>
+    </row>
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -17648,8 +18589,9 @@
       <c r="I564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J564" s="2"/>
+    </row>
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -17674,8 +18616,9 @@
       <c r="I565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J565" s="2"/>
+    </row>
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -17700,8 +18643,9 @@
       <c r="I566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J566" s="2"/>
+    </row>
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -17726,8 +18670,9 @@
       <c r="I567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J567" s="2"/>
+    </row>
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -17752,8 +18697,9 @@
       <c r="I568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J568" s="2"/>
+    </row>
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -17778,8 +18724,9 @@
       <c r="I569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J569" s="2"/>
+    </row>
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -17804,8 +18751,9 @@
       <c r="I570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J570" s="2"/>
+    </row>
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -17830,8 +18778,9 @@
       <c r="I571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J571" s="2"/>
+    </row>
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -17856,8 +18805,9 @@
       <c r="I572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J572" s="2"/>
+    </row>
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -17882,8 +18832,9 @@
       <c r="I573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J573" s="2"/>
+    </row>
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -17908,8 +18859,9 @@
       <c r="I574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J574" s="2"/>
+    </row>
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -17934,8 +18886,9 @@
       <c r="I575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J575" s="2"/>
+    </row>
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -17960,8 +18913,9 @@
       <c r="I576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J576" s="2"/>
+    </row>
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -17986,8 +18940,9 @@
       <c r="I577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J577" s="2"/>
+    </row>
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -18012,8 +18967,9 @@
       <c r="I578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J578" s="2"/>
+    </row>
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -18038,8 +18994,9 @@
       <c r="I579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J579" s="2"/>
+    </row>
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -18064,8 +19021,9 @@
       <c r="I580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J580" s="2"/>
+    </row>
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -18090,8 +19048,9 @@
       <c r="I581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J581" s="2"/>
+    </row>
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -18116,8 +19075,9 @@
       <c r="I582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J582" s="2"/>
+    </row>
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -18142,8 +19102,9 @@
       <c r="I583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J583" s="2"/>
+    </row>
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -18168,8 +19129,9 @@
       <c r="I584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J584" s="2"/>
+    </row>
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -18194,8 +19156,9 @@
       <c r="I585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J585" s="2"/>
+    </row>
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -18220,8 +19183,9 @@
       <c r="I586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J586" s="2"/>
+    </row>
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -18246,8 +19210,9 @@
       <c r="I587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J587" s="2"/>
+    </row>
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -18272,8 +19237,9 @@
       <c r="I588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J588" s="2"/>
+    </row>
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -18298,8 +19264,9 @@
       <c r="I589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J589" s="2"/>
+    </row>
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -18324,8 +19291,9 @@
       <c r="I590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J590" s="2"/>
+    </row>
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -18350,8 +19318,9 @@
       <c r="I591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J591" s="2"/>
+    </row>
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -18376,8 +19345,9 @@
       <c r="I592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J592" s="2"/>
+    </row>
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -18402,8 +19372,9 @@
       <c r="I593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J593" s="2"/>
+    </row>
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -18428,8 +19399,9 @@
       <c r="I594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J594" s="2"/>
+    </row>
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -18454,8 +19426,9 @@
       <c r="I595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J595" s="2"/>
+    </row>
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -18480,8 +19453,9 @@
       <c r="I596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J596" s="2"/>
+    </row>
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -18506,8 +19480,9 @@
       <c r="I597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J597" s="2"/>
+    </row>
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -18532,8 +19507,9 @@
       <c r="I598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J598" s="2"/>
+    </row>
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -18558,8 +19534,9 @@
       <c r="I599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J599" s="2"/>
+    </row>
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -18584,8 +19561,9 @@
       <c r="I600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J600" s="2"/>
+    </row>
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -18610,8 +19588,9 @@
       <c r="I601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J601" s="2"/>
+    </row>
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -18636,8 +19615,9 @@
       <c r="I602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J602" s="2"/>
+    </row>
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -18662,8 +19642,9 @@
       <c r="I603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J603" s="2"/>
+    </row>
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -18688,8 +19669,9 @@
       <c r="I604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J604" s="2"/>
+    </row>
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -18714,8 +19696,9 @@
       <c r="I605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J605" s="2"/>
+    </row>
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -18740,8 +19723,9 @@
       <c r="I606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J606" s="2"/>
+    </row>
+    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -18766,8 +19750,9 @@
       <c r="I607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J607" s="2"/>
+    </row>
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -18792,8 +19777,9 @@
       <c r="I608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J608" s="2"/>
+    </row>
+    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -18818,8 +19804,9 @@
       <c r="I609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J609" s="2"/>
+    </row>
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -18844,8 +19831,9 @@
       <c r="I610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J610" s="2"/>
+    </row>
+    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -18870,8 +19858,9 @@
       <c r="I611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J611" s="2"/>
+    </row>
+    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -18896,8 +19885,9 @@
       <c r="I612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J612" s="2"/>
+    </row>
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -18922,8 +19912,9 @@
       <c r="I613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J613" s="2"/>
+    </row>
+    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -18948,8 +19939,9 @@
       <c r="I614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J614" s="2"/>
+    </row>
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -18974,8 +19966,9 @@
       <c r="I615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J615" s="2"/>
+    </row>
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -19000,8 +19993,9 @@
       <c r="I616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J616" s="2"/>
+    </row>
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -19026,8 +20020,9 @@
       <c r="I617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J617" s="2"/>
+    </row>
+    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -19052,8 +20047,9 @@
       <c r="I618">
         <v>0</v>
       </c>
-    </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J618" s="2"/>
+    </row>
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -19078,8 +20074,9 @@
       <c r="I619">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J619" s="2"/>
+    </row>
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -19104,6 +20101,7 @@
       <c r="I620">
         <v>0</v>
       </c>
+      <c r="J620" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AB754C-A730-0C43-9809-18B443F3ECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1EE6F-B9B7-434D-87B6-2C257841D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="655">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1995,6 +1995,12 @@
   </si>
   <si>
     <t>dead</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>doy69: probably dead</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2542,7 +2548,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2653,8 +2667,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:J620" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:K620" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
     <filterColumn colId="1">
       <filters>
         <filter val="3"/>
@@ -2662,21 +2676,22 @@
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="betula"/>
+        <filter val="acer"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2999,11 +3014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J620"/>
+  <dimension ref="A1:K620"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J177" sqref="J177"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3012,7 +3027,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3040,11 +3055,14 @@
       <c r="I1" t="s">
         <v>648</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3069,9 +3087,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3096,9 +3116,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3123,9 +3145,11 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3150,9 +3174,11 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3177,9 +3203,11 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3204,9 +3232,11 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3231,9 +3261,11 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3258,9 +3290,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3285,9 +3319,11 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3312,9 +3348,11 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3339,9 +3377,11 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3366,9 +3406,11 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3393,9 +3435,11 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3420,9 +3464,11 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3447,9 +3493,11 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3474,9 +3522,11 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3501,9 +3551,11 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3528,9 +3580,11 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3555,9 +3609,11 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3582,9 +3638,11 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3609,9 +3667,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3636,9 +3696,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3663,9 +3725,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3690,9 +3754,11 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3717,9 +3783,11 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3744,9 +3812,11 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3771,9 +3841,11 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3798,9 +3870,11 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3825,9 +3899,11 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3852,9 +3928,11 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3879,9 +3957,11 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3906,9 +3986,11 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3933,9 +4015,11 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3960,9 +4044,11 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3987,9 +4073,11 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4014,9 +4102,11 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4041,9 +4131,11 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4068,9 +4160,11 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4095,9 +4189,11 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4122,9 +4218,11 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4149,9 +4247,11 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4176,9 +4276,11 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4203,9 +4305,11 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4230,9 +4334,11 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4257,9 +4363,11 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4284,9 +4392,11 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4311,9 +4421,11 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4338,9 +4450,11 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4365,9 +4479,11 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4392,9 +4508,11 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4419,9 +4537,11 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4446,9 +4566,11 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4473,9 +4595,11 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4500,9 +4624,11 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4527,9 +4653,11 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4554,9 +4682,11 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4581,9 +4711,11 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4608,9 +4740,11 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4635,9 +4769,11 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4662,9 +4798,11 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -4689,9 +4827,11 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -4716,9 +4856,11 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -4743,9 +4885,11 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4770,9 +4914,11 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4797,9 +4943,11 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4824,9 +4972,11 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4851,9 +5001,11 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4878,9 +5030,11 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4905,9 +5059,11 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4932,9 +5088,11 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4959,9 +5117,11 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4986,9 +5146,11 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5013,9 +5175,11 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -5040,9 +5204,11 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5067,9 +5233,11 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5094,9 +5262,11 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5121,9 +5291,11 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5148,9 +5320,11 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5175,9 +5349,11 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5202,9 +5378,11 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5229,9 +5407,11 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5256,9 +5436,11 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5283,9 +5465,11 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5310,9 +5494,11 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5337,9 +5523,11 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5364,9 +5552,11 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5391,9 +5581,11 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5418,9 +5610,11 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5445,9 +5639,11 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5472,9 +5668,11 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5499,11 +5697,14 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -5528,11 +5729,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -5557,11 +5761,14 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -5586,11 +5793,14 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -5615,11 +5825,14 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -5644,11 +5857,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -5673,11 +5889,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -5702,11 +5921,14 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -5731,11 +5953,14 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -5760,11 +5985,14 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -5789,11 +6017,12 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -5818,11 +6047,12 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -5847,11 +6077,12 @@
       <c r="I104">
         <v>0</v>
       </c>
-      <c r="J104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -5876,11 +6107,12 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -5905,11 +6137,12 @@
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -5934,11 +6167,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -5963,11 +6199,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -5992,11 +6231,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -6021,11 +6263,14 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -6050,11 +6295,14 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6079,11 +6327,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -6108,11 +6359,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6137,11 +6391,14 @@
       <c r="I114">
         <v>0</v>
       </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -6166,11 +6423,14 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6195,11 +6455,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6224,11 +6487,12 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6253,11 +6517,12 @@
       <c r="I118">
         <v>0</v>
       </c>
-      <c r="J118" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6282,11 +6547,12 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6311,11 +6577,12 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6340,11 +6607,12 @@
       <c r="I121">
         <v>0</v>
       </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6369,11 +6637,14 @@
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="J122" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -6398,11 +6669,14 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -6427,11 +6701,14 @@
       <c r="I124">
         <v>0</v>
       </c>
-      <c r="J124" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -6456,11 +6733,14 @@
       <c r="I125">
         <v>0</v>
       </c>
-      <c r="J125" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -6485,11 +6765,14 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="J126" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -6514,11 +6797,14 @@
       <c r="I127">
         <v>0</v>
       </c>
-      <c r="J127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -6543,11 +6829,14 @@
       <c r="I128">
         <v>0</v>
       </c>
-      <c r="J128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -6572,11 +6861,14 @@
       <c r="I129">
         <v>0</v>
       </c>
-      <c r="J129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -6601,11 +6893,14 @@
       <c r="I130">
         <v>0</v>
       </c>
-      <c r="J130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -6630,11 +6925,14 @@
       <c r="I131">
         <v>0</v>
       </c>
-      <c r="J131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -6659,11 +6957,12 @@
       <c r="I132">
         <v>0</v>
       </c>
-      <c r="J132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -6688,11 +6987,12 @@
       <c r="I133">
         <v>0</v>
       </c>
-      <c r="J133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -6717,11 +7017,12 @@
       <c r="I134">
         <v>0</v>
       </c>
-      <c r="J134" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -6746,11 +7047,12 @@
       <c r="I135">
         <v>0</v>
       </c>
-      <c r="J135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -6775,11 +7077,12 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -6804,11 +7107,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -6833,11 +7139,14 @@
       <c r="I138">
         <v>0</v>
       </c>
-      <c r="J138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -6862,11 +7171,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -6891,11 +7203,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -6920,11 +7235,14 @@
       <c r="I141">
         <v>0</v>
       </c>
-      <c r="J141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -6949,11 +7267,14 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="J142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -6978,11 +7299,14 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7007,11 +7331,14 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7036,11 +7363,14 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -7065,11 +7395,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -7094,11 +7427,12 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -7123,11 +7457,12 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7152,11 +7487,12 @@
       <c r="I149">
         <v>0</v>
       </c>
-      <c r="J149" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -7181,11 +7517,12 @@
       <c r="I150">
         <v>0</v>
       </c>
-      <c r="J150" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -7210,11 +7547,12 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -7239,11 +7577,14 @@
       <c r="I152">
         <v>0</v>
       </c>
-      <c r="J152" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -7268,11 +7609,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -7297,11 +7641,14 @@
       <c r="I154">
         <v>0</v>
       </c>
-      <c r="J154" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -7326,11 +7673,14 @@
       <c r="I155">
         <v>0</v>
       </c>
-      <c r="J155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -7355,11 +7705,14 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -7384,11 +7737,14 @@
       <c r="I157">
         <v>0</v>
       </c>
-      <c r="J157" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -7413,11 +7769,14 @@
       <c r="I158">
         <v>0</v>
       </c>
-      <c r="J158" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -7442,11 +7801,14 @@
       <c r="I159">
         <v>0</v>
       </c>
-      <c r="J159" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -7471,11 +7833,14 @@
       <c r="I160">
         <v>0</v>
       </c>
-      <c r="J160" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -7500,11 +7865,14 @@
       <c r="I161">
         <v>0</v>
       </c>
-      <c r="J161" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -7529,11 +7897,12 @@
       <c r="I162">
         <v>0</v>
       </c>
-      <c r="J162" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -7558,11 +7927,12 @@
       <c r="I163">
         <v>0</v>
       </c>
-      <c r="J163" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -7587,11 +7957,12 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="J164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -7616,11 +7987,12 @@
       <c r="I165">
         <v>0</v>
       </c>
-      <c r="J165" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -7645,11 +8017,12 @@
       <c r="I166">
         <v>0</v>
       </c>
-      <c r="J166" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -7674,11 +8047,14 @@
       <c r="I167">
         <v>0</v>
       </c>
-      <c r="J167" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -7703,11 +8079,14 @@
       <c r="I168">
         <v>0</v>
       </c>
-      <c r="J168" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -7732,11 +8111,14 @@
       <c r="I169">
         <v>0</v>
       </c>
-      <c r="J169" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -7761,11 +8143,14 @@
       <c r="I170">
         <v>0</v>
       </c>
-      <c r="J170" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -7790,11 +8175,14 @@
       <c r="I171">
         <v>0</v>
       </c>
-      <c r="J171" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -7819,11 +8207,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -7848,11 +8239,14 @@
       <c r="I173">
         <v>0</v>
       </c>
-      <c r="J173" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -7877,11 +8271,14 @@
       <c r="I174">
         <v>0</v>
       </c>
-      <c r="J174" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -7906,11 +8303,14 @@
       <c r="I175">
         <v>0</v>
       </c>
-      <c r="J175" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -7935,11 +8335,14 @@
       <c r="I176">
         <v>0</v>
       </c>
-      <c r="J176" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -7964,11 +8367,12 @@
       <c r="I177">
         <v>0</v>
       </c>
-      <c r="J177" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -7993,11 +8397,12 @@
       <c r="I178">
         <v>0</v>
       </c>
-      <c r="J178" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -8022,11 +8427,12 @@
       <c r="I179">
         <v>0</v>
       </c>
-      <c r="J179" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -8051,11 +8457,12 @@
       <c r="I180">
         <v>0</v>
       </c>
-      <c r="J180" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -8080,11 +8487,12 @@
       <c r="I181">
         <v>0</v>
       </c>
-      <c r="J181" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -8109,9 +8517,9 @@
       <c r="I182">
         <v>0</v>
       </c>
-      <c r="J182" s="2"/>
-    </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -8136,9 +8544,9 @@
       <c r="I183">
         <v>0</v>
       </c>
-      <c r="J183" s="2"/>
-    </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -8163,9 +8571,9 @@
       <c r="I184">
         <v>0</v>
       </c>
-      <c r="J184" s="2"/>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -8190,9 +8598,9 @@
       <c r="I185">
         <v>0</v>
       </c>
-      <c r="J185" s="2"/>
-    </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -8217,9 +8625,9 @@
       <c r="I186">
         <v>0</v>
       </c>
-      <c r="J186" s="2"/>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -8244,9 +8652,9 @@
       <c r="I187">
         <v>0</v>
       </c>
-      <c r="J187" s="2"/>
-    </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -8271,9 +8679,9 @@
       <c r="I188">
         <v>0</v>
       </c>
-      <c r="J188" s="2"/>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -8298,9 +8706,9 @@
       <c r="I189">
         <v>0</v>
       </c>
-      <c r="J189" s="2"/>
-    </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -8325,9 +8733,9 @@
       <c r="I190">
         <v>0</v>
       </c>
-      <c r="J190" s="2"/>
-    </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -8352,9 +8760,9 @@
       <c r="I191">
         <v>0</v>
       </c>
-      <c r="J191" s="2"/>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -8379,9 +8787,9 @@
       <c r="I192">
         <v>0</v>
       </c>
-      <c r="J192" s="2"/>
-    </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -8406,9 +8814,9 @@
       <c r="I193">
         <v>0</v>
       </c>
-      <c r="J193" s="2"/>
-    </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -8433,9 +8841,9 @@
       <c r="I194">
         <v>0</v>
       </c>
-      <c r="J194" s="2"/>
-    </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -8460,9 +8868,9 @@
       <c r="I195">
         <v>0</v>
       </c>
-      <c r="J195" s="2"/>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -8487,9 +8895,9 @@
       <c r="I196">
         <v>0</v>
       </c>
-      <c r="J196" s="2"/>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -8514,9 +8922,9 @@
       <c r="I197">
         <v>0</v>
       </c>
-      <c r="J197" s="2"/>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -8541,9 +8949,9 @@
       <c r="I198">
         <v>0</v>
       </c>
-      <c r="J198" s="2"/>
-    </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -8568,9 +8976,9 @@
       <c r="I199">
         <v>0</v>
       </c>
-      <c r="J199" s="2"/>
-    </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -8595,9 +9003,9 @@
       <c r="I200">
         <v>0</v>
       </c>
-      <c r="J200" s="2"/>
-    </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -8622,9 +9030,9 @@
       <c r="I201">
         <v>0</v>
       </c>
-      <c r="J201" s="2"/>
-    </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -8649,9 +9057,9 @@
       <c r="I202">
         <v>0</v>
       </c>
-      <c r="J202" s="2"/>
-    </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -8676,9 +9084,9 @@
       <c r="I203">
         <v>0</v>
       </c>
-      <c r="J203" s="2"/>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -8703,9 +9111,9 @@
       <c r="I204">
         <v>0</v>
       </c>
-      <c r="J204" s="2"/>
-    </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -8730,9 +9138,9 @@
       <c r="I205">
         <v>0</v>
       </c>
-      <c r="J205" s="2"/>
-    </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -8757,9 +9165,9 @@
       <c r="I206">
         <v>0</v>
       </c>
-      <c r="J206" s="2"/>
-    </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -8784,9 +9192,9 @@
       <c r="I207">
         <v>0</v>
       </c>
-      <c r="J207" s="2"/>
-    </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -8811,9 +9219,9 @@
       <c r="I208">
         <v>0</v>
       </c>
-      <c r="J208" s="2"/>
-    </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -8838,9 +9246,9 @@
       <c r="I209">
         <v>0</v>
       </c>
-      <c r="J209" s="2"/>
-    </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -8865,9 +9273,9 @@
       <c r="I210">
         <v>0</v>
       </c>
-      <c r="J210" s="2"/>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -8892,9 +9300,9 @@
       <c r="I211">
         <v>0</v>
       </c>
-      <c r="J211" s="2"/>
-    </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -8919,9 +9327,9 @@
       <c r="I212">
         <v>0</v>
       </c>
-      <c r="J212" s="2"/>
-    </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -8946,9 +9354,9 @@
       <c r="I213">
         <v>0</v>
       </c>
-      <c r="J213" s="2"/>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K213" s="2"/>
+    </row>
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -8973,9 +9381,9 @@
       <c r="I214">
         <v>0</v>
       </c>
-      <c r="J214" s="2"/>
-    </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K214" s="2"/>
+    </row>
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -9000,9 +9408,9 @@
       <c r="I215">
         <v>0</v>
       </c>
-      <c r="J215" s="2"/>
-    </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K215" s="2"/>
+    </row>
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -9027,9 +9435,9 @@
       <c r="I216">
         <v>0</v>
       </c>
-      <c r="J216" s="2"/>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K216" s="2"/>
+    </row>
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -9054,9 +9462,9 @@
       <c r="I217">
         <v>0</v>
       </c>
-      <c r="J217" s="2"/>
-    </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K217" s="2"/>
+    </row>
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -9081,9 +9489,9 @@
       <c r="I218">
         <v>0</v>
       </c>
-      <c r="J218" s="2"/>
-    </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K218" s="2"/>
+    </row>
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -9108,9 +9516,9 @@
       <c r="I219">
         <v>0</v>
       </c>
-      <c r="J219" s="2"/>
-    </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -9135,9 +9543,9 @@
       <c r="I220">
         <v>0</v>
       </c>
-      <c r="J220" s="2"/>
-    </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -9162,9 +9570,9 @@
       <c r="I221">
         <v>0</v>
       </c>
-      <c r="J221" s="2"/>
-    </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -9189,9 +9597,9 @@
       <c r="I222">
         <v>0</v>
       </c>
-      <c r="J222" s="2"/>
-    </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -9216,9 +9624,9 @@
       <c r="I223">
         <v>0</v>
       </c>
-      <c r="J223" s="2"/>
-    </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -9243,9 +9651,9 @@
       <c r="I224">
         <v>0</v>
       </c>
-      <c r="J224" s="2"/>
-    </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -9270,9 +9678,9 @@
       <c r="I225">
         <v>0</v>
       </c>
-      <c r="J225" s="2"/>
-    </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -9297,9 +9705,9 @@
       <c r="I226">
         <v>0</v>
       </c>
-      <c r="J226" s="2"/>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -9324,9 +9732,9 @@
       <c r="I227">
         <v>0</v>
       </c>
-      <c r="J227" s="2"/>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -9351,9 +9759,9 @@
       <c r="I228">
         <v>0</v>
       </c>
-      <c r="J228" s="2"/>
-    </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -9378,9 +9786,9 @@
       <c r="I229">
         <v>0</v>
       </c>
-      <c r="J229" s="2"/>
-    </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -9405,9 +9813,9 @@
       <c r="I230">
         <v>0</v>
       </c>
-      <c r="J230" s="2"/>
-    </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K230" s="2"/>
+    </row>
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -9432,9 +9840,9 @@
       <c r="I231">
         <v>0</v>
       </c>
-      <c r="J231" s="2"/>
-    </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K231" s="2"/>
+    </row>
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -9459,9 +9867,9 @@
       <c r="I232">
         <v>0</v>
       </c>
-      <c r="J232" s="2"/>
-    </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K232" s="2"/>
+    </row>
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -9486,9 +9894,9 @@
       <c r="I233">
         <v>0</v>
       </c>
-      <c r="J233" s="2"/>
-    </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K233" s="2"/>
+    </row>
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -9513,9 +9921,9 @@
       <c r="I234">
         <v>0</v>
       </c>
-      <c r="J234" s="2"/>
-    </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K234" s="2"/>
+    </row>
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -9540,9 +9948,9 @@
       <c r="I235">
         <v>0</v>
       </c>
-      <c r="J235" s="2"/>
-    </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -9567,9 +9975,9 @@
       <c r="I236">
         <v>0</v>
       </c>
-      <c r="J236" s="2"/>
-    </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K236" s="2"/>
+    </row>
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -9594,9 +10002,9 @@
       <c r="I237">
         <v>0</v>
       </c>
-      <c r="J237" s="2"/>
-    </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K237" s="2"/>
+    </row>
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -9621,9 +10029,9 @@
       <c r="I238">
         <v>0</v>
       </c>
-      <c r="J238" s="2"/>
-    </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K238" s="2"/>
+    </row>
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -9648,9 +10056,9 @@
       <c r="I239">
         <v>0</v>
       </c>
-      <c r="J239" s="2"/>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K239" s="2"/>
+    </row>
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -9675,9 +10083,9 @@
       <c r="I240">
         <v>0</v>
       </c>
-      <c r="J240" s="2"/>
-    </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K240" s="2"/>
+    </row>
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -9702,9 +10110,9 @@
       <c r="I241">
         <v>0</v>
       </c>
-      <c r="J241" s="2"/>
-    </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K241" s="2"/>
+    </row>
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -9729,9 +10137,9 @@
       <c r="I242">
         <v>0</v>
       </c>
-      <c r="J242" s="2"/>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K242" s="2"/>
+    </row>
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -9756,9 +10164,9 @@
       <c r="I243">
         <v>0</v>
       </c>
-      <c r="J243" s="2"/>
-    </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K243" s="2"/>
+    </row>
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -9783,9 +10191,9 @@
       <c r="I244">
         <v>0</v>
       </c>
-      <c r="J244" s="2"/>
-    </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K244" s="2"/>
+    </row>
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -9810,9 +10218,9 @@
       <c r="I245">
         <v>0</v>
       </c>
-      <c r="J245" s="2"/>
-    </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K245" s="2"/>
+    </row>
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -9837,9 +10245,9 @@
       <c r="I246">
         <v>0</v>
       </c>
-      <c r="J246" s="2"/>
-    </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K246" s="2"/>
+    </row>
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -9864,9 +10272,9 @@
       <c r="I247">
         <v>0</v>
       </c>
-      <c r="J247" s="2"/>
-    </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K247" s="2"/>
+    </row>
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -9891,9 +10299,9 @@
       <c r="I248">
         <v>0</v>
       </c>
-      <c r="J248" s="2"/>
-    </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K248" s="2"/>
+    </row>
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -9918,9 +10326,9 @@
       <c r="I249">
         <v>0</v>
       </c>
-      <c r="J249" s="2"/>
-    </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K249" s="2"/>
+    </row>
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -9945,9 +10353,9 @@
       <c r="I250">
         <v>0</v>
       </c>
-      <c r="J250" s="2"/>
-    </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K250" s="2"/>
+    </row>
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -9972,9 +10380,9 @@
       <c r="I251">
         <v>0</v>
       </c>
-      <c r="J251" s="2"/>
-    </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K251" s="2"/>
+    </row>
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -9999,9 +10407,9 @@
       <c r="I252">
         <v>0</v>
       </c>
-      <c r="J252" s="2"/>
-    </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K252" s="2"/>
+    </row>
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -10026,9 +10434,9 @@
       <c r="I253">
         <v>0</v>
       </c>
-      <c r="J253" s="2"/>
-    </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K253" s="2"/>
+    </row>
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -10053,9 +10461,9 @@
       <c r="I254">
         <v>0</v>
       </c>
-      <c r="J254" s="2"/>
-    </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K254" s="2"/>
+    </row>
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -10080,9 +10488,9 @@
       <c r="I255">
         <v>0</v>
       </c>
-      <c r="J255" s="2"/>
-    </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K255" s="2"/>
+    </row>
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -10107,9 +10515,9 @@
       <c r="I256">
         <v>0</v>
       </c>
-      <c r="J256" s="2"/>
-    </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K256" s="2"/>
+    </row>
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -10134,9 +10542,9 @@
       <c r="I257">
         <v>0</v>
       </c>
-      <c r="J257" s="2"/>
-    </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K257" s="2"/>
+    </row>
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -10161,9 +10569,9 @@
       <c r="I258">
         <v>0</v>
       </c>
-      <c r="J258" s="2"/>
-    </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K258" s="2"/>
+    </row>
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -10188,9 +10596,9 @@
       <c r="I259">
         <v>0</v>
       </c>
-      <c r="J259" s="2"/>
-    </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K259" s="2"/>
+    </row>
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -10215,9 +10623,9 @@
       <c r="I260">
         <v>0</v>
       </c>
-      <c r="J260" s="2"/>
-    </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K260" s="2"/>
+    </row>
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -10242,9 +10650,9 @@
       <c r="I261">
         <v>0</v>
       </c>
-      <c r="J261" s="2"/>
-    </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K261" s="2"/>
+    </row>
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -10269,9 +10677,9 @@
       <c r="I262">
         <v>0</v>
       </c>
-      <c r="J262" s="2"/>
-    </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K262" s="2"/>
+    </row>
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -10296,9 +10704,9 @@
       <c r="I263">
         <v>0</v>
       </c>
-      <c r="J263" s="2"/>
-    </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K263" s="2"/>
+    </row>
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -10323,9 +10731,9 @@
       <c r="I264">
         <v>0</v>
       </c>
-      <c r="J264" s="2"/>
-    </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K264" s="2"/>
+    </row>
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -10350,9 +10758,9 @@
       <c r="I265">
         <v>0</v>
       </c>
-      <c r="J265" s="2"/>
-    </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K265" s="2"/>
+    </row>
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -10377,9 +10785,9 @@
       <c r="I266">
         <v>0</v>
       </c>
-      <c r="J266" s="2"/>
-    </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K266" s="2"/>
+    </row>
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -10404,9 +10812,9 @@
       <c r="I267">
         <v>0</v>
       </c>
-      <c r="J267" s="2"/>
-    </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K267" s="2"/>
+    </row>
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -10431,9 +10839,9 @@
       <c r="I268">
         <v>0</v>
       </c>
-      <c r="J268" s="2"/>
-    </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K268" s="2"/>
+    </row>
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -10458,9 +10866,9 @@
       <c r="I269">
         <v>0</v>
       </c>
-      <c r="J269" s="2"/>
-    </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K269" s="2"/>
+    </row>
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -10485,9 +10893,9 @@
       <c r="I270">
         <v>0</v>
       </c>
-      <c r="J270" s="2"/>
-    </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K270" s="2"/>
+    </row>
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -10512,9 +10920,9 @@
       <c r="I271">
         <v>0</v>
       </c>
-      <c r="J271" s="2"/>
-    </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K271" s="2"/>
+    </row>
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -10539,9 +10947,9 @@
       <c r="I272">
         <v>0</v>
       </c>
-      <c r="J272" s="2"/>
-    </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K272" s="2"/>
+    </row>
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -10566,9 +10974,9 @@
       <c r="I273">
         <v>0</v>
       </c>
-      <c r="J273" s="2"/>
-    </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K273" s="2"/>
+    </row>
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -10593,9 +11001,9 @@
       <c r="I274">
         <v>0</v>
       </c>
-      <c r="J274" s="2"/>
-    </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K274" s="2"/>
+    </row>
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -10620,9 +11028,9 @@
       <c r="I275">
         <v>0</v>
       </c>
-      <c r="J275" s="2"/>
-    </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K275" s="2"/>
+    </row>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -10647,9 +11055,9 @@
       <c r="I276">
         <v>0</v>
       </c>
-      <c r="J276" s="2"/>
-    </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K276" s="2"/>
+    </row>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -10674,9 +11082,9 @@
       <c r="I277">
         <v>0</v>
       </c>
-      <c r="J277" s="2"/>
-    </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K277" s="2"/>
+    </row>
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -10701,9 +11109,9 @@
       <c r="I278">
         <v>0</v>
       </c>
-      <c r="J278" s="2"/>
-    </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K278" s="2"/>
+    </row>
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -10728,9 +11136,9 @@
       <c r="I279">
         <v>0</v>
       </c>
-      <c r="J279" s="2"/>
-    </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K279" s="2"/>
+    </row>
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -10755,9 +11163,9 @@
       <c r="I280">
         <v>0</v>
       </c>
-      <c r="J280" s="2"/>
-    </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K280" s="2"/>
+    </row>
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -10782,9 +11190,9 @@
       <c r="I281">
         <v>0</v>
       </c>
-      <c r="J281" s="2"/>
-    </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K281" s="2"/>
+    </row>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -10809,9 +11217,9 @@
       <c r="I282">
         <v>0</v>
       </c>
-      <c r="J282" s="2"/>
-    </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K282" s="2"/>
+    </row>
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -10836,9 +11244,9 @@
       <c r="I283">
         <v>0</v>
       </c>
-      <c r="J283" s="2"/>
-    </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K283" s="2"/>
+    </row>
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -10863,9 +11271,9 @@
       <c r="I284">
         <v>0</v>
       </c>
-      <c r="J284" s="2"/>
-    </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K284" s="2"/>
+    </row>
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -10890,9 +11298,9 @@
       <c r="I285">
         <v>0</v>
       </c>
-      <c r="J285" s="2"/>
-    </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K285" s="2"/>
+    </row>
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -10917,9 +11325,9 @@
       <c r="I286">
         <v>0</v>
       </c>
-      <c r="J286" s="2"/>
-    </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K286" s="2"/>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -10944,9 +11352,9 @@
       <c r="I287">
         <v>0</v>
       </c>
-      <c r="J287" s="2"/>
-    </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K287" s="2"/>
+    </row>
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -10971,9 +11379,9 @@
       <c r="I288">
         <v>0</v>
       </c>
-      <c r="J288" s="2"/>
-    </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K288" s="2"/>
+    </row>
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -10998,9 +11406,9 @@
       <c r="I289">
         <v>0</v>
       </c>
-      <c r="J289" s="2"/>
-    </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K289" s="2"/>
+    </row>
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -11025,9 +11433,9 @@
       <c r="I290">
         <v>0</v>
       </c>
-      <c r="J290" s="2"/>
-    </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K290" s="2"/>
+    </row>
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -11052,9 +11460,9 @@
       <c r="I291">
         <v>0</v>
       </c>
-      <c r="J291" s="2"/>
-    </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K291" s="2"/>
+    </row>
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -11079,9 +11487,9 @@
       <c r="I292">
         <v>0</v>
       </c>
-      <c r="J292" s="2"/>
-    </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K292" s="2"/>
+    </row>
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -11106,9 +11514,9 @@
       <c r="I293">
         <v>0</v>
       </c>
-      <c r="J293" s="2"/>
-    </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K293" s="2"/>
+    </row>
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -11133,9 +11541,9 @@
       <c r="I294">
         <v>0</v>
       </c>
-      <c r="J294" s="2"/>
-    </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K294" s="2"/>
+    </row>
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -11160,9 +11568,9 @@
       <c r="I295">
         <v>0</v>
       </c>
-      <c r="J295" s="2"/>
-    </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K295" s="2"/>
+    </row>
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -11187,9 +11595,9 @@
       <c r="I296">
         <v>0</v>
       </c>
-      <c r="J296" s="2"/>
-    </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K296" s="2"/>
+    </row>
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -11214,9 +11622,9 @@
       <c r="I297">
         <v>0</v>
       </c>
-      <c r="J297" s="2"/>
-    </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K297" s="2"/>
+    </row>
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -11241,9 +11649,9 @@
       <c r="I298">
         <v>0</v>
       </c>
-      <c r="J298" s="2"/>
-    </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K298" s="2"/>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -11268,9 +11676,9 @@
       <c r="I299">
         <v>0</v>
       </c>
-      <c r="J299" s="2"/>
-    </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K299" s="2"/>
+    </row>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -11295,9 +11703,9 @@
       <c r="I300">
         <v>0</v>
       </c>
-      <c r="J300" s="2"/>
-    </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K300" s="2"/>
+    </row>
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -11322,9 +11730,9 @@
       <c r="I301">
         <v>0</v>
       </c>
-      <c r="J301" s="2"/>
-    </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K301" s="2"/>
+    </row>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -11349,9 +11757,9 @@
       <c r="I302">
         <v>0</v>
       </c>
-      <c r="J302" s="2"/>
-    </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K302" s="2"/>
+    </row>
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -11376,9 +11784,9 @@
       <c r="I303">
         <v>0</v>
       </c>
-      <c r="J303" s="2"/>
-    </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K303" s="2"/>
+    </row>
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -11403,9 +11811,9 @@
       <c r="I304">
         <v>0</v>
       </c>
-      <c r="J304" s="2"/>
-    </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K304" s="2"/>
+    </row>
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -11430,9 +11838,9 @@
       <c r="I305">
         <v>0</v>
       </c>
-      <c r="J305" s="2"/>
-    </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K305" s="2"/>
+    </row>
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -11457,9 +11865,9 @@
       <c r="I306">
         <v>0</v>
       </c>
-      <c r="J306" s="2"/>
-    </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K306" s="2"/>
+    </row>
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -11484,9 +11892,9 @@
       <c r="I307">
         <v>0</v>
       </c>
-      <c r="J307" s="2"/>
-    </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K307" s="2"/>
+    </row>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -11511,9 +11919,9 @@
       <c r="I308">
         <v>0</v>
       </c>
-      <c r="J308" s="2"/>
-    </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K308" s="2"/>
+    </row>
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -11538,9 +11946,9 @@
       <c r="I309">
         <v>0</v>
       </c>
-      <c r="J309" s="2"/>
-    </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K309" s="2"/>
+    </row>
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -11565,9 +11973,9 @@
       <c r="I310">
         <v>0</v>
       </c>
-      <c r="J310" s="2"/>
-    </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K310" s="2"/>
+    </row>
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -11592,9 +12000,9 @@
       <c r="I311">
         <v>0</v>
       </c>
-      <c r="J311" s="2"/>
-    </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K311" s="2"/>
+    </row>
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -11619,9 +12027,9 @@
       <c r="I312">
         <v>0</v>
       </c>
-      <c r="J312" s="2"/>
-    </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K312" s="2"/>
+    </row>
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -11646,9 +12054,9 @@
       <c r="I313">
         <v>0</v>
       </c>
-      <c r="J313" s="2"/>
-    </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K313" s="2"/>
+    </row>
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -11673,9 +12081,9 @@
       <c r="I314">
         <v>0</v>
       </c>
-      <c r="J314" s="2"/>
-    </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K314" s="2"/>
+    </row>
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -11700,9 +12108,9 @@
       <c r="I315">
         <v>0</v>
       </c>
-      <c r="J315" s="2"/>
-    </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K315" s="2"/>
+    </row>
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -11727,9 +12135,9 @@
       <c r="I316">
         <v>0</v>
       </c>
-      <c r="J316" s="2"/>
-    </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K316" s="2"/>
+    </row>
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -11754,9 +12162,9 @@
       <c r="I317">
         <v>0</v>
       </c>
-      <c r="J317" s="2"/>
-    </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K317" s="2"/>
+    </row>
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -11781,9 +12189,9 @@
       <c r="I318">
         <v>0</v>
       </c>
-      <c r="J318" s="2"/>
-    </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K318" s="2"/>
+    </row>
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -11808,9 +12216,9 @@
       <c r="I319">
         <v>0</v>
       </c>
-      <c r="J319" s="2"/>
-    </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K319" s="2"/>
+    </row>
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -11835,9 +12243,9 @@
       <c r="I320">
         <v>0</v>
       </c>
-      <c r="J320" s="2"/>
-    </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K320" s="2"/>
+    </row>
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -11862,9 +12270,9 @@
       <c r="I321">
         <v>0</v>
       </c>
-      <c r="J321" s="2"/>
-    </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K321" s="2"/>
+    </row>
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -11889,9 +12297,9 @@
       <c r="I322">
         <v>0</v>
       </c>
-      <c r="J322" s="2"/>
-    </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K322" s="2"/>
+    </row>
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -11916,9 +12324,9 @@
       <c r="I323">
         <v>0</v>
       </c>
-      <c r="J323" s="2"/>
-    </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K323" s="2"/>
+    </row>
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -11943,9 +12351,9 @@
       <c r="I324">
         <v>0</v>
       </c>
-      <c r="J324" s="2"/>
-    </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K324" s="2"/>
+    </row>
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -11970,9 +12378,9 @@
       <c r="I325">
         <v>0</v>
       </c>
-      <c r="J325" s="2"/>
-    </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K325" s="2"/>
+    </row>
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -11997,9 +12405,9 @@
       <c r="I326">
         <v>0</v>
       </c>
-      <c r="J326" s="2"/>
-    </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K326" s="2"/>
+    </row>
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -12024,9 +12432,9 @@
       <c r="I327">
         <v>0</v>
       </c>
-      <c r="J327" s="2"/>
-    </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K327" s="2"/>
+    </row>
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -12051,9 +12459,9 @@
       <c r="I328">
         <v>0</v>
       </c>
-      <c r="J328" s="2"/>
-    </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K328" s="2"/>
+    </row>
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -12078,9 +12486,9 @@
       <c r="I329">
         <v>0</v>
       </c>
-      <c r="J329" s="2"/>
-    </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K329" s="2"/>
+    </row>
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -12105,9 +12513,9 @@
       <c r="I330">
         <v>0</v>
       </c>
-      <c r="J330" s="2"/>
-    </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K330" s="2"/>
+    </row>
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -12132,9 +12540,9 @@
       <c r="I331">
         <v>0</v>
       </c>
-      <c r="J331" s="2"/>
-    </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K331" s="2"/>
+    </row>
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -12159,9 +12567,9 @@
       <c r="I332">
         <v>0</v>
       </c>
-      <c r="J332" s="2"/>
-    </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K332" s="2"/>
+    </row>
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -12186,9 +12594,9 @@
       <c r="I333">
         <v>0</v>
       </c>
-      <c r="J333" s="2"/>
-    </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K333" s="2"/>
+    </row>
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -12213,9 +12621,9 @@
       <c r="I334">
         <v>0</v>
       </c>
-      <c r="J334" s="2"/>
-    </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K334" s="2"/>
+    </row>
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -12240,9 +12648,9 @@
       <c r="I335">
         <v>0</v>
       </c>
-      <c r="J335" s="2"/>
-    </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K335" s="2"/>
+    </row>
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -12267,9 +12675,9 @@
       <c r="I336">
         <v>0</v>
       </c>
-      <c r="J336" s="2"/>
-    </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K336" s="2"/>
+    </row>
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -12294,9 +12702,9 @@
       <c r="I337">
         <v>0</v>
       </c>
-      <c r="J337" s="2"/>
-    </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K337" s="2"/>
+    </row>
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -12321,9 +12729,9 @@
       <c r="I338">
         <v>0</v>
       </c>
-      <c r="J338" s="2"/>
-    </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K338" s="2"/>
+    </row>
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -12348,9 +12756,9 @@
       <c r="I339">
         <v>0</v>
       </c>
-      <c r="J339" s="2"/>
-    </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K339" s="2"/>
+    </row>
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -12375,9 +12783,9 @@
       <c r="I340">
         <v>0</v>
       </c>
-      <c r="J340" s="2"/>
-    </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K340" s="2"/>
+    </row>
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -12402,9 +12810,9 @@
       <c r="I341">
         <v>0</v>
       </c>
-      <c r="J341" s="2"/>
-    </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K341" s="2"/>
+    </row>
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -12429,9 +12837,9 @@
       <c r="I342">
         <v>0</v>
       </c>
-      <c r="J342" s="2"/>
-    </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K342" s="2"/>
+    </row>
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -12456,9 +12864,9 @@
       <c r="I343">
         <v>0</v>
       </c>
-      <c r="J343" s="2"/>
-    </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K343" s="2"/>
+    </row>
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -12483,9 +12891,9 @@
       <c r="I344">
         <v>0</v>
       </c>
-      <c r="J344" s="2"/>
-    </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K344" s="2"/>
+    </row>
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -12510,9 +12918,9 @@
       <c r="I345">
         <v>0</v>
       </c>
-      <c r="J345" s="2"/>
-    </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K345" s="2"/>
+    </row>
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -12537,9 +12945,9 @@
       <c r="I346">
         <v>0</v>
       </c>
-      <c r="J346" s="2"/>
-    </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K346" s="2"/>
+    </row>
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -12564,9 +12972,9 @@
       <c r="I347">
         <v>0</v>
       </c>
-      <c r="J347" s="2"/>
-    </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K347" s="2"/>
+    </row>
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -12591,9 +12999,9 @@
       <c r="I348">
         <v>0</v>
       </c>
-      <c r="J348" s="2"/>
-    </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K348" s="2"/>
+    </row>
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -12618,9 +13026,9 @@
       <c r="I349">
         <v>0</v>
       </c>
-      <c r="J349" s="2"/>
-    </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K349" s="2"/>
+    </row>
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -12645,9 +13053,9 @@
       <c r="I350">
         <v>0</v>
       </c>
-      <c r="J350" s="2"/>
-    </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K350" s="2"/>
+    </row>
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -12672,9 +13080,9 @@
       <c r="I351">
         <v>0</v>
       </c>
-      <c r="J351" s="2"/>
-    </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K351" s="2"/>
+    </row>
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -12699,9 +13107,9 @@
       <c r="I352">
         <v>0</v>
       </c>
-      <c r="J352" s="2"/>
-    </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K352" s="2"/>
+    </row>
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -12726,9 +13134,9 @@
       <c r="I353">
         <v>0</v>
       </c>
-      <c r="J353" s="2"/>
-    </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K353" s="2"/>
+    </row>
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -12753,9 +13161,9 @@
       <c r="I354">
         <v>0</v>
       </c>
-      <c r="J354" s="2"/>
-    </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K354" s="2"/>
+    </row>
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -12780,9 +13188,9 @@
       <c r="I355">
         <v>0</v>
       </c>
-      <c r="J355" s="2"/>
-    </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K355" s="2"/>
+    </row>
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -12807,9 +13215,9 @@
       <c r="I356">
         <v>0</v>
       </c>
-      <c r="J356" s="2"/>
-    </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K356" s="2"/>
+    </row>
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -12834,9 +13242,9 @@
       <c r="I357">
         <v>0</v>
       </c>
-      <c r="J357" s="2"/>
-    </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K357" s="2"/>
+    </row>
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -12861,9 +13269,9 @@
       <c r="I358">
         <v>0</v>
       </c>
-      <c r="J358" s="2"/>
-    </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K358" s="2"/>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -12888,9 +13296,9 @@
       <c r="I359">
         <v>0</v>
       </c>
-      <c r="J359" s="2"/>
-    </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K359" s="2"/>
+    </row>
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -12915,9 +13323,9 @@
       <c r="I360">
         <v>0</v>
       </c>
-      <c r="J360" s="2"/>
-    </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K360" s="2"/>
+    </row>
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -12942,9 +13350,9 @@
       <c r="I361">
         <v>0</v>
       </c>
-      <c r="J361" s="2"/>
-    </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K361" s="2"/>
+    </row>
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -12969,11 +13377,14 @@
       <c r="I362">
         <v>1</v>
       </c>
-      <c r="J362" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -12998,11 +13409,14 @@
       <c r="I363">
         <v>1</v>
       </c>
-      <c r="J363" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J363">
+        <v>1</v>
+      </c>
+      <c r="K363" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -13030,8 +13444,11 @@
       <c r="J364" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K364" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -13056,11 +13473,14 @@
       <c r="I365">
         <v>1</v>
       </c>
-      <c r="J365" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J365">
+        <v>1</v>
+      </c>
+      <c r="K365" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -13085,11 +13505,14 @@
       <c r="I366">
         <v>1</v>
       </c>
-      <c r="J366" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -13114,11 +13537,14 @@
       <c r="I367">
         <v>0</v>
       </c>
-      <c r="J367" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -13143,11 +13569,14 @@
       <c r="I368">
         <v>0</v>
       </c>
-      <c r="J368" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J368">
+        <v>1</v>
+      </c>
+      <c r="K368" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -13172,11 +13601,14 @@
       <c r="I369">
         <v>0</v>
       </c>
-      <c r="J369" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J369">
+        <v>1</v>
+      </c>
+      <c r="K369" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -13201,11 +13633,14 @@
       <c r="I370">
         <v>0</v>
       </c>
-      <c r="J370" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J370">
+        <v>1</v>
+      </c>
+      <c r="K370" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -13230,11 +13665,14 @@
       <c r="I371">
         <v>0</v>
       </c>
-      <c r="J371" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J371">
+        <v>1</v>
+      </c>
+      <c r="K371" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -13262,8 +13700,9 @@
       <c r="J372" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K372" s="2"/>
+    </row>
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -13288,11 +13727,12 @@
       <c r="I373">
         <v>0</v>
       </c>
-      <c r="J373" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J373">
+        <v>1</v>
+      </c>
+      <c r="K373" s="2"/>
+    </row>
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -13317,11 +13757,12 @@
       <c r="I374">
         <v>1</v>
       </c>
-      <c r="J374" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J374">
+        <v>1</v>
+      </c>
+      <c r="K374" s="2"/>
+    </row>
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -13346,11 +13787,12 @@
       <c r="I375">
         <v>0</v>
       </c>
-      <c r="J375" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375" s="2"/>
+    </row>
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -13375,11 +13817,14 @@
       <c r="I376">
         <v>1</v>
       </c>
-      <c r="J376" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J376">
+        <v>1</v>
+      </c>
+      <c r="K376" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -13404,11 +13849,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J377" s="2">
+        <v>2</v>
+      </c>
+      <c r="K377" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -13433,11 +13881,14 @@
       <c r="I378">
         <v>1</v>
       </c>
-      <c r="J378" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J378">
+        <v>1</v>
+      </c>
+      <c r="K378" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -13462,11 +13913,14 @@
       <c r="I379">
         <v>0</v>
       </c>
-      <c r="J379" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J379">
+        <v>1</v>
+      </c>
+      <c r="K379" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -13494,11 +13948,14 @@
       <c r="I380">
         <v>0</v>
       </c>
-      <c r="J380" s="2" t="s">
+      <c r="J380" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K380" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -13523,11 +13980,14 @@
       <c r="I381">
         <v>1</v>
       </c>
-      <c r="J381" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -13552,11 +14012,14 @@
       <c r="I382">
         <v>1</v>
       </c>
-      <c r="J382" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -13581,11 +14044,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J383" s="2">
+        <v>2</v>
+      </c>
+      <c r="K383" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -13610,11 +14076,14 @@
       <c r="I384">
         <v>1</v>
       </c>
-      <c r="J384" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -13639,11 +14108,14 @@
       <c r="I385">
         <v>1</v>
       </c>
-      <c r="J385" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J385">
+        <v>1</v>
+      </c>
+      <c r="K385" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -13668,11 +14140,12 @@
       <c r="I386">
         <v>0</v>
       </c>
-      <c r="J386" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386" s="2"/>
+    </row>
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -13697,11 +14170,12 @@
       <c r="I387">
         <v>1</v>
       </c>
-      <c r="J387" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387" s="2"/>
+    </row>
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -13726,11 +14200,12 @@
       <c r="I388">
         <v>0</v>
       </c>
-      <c r="J388" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388" s="2"/>
+    </row>
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -13755,11 +14230,12 @@
       <c r="I389">
         <v>1</v>
       </c>
-      <c r="J389" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J389">
+        <v>1</v>
+      </c>
+      <c r="K389" s="2"/>
+    </row>
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -13784,11 +14260,14 @@
       <c r="I390">
         <v>0</v>
       </c>
-      <c r="J390" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -13813,11 +14292,14 @@
       <c r="I391">
         <v>1</v>
       </c>
-      <c r="J391" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J391">
+        <v>1</v>
+      </c>
+      <c r="K391" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -13842,11 +14324,14 @@
       <c r="I392">
         <v>1</v>
       </c>
-      <c r="J392" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -13871,11 +14356,14 @@
       <c r="I393">
         <v>1</v>
       </c>
-      <c r="J393" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J393">
+        <v>1</v>
+      </c>
+      <c r="K393" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -13900,11 +14388,14 @@
       <c r="I394">
         <v>0</v>
       </c>
-      <c r="J394" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="K394" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -13929,11 +14420,14 @@
       <c r="I395">
         <v>0</v>
       </c>
-      <c r="J395" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -13949,6 +14443,9 @@
       <c r="E396" t="s">
         <v>382</v>
       </c>
+      <c r="F396" t="s">
+        <v>654</v>
+      </c>
       <c r="G396">
         <v>0</v>
       </c>
@@ -13958,11 +14455,14 @@
       <c r="I396">
         <v>0</v>
       </c>
-      <c r="J396" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -13987,11 +14487,14 @@
       <c r="I397">
         <v>0</v>
       </c>
-      <c r="J397" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -14016,11 +14519,14 @@
       <c r="I398">
         <v>0</v>
       </c>
-      <c r="J398" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J398">
+        <v>1</v>
+      </c>
+      <c r="K398" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -14048,11 +14554,12 @@
       <c r="I399">
         <v>1</v>
       </c>
-      <c r="J399" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J399">
+        <v>1</v>
+      </c>
+      <c r="K399" s="2"/>
+    </row>
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -14077,11 +14584,12 @@
       <c r="I400">
         <v>1</v>
       </c>
-      <c r="J400" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J400">
+        <v>1</v>
+      </c>
+      <c r="K400" s="2"/>
+    </row>
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -14106,11 +14614,12 @@
       <c r="I401">
         <v>0</v>
       </c>
-      <c r="J401" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401" s="2"/>
+    </row>
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -14135,11 +14644,12 @@
       <c r="I402">
         <v>0</v>
       </c>
-      <c r="J402" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:10" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J402">
+        <v>1</v>
+      </c>
+      <c r="K402" s="2"/>
+    </row>
+    <row r="403" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>423</v>
       </c>
@@ -14159,11 +14669,12 @@
         <v>649</v>
       </c>
       <c r="I403"/>
-      <c r="J403" s="2" t="s">
+      <c r="J403" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K403" s="2"/>
+    </row>
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -14188,11 +14699,14 @@
       <c r="I404">
         <v>0</v>
       </c>
-      <c r="J404" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -14217,11 +14731,14 @@
       <c r="I405">
         <v>1</v>
       </c>
-      <c r="J405" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J405">
+        <v>1</v>
+      </c>
+      <c r="K405" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -14246,11 +14763,14 @@
       <c r="I406">
         <v>1</v>
       </c>
-      <c r="J406" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J406">
+        <v>1</v>
+      </c>
+      <c r="K406" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -14275,11 +14795,14 @@
       <c r="I407">
         <v>1</v>
       </c>
-      <c r="J407" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J407">
+        <v>1</v>
+      </c>
+      <c r="K407" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -14304,11 +14827,14 @@
       <c r="I408">
         <v>0</v>
       </c>
-      <c r="J408" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -14333,11 +14859,14 @@
       <c r="I409">
         <v>0</v>
       </c>
-      <c r="J409" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -14362,11 +14891,14 @@
       <c r="I410">
         <v>1</v>
       </c>
-      <c r="J410" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J410">
+        <v>1</v>
+      </c>
+      <c r="K410" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -14391,11 +14923,14 @@
       <c r="I411">
         <v>0</v>
       </c>
-      <c r="J411" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -14420,11 +14955,14 @@
       <c r="I412">
         <v>0</v>
       </c>
-      <c r="J412" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J412">
+        <v>1</v>
+      </c>
+      <c r="K412" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -14449,11 +14987,12 @@
       <c r="I413">
         <v>0</v>
       </c>
-      <c r="J413" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413" s="2"/>
+    </row>
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -14478,11 +15017,12 @@
       <c r="I414">
         <v>1</v>
       </c>
-      <c r="J414" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J414">
+        <v>1</v>
+      </c>
+      <c r="K414" s="2"/>
+    </row>
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -14507,11 +15047,12 @@
       <c r="I415">
         <v>1</v>
       </c>
-      <c r="J415" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J415">
+        <v>1</v>
+      </c>
+      <c r="K415" s="2"/>
+    </row>
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -14536,11 +15077,14 @@
       <c r="I416">
         <v>0</v>
       </c>
-      <c r="J416" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -14565,11 +15109,14 @@
       <c r="I417">
         <v>0</v>
       </c>
-      <c r="J417" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -14594,11 +15141,14 @@
       <c r="I418">
         <v>1</v>
       </c>
-      <c r="J418" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J418">
+        <v>1</v>
+      </c>
+      <c r="K418" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -14623,11 +15173,14 @@
       <c r="I419">
         <v>1</v>
       </c>
-      <c r="J419" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J419">
+        <v>1</v>
+      </c>
+      <c r="K419" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -14652,11 +15205,14 @@
       <c r="I420">
         <v>0</v>
       </c>
-      <c r="J420" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -14681,11 +15237,14 @@
       <c r="I421">
         <v>1</v>
       </c>
-      <c r="J421" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -14710,11 +15269,14 @@
       <c r="I422">
         <v>0</v>
       </c>
-      <c r="J422" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -14739,11 +15301,14 @@
       <c r="I423">
         <v>0</v>
       </c>
-      <c r="J423" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -14768,11 +15333,12 @@
       <c r="I424">
         <v>0</v>
       </c>
-      <c r="J424" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J424">
+        <v>1</v>
+      </c>
+      <c r="K424" s="2"/>
+    </row>
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -14797,11 +15363,12 @@
       <c r="I425">
         <v>0</v>
       </c>
-      <c r="J425" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J425">
+        <v>1</v>
+      </c>
+      <c r="K425" s="2"/>
+    </row>
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -14826,11 +15393,12 @@
       <c r="I426">
         <v>1</v>
       </c>
-      <c r="J426" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J426">
+        <v>1</v>
+      </c>
+      <c r="K426" s="2"/>
+    </row>
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -14855,11 +15423,12 @@
       <c r="I427">
         <v>1</v>
       </c>
-      <c r="J427" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J427">
+        <v>1</v>
+      </c>
+      <c r="K427" s="2"/>
+    </row>
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -14884,11 +15453,12 @@
       <c r="I428">
         <v>0</v>
       </c>
-      <c r="J428" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428" s="2"/>
+    </row>
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -14913,11 +15483,14 @@
       <c r="I429">
         <v>0</v>
       </c>
-      <c r="J429" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J429">
+        <v>0</v>
+      </c>
+      <c r="K429" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -14942,11 +15515,14 @@
       <c r="I430">
         <v>1</v>
       </c>
-      <c r="J430" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J430">
+        <v>1</v>
+      </c>
+      <c r="K430" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -14971,11 +15547,14 @@
       <c r="I431">
         <v>0</v>
       </c>
-      <c r="J431" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -15000,11 +15579,14 @@
       <c r="I432">
         <v>1</v>
       </c>
-      <c r="J432" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J432">
+        <v>1</v>
+      </c>
+      <c r="K432" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -15029,11 +15611,14 @@
       <c r="I433">
         <v>0</v>
       </c>
-      <c r="J433" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -15061,11 +15646,14 @@
       <c r="I434">
         <v>0</v>
       </c>
-      <c r="J434" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -15090,11 +15678,14 @@
       <c r="I435">
         <v>0</v>
       </c>
-      <c r="J435" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J435">
+        <v>0</v>
+      </c>
+      <c r="K435" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -15119,11 +15710,14 @@
       <c r="I436">
         <v>1</v>
       </c>
-      <c r="J436" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J436">
+        <v>1</v>
+      </c>
+      <c r="K436" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -15148,11 +15742,14 @@
       <c r="I437">
         <v>0</v>
       </c>
-      <c r="J437" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J437">
+        <v>1</v>
+      </c>
+      <c r="K437" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -15177,11 +15774,12 @@
       <c r="I438">
         <v>0</v>
       </c>
-      <c r="J438" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J438">
+        <v>1</v>
+      </c>
+      <c r="K438" s="2"/>
+    </row>
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -15206,11 +15804,12 @@
       <c r="I439">
         <v>0</v>
       </c>
-      <c r="J439" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J439">
+        <v>1</v>
+      </c>
+      <c r="K439" s="2"/>
+    </row>
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -15235,11 +15834,12 @@
       <c r="I440">
         <v>0</v>
       </c>
-      <c r="J440" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440" s="2"/>
+    </row>
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -15264,11 +15864,12 @@
       <c r="I441">
         <v>0</v>
       </c>
-      <c r="J441" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441" s="2"/>
+    </row>
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -15293,11 +15894,12 @@
       <c r="I442">
         <v>1</v>
       </c>
-      <c r="J442" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J442">
+        <v>1</v>
+      </c>
+      <c r="K442" s="2"/>
+    </row>
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>463</v>
       </c>
@@ -15322,9 +15924,9 @@
       <c r="I443">
         <v>0</v>
       </c>
-      <c r="J443" s="2"/>
-    </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K443" s="2"/>
+    </row>
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -15349,9 +15951,9 @@
       <c r="I444">
         <v>0</v>
       </c>
-      <c r="J444" s="2"/>
-    </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K444" s="2"/>
+    </row>
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -15376,9 +15978,9 @@
       <c r="I445">
         <v>0</v>
       </c>
-      <c r="J445" s="2"/>
-    </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K445" s="2"/>
+    </row>
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -15403,9 +16005,9 @@
       <c r="I446">
         <v>0</v>
       </c>
-      <c r="J446" s="2"/>
-    </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K446" s="2"/>
+    </row>
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -15430,9 +16032,9 @@
       <c r="I447">
         <v>0</v>
       </c>
-      <c r="J447" s="2"/>
-    </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K447" s="2"/>
+    </row>
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -15457,9 +16059,9 @@
       <c r="I448">
         <v>0</v>
       </c>
-      <c r="J448" s="2"/>
-    </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K448" s="2"/>
+    </row>
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -15484,9 +16086,9 @@
       <c r="I449">
         <v>0</v>
       </c>
-      <c r="J449" s="2"/>
-    </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K449" s="2"/>
+    </row>
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -15511,9 +16113,9 @@
       <c r="I450">
         <v>0</v>
       </c>
-      <c r="J450" s="2"/>
-    </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K450" s="2"/>
+    </row>
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -15538,9 +16140,9 @@
       <c r="I451">
         <v>0</v>
       </c>
-      <c r="J451" s="2"/>
-    </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K451" s="2"/>
+    </row>
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -15565,9 +16167,9 @@
       <c r="I452">
         <v>0</v>
       </c>
-      <c r="J452" s="2"/>
-    </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K452" s="2"/>
+    </row>
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -15592,9 +16194,9 @@
       <c r="I453">
         <v>0</v>
       </c>
-      <c r="J453" s="2"/>
-    </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K453" s="2"/>
+    </row>
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -15619,9 +16221,9 @@
       <c r="I454">
         <v>0</v>
       </c>
-      <c r="J454" s="2"/>
-    </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K454" s="2"/>
+    </row>
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -15646,9 +16248,9 @@
       <c r="I455">
         <v>0</v>
       </c>
-      <c r="J455" s="2"/>
-    </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K455" s="2"/>
+    </row>
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -15673,9 +16275,9 @@
       <c r="I456">
         <v>0</v>
       </c>
-      <c r="J456" s="2"/>
-    </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K456" s="2"/>
+    </row>
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -15700,9 +16302,9 @@
       <c r="I457">
         <v>0</v>
       </c>
-      <c r="J457" s="2"/>
-    </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K457" s="2"/>
+    </row>
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -15727,9 +16329,9 @@
       <c r="I458">
         <v>0</v>
       </c>
-      <c r="J458" s="2"/>
-    </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K458" s="2"/>
+    </row>
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -15754,9 +16356,9 @@
       <c r="I459">
         <v>0</v>
       </c>
-      <c r="J459" s="2"/>
-    </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K459" s="2"/>
+    </row>
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -15781,9 +16383,9 @@
       <c r="I460">
         <v>0</v>
       </c>
-      <c r="J460" s="2"/>
-    </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K460" s="2"/>
+    </row>
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -15808,9 +16410,9 @@
       <c r="I461">
         <v>0</v>
       </c>
-      <c r="J461" s="2"/>
-    </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K461" s="2"/>
+    </row>
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -15835,9 +16437,9 @@
       <c r="I462">
         <v>0</v>
       </c>
-      <c r="J462" s="2"/>
-    </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K462" s="2"/>
+    </row>
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -15862,9 +16464,9 @@
       <c r="I463">
         <v>0</v>
       </c>
-      <c r="J463" s="2"/>
-    </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K463" s="2"/>
+    </row>
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -15889,9 +16491,9 @@
       <c r="I464">
         <v>0</v>
       </c>
-      <c r="J464" s="2"/>
-    </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K464" s="2"/>
+    </row>
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -15916,9 +16518,9 @@
       <c r="I465">
         <v>0</v>
       </c>
-      <c r="J465" s="2"/>
-    </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K465" s="2"/>
+    </row>
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -15943,9 +16545,9 @@
       <c r="I466">
         <v>0</v>
       </c>
-      <c r="J466" s="2"/>
-    </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K466" s="2"/>
+    </row>
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -15970,9 +16572,9 @@
       <c r="I467">
         <v>0</v>
       </c>
-      <c r="J467" s="2"/>
-    </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K467" s="2"/>
+    </row>
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -15997,9 +16599,9 @@
       <c r="I468">
         <v>0</v>
       </c>
-      <c r="J468" s="2"/>
-    </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K468" s="2"/>
+    </row>
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -16024,9 +16626,9 @@
       <c r="I469">
         <v>0</v>
       </c>
-      <c r="J469" s="2"/>
-    </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K469" s="2"/>
+    </row>
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -16051,9 +16653,9 @@
       <c r="I470">
         <v>0</v>
       </c>
-      <c r="J470" s="2"/>
-    </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K470" s="2"/>
+    </row>
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -16078,9 +16680,9 @@
       <c r="I471">
         <v>0</v>
       </c>
-      <c r="J471" s="2"/>
-    </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K471" s="2"/>
+    </row>
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -16105,9 +16707,9 @@
       <c r="I472">
         <v>0</v>
       </c>
-      <c r="J472" s="2"/>
-    </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K472" s="2"/>
+    </row>
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -16132,9 +16734,9 @@
       <c r="I473">
         <v>0</v>
       </c>
-      <c r="J473" s="2"/>
-    </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K473" s="2"/>
+    </row>
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -16159,9 +16761,9 @@
       <c r="I474">
         <v>0</v>
       </c>
-      <c r="J474" s="2"/>
-    </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K474" s="2"/>
+    </row>
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -16186,9 +16788,9 @@
       <c r="I475">
         <v>0</v>
       </c>
-      <c r="J475" s="2"/>
-    </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K475" s="2"/>
+    </row>
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -16213,9 +16815,9 @@
       <c r="I476">
         <v>0</v>
       </c>
-      <c r="J476" s="2"/>
-    </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K476" s="2"/>
+    </row>
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -16240,9 +16842,9 @@
       <c r="I477">
         <v>0</v>
       </c>
-      <c r="J477" s="2"/>
-    </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K477" s="2"/>
+    </row>
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -16267,9 +16869,9 @@
       <c r="I478">
         <v>0</v>
       </c>
-      <c r="J478" s="2"/>
-    </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K478" s="2"/>
+    </row>
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -16294,9 +16896,9 @@
       <c r="I479">
         <v>0</v>
       </c>
-      <c r="J479" s="2"/>
-    </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K479" s="2"/>
+    </row>
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -16321,9 +16923,9 @@
       <c r="I480">
         <v>0</v>
       </c>
-      <c r="J480" s="2"/>
-    </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K480" s="2"/>
+    </row>
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -16348,9 +16950,9 @@
       <c r="I481">
         <v>0</v>
       </c>
-      <c r="J481" s="2"/>
-    </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K481" s="2"/>
+    </row>
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -16375,9 +16977,9 @@
       <c r="I482">
         <v>0</v>
       </c>
-      <c r="J482" s="2"/>
-    </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K482" s="2"/>
+    </row>
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -16402,9 +17004,9 @@
       <c r="I483">
         <v>0</v>
       </c>
-      <c r="J483" s="2"/>
-    </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K483" s="2"/>
+    </row>
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -16429,9 +17031,9 @@
       <c r="I484">
         <v>0</v>
       </c>
-      <c r="J484" s="2"/>
-    </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K484" s="2"/>
+    </row>
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -16456,9 +17058,9 @@
       <c r="I485">
         <v>0</v>
       </c>
-      <c r="J485" s="2"/>
-    </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K485" s="2"/>
+    </row>
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -16483,9 +17085,9 @@
       <c r="I486">
         <v>0</v>
       </c>
-      <c r="J486" s="2"/>
-    </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K486" s="2"/>
+    </row>
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -16510,9 +17112,9 @@
       <c r="I487">
         <v>0</v>
       </c>
-      <c r="J487" s="2"/>
-    </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K487" s="2"/>
+    </row>
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -16537,9 +17139,9 @@
       <c r="I488">
         <v>0</v>
       </c>
-      <c r="J488" s="2"/>
-    </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K488" s="2"/>
+    </row>
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -16564,9 +17166,9 @@
       <c r="I489">
         <v>0</v>
       </c>
-      <c r="J489" s="2"/>
-    </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K489" s="2"/>
+    </row>
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -16591,9 +17193,9 @@
       <c r="I490">
         <v>0</v>
       </c>
-      <c r="J490" s="2"/>
-    </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K490" s="2"/>
+    </row>
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -16618,9 +17220,9 @@
       <c r="I491">
         <v>0</v>
       </c>
-      <c r="J491" s="2"/>
-    </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K491" s="2"/>
+    </row>
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -16645,9 +17247,9 @@
       <c r="I492">
         <v>0</v>
       </c>
-      <c r="J492" s="2"/>
-    </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K492" s="2"/>
+    </row>
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -16672,9 +17274,9 @@
       <c r="I493">
         <v>0</v>
       </c>
-      <c r="J493" s="2"/>
-    </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K493" s="2"/>
+    </row>
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -16699,9 +17301,9 @@
       <c r="I494">
         <v>0</v>
       </c>
-      <c r="J494" s="2"/>
-    </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K494" s="2"/>
+    </row>
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -16726,9 +17328,9 @@
       <c r="I495">
         <v>0</v>
       </c>
-      <c r="J495" s="2"/>
-    </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K495" s="2"/>
+    </row>
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -16753,9 +17355,9 @@
       <c r="I496">
         <v>0</v>
       </c>
-      <c r="J496" s="2"/>
-    </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K496" s="2"/>
+    </row>
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -16780,9 +17382,9 @@
       <c r="I497">
         <v>0</v>
       </c>
-      <c r="J497" s="2"/>
-    </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K497" s="2"/>
+    </row>
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -16807,9 +17409,9 @@
       <c r="I498">
         <v>0</v>
       </c>
-      <c r="J498" s="2"/>
-    </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K498" s="2"/>
+    </row>
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -16834,9 +17436,9 @@
       <c r="I499">
         <v>0</v>
       </c>
-      <c r="J499" s="2"/>
-    </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K499" s="2"/>
+    </row>
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -16861,9 +17463,9 @@
       <c r="I500">
         <v>0</v>
       </c>
-      <c r="J500" s="2"/>
-    </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K500" s="2"/>
+    </row>
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -16888,9 +17490,9 @@
       <c r="I501">
         <v>0</v>
       </c>
-      <c r="J501" s="2"/>
-    </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K501" s="2"/>
+    </row>
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -16915,9 +17517,9 @@
       <c r="I502">
         <v>0</v>
       </c>
-      <c r="J502" s="2"/>
-    </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K502" s="2"/>
+    </row>
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -16942,9 +17544,9 @@
       <c r="I503">
         <v>0</v>
       </c>
-      <c r="J503" s="2"/>
-    </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K503" s="2"/>
+    </row>
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -16969,9 +17571,9 @@
       <c r="I504">
         <v>0</v>
       </c>
-      <c r="J504" s="2"/>
-    </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K504" s="2"/>
+    </row>
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -16996,9 +17598,9 @@
       <c r="I505">
         <v>0</v>
       </c>
-      <c r="J505" s="2"/>
-    </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K505" s="2"/>
+    </row>
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -17023,9 +17625,9 @@
       <c r="I506">
         <v>0</v>
       </c>
-      <c r="J506" s="2"/>
-    </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K506" s="2"/>
+    </row>
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -17050,9 +17652,9 @@
       <c r="I507">
         <v>0</v>
       </c>
-      <c r="J507" s="2"/>
-    </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K507" s="2"/>
+    </row>
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -17077,9 +17679,9 @@
       <c r="I508">
         <v>0</v>
       </c>
-      <c r="J508" s="2"/>
-    </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K508" s="2"/>
+    </row>
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -17104,9 +17706,9 @@
       <c r="I509">
         <v>0</v>
       </c>
-      <c r="J509" s="2"/>
-    </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K509" s="2"/>
+    </row>
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -17131,9 +17733,9 @@
       <c r="I510">
         <v>0</v>
       </c>
-      <c r="J510" s="2"/>
-    </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K510" s="2"/>
+    </row>
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -17158,9 +17760,9 @@
       <c r="I511">
         <v>0</v>
       </c>
-      <c r="J511" s="2"/>
-    </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K511" s="2"/>
+    </row>
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -17185,9 +17787,9 @@
       <c r="I512">
         <v>0</v>
       </c>
-      <c r="J512" s="2"/>
-    </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K512" s="2"/>
+    </row>
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -17212,9 +17814,9 @@
       <c r="I513">
         <v>0</v>
       </c>
-      <c r="J513" s="2"/>
-    </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K513" s="2"/>
+    </row>
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -17239,9 +17841,9 @@
       <c r="I514">
         <v>0</v>
       </c>
-      <c r="J514" s="2"/>
-    </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K514" s="2"/>
+    </row>
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -17266,9 +17868,9 @@
       <c r="I515">
         <v>0</v>
       </c>
-      <c r="J515" s="2"/>
-    </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K515" s="2"/>
+    </row>
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -17293,9 +17895,9 @@
       <c r="I516">
         <v>0</v>
       </c>
-      <c r="J516" s="2"/>
-    </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K516" s="2"/>
+    </row>
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -17320,9 +17922,9 @@
       <c r="I517">
         <v>0</v>
       </c>
-      <c r="J517" s="2"/>
-    </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K517" s="2"/>
+    </row>
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -17347,9 +17949,9 @@
       <c r="I518">
         <v>0</v>
       </c>
-      <c r="J518" s="2"/>
-    </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K518" s="2"/>
+    </row>
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -17374,9 +17976,9 @@
       <c r="I519">
         <v>0</v>
       </c>
-      <c r="J519" s="2"/>
-    </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K519" s="2"/>
+    </row>
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -17401,9 +18003,9 @@
       <c r="I520">
         <v>0</v>
       </c>
-      <c r="J520" s="2"/>
-    </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K520" s="2"/>
+    </row>
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -17428,9 +18030,9 @@
       <c r="I521">
         <v>0</v>
       </c>
-      <c r="J521" s="2"/>
-    </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K521" s="2"/>
+    </row>
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -17455,9 +18057,9 @@
       <c r="I522">
         <v>0</v>
       </c>
-      <c r="J522" s="2"/>
-    </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K522" s="2"/>
+    </row>
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -17482,9 +18084,9 @@
       <c r="I523">
         <v>0</v>
       </c>
-      <c r="J523" s="2"/>
-    </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K523" s="2"/>
+    </row>
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -17509,9 +18111,9 @@
       <c r="I524">
         <v>0</v>
       </c>
-      <c r="J524" s="2"/>
-    </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K524" s="2"/>
+    </row>
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -17536,9 +18138,9 @@
       <c r="I525">
         <v>0</v>
       </c>
-      <c r="J525" s="2"/>
-    </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K525" s="2"/>
+    </row>
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -17563,9 +18165,9 @@
       <c r="I526">
         <v>0</v>
       </c>
-      <c r="J526" s="2"/>
-    </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K526" s="2"/>
+    </row>
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -17590,9 +18192,9 @@
       <c r="I527">
         <v>0</v>
       </c>
-      <c r="J527" s="2"/>
-    </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K527" s="2"/>
+    </row>
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -17617,9 +18219,9 @@
       <c r="I528">
         <v>0</v>
       </c>
-      <c r="J528" s="2"/>
-    </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K528" s="2"/>
+    </row>
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -17644,9 +18246,9 @@
       <c r="I529">
         <v>0</v>
       </c>
-      <c r="J529" s="2"/>
-    </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K529" s="2"/>
+    </row>
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -17671,9 +18273,9 @@
       <c r="I530">
         <v>0</v>
       </c>
-      <c r="J530" s="2"/>
-    </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K530" s="2"/>
+    </row>
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -17698,9 +18300,9 @@
       <c r="I531">
         <v>0</v>
       </c>
-      <c r="J531" s="2"/>
-    </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K531" s="2"/>
+    </row>
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -17725,9 +18327,9 @@
       <c r="I532">
         <v>0</v>
       </c>
-      <c r="J532" s="2"/>
-    </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K532" s="2"/>
+    </row>
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -17752,9 +18354,9 @@
       <c r="I533">
         <v>0</v>
       </c>
-      <c r="J533" s="2"/>
-    </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K533" s="2"/>
+    </row>
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -17779,9 +18381,9 @@
       <c r="I534">
         <v>0</v>
       </c>
-      <c r="J534" s="2"/>
-    </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K534" s="2"/>
+    </row>
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -17806,9 +18408,9 @@
       <c r="I535">
         <v>0</v>
       </c>
-      <c r="J535" s="2"/>
-    </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K535" s="2"/>
+    </row>
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -17833,9 +18435,9 @@
       <c r="I536">
         <v>0</v>
       </c>
-      <c r="J536" s="2"/>
-    </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K536" s="2"/>
+    </row>
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -17860,9 +18462,9 @@
       <c r="I537">
         <v>0</v>
       </c>
-      <c r="J537" s="2"/>
-    </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K537" s="2"/>
+    </row>
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -17887,9 +18489,9 @@
       <c r="I538">
         <v>0</v>
       </c>
-      <c r="J538" s="2"/>
-    </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K538" s="2"/>
+    </row>
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -17914,9 +18516,9 @@
       <c r="I539">
         <v>0</v>
       </c>
-      <c r="J539" s="2"/>
-    </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K539" s="2"/>
+    </row>
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -17941,9 +18543,9 @@
       <c r="I540">
         <v>0</v>
       </c>
-      <c r="J540" s="2"/>
-    </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K540" s="2"/>
+    </row>
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -17968,9 +18570,9 @@
       <c r="I541">
         <v>0</v>
       </c>
-      <c r="J541" s="2"/>
-    </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K541" s="2"/>
+    </row>
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -17995,9 +18597,9 @@
       <c r="I542">
         <v>0</v>
       </c>
-      <c r="J542" s="2"/>
-    </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K542" s="2"/>
+    </row>
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -18022,9 +18624,9 @@
       <c r="I543">
         <v>0</v>
       </c>
-      <c r="J543" s="2"/>
-    </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K543" s="2"/>
+    </row>
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -18049,9 +18651,9 @@
       <c r="I544">
         <v>0</v>
       </c>
-      <c r="J544" s="2"/>
-    </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K544" s="2"/>
+    </row>
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -18076,9 +18678,9 @@
       <c r="I545">
         <v>0</v>
       </c>
-      <c r="J545" s="2"/>
-    </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K545" s="2"/>
+    </row>
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -18103,9 +18705,9 @@
       <c r="I546">
         <v>0</v>
       </c>
-      <c r="J546" s="2"/>
-    </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K546" s="2"/>
+    </row>
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -18130,9 +18732,9 @@
       <c r="I547">
         <v>0</v>
       </c>
-      <c r="J547" s="2"/>
-    </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K547" s="2"/>
+    </row>
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -18157,9 +18759,9 @@
       <c r="I548">
         <v>0</v>
       </c>
-      <c r="J548" s="2"/>
-    </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K548" s="2"/>
+    </row>
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -18184,9 +18786,9 @@
       <c r="I549">
         <v>0</v>
       </c>
-      <c r="J549" s="2"/>
-    </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K549" s="2"/>
+    </row>
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -18211,9 +18813,9 @@
       <c r="I550">
         <v>0</v>
       </c>
-      <c r="J550" s="2"/>
-    </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K550" s="2"/>
+    </row>
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -18238,9 +18840,9 @@
       <c r="I551">
         <v>0</v>
       </c>
-      <c r="J551" s="2"/>
-    </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K551" s="2"/>
+    </row>
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -18265,9 +18867,9 @@
       <c r="I552">
         <v>0</v>
       </c>
-      <c r="J552" s="2"/>
-    </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K552" s="2"/>
+    </row>
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -18292,9 +18894,9 @@
       <c r="I553">
         <v>0</v>
       </c>
-      <c r="J553" s="2"/>
-    </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K553" s="2"/>
+    </row>
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -18319,9 +18921,9 @@
       <c r="I554">
         <v>0</v>
       </c>
-      <c r="J554" s="2"/>
-    </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K554" s="2"/>
+    </row>
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -18346,9 +18948,9 @@
       <c r="I555">
         <v>0</v>
       </c>
-      <c r="J555" s="2"/>
-    </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K555" s="2"/>
+    </row>
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -18373,9 +18975,9 @@
       <c r="I556">
         <v>0</v>
       </c>
-      <c r="J556" s="2"/>
-    </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K556" s="2"/>
+    </row>
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -18400,9 +19002,9 @@
       <c r="I557">
         <v>0</v>
       </c>
-      <c r="J557" s="2"/>
-    </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K557" s="2"/>
+    </row>
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -18427,9 +19029,9 @@
       <c r="I558">
         <v>0</v>
       </c>
-      <c r="J558" s="2"/>
-    </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K558" s="2"/>
+    </row>
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -18454,9 +19056,9 @@
       <c r="I559">
         <v>0</v>
       </c>
-      <c r="J559" s="2"/>
-    </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K559" s="2"/>
+    </row>
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -18481,9 +19083,9 @@
       <c r="I560">
         <v>0</v>
       </c>
-      <c r="J560" s="2"/>
-    </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K560" s="2"/>
+    </row>
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -18508,9 +19110,9 @@
       <c r="I561">
         <v>0</v>
       </c>
-      <c r="J561" s="2"/>
-    </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K561" s="2"/>
+    </row>
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -18535,9 +19137,9 @@
       <c r="I562">
         <v>0</v>
       </c>
-      <c r="J562" s="2"/>
-    </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K562" s="2"/>
+    </row>
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -18562,9 +19164,9 @@
       <c r="I563">
         <v>0</v>
       </c>
-      <c r="J563" s="2"/>
-    </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K563" s="2"/>
+    </row>
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -18589,9 +19191,9 @@
       <c r="I564">
         <v>0</v>
       </c>
-      <c r="J564" s="2"/>
-    </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K564" s="2"/>
+    </row>
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -18616,9 +19218,9 @@
       <c r="I565">
         <v>0</v>
       </c>
-      <c r="J565" s="2"/>
-    </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K565" s="2"/>
+    </row>
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -18643,9 +19245,9 @@
       <c r="I566">
         <v>0</v>
       </c>
-      <c r="J566" s="2"/>
-    </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K566" s="2"/>
+    </row>
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -18670,9 +19272,9 @@
       <c r="I567">
         <v>0</v>
       </c>
-      <c r="J567" s="2"/>
-    </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K567" s="2"/>
+    </row>
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -18697,9 +19299,9 @@
       <c r="I568">
         <v>0</v>
       </c>
-      <c r="J568" s="2"/>
-    </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K568" s="2"/>
+    </row>
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -18724,9 +19326,9 @@
       <c r="I569">
         <v>0</v>
       </c>
-      <c r="J569" s="2"/>
-    </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K569" s="2"/>
+    </row>
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -18751,9 +19353,9 @@
       <c r="I570">
         <v>0</v>
       </c>
-      <c r="J570" s="2"/>
-    </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K570" s="2"/>
+    </row>
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -18778,9 +19380,9 @@
       <c r="I571">
         <v>0</v>
       </c>
-      <c r="J571" s="2"/>
-    </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K571" s="2"/>
+    </row>
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -18805,9 +19407,9 @@
       <c r="I572">
         <v>0</v>
       </c>
-      <c r="J572" s="2"/>
-    </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K572" s="2"/>
+    </row>
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -18832,9 +19434,9 @@
       <c r="I573">
         <v>0</v>
       </c>
-      <c r="J573" s="2"/>
-    </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K573" s="2"/>
+    </row>
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -18859,9 +19461,9 @@
       <c r="I574">
         <v>0</v>
       </c>
-      <c r="J574" s="2"/>
-    </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K574" s="2"/>
+    </row>
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -18886,9 +19488,9 @@
       <c r="I575">
         <v>0</v>
       </c>
-      <c r="J575" s="2"/>
-    </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K575" s="2"/>
+    </row>
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -18913,9 +19515,9 @@
       <c r="I576">
         <v>0</v>
       </c>
-      <c r="J576" s="2"/>
-    </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K576" s="2"/>
+    </row>
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -18940,9 +19542,9 @@
       <c r="I577">
         <v>0</v>
       </c>
-      <c r="J577" s="2"/>
-    </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K577" s="2"/>
+    </row>
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -18967,9 +19569,9 @@
       <c r="I578">
         <v>0</v>
       </c>
-      <c r="J578" s="2"/>
-    </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K578" s="2"/>
+    </row>
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -18994,9 +19596,9 @@
       <c r="I579">
         <v>0</v>
       </c>
-      <c r="J579" s="2"/>
-    </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K579" s="2"/>
+    </row>
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -19021,9 +19623,9 @@
       <c r="I580">
         <v>0</v>
       </c>
-      <c r="J580" s="2"/>
-    </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K580" s="2"/>
+    </row>
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -19048,9 +19650,9 @@
       <c r="I581">
         <v>0</v>
       </c>
-      <c r="J581" s="2"/>
-    </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K581" s="2"/>
+    </row>
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -19075,9 +19677,9 @@
       <c r="I582">
         <v>0</v>
       </c>
-      <c r="J582" s="2"/>
-    </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K582" s="2"/>
+    </row>
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -19102,9 +19704,9 @@
       <c r="I583">
         <v>0</v>
       </c>
-      <c r="J583" s="2"/>
-    </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K583" s="2"/>
+    </row>
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -19129,9 +19731,9 @@
       <c r="I584">
         <v>0</v>
       </c>
-      <c r="J584" s="2"/>
-    </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K584" s="2"/>
+    </row>
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -19156,9 +19758,9 @@
       <c r="I585">
         <v>0</v>
       </c>
-      <c r="J585" s="2"/>
-    </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K585" s="2"/>
+    </row>
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -19183,9 +19785,9 @@
       <c r="I586">
         <v>0</v>
       </c>
-      <c r="J586" s="2"/>
-    </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K586" s="2"/>
+    </row>
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -19210,9 +19812,9 @@
       <c r="I587">
         <v>0</v>
       </c>
-      <c r="J587" s="2"/>
-    </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K587" s="2"/>
+    </row>
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -19237,9 +19839,9 @@
       <c r="I588">
         <v>0</v>
       </c>
-      <c r="J588" s="2"/>
-    </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K588" s="2"/>
+    </row>
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -19264,9 +19866,9 @@
       <c r="I589">
         <v>0</v>
       </c>
-      <c r="J589" s="2"/>
-    </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K589" s="2"/>
+    </row>
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -19291,9 +19893,9 @@
       <c r="I590">
         <v>0</v>
       </c>
-      <c r="J590" s="2"/>
-    </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K590" s="2"/>
+    </row>
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -19318,9 +19920,9 @@
       <c r="I591">
         <v>0</v>
       </c>
-      <c r="J591" s="2"/>
-    </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K591" s="2"/>
+    </row>
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -19345,9 +19947,9 @@
       <c r="I592">
         <v>0</v>
       </c>
-      <c r="J592" s="2"/>
-    </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K592" s="2"/>
+    </row>
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -19372,9 +19974,9 @@
       <c r="I593">
         <v>0</v>
       </c>
-      <c r="J593" s="2"/>
-    </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K593" s="2"/>
+    </row>
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -19399,9 +20001,9 @@
       <c r="I594">
         <v>0</v>
       </c>
-      <c r="J594" s="2"/>
-    </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K594" s="2"/>
+    </row>
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -19426,9 +20028,9 @@
       <c r="I595">
         <v>0</v>
       </c>
-      <c r="J595" s="2"/>
-    </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K595" s="2"/>
+    </row>
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -19453,9 +20055,9 @@
       <c r="I596">
         <v>0</v>
       </c>
-      <c r="J596" s="2"/>
-    </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K596" s="2"/>
+    </row>
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -19480,9 +20082,9 @@
       <c r="I597">
         <v>0</v>
       </c>
-      <c r="J597" s="2"/>
-    </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K597" s="2"/>
+    </row>
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -19507,9 +20109,9 @@
       <c r="I598">
         <v>0</v>
       </c>
-      <c r="J598" s="2"/>
-    </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K598" s="2"/>
+    </row>
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -19534,9 +20136,9 @@
       <c r="I599">
         <v>0</v>
       </c>
-      <c r="J599" s="2"/>
-    </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K599" s="2"/>
+    </row>
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -19561,9 +20163,9 @@
       <c r="I600">
         <v>0</v>
       </c>
-      <c r="J600" s="2"/>
-    </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K600" s="2"/>
+    </row>
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -19588,9 +20190,9 @@
       <c r="I601">
         <v>0</v>
       </c>
-      <c r="J601" s="2"/>
-    </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K601" s="2"/>
+    </row>
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -19615,9 +20217,9 @@
       <c r="I602">
         <v>0</v>
       </c>
-      <c r="J602" s="2"/>
-    </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K602" s="2"/>
+    </row>
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -19642,9 +20244,9 @@
       <c r="I603">
         <v>0</v>
       </c>
-      <c r="J603" s="2"/>
-    </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K603" s="2"/>
+    </row>
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -19669,9 +20271,9 @@
       <c r="I604">
         <v>0</v>
       </c>
-      <c r="J604" s="2"/>
-    </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K604" s="2"/>
+    </row>
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -19696,9 +20298,9 @@
       <c r="I605">
         <v>0</v>
       </c>
-      <c r="J605" s="2"/>
-    </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K605" s="2"/>
+    </row>
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -19723,9 +20325,9 @@
       <c r="I606">
         <v>0</v>
       </c>
-      <c r="J606" s="2"/>
-    </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K606" s="2"/>
+    </row>
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -19750,9 +20352,9 @@
       <c r="I607">
         <v>0</v>
       </c>
-      <c r="J607" s="2"/>
-    </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K607" s="2"/>
+    </row>
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -19777,9 +20379,9 @@
       <c r="I608">
         <v>0</v>
       </c>
-      <c r="J608" s="2"/>
-    </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K608" s="2"/>
+    </row>
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -19804,9 +20406,9 @@
       <c r="I609">
         <v>0</v>
       </c>
-      <c r="J609" s="2"/>
-    </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K609" s="2"/>
+    </row>
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -19831,9 +20433,9 @@
       <c r="I610">
         <v>0</v>
       </c>
-      <c r="J610" s="2"/>
-    </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K610" s="2"/>
+    </row>
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -19858,9 +20460,9 @@
       <c r="I611">
         <v>0</v>
       </c>
-      <c r="J611" s="2"/>
-    </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K611" s="2"/>
+    </row>
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -19885,9 +20487,9 @@
       <c r="I612">
         <v>0</v>
       </c>
-      <c r="J612" s="2"/>
-    </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K612" s="2"/>
+    </row>
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -19912,9 +20514,9 @@
       <c r="I613">
         <v>0</v>
       </c>
-      <c r="J613" s="2"/>
-    </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K613" s="2"/>
+    </row>
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -19939,9 +20541,9 @@
       <c r="I614">
         <v>0</v>
       </c>
-      <c r="J614" s="2"/>
-    </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K614" s="2"/>
+    </row>
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -19966,9 +20568,9 @@
       <c r="I615">
         <v>0</v>
       </c>
-      <c r="J615" s="2"/>
-    </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K615" s="2"/>
+    </row>
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -19993,9 +20595,9 @@
       <c r="I616">
         <v>0</v>
       </c>
-      <c r="J616" s="2"/>
-    </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K616" s="2"/>
+    </row>
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -20020,9 +20622,9 @@
       <c r="I617">
         <v>0</v>
       </c>
-      <c r="J617" s="2"/>
-    </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K617" s="2"/>
+    </row>
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -20047,9 +20649,9 @@
       <c r="I618">
         <v>0</v>
       </c>
-      <c r="J618" s="2"/>
-    </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K618" s="2"/>
+    </row>
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -20074,9 +20676,9 @@
       <c r="I619">
         <v>0</v>
       </c>
-      <c r="J619" s="2"/>
-    </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K619" s="2"/>
+    </row>
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -20101,11 +20703,12 @@
       <c r="I620">
         <v>0</v>
       </c>
-      <c r="J620" s="2"/>
+      <c r="K620" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D1EE6F-B9B7-434D-87B6-2C257841D248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D968EFD2-BE94-7E4A-AA55-3EB142DA8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="655">
   <si>
     <t>tree_ID</t>
   </si>
@@ -1985,9 +1985,6 @@
     <t>62</t>
   </si>
   <si>
-    <t>doy62: probably the replicate missing its tag. Pheno stage 1 on doy62</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -2001,6 +1998,9 @@
   </si>
   <si>
     <t>doy69: probably dead</t>
+  </si>
+  <si>
+    <t>doy62: probably the replicate missing its tag. Pheno stage 1 on doy62. confirming on doy69 that this is the replicate with a missing tag.</t>
   </si>
 </sst>
 </file>
@@ -2501,8 +2501,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2669,14 +2669,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:K620" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="acer"/>
+        <filter val="prunus"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3016,9 +3011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H396" sqref="H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3056,10 +3051,10 @@
         <v>648</v>
       </c>
       <c r="J1" t="s">
-        <v>650</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
+      </c>
+      <c r="K1" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -3087,7 +3082,10 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -3116,7 +3114,10 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
@@ -3145,7 +3146,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -3174,7 +3178,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -3203,7 +3210,10 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>0</v>
       </c>
     </row>
@@ -3232,7 +3242,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
     </row>
@@ -3261,7 +3274,10 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -3290,7 +3306,10 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9" s="2">
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
     </row>
@@ -3319,7 +3338,10 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10" s="2">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
     </row>
@@ -3348,11 +3370,14 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3377,11 +3402,14 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3406,11 +3434,14 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3435,11 +3466,14 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3464,11 +3498,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3493,7 +3530,10 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
     </row>
@@ -3522,7 +3562,10 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="2">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>1</v>
       </c>
     </row>
@@ -3551,7 +3594,10 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
     </row>
@@ -3580,7 +3626,10 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
     </row>
@@ -3609,7 +3658,10 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>1</v>
       </c>
     </row>
@@ -3638,7 +3690,10 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
     </row>
@@ -3667,7 +3722,10 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
     </row>
@@ -3696,7 +3754,10 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
     </row>
@@ -3725,7 +3786,10 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>0</v>
       </c>
     </row>
@@ -3754,7 +3818,10 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -3783,11 +3850,14 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3812,11 +3882,14 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3841,11 +3914,14 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3870,11 +3946,14 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3899,11 +3978,14 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3928,7 +4010,10 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
     </row>
@@ -3957,7 +4042,10 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>0</v>
       </c>
     </row>
@@ -3986,7 +4074,10 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>
@@ -4015,7 +4106,10 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
     </row>
@@ -4044,7 +4138,10 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0</v>
       </c>
     </row>
@@ -4073,7 +4170,10 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="K36" s="2">
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
     </row>
@@ -4102,7 +4202,10 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
     </row>
@@ -4131,7 +4234,10 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="K38" s="2">
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>0</v>
       </c>
     </row>
@@ -4160,7 +4266,10 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" s="2">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
@@ -4189,7 +4298,10 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="K40" s="2">
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>1</v>
       </c>
     </row>
@@ -4218,11 +4330,14 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4247,11 +4362,14 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4276,11 +4394,14 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4305,11 +4426,14 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4334,11 +4458,14 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4363,7 +4490,10 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="K46" s="2">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4522,10 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="K47" s="2">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
         <v>1</v>
       </c>
     </row>
@@ -4421,7 +4554,10 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="K48" s="2">
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>0</v>
       </c>
     </row>
@@ -4450,7 +4586,10 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="K49" s="2">
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>0</v>
       </c>
     </row>
@@ -4479,7 +4618,10 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
         <v>0</v>
       </c>
     </row>
@@ -4508,7 +4650,10 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="K51" s="2">
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>0</v>
       </c>
     </row>
@@ -4537,7 +4682,10 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>0</v>
       </c>
     </row>
@@ -4566,7 +4714,10 @@
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="K53" s="2">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
         <v>1</v>
       </c>
     </row>
@@ -4595,7 +4746,10 @@
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="K54" s="2">
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
         <v>1</v>
       </c>
     </row>
@@ -4624,7 +4778,10 @@
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="K55" s="2">
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
         <v>1</v>
       </c>
     </row>
@@ -4653,11 +4810,14 @@
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4682,11 +4842,14 @@
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4711,11 +4874,14 @@
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4740,11 +4906,14 @@
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4769,11 +4938,14 @@
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4798,7 +4970,10 @@
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="K61" s="2">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>1</v>
       </c>
     </row>
@@ -4827,7 +5002,10 @@
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="K62" s="2">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
         <v>0</v>
       </c>
     </row>
@@ -4856,7 +5034,10 @@
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="K63" s="2">
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
         <v>0</v>
       </c>
     </row>
@@ -4885,7 +5066,10 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="K64" s="2">
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
         <v>0</v>
       </c>
     </row>
@@ -4914,7 +5098,10 @@
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="K65" s="2">
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
         <v>0</v>
       </c>
     </row>
@@ -4943,7 +5130,10 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="K66" s="2">
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
         <v>1</v>
       </c>
     </row>
@@ -4972,7 +5162,10 @@
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="K67" s="2">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
         <v>0</v>
       </c>
     </row>
@@ -5001,7 +5194,10 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
         <v>0</v>
       </c>
     </row>
@@ -5030,7 +5226,10 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>0</v>
       </c>
     </row>
@@ -5059,7 +5258,10 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="K70" s="2">
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
         <v>0</v>
       </c>
     </row>
@@ -5088,11 +5290,14 @@
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="K71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5117,11 +5322,14 @@
       <c r="I72">
         <v>0</v>
       </c>
-      <c r="K72" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5146,11 +5354,14 @@
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5175,11 +5386,14 @@
       <c r="I74">
         <v>0</v>
       </c>
-      <c r="K74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -5204,11 +5418,14 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="K75" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5233,7 +5450,10 @@
       <c r="I76">
         <v>0</v>
       </c>
-      <c r="K76" s="2">
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +5482,10 @@
       <c r="I77">
         <v>0</v>
       </c>
-      <c r="K77" s="2">
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
         <v>0</v>
       </c>
     </row>
@@ -5291,7 +5514,10 @@
       <c r="I78">
         <v>0</v>
       </c>
-      <c r="K78" s="2">
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
         <v>0</v>
       </c>
     </row>
@@ -5320,7 +5546,10 @@
       <c r="I79">
         <v>0</v>
       </c>
-      <c r="K79" s="2">
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
         <v>0</v>
       </c>
     </row>
@@ -5349,7 +5578,10 @@
       <c r="I80">
         <v>0</v>
       </c>
-      <c r="K80" s="2">
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
         <v>0</v>
       </c>
     </row>
@@ -5378,7 +5610,10 @@
       <c r="I81">
         <v>0</v>
       </c>
-      <c r="K81" s="2">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
         <v>0</v>
       </c>
     </row>
@@ -5407,7 +5642,10 @@
       <c r="I82">
         <v>0</v>
       </c>
-      <c r="K82" s="2">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
         <v>0</v>
       </c>
     </row>
@@ -5436,7 +5674,10 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="K83" s="2">
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
         <v>0</v>
       </c>
     </row>
@@ -5465,7 +5706,10 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="K84" s="2">
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
         <v>0</v>
       </c>
     </row>
@@ -5494,7 +5738,10 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="K85" s="2">
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
         <v>0</v>
       </c>
     </row>
@@ -5523,11 +5770,14 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5552,11 +5802,14 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="K87" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5581,11 +5834,14 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="K88" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5610,11 +5866,14 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="K89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5639,11 +5898,14 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="K90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5668,7 +5930,10 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="K91" s="2">
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
         <v>0</v>
       </c>
     </row>
@@ -5700,7 +5965,7 @@
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92">
         <v>0</v>
       </c>
     </row>
@@ -5732,7 +5997,7 @@
       <c r="J93">
         <v>1</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93">
         <v>1</v>
       </c>
     </row>
@@ -5764,7 +6029,7 @@
       <c r="J94">
         <v>0</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94">
         <v>1</v>
       </c>
     </row>
@@ -5796,7 +6061,7 @@
       <c r="J95">
         <v>0</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95">
         <v>1</v>
       </c>
     </row>
@@ -5828,7 +6093,7 @@
       <c r="J96">
         <v>1</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96">
         <v>1</v>
       </c>
     </row>
@@ -5860,7 +6125,7 @@
       <c r="J97">
         <v>1</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97">
         <v>1</v>
       </c>
     </row>
@@ -5892,7 +6157,7 @@
       <c r="J98">
         <v>1</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98">
         <v>2</v>
       </c>
     </row>
@@ -5924,7 +6189,7 @@
       <c r="J99">
         <v>1</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99">
         <v>1</v>
       </c>
     </row>
@@ -5956,7 +6221,7 @@
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100">
         <v>1</v>
       </c>
     </row>
@@ -5988,7 +6253,7 @@
       <c r="J101">
         <v>0</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101">
         <v>0</v>
       </c>
     </row>
@@ -6020,7 +6285,9 @@
       <c r="J102">
         <v>1</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -6050,7 +6317,9 @@
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103" s="2"/>
+      <c r="K103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6080,7 +6349,9 @@
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104" s="2"/>
+      <c r="K104">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -6110,7 +6381,9 @@
       <c r="J105">
         <v>1</v>
       </c>
-      <c r="K105" s="2"/>
+      <c r="K105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -6140,7 +6413,9 @@
       <c r="J106">
         <v>1</v>
       </c>
-      <c r="K106" s="2"/>
+      <c r="K106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -6170,7 +6445,7 @@
       <c r="J107">
         <v>1</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107">
         <v>1</v>
       </c>
     </row>
@@ -6202,7 +6477,7 @@
       <c r="J108">
         <v>1</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108">
         <v>2</v>
       </c>
     </row>
@@ -6234,7 +6509,7 @@
       <c r="J109">
         <v>1</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109">
         <v>2</v>
       </c>
     </row>
@@ -6266,7 +6541,7 @@
       <c r="J110">
         <v>1</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110">
         <v>1</v>
       </c>
     </row>
@@ -6298,7 +6573,7 @@
       <c r="J111">
         <v>1</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111">
         <v>1</v>
       </c>
     </row>
@@ -6330,7 +6605,7 @@
       <c r="J112">
         <v>1</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112">
         <v>1</v>
       </c>
     </row>
@@ -6362,7 +6637,7 @@
       <c r="J113">
         <v>1</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113">
         <v>2</v>
       </c>
     </row>
@@ -6394,7 +6669,7 @@
       <c r="J114">
         <v>1</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114">
         <v>1</v>
       </c>
     </row>
@@ -6426,7 +6701,7 @@
       <c r="J115">
         <v>0</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115">
         <v>1</v>
       </c>
     </row>
@@ -6458,7 +6733,7 @@
       <c r="J116">
         <v>1</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116">
         <v>2</v>
       </c>
     </row>
@@ -6490,7 +6765,9 @@
       <c r="J117">
         <v>0</v>
       </c>
-      <c r="K117" s="2"/>
+      <c r="K117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -6520,7 +6797,9 @@
       <c r="J118">
         <v>0</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -6550,7 +6829,9 @@
       <c r="J119">
         <v>1</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -6580,7 +6861,9 @@
       <c r="J120">
         <v>1</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -6610,7 +6893,9 @@
       <c r="J121">
         <v>1</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -6640,7 +6925,7 @@
       <c r="J122">
         <v>0</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122">
         <v>0</v>
       </c>
     </row>
@@ -6672,7 +6957,7 @@
       <c r="J123">
         <v>0</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123">
         <v>0</v>
       </c>
     </row>
@@ -6704,7 +6989,7 @@
       <c r="J124">
         <v>0</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124">
         <v>0</v>
       </c>
     </row>
@@ -6736,7 +7021,7 @@
       <c r="J125">
         <v>0</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125">
         <v>0</v>
       </c>
     </row>
@@ -6768,7 +7053,7 @@
       <c r="J126">
         <v>0</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126">
         <v>1</v>
       </c>
     </row>
@@ -6800,7 +7085,7 @@
       <c r="J127">
         <v>0</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127">
         <v>0</v>
       </c>
     </row>
@@ -6832,7 +7117,7 @@
       <c r="J128">
         <v>0</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128">
         <v>0</v>
       </c>
     </row>
@@ -6864,7 +7149,7 @@
       <c r="J129">
         <v>0</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129">
         <v>0</v>
       </c>
     </row>
@@ -6896,7 +7181,7 @@
       <c r="J130">
         <v>0</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130">
         <v>0</v>
       </c>
     </row>
@@ -6928,7 +7213,7 @@
       <c r="J131">
         <v>0</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131">
         <v>0</v>
       </c>
     </row>
@@ -6960,7 +7245,9 @@
       <c r="J132">
         <v>0</v>
       </c>
-      <c r="K132" s="2"/>
+      <c r="K132">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -6990,7 +7277,9 @@
       <c r="J133">
         <v>1</v>
       </c>
-      <c r="K133" s="2"/>
+      <c r="K133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -7020,7 +7309,9 @@
       <c r="J134">
         <v>1</v>
       </c>
-      <c r="K134" s="2"/>
+      <c r="K134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -7050,7 +7341,9 @@
       <c r="J135">
         <v>1</v>
       </c>
-      <c r="K135" s="2"/>
+      <c r="K135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -7080,7 +7373,9 @@
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="K136" s="2"/>
+      <c r="K136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -7110,7 +7405,7 @@
       <c r="J137">
         <v>1</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137">
         <v>1</v>
       </c>
     </row>
@@ -7142,7 +7437,7 @@
       <c r="J138">
         <v>0</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138">
         <v>1</v>
       </c>
     </row>
@@ -7174,7 +7469,7 @@
       <c r="J139">
         <v>1</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139">
         <v>1</v>
       </c>
     </row>
@@ -7206,7 +7501,7 @@
       <c r="J140">
         <v>1</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140">
         <v>2</v>
       </c>
     </row>
@@ -7238,7 +7533,7 @@
       <c r="J141">
         <v>0</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141">
         <v>1</v>
       </c>
     </row>
@@ -7270,7 +7565,7 @@
       <c r="J142">
         <v>0</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142">
         <v>1</v>
       </c>
     </row>
@@ -7302,7 +7597,7 @@
       <c r="J143">
         <v>0</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143">
         <v>1</v>
       </c>
     </row>
@@ -7334,7 +7629,7 @@
       <c r="J144">
         <v>0</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144">
         <v>0</v>
       </c>
     </row>
@@ -7366,7 +7661,7 @@
       <c r="J145">
         <v>1</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145">
         <v>1</v>
       </c>
     </row>
@@ -7398,7 +7693,7 @@
       <c r="J146">
         <v>1</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146">
         <v>2</v>
       </c>
     </row>
@@ -7430,7 +7725,9 @@
       <c r="J147">
         <v>1</v>
       </c>
-      <c r="K147" s="2"/>
+      <c r="K147">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -7460,7 +7757,9 @@
       <c r="J148">
         <v>1</v>
       </c>
-      <c r="K148" s="2"/>
+      <c r="K148">
+        <v>2</v>
+      </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -7490,7 +7789,9 @@
       <c r="J149">
         <v>0</v>
       </c>
-      <c r="K149" s="2"/>
+      <c r="K149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -7520,7 +7821,9 @@
       <c r="J150">
         <v>0</v>
       </c>
-      <c r="K150" s="2"/>
+      <c r="K150">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -7550,7 +7853,9 @@
       <c r="J151">
         <v>1</v>
       </c>
-      <c r="K151" s="2"/>
+      <c r="K151">
+        <v>2</v>
+      </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -7580,7 +7885,7 @@
       <c r="J152">
         <v>0</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152">
         <v>0</v>
       </c>
     </row>
@@ -7612,7 +7917,7 @@
       <c r="J153">
         <v>1</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153">
         <v>1</v>
       </c>
     </row>
@@ -7644,7 +7949,7 @@
       <c r="J154">
         <v>0</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154">
         <v>1</v>
       </c>
     </row>
@@ -7676,7 +7981,7 @@
       <c r="J155">
         <v>0</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155">
         <v>0</v>
       </c>
     </row>
@@ -7708,7 +8013,7 @@
       <c r="J156">
         <v>0</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156">
         <v>1</v>
       </c>
     </row>
@@ -7740,7 +8045,7 @@
       <c r="J157">
         <v>0</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157">
         <v>1</v>
       </c>
     </row>
@@ -7772,7 +8077,7 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158">
         <v>0</v>
       </c>
     </row>
@@ -7804,7 +8109,7 @@
       <c r="J159">
         <v>0</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159">
         <v>0</v>
       </c>
     </row>
@@ -7836,7 +8141,7 @@
       <c r="J160">
         <v>0</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160">
         <v>0</v>
       </c>
     </row>
@@ -7868,7 +8173,7 @@
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161">
         <v>0</v>
       </c>
     </row>
@@ -7900,7 +8205,9 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162" s="2"/>
+      <c r="K162">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -7930,7 +8237,9 @@
       <c r="J163">
         <v>0</v>
       </c>
-      <c r="K163" s="2"/>
+      <c r="K163">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -7960,9 +8269,11 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -7990,7 +8301,9 @@
       <c r="J165">
         <v>0</v>
       </c>
-      <c r="K165" s="2"/>
+      <c r="K165">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -8020,7 +8333,9 @@
       <c r="J166">
         <v>0</v>
       </c>
-      <c r="K166" s="2"/>
+      <c r="K166">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -8050,7 +8365,7 @@
       <c r="J167">
         <v>1</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167">
         <v>1</v>
       </c>
     </row>
@@ -8082,7 +8397,7 @@
       <c r="J168">
         <v>1</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168">
         <v>1</v>
       </c>
     </row>
@@ -8114,7 +8429,7 @@
       <c r="J169">
         <v>0</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169">
         <v>0</v>
       </c>
     </row>
@@ -8146,7 +8461,7 @@
       <c r="J170">
         <v>0</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170">
         <v>0</v>
       </c>
     </row>
@@ -8178,7 +8493,7 @@
       <c r="J171">
         <v>0</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171">
         <v>0</v>
       </c>
     </row>
@@ -8210,7 +8525,7 @@
       <c r="J172">
         <v>1</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172">
         <v>1</v>
       </c>
     </row>
@@ -8242,7 +8557,7 @@
       <c r="J173">
         <v>0</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173">
         <v>0</v>
       </c>
     </row>
@@ -8274,7 +8589,7 @@
       <c r="J174">
         <v>0</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K174">
         <v>0</v>
       </c>
     </row>
@@ -8306,7 +8621,7 @@
       <c r="J175">
         <v>0</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175">
         <v>0</v>
       </c>
     </row>
@@ -8338,7 +8653,7 @@
       <c r="J176">
         <v>1</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176">
         <v>1</v>
       </c>
     </row>
@@ -8370,7 +8685,9 @@
       <c r="J177">
         <v>0</v>
       </c>
-      <c r="K177" s="2"/>
+      <c r="K177">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -8400,7 +8717,9 @@
       <c r="J178">
         <v>0</v>
       </c>
-      <c r="K178" s="2"/>
+      <c r="K178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -8430,7 +8749,9 @@
       <c r="J179">
         <v>0</v>
       </c>
-      <c r="K179" s="2"/>
+      <c r="K179">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -8460,7 +8781,9 @@
       <c r="J180">
         <v>0</v>
       </c>
-      <c r="K180" s="2"/>
+      <c r="K180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -8490,7 +8813,9 @@
       <c r="J181">
         <v>0</v>
       </c>
-      <c r="K181" s="2"/>
+      <c r="K181">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -8517,7 +8842,12 @@
       <c r="I182">
         <v>0</v>
       </c>
-      <c r="K182" s="2"/>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -8544,7 +8874,12 @@
       <c r="I183">
         <v>0</v>
       </c>
-      <c r="K183" s="2"/>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -8571,7 +8906,12 @@
       <c r="I184">
         <v>0</v>
       </c>
-      <c r="K184" s="2"/>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -8598,7 +8938,12 @@
       <c r="I185">
         <v>0</v>
       </c>
-      <c r="K185" s="2"/>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -8625,7 +8970,12 @@
       <c r="I186">
         <v>0</v>
       </c>
-      <c r="K186" s="2"/>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -8652,7 +9002,12 @@
       <c r="I187">
         <v>0</v>
       </c>
-      <c r="K187" s="2"/>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -8679,7 +9034,12 @@
       <c r="I188">
         <v>0</v>
       </c>
-      <c r="K188" s="2"/>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -8706,7 +9066,12 @@
       <c r="I189">
         <v>0</v>
       </c>
-      <c r="K189" s="2"/>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -8733,7 +9098,12 @@
       <c r="I190">
         <v>0</v>
       </c>
-      <c r="K190" s="2"/>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -8760,7 +9130,12 @@
       <c r="I191">
         <v>0</v>
       </c>
-      <c r="K191" s="2"/>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -8787,7 +9162,12 @@
       <c r="I192">
         <v>0</v>
       </c>
-      <c r="K192" s="2"/>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
@@ -8814,7 +9194,12 @@
       <c r="I193">
         <v>0</v>
       </c>
-      <c r="K193" s="2"/>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
@@ -8841,7 +9226,12 @@
       <c r="I194">
         <v>0</v>
       </c>
-      <c r="K194" s="2"/>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
@@ -8868,7 +9258,12 @@
       <c r="I195">
         <v>0</v>
       </c>
-      <c r="K195" s="2"/>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -8895,7 +9290,12 @@
       <c r="I196">
         <v>0</v>
       </c>
-      <c r="K196" s="2"/>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
@@ -8922,7 +9322,12 @@
       <c r="I197">
         <v>0</v>
       </c>
-      <c r="K197" s="2"/>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
@@ -8949,7 +9354,12 @@
       <c r="I198">
         <v>0</v>
       </c>
-      <c r="K198" s="2"/>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -8976,7 +9386,12 @@
       <c r="I199">
         <v>0</v>
       </c>
-      <c r="K199" s="2"/>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -9003,7 +9418,12 @@
       <c r="I200">
         <v>0</v>
       </c>
-      <c r="K200" s="2"/>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -9030,7 +9450,12 @@
       <c r="I201">
         <v>0</v>
       </c>
-      <c r="K201" s="2"/>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -9057,7 +9482,12 @@
       <c r="I202">
         <v>0</v>
       </c>
-      <c r="K202" s="2"/>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -9084,7 +9514,12 @@
       <c r="I203">
         <v>0</v>
       </c>
-      <c r="K203" s="2"/>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -9111,7 +9546,12 @@
       <c r="I204">
         <v>0</v>
       </c>
-      <c r="K204" s="2"/>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -9138,7 +9578,12 @@
       <c r="I205">
         <v>0</v>
       </c>
-      <c r="K205" s="2"/>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -9165,7 +9610,12 @@
       <c r="I206">
         <v>0</v>
       </c>
-      <c r="K206" s="2"/>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -9192,7 +9642,12 @@
       <c r="I207">
         <v>0</v>
       </c>
-      <c r="K207" s="2"/>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -9219,7 +9674,12 @@
       <c r="I208">
         <v>0</v>
       </c>
-      <c r="K208" s="2"/>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -9246,7 +9706,12 @@
       <c r="I209">
         <v>0</v>
       </c>
-      <c r="K209" s="2"/>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -9273,7 +9738,12 @@
       <c r="I210">
         <v>0</v>
       </c>
-      <c r="K210" s="2"/>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -9300,7 +9770,12 @@
       <c r="I211">
         <v>0</v>
       </c>
-      <c r="K211" s="2"/>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -9327,7 +9802,12 @@
       <c r="I212">
         <v>0</v>
       </c>
-      <c r="K212" s="2"/>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -9354,7 +9834,12 @@
       <c r="I213">
         <v>0</v>
       </c>
-      <c r="K213" s="2"/>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -9381,7 +9866,12 @@
       <c r="I214">
         <v>0</v>
       </c>
-      <c r="K214" s="2"/>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -9408,7 +9898,12 @@
       <c r="I215">
         <v>0</v>
       </c>
-      <c r="K215" s="2"/>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -9435,7 +9930,12 @@
       <c r="I216">
         <v>0</v>
       </c>
-      <c r="K216" s="2"/>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -9462,7 +9962,12 @@
       <c r="I217">
         <v>0</v>
       </c>
-      <c r="K217" s="2"/>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -9489,7 +9994,12 @@
       <c r="I218">
         <v>0</v>
       </c>
-      <c r="K218" s="2"/>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -9516,7 +10026,12 @@
       <c r="I219">
         <v>0</v>
       </c>
-      <c r="K219" s="2"/>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -9543,7 +10058,12 @@
       <c r="I220">
         <v>0</v>
       </c>
-      <c r="K220" s="2"/>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -9570,7 +10090,12 @@
       <c r="I221">
         <v>0</v>
       </c>
-      <c r="K221" s="2"/>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -9597,7 +10122,12 @@
       <c r="I222">
         <v>0</v>
       </c>
-      <c r="K222" s="2"/>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -9624,7 +10154,12 @@
       <c r="I223">
         <v>0</v>
       </c>
-      <c r="K223" s="2"/>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -9651,7 +10186,12 @@
       <c r="I224">
         <v>0</v>
       </c>
-      <c r="K224" s="2"/>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -9678,7 +10218,12 @@
       <c r="I225">
         <v>0</v>
       </c>
-      <c r="K225" s="2"/>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -9705,7 +10250,12 @@
       <c r="I226">
         <v>0</v>
       </c>
-      <c r="K226" s="2"/>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -9732,7 +10282,12 @@
       <c r="I227">
         <v>0</v>
       </c>
-      <c r="K227" s="2"/>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -9759,7 +10314,12 @@
       <c r="I228">
         <v>0</v>
       </c>
-      <c r="K228" s="2"/>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -9786,7 +10346,12 @@
       <c r="I229">
         <v>0</v>
       </c>
-      <c r="K229" s="2"/>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -9813,7 +10378,12 @@
       <c r="I230">
         <v>0</v>
       </c>
-      <c r="K230" s="2"/>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -9840,7 +10410,12 @@
       <c r="I231">
         <v>0</v>
       </c>
-      <c r="K231" s="2"/>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -9867,7 +10442,12 @@
       <c r="I232">
         <v>0</v>
       </c>
-      <c r="K232" s="2"/>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -9894,7 +10474,12 @@
       <c r="I233">
         <v>0</v>
       </c>
-      <c r="K233" s="2"/>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -9921,7 +10506,12 @@
       <c r="I234">
         <v>0</v>
       </c>
-      <c r="K234" s="2"/>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -9948,7 +10538,12 @@
       <c r="I235">
         <v>0</v>
       </c>
-      <c r="K235" s="2"/>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -9975,7 +10570,12 @@
       <c r="I236">
         <v>0</v>
       </c>
-      <c r="K236" s="2"/>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -10002,7 +10602,12 @@
       <c r="I237">
         <v>0</v>
       </c>
-      <c r="K237" s="2"/>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -10029,7 +10634,12 @@
       <c r="I238">
         <v>0</v>
       </c>
-      <c r="K238" s="2"/>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -10056,7 +10666,12 @@
       <c r="I239">
         <v>0</v>
       </c>
-      <c r="K239" s="2"/>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -10083,7 +10698,12 @@
       <c r="I240">
         <v>0</v>
       </c>
-      <c r="K240" s="2"/>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -10110,7 +10730,12 @@
       <c r="I241">
         <v>0</v>
       </c>
-      <c r="K241" s="2"/>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -10137,7 +10762,12 @@
       <c r="I242">
         <v>0</v>
       </c>
-      <c r="K242" s="2"/>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -10164,7 +10794,12 @@
       <c r="I243">
         <v>0</v>
       </c>
-      <c r="K243" s="2"/>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -10191,7 +10826,12 @@
       <c r="I244">
         <v>0</v>
       </c>
-      <c r="K244" s="2"/>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -10218,7 +10858,12 @@
       <c r="I245">
         <v>0</v>
       </c>
-      <c r="K245" s="2"/>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -10245,7 +10890,12 @@
       <c r="I246">
         <v>0</v>
       </c>
-      <c r="K246" s="2"/>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -10272,7 +10922,12 @@
       <c r="I247">
         <v>0</v>
       </c>
-      <c r="K247" s="2"/>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -10299,7 +10954,12 @@
       <c r="I248">
         <v>0</v>
       </c>
-      <c r="K248" s="2"/>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -10326,7 +10986,12 @@
       <c r="I249">
         <v>0</v>
       </c>
-      <c r="K249" s="2"/>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -10353,7 +11018,12 @@
       <c r="I250">
         <v>0</v>
       </c>
-      <c r="K250" s="2"/>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -10380,7 +11050,12 @@
       <c r="I251">
         <v>0</v>
       </c>
-      <c r="K251" s="2"/>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -10407,7 +11082,12 @@
       <c r="I252">
         <v>0</v>
       </c>
-      <c r="K252" s="2"/>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -10434,7 +11114,12 @@
       <c r="I253">
         <v>0</v>
       </c>
-      <c r="K253" s="2"/>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -10461,7 +11146,12 @@
       <c r="I254">
         <v>0</v>
       </c>
-      <c r="K254" s="2"/>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -10488,7 +11178,12 @@
       <c r="I255">
         <v>0</v>
       </c>
-      <c r="K255" s="2"/>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -10515,7 +11210,12 @@
       <c r="I256">
         <v>0</v>
       </c>
-      <c r="K256" s="2"/>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -10542,7 +11242,12 @@
       <c r="I257">
         <v>0</v>
       </c>
-      <c r="K257" s="2"/>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -10569,7 +11274,12 @@
       <c r="I258">
         <v>0</v>
       </c>
-      <c r="K258" s="2"/>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -10596,7 +11306,12 @@
       <c r="I259">
         <v>0</v>
       </c>
-      <c r="K259" s="2"/>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -10623,7 +11338,12 @@
       <c r="I260">
         <v>0</v>
       </c>
-      <c r="K260" s="2"/>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -10650,7 +11370,12 @@
       <c r="I261">
         <v>0</v>
       </c>
-      <c r="K261" s="2"/>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -10677,7 +11402,12 @@
       <c r="I262">
         <v>0</v>
       </c>
-      <c r="K262" s="2"/>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -10704,7 +11434,12 @@
       <c r="I263">
         <v>0</v>
       </c>
-      <c r="K263" s="2"/>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -10731,7 +11466,12 @@
       <c r="I264">
         <v>0</v>
       </c>
-      <c r="K264" s="2"/>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -10758,7 +11498,12 @@
       <c r="I265">
         <v>0</v>
       </c>
-      <c r="K265" s="2"/>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -10785,7 +11530,12 @@
       <c r="I266">
         <v>0</v>
       </c>
-      <c r="K266" s="2"/>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -10812,7 +11562,12 @@
       <c r="I267">
         <v>0</v>
       </c>
-      <c r="K267" s="2"/>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -10839,7 +11594,12 @@
       <c r="I268">
         <v>0</v>
       </c>
-      <c r="K268" s="2"/>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -10866,7 +11626,12 @@
       <c r="I269">
         <v>0</v>
       </c>
-      <c r="K269" s="2"/>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -10893,7 +11658,12 @@
       <c r="I270">
         <v>0</v>
       </c>
-      <c r="K270" s="2"/>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -10920,7 +11690,12 @@
       <c r="I271">
         <v>0</v>
       </c>
-      <c r="K271" s="2"/>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -10947,7 +11722,12 @@
       <c r="I272">
         <v>0</v>
       </c>
-      <c r="K272" s="2"/>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -10974,7 +11754,12 @@
       <c r="I273">
         <v>0</v>
       </c>
-      <c r="K273" s="2"/>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -11001,7 +11786,12 @@
       <c r="I274">
         <v>0</v>
       </c>
-      <c r="K274" s="2"/>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -11028,7 +11818,12 @@
       <c r="I275">
         <v>0</v>
       </c>
-      <c r="K275" s="2"/>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -11055,7 +11850,12 @@
       <c r="I276">
         <v>0</v>
       </c>
-      <c r="K276" s="2"/>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -11082,7 +11882,12 @@
       <c r="I277">
         <v>0</v>
       </c>
-      <c r="K277" s="2"/>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -11109,7 +11914,12 @@
       <c r="I278">
         <v>0</v>
       </c>
-      <c r="K278" s="2"/>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -11136,7 +11946,12 @@
       <c r="I279">
         <v>0</v>
       </c>
-      <c r="K279" s="2"/>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -11163,7 +11978,12 @@
       <c r="I280">
         <v>0</v>
       </c>
-      <c r="K280" s="2"/>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -11190,7 +12010,12 @@
       <c r="I281">
         <v>0</v>
       </c>
-      <c r="K281" s="2"/>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -11217,7 +12042,12 @@
       <c r="I282">
         <v>0</v>
       </c>
-      <c r="K282" s="2"/>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -11244,7 +12074,12 @@
       <c r="I283">
         <v>0</v>
       </c>
-      <c r="K283" s="2"/>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -11271,7 +12106,12 @@
       <c r="I284">
         <v>0</v>
       </c>
-      <c r="K284" s="2"/>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -11298,7 +12138,12 @@
       <c r="I285">
         <v>0</v>
       </c>
-      <c r="K285" s="2"/>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -11325,7 +12170,12 @@
       <c r="I286">
         <v>0</v>
       </c>
-      <c r="K286" s="2"/>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -11352,7 +12202,12 @@
       <c r="I287">
         <v>0</v>
       </c>
-      <c r="K287" s="2"/>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -11379,7 +12234,12 @@
       <c r="I288">
         <v>0</v>
       </c>
-      <c r="K288" s="2"/>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -11406,7 +12266,12 @@
       <c r="I289">
         <v>0</v>
       </c>
-      <c r="K289" s="2"/>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -11433,7 +12298,12 @@
       <c r="I290">
         <v>0</v>
       </c>
-      <c r="K290" s="2"/>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -11460,7 +12330,12 @@
       <c r="I291">
         <v>0</v>
       </c>
-      <c r="K291" s="2"/>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -11487,7 +12362,12 @@
       <c r="I292">
         <v>0</v>
       </c>
-      <c r="K292" s="2"/>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -11514,7 +12394,12 @@
       <c r="I293">
         <v>0</v>
       </c>
-      <c r="K293" s="2"/>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -11541,7 +12426,12 @@
       <c r="I294">
         <v>0</v>
       </c>
-      <c r="K294" s="2"/>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -11568,7 +12458,12 @@
       <c r="I295">
         <v>0</v>
       </c>
-      <c r="K295" s="2"/>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -11595,7 +12490,12 @@
       <c r="I296">
         <v>0</v>
       </c>
-      <c r="K296" s="2"/>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -11622,7 +12522,12 @@
       <c r="I297">
         <v>0</v>
       </c>
-      <c r="K297" s="2"/>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -11649,7 +12554,12 @@
       <c r="I298">
         <v>0</v>
       </c>
-      <c r="K298" s="2"/>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -11676,7 +12586,12 @@
       <c r="I299">
         <v>0</v>
       </c>
-      <c r="K299" s="2"/>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -11703,7 +12618,12 @@
       <c r="I300">
         <v>0</v>
       </c>
-      <c r="K300" s="2"/>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -11730,7 +12650,12 @@
       <c r="I301">
         <v>0</v>
       </c>
-      <c r="K301" s="2"/>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -11757,7 +12682,12 @@
       <c r="I302">
         <v>0</v>
       </c>
-      <c r="K302" s="2"/>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
@@ -11784,7 +12714,12 @@
       <c r="I303">
         <v>0</v>
       </c>
-      <c r="K303" s="2"/>
+      <c r="J303">
+        <v>0</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -11811,7 +12746,12 @@
       <c r="I304">
         <v>0</v>
       </c>
-      <c r="K304" s="2"/>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -11838,7 +12778,12 @@
       <c r="I305">
         <v>0</v>
       </c>
-      <c r="K305" s="2"/>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -11865,7 +12810,12 @@
       <c r="I306">
         <v>0</v>
       </c>
-      <c r="K306" s="2"/>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
@@ -11892,7 +12842,12 @@
       <c r="I307">
         <v>0</v>
       </c>
-      <c r="K307" s="2"/>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
@@ -11919,7 +12874,12 @@
       <c r="I308">
         <v>0</v>
       </c>
-      <c r="K308" s="2"/>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -11946,7 +12906,12 @@
       <c r="I309">
         <v>0</v>
       </c>
-      <c r="K309" s="2"/>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -11973,7 +12938,12 @@
       <c r="I310">
         <v>0</v>
       </c>
-      <c r="K310" s="2"/>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
@@ -12000,7 +12970,12 @@
       <c r="I311">
         <v>0</v>
       </c>
-      <c r="K311" s="2"/>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -12027,7 +13002,12 @@
       <c r="I312">
         <v>0</v>
       </c>
-      <c r="K312" s="2"/>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -12054,7 +13034,12 @@
       <c r="I313">
         <v>0</v>
       </c>
-      <c r="K313" s="2"/>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -12081,7 +13066,12 @@
       <c r="I314">
         <v>0</v>
       </c>
-      <c r="K314" s="2"/>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -12108,7 +13098,12 @@
       <c r="I315">
         <v>0</v>
       </c>
-      <c r="K315" s="2"/>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -12135,7 +13130,12 @@
       <c r="I316">
         <v>0</v>
       </c>
-      <c r="K316" s="2"/>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -12162,7 +13162,12 @@
       <c r="I317">
         <v>0</v>
       </c>
-      <c r="K317" s="2"/>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -12189,7 +13194,12 @@
       <c r="I318">
         <v>0</v>
       </c>
-      <c r="K318" s="2"/>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -12216,7 +13226,12 @@
       <c r="I319">
         <v>0</v>
       </c>
-      <c r="K319" s="2"/>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
@@ -12243,7 +13258,12 @@
       <c r="I320">
         <v>0</v>
       </c>
-      <c r="K320" s="2"/>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -12270,7 +13290,12 @@
       <c r="I321">
         <v>0</v>
       </c>
-      <c r="K321" s="2"/>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -12297,7 +13322,12 @@
       <c r="I322">
         <v>0</v>
       </c>
-      <c r="K322" s="2"/>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -12324,7 +13354,12 @@
       <c r="I323">
         <v>0</v>
       </c>
-      <c r="K323" s="2"/>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
@@ -12351,7 +13386,12 @@
       <c r="I324">
         <v>0</v>
       </c>
-      <c r="K324" s="2"/>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -12378,7 +13418,12 @@
       <c r="I325">
         <v>0</v>
       </c>
-      <c r="K325" s="2"/>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -12405,7 +13450,12 @@
       <c r="I326">
         <v>0</v>
       </c>
-      <c r="K326" s="2"/>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -12432,7 +13482,12 @@
       <c r="I327">
         <v>0</v>
       </c>
-      <c r="K327" s="2"/>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -12459,7 +13514,12 @@
       <c r="I328">
         <v>0</v>
       </c>
-      <c r="K328" s="2"/>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
@@ -12486,7 +13546,12 @@
       <c r="I329">
         <v>0</v>
       </c>
-      <c r="K329" s="2"/>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
@@ -12513,7 +13578,12 @@
       <c r="I330">
         <v>0</v>
       </c>
-      <c r="K330" s="2"/>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -12540,7 +13610,12 @@
       <c r="I331">
         <v>0</v>
       </c>
-      <c r="K331" s="2"/>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
@@ -12567,7 +13642,12 @@
       <c r="I332">
         <v>0</v>
       </c>
-      <c r="K332" s="2"/>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -12594,7 +13674,12 @@
       <c r="I333">
         <v>0</v>
       </c>
-      <c r="K333" s="2"/>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -12621,7 +13706,12 @@
       <c r="I334">
         <v>0</v>
       </c>
-      <c r="K334" s="2"/>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -12648,7 +13738,12 @@
       <c r="I335">
         <v>0</v>
       </c>
-      <c r="K335" s="2"/>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -12675,7 +13770,12 @@
       <c r="I336">
         <v>0</v>
       </c>
-      <c r="K336" s="2"/>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -12702,7 +13802,12 @@
       <c r="I337">
         <v>0</v>
       </c>
-      <c r="K337" s="2"/>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -12729,7 +13834,12 @@
       <c r="I338">
         <v>0</v>
       </c>
-      <c r="K338" s="2"/>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -12756,7 +13866,12 @@
       <c r="I339">
         <v>0</v>
       </c>
-      <c r="K339" s="2"/>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -12783,7 +13898,12 @@
       <c r="I340">
         <v>0</v>
       </c>
-      <c r="K340" s="2"/>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -12810,7 +13930,12 @@
       <c r="I341">
         <v>0</v>
       </c>
-      <c r="K341" s="2"/>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -12837,7 +13962,12 @@
       <c r="I342">
         <v>0</v>
       </c>
-      <c r="K342" s="2"/>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
@@ -12864,7 +13994,12 @@
       <c r="I343">
         <v>0</v>
       </c>
-      <c r="K343" s="2"/>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
@@ -12891,7 +14026,12 @@
       <c r="I344">
         <v>0</v>
       </c>
-      <c r="K344" s="2"/>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -12918,7 +14058,12 @@
       <c r="I345">
         <v>0</v>
       </c>
-      <c r="K345" s="2"/>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -12945,7 +14090,12 @@
       <c r="I346">
         <v>0</v>
       </c>
-      <c r="K346" s="2"/>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -12972,7 +14122,12 @@
       <c r="I347">
         <v>0</v>
       </c>
-      <c r="K347" s="2"/>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
@@ -12999,7 +14154,12 @@
       <c r="I348">
         <v>0</v>
       </c>
-      <c r="K348" s="2"/>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
@@ -13026,7 +14186,12 @@
       <c r="I349">
         <v>0</v>
       </c>
-      <c r="K349" s="2"/>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -13053,7 +14218,12 @@
       <c r="I350">
         <v>0</v>
       </c>
-      <c r="K350" s="2"/>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -13080,7 +14250,12 @@
       <c r="I351">
         <v>0</v>
       </c>
-      <c r="K351" s="2"/>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -13107,7 +14282,12 @@
       <c r="I352">
         <v>0</v>
       </c>
-      <c r="K352" s="2"/>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
@@ -13134,7 +14314,12 @@
       <c r="I353">
         <v>0</v>
       </c>
-      <c r="K353" s="2"/>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
@@ -13161,7 +14346,12 @@
       <c r="I354">
         <v>0</v>
       </c>
-      <c r="K354" s="2"/>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -13188,7 +14378,12 @@
       <c r="I355">
         <v>0</v>
       </c>
-      <c r="K355" s="2"/>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
@@ -13215,7 +14410,12 @@
       <c r="I356">
         <v>0</v>
       </c>
-      <c r="K356" s="2"/>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
@@ -13242,7 +14442,12 @@
       <c r="I357">
         <v>0</v>
       </c>
-      <c r="K357" s="2"/>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -13269,7 +14474,12 @@
       <c r="I358">
         <v>0</v>
       </c>
-      <c r="K358" s="2"/>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -13296,7 +14506,12 @@
       <c r="I359">
         <v>0</v>
       </c>
-      <c r="K359" s="2"/>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -13323,7 +14538,12 @@
       <c r="I360">
         <v>0</v>
       </c>
-      <c r="K360" s="2"/>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -13350,9 +14570,14 @@
       <c r="I361">
         <v>0</v>
       </c>
-      <c r="K361" s="2"/>
-    </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -13380,11 +14605,11 @@
       <c r="J362">
         <v>1</v>
       </c>
-      <c r="K362" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -13412,11 +14637,11 @@
       <c r="J363">
         <v>1</v>
       </c>
-      <c r="K363" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -13441,14 +14666,14 @@
       <c r="I364">
         <v>1</v>
       </c>
-      <c r="J364" s="3">
-        <v>2</v>
-      </c>
-      <c r="K364" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J364" s="2">
+        <v>2</v>
+      </c>
+      <c r="K364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -13476,11 +14701,11 @@
       <c r="J365">
         <v>1</v>
       </c>
-      <c r="K365" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -13508,11 +14733,11 @@
       <c r="J366">
         <v>1</v>
       </c>
-      <c r="K366" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -13540,11 +14765,11 @@
       <c r="J367">
         <v>1</v>
       </c>
-      <c r="K367" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -13572,11 +14797,11 @@
       <c r="J368">
         <v>1</v>
       </c>
-      <c r="K368" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -13604,11 +14829,11 @@
       <c r="J369">
         <v>1</v>
       </c>
-      <c r="K369" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -13636,11 +14861,11 @@
       <c r="J370">
         <v>1</v>
       </c>
-      <c r="K370" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -13668,11 +14893,11 @@
       <c r="J371">
         <v>1</v>
       </c>
-      <c r="K371" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -13697,12 +14922,14 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372" s="1">
-        <v>2</v>
-      </c>
-      <c r="K372" s="2"/>
-    </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J372" s="3">
+        <v>2</v>
+      </c>
+      <c r="K372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -13730,9 +14957,11 @@
       <c r="J373">
         <v>1</v>
       </c>
-      <c r="K373" s="2"/>
-    </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -13760,9 +14989,11 @@
       <c r="J374">
         <v>1</v>
       </c>
-      <c r="K374" s="2"/>
-    </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -13790,9 +15021,11 @@
       <c r="J375">
         <v>1</v>
       </c>
-      <c r="K375" s="2"/>
-    </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -13820,11 +15053,11 @@
       <c r="J376">
         <v>1</v>
       </c>
-      <c r="K376" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -13849,14 +15082,14 @@
       <c r="I377">
         <v>1</v>
       </c>
-      <c r="J377" s="2">
-        <v>2</v>
-      </c>
-      <c r="K377" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J377">
+        <v>2</v>
+      </c>
+      <c r="K377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -13884,11 +15117,11 @@
       <c r="J378">
         <v>1</v>
       </c>
-      <c r="K378" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -13916,11 +15149,11 @@
       <c r="J379">
         <v>1</v>
       </c>
-      <c r="K379" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -13937,7 +15170,7 @@
         <v>382</v>
       </c>
       <c r="F380" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G380">
         <v>0</v>
@@ -13949,13 +15182,13 @@
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>651</v>
-      </c>
-      <c r="K380" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>650</v>
+      </c>
+      <c r="K380" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -13983,11 +15216,11 @@
       <c r="J381">
         <v>1</v>
       </c>
-      <c r="K381" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -14015,11 +15248,11 @@
       <c r="J382">
         <v>1</v>
       </c>
-      <c r="K382" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -14044,14 +15277,14 @@
       <c r="I383">
         <v>1</v>
       </c>
-      <c r="J383" s="2">
-        <v>2</v>
-      </c>
-      <c r="K383" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J383">
+        <v>2</v>
+      </c>
+      <c r="K383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -14079,11 +15312,11 @@
       <c r="J384">
         <v>1</v>
       </c>
-      <c r="K384" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -14111,11 +15344,11 @@
       <c r="J385">
         <v>1</v>
       </c>
-      <c r="K385" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -14143,9 +15376,11 @@
       <c r="J386">
         <v>0</v>
       </c>
-      <c r="K386" s="2"/>
-    </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -14173,9 +15408,11 @@
       <c r="J387">
         <v>1</v>
       </c>
-      <c r="K387" s="2"/>
-    </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -14203,9 +15440,11 @@
       <c r="J388">
         <v>1</v>
       </c>
-      <c r="K388" s="2"/>
-    </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -14233,9 +15472,11 @@
       <c r="J389">
         <v>1</v>
       </c>
-      <c r="K389" s="2"/>
-    </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -14263,11 +15504,11 @@
       <c r="J390">
         <v>0</v>
       </c>
-      <c r="K390" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -14295,11 +15536,11 @@
       <c r="J391">
         <v>1</v>
       </c>
-      <c r="K391" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -14327,11 +15568,11 @@
       <c r="J392">
         <v>1</v>
       </c>
-      <c r="K392" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -14359,11 +15600,11 @@
       <c r="J393">
         <v>1</v>
       </c>
-      <c r="K393" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -14391,11 +15632,11 @@
       <c r="J394">
         <v>0</v>
       </c>
-      <c r="K394" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -14423,11 +15664,11 @@
       <c r="J395">
         <v>0</v>
       </c>
-      <c r="K395" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -14444,7 +15685,7 @@
         <v>382</v>
       </c>
       <c r="F396" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G396">
         <v>0</v>
@@ -14458,11 +15699,11 @@
       <c r="J396">
         <v>0</v>
       </c>
-      <c r="K396" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -14490,11 +15731,11 @@
       <c r="J397">
         <v>0</v>
       </c>
-      <c r="K397" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -14522,11 +15763,11 @@
       <c r="J398">
         <v>1</v>
       </c>
-      <c r="K398" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -14557,9 +15798,11 @@
       <c r="J399">
         <v>1</v>
       </c>
-      <c r="K399" s="2"/>
-    </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -14587,9 +15830,11 @@
       <c r="J400">
         <v>1</v>
       </c>
-      <c r="K400" s="2"/>
-    </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -14617,9 +15862,11 @@
       <c r="J401">
         <v>0</v>
       </c>
-      <c r="K401" s="2"/>
-    </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -14647,9 +15894,11 @@
       <c r="J402">
         <v>1</v>
       </c>
-      <c r="K402" s="2"/>
-    </row>
-    <row r="403" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>423</v>
       </c>
@@ -14666,15 +15915,25 @@
         <v>382</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I403"/>
-      <c r="J403" t="s">
-        <v>651</v>
-      </c>
-      <c r="K403" s="2"/>
-    </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+      <c r="G403" s="1">
+        <v>0</v>
+      </c>
+      <c r="H403" s="1">
+        <v>0</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -14702,11 +15961,11 @@
       <c r="J404">
         <v>0</v>
       </c>
-      <c r="K404" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -14734,11 +15993,11 @@
       <c r="J405">
         <v>1</v>
       </c>
-      <c r="K405" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -14766,11 +16025,11 @@
       <c r="J406">
         <v>1</v>
       </c>
-      <c r="K406" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -14798,11 +16057,11 @@
       <c r="J407">
         <v>1</v>
       </c>
-      <c r="K407" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -14830,11 +16089,11 @@
       <c r="J408">
         <v>0</v>
       </c>
-      <c r="K408" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -14862,11 +16121,11 @@
       <c r="J409">
         <v>0</v>
       </c>
-      <c r="K409" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -14894,11 +16153,11 @@
       <c r="J410">
         <v>1</v>
       </c>
-      <c r="K410" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -14926,11 +16185,11 @@
       <c r="J411">
         <v>0</v>
       </c>
-      <c r="K411" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -14958,11 +16217,11 @@
       <c r="J412">
         <v>1</v>
       </c>
-      <c r="K412" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -14990,9 +16249,11 @@
       <c r="J413">
         <v>0</v>
       </c>
-      <c r="K413" s="2"/>
-    </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -15020,9 +16281,11 @@
       <c r="J414">
         <v>1</v>
       </c>
-      <c r="K414" s="2"/>
-    </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -15050,9 +16313,11 @@
       <c r="J415">
         <v>1</v>
       </c>
-      <c r="K415" s="2"/>
-    </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -15080,11 +16345,11 @@
       <c r="J416">
         <v>0</v>
       </c>
-      <c r="K416" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -15112,11 +16377,11 @@
       <c r="J417">
         <v>0</v>
       </c>
-      <c r="K417" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -15144,11 +16409,11 @@
       <c r="J418">
         <v>1</v>
       </c>
-      <c r="K418" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -15176,11 +16441,11 @@
       <c r="J419">
         <v>1</v>
       </c>
-      <c r="K419" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -15208,11 +16473,11 @@
       <c r="J420">
         <v>0</v>
       </c>
-      <c r="K420" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -15240,11 +16505,11 @@
       <c r="J421">
         <v>1</v>
       </c>
-      <c r="K421" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -15272,11 +16537,11 @@
       <c r="J422">
         <v>0</v>
       </c>
-      <c r="K422" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -15304,11 +16569,11 @@
       <c r="J423">
         <v>0</v>
       </c>
-      <c r="K423" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -15336,9 +16601,11 @@
       <c r="J424">
         <v>1</v>
       </c>
-      <c r="K424" s="2"/>
-    </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -15366,9 +16633,11 @@
       <c r="J425">
         <v>1</v>
       </c>
-      <c r="K425" s="2"/>
-    </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -15396,9 +16665,11 @@
       <c r="J426">
         <v>1</v>
       </c>
-      <c r="K426" s="2"/>
-    </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -15426,9 +16697,11 @@
       <c r="J427">
         <v>1</v>
       </c>
-      <c r="K427" s="2"/>
-    </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -15456,9 +16729,11 @@
       <c r="J428">
         <v>0</v>
       </c>
-      <c r="K428" s="2"/>
-    </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -15486,11 +16761,11 @@
       <c r="J429">
         <v>0</v>
       </c>
-      <c r="K429" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -15518,11 +16793,11 @@
       <c r="J430">
         <v>1</v>
       </c>
-      <c r="K430" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -15550,11 +16825,11 @@
       <c r="J431">
         <v>0</v>
       </c>
-      <c r="K431" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -15582,11 +16857,11 @@
       <c r="J432">
         <v>1</v>
       </c>
-      <c r="K432" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -15614,11 +16889,11 @@
       <c r="J433">
         <v>0</v>
       </c>
-      <c r="K433" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -15649,11 +16924,11 @@
       <c r="J434">
         <v>0</v>
       </c>
-      <c r="K434" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -15681,11 +16956,11 @@
       <c r="J435">
         <v>0</v>
       </c>
-      <c r="K435" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -15713,11 +16988,11 @@
       <c r="J436">
         <v>1</v>
       </c>
-      <c r="K436" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -15745,11 +17020,11 @@
       <c r="J437">
         <v>1</v>
       </c>
-      <c r="K437" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -15777,9 +17052,11 @@
       <c r="J438">
         <v>1</v>
       </c>
-      <c r="K438" s="2"/>
-    </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -15807,9 +17084,11 @@
       <c r="J439">
         <v>1</v>
       </c>
-      <c r="K439" s="2"/>
-    </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -15837,9 +17116,11 @@
       <c r="J440">
         <v>0</v>
       </c>
-      <c r="K440" s="2"/>
-    </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -15867,9 +17148,11 @@
       <c r="J441">
         <v>0</v>
       </c>
-      <c r="K441" s="2"/>
-    </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -15897,7 +17180,9 @@
       <c r="J442">
         <v>1</v>
       </c>
-      <c r="K442" s="2"/>
+      <c r="K442">
+        <v>2</v>
+      </c>
     </row>
     <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
@@ -15924,7 +17209,12 @@
       <c r="I443">
         <v>0</v>
       </c>
-      <c r="K443" s="2"/>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
@@ -15951,7 +17241,12 @@
       <c r="I444">
         <v>0</v>
       </c>
-      <c r="K444" s="2"/>
+      <c r="J444">
+        <v>0</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
@@ -15978,7 +17273,12 @@
       <c r="I445">
         <v>0</v>
       </c>
-      <c r="K445" s="2"/>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
@@ -16005,7 +17305,12 @@
       <c r="I446">
         <v>0</v>
       </c>
-      <c r="K446" s="2"/>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
@@ -16032,7 +17337,12 @@
       <c r="I447">
         <v>0</v>
       </c>
-      <c r="K447" s="2"/>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
@@ -16059,7 +17369,12 @@
       <c r="I448">
         <v>0</v>
       </c>
-      <c r="K448" s="2"/>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
@@ -16086,7 +17401,12 @@
       <c r="I449">
         <v>0</v>
       </c>
-      <c r="K449" s="2"/>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
@@ -16113,7 +17433,12 @@
       <c r="I450">
         <v>0</v>
       </c>
-      <c r="K450" s="2"/>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
@@ -16140,7 +17465,12 @@
       <c r="I451">
         <v>0</v>
       </c>
-      <c r="K451" s="2"/>
+      <c r="J451">
+        <v>0</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
@@ -16167,7 +17497,12 @@
       <c r="I452">
         <v>0</v>
       </c>
-      <c r="K452" s="2"/>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
@@ -16194,7 +17529,12 @@
       <c r="I453">
         <v>0</v>
       </c>
-      <c r="K453" s="2"/>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
@@ -16221,7 +17561,12 @@
       <c r="I454">
         <v>0</v>
       </c>
-      <c r="K454" s="2"/>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
@@ -16248,7 +17593,12 @@
       <c r="I455">
         <v>0</v>
       </c>
-      <c r="K455" s="2"/>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
@@ -16275,7 +17625,12 @@
       <c r="I456">
         <v>0</v>
       </c>
-      <c r="K456" s="2"/>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
@@ -16302,7 +17657,12 @@
       <c r="I457">
         <v>0</v>
       </c>
-      <c r="K457" s="2"/>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
@@ -16329,7 +17689,12 @@
       <c r="I458">
         <v>0</v>
       </c>
-      <c r="K458" s="2"/>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
     </row>
     <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
@@ -16356,7 +17721,12 @@
       <c r="I459">
         <v>0</v>
       </c>
-      <c r="K459" s="2"/>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
     </row>
     <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
@@ -16383,7 +17753,12 @@
       <c r="I460">
         <v>0</v>
       </c>
-      <c r="K460" s="2"/>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
@@ -16410,7 +17785,12 @@
       <c r="I461">
         <v>0</v>
       </c>
-      <c r="K461" s="2"/>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
     </row>
     <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
@@ -16437,7 +17817,12 @@
       <c r="I462">
         <v>0</v>
       </c>
-      <c r="K462" s="2"/>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
@@ -16464,7 +17849,12 @@
       <c r="I463">
         <v>0</v>
       </c>
-      <c r="K463" s="2"/>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
@@ -16491,7 +17881,12 @@
       <c r="I464">
         <v>0</v>
       </c>
-      <c r="K464" s="2"/>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
     </row>
     <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
@@ -16518,7 +17913,12 @@
       <c r="I465">
         <v>0</v>
       </c>
-      <c r="K465" s="2"/>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
@@ -16545,7 +17945,12 @@
       <c r="I466">
         <v>0</v>
       </c>
-      <c r="K466" s="2"/>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
@@ -16572,7 +17977,12 @@
       <c r="I467">
         <v>0</v>
       </c>
-      <c r="K467" s="2"/>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
@@ -16599,7 +18009,12 @@
       <c r="I468">
         <v>0</v>
       </c>
-      <c r="K468" s="2"/>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
@@ -16626,7 +18041,12 @@
       <c r="I469">
         <v>0</v>
       </c>
-      <c r="K469" s="2"/>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
@@ -16653,7 +18073,12 @@
       <c r="I470">
         <v>0</v>
       </c>
-      <c r="K470" s="2"/>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
@@ -16680,7 +18105,12 @@
       <c r="I471">
         <v>0</v>
       </c>
-      <c r="K471" s="2"/>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
@@ -16707,7 +18137,12 @@
       <c r="I472">
         <v>0</v>
       </c>
-      <c r="K472" s="2"/>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
@@ -16734,7 +18169,12 @@
       <c r="I473">
         <v>0</v>
       </c>
-      <c r="K473" s="2"/>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
@@ -16761,7 +18201,12 @@
       <c r="I474">
         <v>0</v>
       </c>
-      <c r="K474" s="2"/>
+      <c r="J474">
+        <v>0</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
@@ -16788,7 +18233,12 @@
       <c r="I475">
         <v>0</v>
       </c>
-      <c r="K475" s="2"/>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
@@ -16815,7 +18265,12 @@
       <c r="I476">
         <v>0</v>
       </c>
-      <c r="K476" s="2"/>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
@@ -16842,7 +18297,12 @@
       <c r="I477">
         <v>0</v>
       </c>
-      <c r="K477" s="2"/>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
@@ -16869,7 +18329,12 @@
       <c r="I478">
         <v>0</v>
       </c>
-      <c r="K478" s="2"/>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
@@ -16896,7 +18361,12 @@
       <c r="I479">
         <v>0</v>
       </c>
-      <c r="K479" s="2"/>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
@@ -16923,7 +18393,12 @@
       <c r="I480">
         <v>0</v>
       </c>
-      <c r="K480" s="2"/>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -16950,7 +18425,12 @@
       <c r="I481">
         <v>0</v>
       </c>
-      <c r="K481" s="2"/>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
@@ -16977,7 +18457,12 @@
       <c r="I482">
         <v>0</v>
       </c>
-      <c r="K482" s="2"/>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
     </row>
     <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
@@ -17004,7 +18489,12 @@
       <c r="I483">
         <v>0</v>
       </c>
-      <c r="K483" s="2"/>
+      <c r="J483">
+        <v>0</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
@@ -17031,7 +18521,12 @@
       <c r="I484">
         <v>0</v>
       </c>
-      <c r="K484" s="2"/>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
@@ -17058,7 +18553,12 @@
       <c r="I485">
         <v>0</v>
       </c>
-      <c r="K485" s="2"/>
+      <c r="J485">
+        <v>0</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
@@ -17085,7 +18585,12 @@
       <c r="I486">
         <v>0</v>
       </c>
-      <c r="K486" s="2"/>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -17112,7 +18617,12 @@
       <c r="I487">
         <v>0</v>
       </c>
-      <c r="K487" s="2"/>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
@@ -17139,7 +18649,12 @@
       <c r="I488">
         <v>0</v>
       </c>
-      <c r="K488" s="2"/>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
@@ -17166,7 +18681,12 @@
       <c r="I489">
         <v>0</v>
       </c>
-      <c r="K489" s="2"/>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
@@ -17193,7 +18713,12 @@
       <c r="I490">
         <v>0</v>
       </c>
-      <c r="K490" s="2"/>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
@@ -17220,7 +18745,12 @@
       <c r="I491">
         <v>0</v>
       </c>
-      <c r="K491" s="2"/>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
@@ -17247,7 +18777,12 @@
       <c r="I492">
         <v>0</v>
       </c>
-      <c r="K492" s="2"/>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
@@ -17274,7 +18809,12 @@
       <c r="I493">
         <v>0</v>
       </c>
-      <c r="K493" s="2"/>
+      <c r="J493">
+        <v>0</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
@@ -17301,7 +18841,12 @@
       <c r="I494">
         <v>0</v>
       </c>
-      <c r="K494" s="2"/>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
@@ -17328,7 +18873,12 @@
       <c r="I495">
         <v>0</v>
       </c>
-      <c r="K495" s="2"/>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
@@ -17355,7 +18905,12 @@
       <c r="I496">
         <v>0</v>
       </c>
-      <c r="K496" s="2"/>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
@@ -17382,7 +18937,12 @@
       <c r="I497">
         <v>0</v>
       </c>
-      <c r="K497" s="2"/>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
@@ -17409,7 +18969,12 @@
       <c r="I498">
         <v>0</v>
       </c>
-      <c r="K498" s="2"/>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
@@ -17436,7 +19001,12 @@
       <c r="I499">
         <v>0</v>
       </c>
-      <c r="K499" s="2"/>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
@@ -17463,7 +19033,12 @@
       <c r="I500">
         <v>0</v>
       </c>
-      <c r="K500" s="2"/>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
@@ -17490,7 +19065,12 @@
       <c r="I501">
         <v>0</v>
       </c>
-      <c r="K501" s="2"/>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
@@ -17517,7 +19097,12 @@
       <c r="I502">
         <v>0</v>
       </c>
-      <c r="K502" s="2"/>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
@@ -17544,7 +19129,12 @@
       <c r="I503">
         <v>0</v>
       </c>
-      <c r="K503" s="2"/>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
@@ -17571,7 +19161,12 @@
       <c r="I504">
         <v>0</v>
       </c>
-      <c r="K504" s="2"/>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
@@ -17598,7 +19193,12 @@
       <c r="I505">
         <v>0</v>
       </c>
-      <c r="K505" s="2"/>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
@@ -17625,7 +19225,12 @@
       <c r="I506">
         <v>0</v>
       </c>
-      <c r="K506" s="2"/>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
@@ -17652,7 +19257,12 @@
       <c r="I507">
         <v>0</v>
       </c>
-      <c r="K507" s="2"/>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
@@ -17679,7 +19289,12 @@
       <c r="I508">
         <v>0</v>
       </c>
-      <c r="K508" s="2"/>
+      <c r="J508">
+        <v>0</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
@@ -17706,7 +19321,12 @@
       <c r="I509">
         <v>0</v>
       </c>
-      <c r="K509" s="2"/>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
@@ -17733,7 +19353,12 @@
       <c r="I510">
         <v>0</v>
       </c>
-      <c r="K510" s="2"/>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
@@ -17760,7 +19385,12 @@
       <c r="I511">
         <v>0</v>
       </c>
-      <c r="K511" s="2"/>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
@@ -17787,7 +19417,12 @@
       <c r="I512">
         <v>0</v>
       </c>
-      <c r="K512" s="2"/>
+      <c r="J512">
+        <v>0</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
@@ -17814,7 +19449,12 @@
       <c r="I513">
         <v>0</v>
       </c>
-      <c r="K513" s="2"/>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
@@ -17841,7 +19481,12 @@
       <c r="I514">
         <v>0</v>
       </c>
-      <c r="K514" s="2"/>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
@@ -17868,7 +19513,12 @@
       <c r="I515">
         <v>0</v>
       </c>
-      <c r="K515" s="2"/>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
@@ -17895,7 +19545,12 @@
       <c r="I516">
         <v>0</v>
       </c>
-      <c r="K516" s="2"/>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
@@ -17922,7 +19577,12 @@
       <c r="I517">
         <v>0</v>
       </c>
-      <c r="K517" s="2"/>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
@@ -17949,7 +19609,12 @@
       <c r="I518">
         <v>0</v>
       </c>
-      <c r="K518" s="2"/>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
@@ -17976,7 +19641,12 @@
       <c r="I519">
         <v>0</v>
       </c>
-      <c r="K519" s="2"/>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
     </row>
     <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
@@ -18003,7 +19673,12 @@
       <c r="I520">
         <v>0</v>
       </c>
-      <c r="K520" s="2"/>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
     </row>
     <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
@@ -18030,7 +19705,12 @@
       <c r="I521">
         <v>0</v>
       </c>
-      <c r="K521" s="2"/>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
@@ -18057,7 +19737,12 @@
       <c r="I522">
         <v>0</v>
       </c>
-      <c r="K522" s="2"/>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
@@ -18084,7 +19769,12 @@
       <c r="I523">
         <v>0</v>
       </c>
-      <c r="K523" s="2"/>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
     </row>
     <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
@@ -18111,7 +19801,12 @@
       <c r="I524">
         <v>0</v>
       </c>
-      <c r="K524" s="2"/>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
@@ -18138,7 +19833,12 @@
       <c r="I525">
         <v>0</v>
       </c>
-      <c r="K525" s="2"/>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
     </row>
     <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
@@ -18165,7 +19865,12 @@
       <c r="I526">
         <v>0</v>
       </c>
-      <c r="K526" s="2"/>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
@@ -18192,7 +19897,12 @@
       <c r="I527">
         <v>0</v>
       </c>
-      <c r="K527" s="2"/>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
@@ -18219,7 +19929,12 @@
       <c r="I528">
         <v>0</v>
       </c>
-      <c r="K528" s="2"/>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
     </row>
     <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
@@ -18246,7 +19961,12 @@
       <c r="I529">
         <v>0</v>
       </c>
-      <c r="K529" s="2"/>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
     </row>
     <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
@@ -18273,7 +19993,12 @@
       <c r="I530">
         <v>0</v>
       </c>
-      <c r="K530" s="2"/>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
@@ -18300,7 +20025,12 @@
       <c r="I531">
         <v>0</v>
       </c>
-      <c r="K531" s="2"/>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
     </row>
     <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
@@ -18327,7 +20057,12 @@
       <c r="I532">
         <v>0</v>
       </c>
-      <c r="K532" s="2"/>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
     </row>
     <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
@@ -18354,7 +20089,12 @@
       <c r="I533">
         <v>0</v>
       </c>
-      <c r="K533" s="2"/>
+      <c r="J533">
+        <v>0</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
@@ -18381,7 +20121,12 @@
       <c r="I534">
         <v>0</v>
       </c>
-      <c r="K534" s="2"/>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
@@ -18408,7 +20153,12 @@
       <c r="I535">
         <v>0</v>
       </c>
-      <c r="K535" s="2"/>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
@@ -18435,7 +20185,12 @@
       <c r="I536">
         <v>0</v>
       </c>
-      <c r="K536" s="2"/>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
@@ -18462,7 +20217,12 @@
       <c r="I537">
         <v>0</v>
       </c>
-      <c r="K537" s="2"/>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
@@ -18489,7 +20249,12 @@
       <c r="I538">
         <v>0</v>
       </c>
-      <c r="K538" s="2"/>
+      <c r="J538">
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
@@ -18516,7 +20281,12 @@
       <c r="I539">
         <v>0</v>
       </c>
-      <c r="K539" s="2"/>
+      <c r="J539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
@@ -18543,7 +20313,12 @@
       <c r="I540">
         <v>0</v>
       </c>
-      <c r="K540" s="2"/>
+      <c r="J540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
@@ -18570,7 +20345,12 @@
       <c r="I541">
         <v>0</v>
       </c>
-      <c r="K541" s="2"/>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
@@ -18597,7 +20377,12 @@
       <c r="I542">
         <v>0</v>
       </c>
-      <c r="K542" s="2"/>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
     </row>
     <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
@@ -18624,7 +20409,12 @@
       <c r="I543">
         <v>0</v>
       </c>
-      <c r="K543" s="2"/>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
     </row>
     <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
@@ -18651,7 +20441,12 @@
       <c r="I544">
         <v>0</v>
       </c>
-      <c r="K544" s="2"/>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
@@ -18678,7 +20473,12 @@
       <c r="I545">
         <v>0</v>
       </c>
-      <c r="K545" s="2"/>
+      <c r="J545">
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
@@ -18705,7 +20505,12 @@
       <c r="I546">
         <v>0</v>
       </c>
-      <c r="K546" s="2"/>
+      <c r="J546">
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
@@ -18732,7 +20537,12 @@
       <c r="I547">
         <v>0</v>
       </c>
-      <c r="K547" s="2"/>
+      <c r="J547">
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
@@ -18759,7 +20569,12 @@
       <c r="I548">
         <v>0</v>
       </c>
-      <c r="K548" s="2"/>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
@@ -18786,7 +20601,12 @@
       <c r="I549">
         <v>0</v>
       </c>
-      <c r="K549" s="2"/>
+      <c r="J549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
@@ -18813,7 +20633,12 @@
       <c r="I550">
         <v>0</v>
       </c>
-      <c r="K550" s="2"/>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
@@ -18840,7 +20665,12 @@
       <c r="I551">
         <v>0</v>
       </c>
-      <c r="K551" s="2"/>
+      <c r="J551">
+        <v>0</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
@@ -18867,7 +20697,12 @@
       <c r="I552">
         <v>0</v>
       </c>
-      <c r="K552" s="2"/>
+      <c r="J552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
@@ -18894,7 +20729,12 @@
       <c r="I553">
         <v>0</v>
       </c>
-      <c r="K553" s="2"/>
+      <c r="J553">
+        <v>0</v>
+      </c>
+      <c r="K553">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
@@ -18921,7 +20761,12 @@
       <c r="I554">
         <v>0</v>
       </c>
-      <c r="K554" s="2"/>
+      <c r="J554">
+        <v>0</v>
+      </c>
+      <c r="K554">
+        <v>0</v>
+      </c>
     </row>
     <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
@@ -18948,7 +20793,12 @@
       <c r="I555">
         <v>0</v>
       </c>
-      <c r="K555" s="2"/>
+      <c r="J555">
+        <v>0</v>
+      </c>
+      <c r="K555">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
@@ -18975,7 +20825,12 @@
       <c r="I556">
         <v>0</v>
       </c>
-      <c r="K556" s="2"/>
+      <c r="J556">
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
@@ -19002,7 +20857,12 @@
       <c r="I557">
         <v>0</v>
       </c>
-      <c r="K557" s="2"/>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
@@ -19029,7 +20889,12 @@
       <c r="I558">
         <v>0</v>
       </c>
-      <c r="K558" s="2"/>
+      <c r="J558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
@@ -19056,7 +20921,12 @@
       <c r="I559">
         <v>0</v>
       </c>
-      <c r="K559" s="2"/>
+      <c r="J559">
+        <v>0</v>
+      </c>
+      <c r="K559">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
@@ -19083,7 +20953,12 @@
       <c r="I560">
         <v>0</v>
       </c>
-      <c r="K560" s="2"/>
+      <c r="J560">
+        <v>0</v>
+      </c>
+      <c r="K560">
+        <v>0</v>
+      </c>
     </row>
     <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
@@ -19110,7 +20985,12 @@
       <c r="I561">
         <v>0</v>
       </c>
-      <c r="K561" s="2"/>
+      <c r="J561">
+        <v>0</v>
+      </c>
+      <c r="K561">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
@@ -19137,7 +21017,12 @@
       <c r="I562">
         <v>0</v>
       </c>
-      <c r="K562" s="2"/>
+      <c r="J562">
+        <v>0</v>
+      </c>
+      <c r="K562">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
@@ -19164,7 +21049,12 @@
       <c r="I563">
         <v>0</v>
       </c>
-      <c r="K563" s="2"/>
+      <c r="J563">
+        <v>0</v>
+      </c>
+      <c r="K563">
+        <v>0</v>
+      </c>
     </row>
     <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
@@ -19191,7 +21081,12 @@
       <c r="I564">
         <v>0</v>
       </c>
-      <c r="K564" s="2"/>
+      <c r="J564">
+        <v>0</v>
+      </c>
+      <c r="K564">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
@@ -19218,7 +21113,12 @@
       <c r="I565">
         <v>0</v>
       </c>
-      <c r="K565" s="2"/>
+      <c r="J565">
+        <v>0</v>
+      </c>
+      <c r="K565">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
@@ -19245,7 +21145,12 @@
       <c r="I566">
         <v>0</v>
       </c>
-      <c r="K566" s="2"/>
+      <c r="J566">
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
@@ -19272,7 +21177,12 @@
       <c r="I567">
         <v>0</v>
       </c>
-      <c r="K567" s="2"/>
+      <c r="J567">
+        <v>0</v>
+      </c>
+      <c r="K567">
+        <v>0</v>
+      </c>
     </row>
     <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
@@ -19299,7 +21209,12 @@
       <c r="I568">
         <v>0</v>
       </c>
-      <c r="K568" s="2"/>
+      <c r="J568">
+        <v>0</v>
+      </c>
+      <c r="K568">
+        <v>0</v>
+      </c>
     </row>
     <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
@@ -19326,7 +21241,12 @@
       <c r="I569">
         <v>0</v>
       </c>
-      <c r="K569" s="2"/>
+      <c r="J569">
+        <v>0</v>
+      </c>
+      <c r="K569">
+        <v>0</v>
+      </c>
     </row>
     <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
@@ -19353,7 +21273,12 @@
       <c r="I570">
         <v>0</v>
       </c>
-      <c r="K570" s="2"/>
+      <c r="J570">
+        <v>0</v>
+      </c>
+      <c r="K570">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
@@ -19380,7 +21305,12 @@
       <c r="I571">
         <v>0</v>
       </c>
-      <c r="K571" s="2"/>
+      <c r="J571">
+        <v>0</v>
+      </c>
+      <c r="K571">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
@@ -19407,7 +21337,12 @@
       <c r="I572">
         <v>0</v>
       </c>
-      <c r="K572" s="2"/>
+      <c r="J572">
+        <v>0</v>
+      </c>
+      <c r="K572">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
@@ -19434,7 +21369,12 @@
       <c r="I573">
         <v>0</v>
       </c>
-      <c r="K573" s="2"/>
+      <c r="J573">
+        <v>0</v>
+      </c>
+      <c r="K573">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
@@ -19461,7 +21401,12 @@
       <c r="I574">
         <v>0</v>
       </c>
-      <c r="K574" s="2"/>
+      <c r="J574">
+        <v>0</v>
+      </c>
+      <c r="K574">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
@@ -19488,7 +21433,12 @@
       <c r="I575">
         <v>0</v>
       </c>
-      <c r="K575" s="2"/>
+      <c r="J575">
+        <v>0</v>
+      </c>
+      <c r="K575">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
@@ -19515,7 +21465,12 @@
       <c r="I576">
         <v>0</v>
       </c>
-      <c r="K576" s="2"/>
+      <c r="J576">
+        <v>0</v>
+      </c>
+      <c r="K576">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
@@ -19542,7 +21497,12 @@
       <c r="I577">
         <v>0</v>
       </c>
-      <c r="K577" s="2"/>
+      <c r="J577">
+        <v>0</v>
+      </c>
+      <c r="K577">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
@@ -19569,7 +21529,12 @@
       <c r="I578">
         <v>0</v>
       </c>
-      <c r="K578" s="2"/>
+      <c r="J578">
+        <v>0</v>
+      </c>
+      <c r="K578">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
@@ -19596,7 +21561,12 @@
       <c r="I579">
         <v>0</v>
       </c>
-      <c r="K579" s="2"/>
+      <c r="J579">
+        <v>0</v>
+      </c>
+      <c r="K579">
+        <v>0</v>
+      </c>
     </row>
     <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
@@ -19623,7 +21593,12 @@
       <c r="I580">
         <v>0</v>
       </c>
-      <c r="K580" s="2"/>
+      <c r="J580">
+        <v>0</v>
+      </c>
+      <c r="K580">
+        <v>0</v>
+      </c>
     </row>
     <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
@@ -19650,7 +21625,12 @@
       <c r="I581">
         <v>0</v>
       </c>
-      <c r="K581" s="2"/>
+      <c r="J581">
+        <v>0</v>
+      </c>
+      <c r="K581">
+        <v>0</v>
+      </c>
     </row>
     <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
@@ -19677,7 +21657,12 @@
       <c r="I582">
         <v>0</v>
       </c>
-      <c r="K582" s="2"/>
+      <c r="J582">
+        <v>0</v>
+      </c>
+      <c r="K582">
+        <v>0</v>
+      </c>
     </row>
     <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
@@ -19704,7 +21689,12 @@
       <c r="I583">
         <v>0</v>
       </c>
-      <c r="K583" s="2"/>
+      <c r="J583">
+        <v>0</v>
+      </c>
+      <c r="K583">
+        <v>0</v>
+      </c>
     </row>
     <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
@@ -19731,7 +21721,12 @@
       <c r="I584">
         <v>0</v>
       </c>
-      <c r="K584" s="2"/>
+      <c r="J584">
+        <v>0</v>
+      </c>
+      <c r="K584">
+        <v>0</v>
+      </c>
     </row>
     <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
@@ -19758,7 +21753,12 @@
       <c r="I585">
         <v>0</v>
       </c>
-      <c r="K585" s="2"/>
+      <c r="J585">
+        <v>0</v>
+      </c>
+      <c r="K585">
+        <v>0</v>
+      </c>
     </row>
     <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
@@ -19785,7 +21785,12 @@
       <c r="I586">
         <v>0</v>
       </c>
-      <c r="K586" s="2"/>
+      <c r="J586">
+        <v>0</v>
+      </c>
+      <c r="K586">
+        <v>0</v>
+      </c>
     </row>
     <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
@@ -19812,7 +21817,12 @@
       <c r="I587">
         <v>0</v>
       </c>
-      <c r="K587" s="2"/>
+      <c r="J587">
+        <v>0</v>
+      </c>
+      <c r="K587">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
@@ -19839,7 +21849,12 @@
       <c r="I588">
         <v>0</v>
       </c>
-      <c r="K588" s="2"/>
+      <c r="J588">
+        <v>0</v>
+      </c>
+      <c r="K588">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
@@ -19866,7 +21881,12 @@
       <c r="I589">
         <v>0</v>
       </c>
-      <c r="K589" s="2"/>
+      <c r="J589">
+        <v>0</v>
+      </c>
+      <c r="K589">
+        <v>0</v>
+      </c>
     </row>
     <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
@@ -19893,7 +21913,12 @@
       <c r="I590">
         <v>0</v>
       </c>
-      <c r="K590" s="2"/>
+      <c r="J590">
+        <v>0</v>
+      </c>
+      <c r="K590">
+        <v>0</v>
+      </c>
     </row>
     <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
@@ -19920,7 +21945,12 @@
       <c r="I591">
         <v>0</v>
       </c>
-      <c r="K591" s="2"/>
+      <c r="J591">
+        <v>0</v>
+      </c>
+      <c r="K591">
+        <v>0</v>
+      </c>
     </row>
     <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
@@ -19947,7 +21977,12 @@
       <c r="I592">
         <v>0</v>
       </c>
-      <c r="K592" s="2"/>
+      <c r="J592">
+        <v>0</v>
+      </c>
+      <c r="K592">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
@@ -19974,7 +22009,12 @@
       <c r="I593">
         <v>0</v>
       </c>
-      <c r="K593" s="2"/>
+      <c r="J593">
+        <v>0</v>
+      </c>
+      <c r="K593">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
@@ -20001,7 +22041,12 @@
       <c r="I594">
         <v>0</v>
       </c>
-      <c r="K594" s="2"/>
+      <c r="J594">
+        <v>0</v>
+      </c>
+      <c r="K594">
+        <v>0</v>
+      </c>
     </row>
     <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
@@ -20028,7 +22073,12 @@
       <c r="I595">
         <v>0</v>
       </c>
-      <c r="K595" s="2"/>
+      <c r="J595">
+        <v>0</v>
+      </c>
+      <c r="K595">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
@@ -20055,7 +22105,12 @@
       <c r="I596">
         <v>0</v>
       </c>
-      <c r="K596" s="2"/>
+      <c r="J596">
+        <v>0</v>
+      </c>
+      <c r="K596">
+        <v>0</v>
+      </c>
     </row>
     <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
@@ -20082,7 +22137,12 @@
       <c r="I597">
         <v>0</v>
       </c>
-      <c r="K597" s="2"/>
+      <c r="J597">
+        <v>0</v>
+      </c>
+      <c r="K597">
+        <v>0</v>
+      </c>
     </row>
     <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
@@ -20109,7 +22169,12 @@
       <c r="I598">
         <v>0</v>
       </c>
-      <c r="K598" s="2"/>
+      <c r="J598">
+        <v>0</v>
+      </c>
+      <c r="K598">
+        <v>0</v>
+      </c>
     </row>
     <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
@@ -20136,7 +22201,12 @@
       <c r="I599">
         <v>0</v>
       </c>
-      <c r="K599" s="2"/>
+      <c r="J599">
+        <v>0</v>
+      </c>
+      <c r="K599">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
@@ -20163,7 +22233,12 @@
       <c r="I600">
         <v>0</v>
       </c>
-      <c r="K600" s="2"/>
+      <c r="J600">
+        <v>0</v>
+      </c>
+      <c r="K600">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
@@ -20190,7 +22265,12 @@
       <c r="I601">
         <v>0</v>
       </c>
-      <c r="K601" s="2"/>
+      <c r="J601">
+        <v>0</v>
+      </c>
+      <c r="K601">
+        <v>0</v>
+      </c>
     </row>
     <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
@@ -20217,7 +22297,12 @@
       <c r="I602">
         <v>0</v>
       </c>
-      <c r="K602" s="2"/>
+      <c r="J602">
+        <v>0</v>
+      </c>
+      <c r="K602">
+        <v>0</v>
+      </c>
     </row>
     <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
@@ -20244,7 +22329,12 @@
       <c r="I603">
         <v>0</v>
       </c>
-      <c r="K603" s="2"/>
+      <c r="J603">
+        <v>0</v>
+      </c>
+      <c r="K603">
+        <v>0</v>
+      </c>
     </row>
     <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
@@ -20271,7 +22361,12 @@
       <c r="I604">
         <v>0</v>
       </c>
-      <c r="K604" s="2"/>
+      <c r="J604">
+        <v>0</v>
+      </c>
+      <c r="K604">
+        <v>0</v>
+      </c>
     </row>
     <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
@@ -20298,7 +22393,12 @@
       <c r="I605">
         <v>0</v>
       </c>
-      <c r="K605" s="2"/>
+      <c r="J605">
+        <v>0</v>
+      </c>
+      <c r="K605">
+        <v>0</v>
+      </c>
     </row>
     <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
@@ -20325,7 +22425,12 @@
       <c r="I606">
         <v>0</v>
       </c>
-      <c r="K606" s="2"/>
+      <c r="J606">
+        <v>0</v>
+      </c>
+      <c r="K606">
+        <v>0</v>
+      </c>
     </row>
     <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
@@ -20352,7 +22457,12 @@
       <c r="I607">
         <v>0</v>
       </c>
-      <c r="K607" s="2"/>
+      <c r="J607">
+        <v>0</v>
+      </c>
+      <c r="K607">
+        <v>0</v>
+      </c>
     </row>
     <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
@@ -20379,7 +22489,12 @@
       <c r="I608">
         <v>0</v>
       </c>
-      <c r="K608" s="2"/>
+      <c r="J608">
+        <v>0</v>
+      </c>
+      <c r="K608">
+        <v>0</v>
+      </c>
     </row>
     <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
@@ -20406,7 +22521,12 @@
       <c r="I609">
         <v>0</v>
       </c>
-      <c r="K609" s="2"/>
+      <c r="J609">
+        <v>0</v>
+      </c>
+      <c r="K609">
+        <v>0</v>
+      </c>
     </row>
     <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
@@ -20433,7 +22553,12 @@
       <c r="I610">
         <v>0</v>
       </c>
-      <c r="K610" s="2"/>
+      <c r="J610">
+        <v>0</v>
+      </c>
+      <c r="K610">
+        <v>0</v>
+      </c>
     </row>
     <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
@@ -20460,7 +22585,12 @@
       <c r="I611">
         <v>0</v>
       </c>
-      <c r="K611" s="2"/>
+      <c r="J611">
+        <v>0</v>
+      </c>
+      <c r="K611">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
@@ -20487,7 +22617,12 @@
       <c r="I612">
         <v>0</v>
       </c>
-      <c r="K612" s="2"/>
+      <c r="J612">
+        <v>0</v>
+      </c>
+      <c r="K612">
+        <v>0</v>
+      </c>
     </row>
     <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
@@ -20514,7 +22649,12 @@
       <c r="I613">
         <v>0</v>
       </c>
-      <c r="K613" s="2"/>
+      <c r="J613">
+        <v>0</v>
+      </c>
+      <c r="K613">
+        <v>0</v>
+      </c>
     </row>
     <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
@@ -20541,7 +22681,12 @@
       <c r="I614">
         <v>0</v>
       </c>
-      <c r="K614" s="2"/>
+      <c r="J614">
+        <v>0</v>
+      </c>
+      <c r="K614">
+        <v>0</v>
+      </c>
     </row>
     <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
@@ -20568,7 +22713,12 @@
       <c r="I615">
         <v>0</v>
       </c>
-      <c r="K615" s="2"/>
+      <c r="J615">
+        <v>0</v>
+      </c>
+      <c r="K615">
+        <v>0</v>
+      </c>
     </row>
     <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
@@ -20595,7 +22745,12 @@
       <c r="I616">
         <v>0</v>
       </c>
-      <c r="K616" s="2"/>
+      <c r="J616">
+        <v>0</v>
+      </c>
+      <c r="K616">
+        <v>0</v>
+      </c>
     </row>
     <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
@@ -20622,7 +22777,12 @@
       <c r="I617">
         <v>0</v>
       </c>
-      <c r="K617" s="2"/>
+      <c r="J617">
+        <v>0</v>
+      </c>
+      <c r="K617">
+        <v>0</v>
+      </c>
     </row>
     <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
@@ -20649,7 +22809,12 @@
       <c r="I618">
         <v>0</v>
       </c>
-      <c r="K618" s="2"/>
+      <c r="J618">
+        <v>0</v>
+      </c>
+      <c r="K618">
+        <v>0</v>
+      </c>
     </row>
     <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
@@ -20676,7 +22841,12 @@
       <c r="I619">
         <v>0</v>
       </c>
-      <c r="K619" s="2"/>
+      <c r="J619">
+        <v>0</v>
+      </c>
+      <c r="K619">
+        <v>0</v>
+      </c>
     </row>
     <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
@@ -20703,7 +22873,12 @@
       <c r="I620">
         <v>0</v>
       </c>
-      <c r="K620" s="2"/>
+      <c r="J620">
+        <v>0</v>
+      </c>
+      <c r="K620">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D968EFD2-BE94-7E4A-AA55-3EB142DA8769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4445FE7F-E3A8-9C4A-8DE6-A7FB0A7E41EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-2480" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="656">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2001,6 +2001,9 @@
   </si>
   <si>
     <t>doy62: probably the replicate missing its tag. Pheno stage 1 on doy62. confirming on doy69 that this is the replicate with a missing tag.</t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
 </sst>
 </file>
@@ -2548,7 +2551,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2667,26 +2678,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:K620" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="prunus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:L620" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L620" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3009,11 +3015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K620"/>
+  <dimension ref="A1:L620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H396" sqref="H396"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M544" sqref="M544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3028,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3056,8 +3062,11 @@
       <c r="K1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3088,8 +3097,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3120,8 +3132,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3152,8 +3167,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3184,8 +3202,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3216,8 +3237,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3248,8 +3272,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3280,8 +3307,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3312,8 +3342,11 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3344,8 +3377,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3376,8 +3412,11 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3408,8 +3447,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3440,8 +3482,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3472,8 +3517,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3504,8 +3552,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3536,8 +3587,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3568,8 +3622,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3600,8 +3657,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3632,8 +3692,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3664,8 +3727,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3696,8 +3762,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3728,8 +3797,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3760,8 +3832,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3792,8 +3867,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3824,8 +3902,11 @@
       <c r="K25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3856,8 +3937,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3888,8 +3972,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3920,8 +4007,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3952,8 +4042,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3984,8 +4077,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4016,8 +4112,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4048,8 +4147,11 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4080,8 +4182,11 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4112,8 +4217,11 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4144,8 +4252,11 @@
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4176,8 +4287,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4208,8 +4322,11 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4240,8 +4357,11 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4272,8 +4392,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4304,8 +4427,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4336,8 +4462,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4368,8 +4497,11 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4400,8 +4532,11 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4432,8 +4567,11 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4464,8 +4602,11 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4496,8 +4637,11 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4528,8 +4672,11 @@
       <c r="K47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4560,8 +4707,11 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4592,8 +4742,11 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -4624,8 +4777,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -4656,8 +4812,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -4688,8 +4847,11 @@
       <c r="K52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -4720,8 +4882,11 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -4752,8 +4917,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -4784,8 +4952,11 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4848,8 +5022,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -4880,8 +5057,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -4912,8 +5092,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -4944,8 +5127,11 @@
       <c r="K60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -4976,8 +5162,11 @@
       <c r="K61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5008,8 +5197,11 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -5040,8 +5232,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5072,8 +5267,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5104,8 +5302,11 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -5136,8 +5337,11 @@
       <c r="K66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -5168,8 +5372,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -5200,8 +5407,11 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -5232,8 +5442,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -5264,8 +5477,11 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -5296,8 +5512,11 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5328,8 +5547,11 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -5360,8 +5582,11 @@
       <c r="K73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -5392,8 +5617,11 @@
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -5424,8 +5652,11 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -5456,8 +5687,11 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5488,8 +5722,11 @@
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5520,8 +5757,11 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5552,8 +5792,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5584,8 +5827,11 @@
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5616,8 +5862,11 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5648,8 +5897,11 @@
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -5680,8 +5932,11 @@
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -5712,8 +5967,11 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -5744,8 +6002,11 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -5776,8 +6037,11 @@
       <c r="K86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -5808,8 +6072,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -5840,8 +6107,11 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -5872,8 +6142,11 @@
       <c r="K89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -5904,8 +6177,11 @@
       <c r="K90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -5936,8 +6212,11 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5968,8 +6247,11 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -6000,8 +6282,11 @@
       <c r="K93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -6032,8 +6317,11 @@
       <c r="K94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -6064,8 +6352,11 @@
       <c r="K95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -6096,8 +6387,11 @@
       <c r="K96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -6128,8 +6422,11 @@
       <c r="K97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -6160,8 +6457,11 @@
       <c r="K98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -6192,8 +6492,11 @@
       <c r="K99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -6224,8 +6527,11 @@
       <c r="K100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -6256,8 +6562,11 @@
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -6288,8 +6597,11 @@
       <c r="K102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L102" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -6320,8 +6632,11 @@
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -6352,8 +6667,11 @@
       <c r="K104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -6384,8 +6702,11 @@
       <c r="K105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L105" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -6416,8 +6737,11 @@
       <c r="K106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L106" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -6448,8 +6772,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L107" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -6480,8 +6807,11 @@
       <c r="K108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L108" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -6512,8 +6842,11 @@
       <c r="K109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L109" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -6544,8 +6877,11 @@
       <c r="K110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -6576,8 +6912,11 @@
       <c r="K111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6608,8 +6947,11 @@
       <c r="K112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L112" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -6640,8 +6982,11 @@
       <c r="K113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -6672,8 +7017,11 @@
       <c r="K114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -6704,8 +7052,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L115" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -6736,8 +7087,11 @@
       <c r="K116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -6768,8 +7122,11 @@
       <c r="K117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -6800,8 +7157,11 @@
       <c r="K118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L118" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -6832,8 +7192,11 @@
       <c r="K119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -6864,8 +7227,11 @@
       <c r="K120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L120" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -6896,8 +7262,11 @@
       <c r="K121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L121" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -6928,8 +7297,11 @@
       <c r="K122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -6960,8 +7332,11 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -6992,8 +7367,11 @@
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -7024,8 +7402,11 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -7056,8 +7437,11 @@
       <c r="K126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -7088,8 +7472,11 @@
       <c r="K127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -7120,8 +7507,11 @@
       <c r="K128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -7152,8 +7542,11 @@
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -7184,8 +7577,11 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -7216,8 +7612,11 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -7248,8 +7647,11 @@
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -7280,8 +7682,11 @@
       <c r="K133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -7312,8 +7717,11 @@
       <c r="K134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -7344,8 +7752,11 @@
       <c r="K135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -7376,8 +7787,11 @@
       <c r="K136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -7408,8 +7822,11 @@
       <c r="K137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L137" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -7440,8 +7857,11 @@
       <c r="K138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -7472,8 +7892,11 @@
       <c r="K139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -7504,8 +7927,11 @@
       <c r="K140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L140" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7536,8 +7962,11 @@
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L141" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -7568,8 +7997,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -7600,8 +8032,11 @@
       <c r="K143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -7632,8 +8067,11 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -7664,8 +8102,11 @@
       <c r="K145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L145" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -7696,8 +8137,11 @@
       <c r="K146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L146" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -7728,8 +8172,11 @@
       <c r="K147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -7760,8 +8207,11 @@
       <c r="K148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -7792,8 +8242,11 @@
       <c r="K149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -7824,8 +8277,11 @@
       <c r="K150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -7856,8 +8312,11 @@
       <c r="K151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L151" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -7888,8 +8347,11 @@
       <c r="K152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -7920,8 +8382,11 @@
       <c r="K153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L153" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -7952,8 +8417,11 @@
       <c r="K154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -7984,8 +8452,11 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -8016,8 +8487,11 @@
       <c r="K156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -8048,8 +8522,11 @@
       <c r="K157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L157" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -8080,8 +8557,11 @@
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -8112,8 +8592,11 @@
       <c r="K159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -8144,8 +8627,11 @@
       <c r="K160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -8176,8 +8662,11 @@
       <c r="K161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -8208,8 +8697,11 @@
       <c r="K162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -8240,8 +8732,11 @@
       <c r="K163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -8272,8 +8767,11 @@
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -8304,8 +8802,11 @@
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -8336,8 +8837,11 @@
       <c r="K166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -8368,8 +8872,11 @@
       <c r="K167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -8400,8 +8907,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -8432,8 +8942,11 @@
       <c r="K169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -8464,8 +8977,11 @@
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -8496,8 +9012,11 @@
       <c r="K171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -8528,8 +9047,11 @@
       <c r="K172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -8560,8 +9082,11 @@
       <c r="K173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -8592,8 +9117,11 @@
       <c r="K174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L174" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -8624,8 +9152,11 @@
       <c r="K175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -8656,8 +9187,11 @@
       <c r="K176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -8688,8 +9222,11 @@
       <c r="K177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -8720,8 +9257,11 @@
       <c r="K178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L178" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -8752,8 +9292,11 @@
       <c r="K179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -8784,8 +9327,11 @@
       <c r="K180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -8816,8 +9362,11 @@
       <c r="K181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L181" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -8848,8 +9397,11 @@
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -8880,8 +9432,11 @@
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -8912,8 +9467,11 @@
       <c r="K184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -8944,8 +9502,11 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -8976,8 +9537,11 @@
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -9008,8 +9572,11 @@
       <c r="K187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -9040,8 +9607,11 @@
       <c r="K188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -9072,8 +9642,11 @@
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -9104,8 +9677,11 @@
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -9136,8 +9712,11 @@
       <c r="K191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -9168,8 +9747,11 @@
       <c r="K192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -9200,8 +9782,11 @@
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -9232,8 +9817,11 @@
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -9264,8 +9852,11 @@
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -9296,8 +9887,11 @@
       <c r="K196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -9328,8 +9922,11 @@
       <c r="K197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -9360,8 +9957,11 @@
       <c r="K198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -9392,8 +9992,11 @@
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -9424,8 +10027,11 @@
       <c r="K200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -9456,8 +10062,11 @@
       <c r="K201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -9488,8 +10097,11 @@
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -9520,8 +10132,11 @@
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -9552,8 +10167,11 @@
       <c r="K204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -9584,8 +10202,11 @@
       <c r="K205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -9616,8 +10237,11 @@
       <c r="K206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -9648,8 +10272,11 @@
       <c r="K207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -9680,8 +10307,11 @@
       <c r="K208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -9712,8 +10342,11 @@
       <c r="K209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -9744,8 +10377,11 @@
       <c r="K210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -9776,8 +10412,11 @@
       <c r="K211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -9808,8 +10447,11 @@
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -9840,8 +10482,11 @@
       <c r="K213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -9872,8 +10517,11 @@
       <c r="K214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -9904,8 +10552,11 @@
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -9936,8 +10587,11 @@
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -9968,8 +10622,11 @@
       <c r="K217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -10000,8 +10657,11 @@
       <c r="K218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -10032,8 +10692,11 @@
       <c r="K219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -10064,8 +10727,11 @@
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -10096,8 +10762,11 @@
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -10128,8 +10797,11 @@
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -10160,8 +10832,11 @@
       <c r="K223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -10192,8 +10867,11 @@
       <c r="K224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -10224,8 +10902,11 @@
       <c r="K225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -10256,8 +10937,11 @@
       <c r="K226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -10288,8 +10972,11 @@
       <c r="K227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -10320,8 +11007,11 @@
       <c r="K228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -10352,8 +11042,11 @@
       <c r="K229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -10384,8 +11077,11 @@
       <c r="K230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -10416,8 +11112,11 @@
       <c r="K231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -10448,8 +11147,11 @@
       <c r="K232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -10480,8 +11182,11 @@
       <c r="K233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -10512,8 +11217,11 @@
       <c r="K234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -10544,8 +11252,11 @@
       <c r="K235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -10576,8 +11287,11 @@
       <c r="K236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -10608,8 +11322,11 @@
       <c r="K237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -10640,8 +11357,11 @@
       <c r="K238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -10672,8 +11392,11 @@
       <c r="K239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -10704,8 +11427,11 @@
       <c r="K240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -10736,8 +11462,11 @@
       <c r="K241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -10768,8 +11497,11 @@
       <c r="K242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -10800,8 +11532,11 @@
       <c r="K243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -10832,8 +11567,11 @@
       <c r="K244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -10864,8 +11602,11 @@
       <c r="K245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -10896,8 +11637,11 @@
       <c r="K246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -10928,8 +11672,11 @@
       <c r="K247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -10960,8 +11707,11 @@
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -10992,8 +11742,11 @@
       <c r="K249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -11024,8 +11777,11 @@
       <c r="K250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -11056,8 +11812,11 @@
       <c r="K251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -11088,8 +11847,11 @@
       <c r="K252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -11120,8 +11882,11 @@
       <c r="K253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -11152,8 +11917,11 @@
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -11184,8 +11952,11 @@
       <c r="K255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -11216,8 +11987,11 @@
       <c r="K256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -11248,8 +12022,11 @@
       <c r="K257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -11280,8 +12057,11 @@
       <c r="K258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -11312,8 +12092,11 @@
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -11344,8 +12127,11 @@
       <c r="K260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -11376,8 +12162,11 @@
       <c r="K261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -11408,8 +12197,11 @@
       <c r="K262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -11440,8 +12232,11 @@
       <c r="K263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -11472,8 +12267,11 @@
       <c r="K264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -11504,8 +12302,11 @@
       <c r="K265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -11536,8 +12337,11 @@
       <c r="K266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -11568,8 +12372,11 @@
       <c r="K267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -11600,8 +12407,11 @@
       <c r="K268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -11632,8 +12442,11 @@
       <c r="K269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -11664,8 +12477,11 @@
       <c r="K270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -11696,8 +12512,11 @@
       <c r="K271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -11728,8 +12547,11 @@
       <c r="K272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -11760,8 +12582,11 @@
       <c r="K273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -11792,8 +12617,11 @@
       <c r="K274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -11824,8 +12652,11 @@
       <c r="K275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -11856,8 +12687,11 @@
       <c r="K276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -11888,8 +12722,11 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -11920,8 +12757,11 @@
       <c r="K278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -11952,8 +12792,11 @@
       <c r="K279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -11984,8 +12827,11 @@
       <c r="K280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -12016,8 +12862,11 @@
       <c r="K281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -12048,8 +12897,11 @@
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>301</v>
       </c>
@@ -12080,8 +12932,11 @@
       <c r="K283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -12112,8 +12967,11 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -12144,8 +13002,11 @@
       <c r="K285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -12176,8 +13037,11 @@
       <c r="K286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -12208,8 +13072,11 @@
       <c r="K287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -12240,8 +13107,11 @@
       <c r="K288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -12272,8 +13142,11 @@
       <c r="K289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -12304,8 +13177,11 @@
       <c r="K290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -12336,8 +13212,11 @@
       <c r="K291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -12368,8 +13247,11 @@
       <c r="K292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -12400,8 +13282,11 @@
       <c r="K293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -12432,8 +13317,11 @@
       <c r="K294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -12464,8 +13352,11 @@
       <c r="K295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -12496,8 +13387,11 @@
       <c r="K296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -12528,8 +13422,11 @@
       <c r="K297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -12560,8 +13457,11 @@
       <c r="K298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -12592,8 +13492,11 @@
       <c r="K299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -12624,8 +13527,11 @@
       <c r="K300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -12656,8 +13562,11 @@
       <c r="K301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -12688,8 +13597,11 @@
       <c r="K302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -12720,8 +13632,11 @@
       <c r="K303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -12752,8 +13667,11 @@
       <c r="K304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -12784,8 +13702,11 @@
       <c r="K305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -12816,8 +13737,11 @@
       <c r="K306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -12848,8 +13772,11 @@
       <c r="K307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -12880,8 +13807,11 @@
       <c r="K308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -12912,8 +13842,11 @@
       <c r="K309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -12944,8 +13877,11 @@
       <c r="K310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -12976,8 +13912,11 @@
       <c r="K311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -13008,8 +13947,11 @@
       <c r="K312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -13040,8 +13982,11 @@
       <c r="K313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -13072,8 +14017,11 @@
       <c r="K314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -13104,8 +14052,11 @@
       <c r="K315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -13136,8 +14087,11 @@
       <c r="K316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -13168,8 +14122,11 @@
       <c r="K317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -13200,8 +14157,11 @@
       <c r="K318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -13232,8 +14192,11 @@
       <c r="K319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -13264,8 +14227,11 @@
       <c r="K320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -13296,8 +14262,11 @@
       <c r="K321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>340</v>
       </c>
@@ -13328,8 +14297,11 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -13360,8 +14332,11 @@
       <c r="K323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>342</v>
       </c>
@@ -13392,8 +14367,11 @@
       <c r="K324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -13424,8 +14402,11 @@
       <c r="K325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -13456,8 +14437,11 @@
       <c r="K326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -13488,8 +14472,11 @@
       <c r="K327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -13520,8 +14507,11 @@
       <c r="K328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -13552,8 +14542,11 @@
       <c r="K329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -13584,8 +14577,11 @@
       <c r="K330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -13616,8 +14612,11 @@
       <c r="K331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -13648,8 +14647,11 @@
       <c r="K332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -13680,8 +14682,11 @@
       <c r="K333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -13712,8 +14717,11 @@
       <c r="K334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -13744,8 +14752,11 @@
       <c r="K335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -13776,8 +14787,11 @@
       <c r="K336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -13808,8 +14822,11 @@
       <c r="K337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -13840,8 +14857,11 @@
       <c r="K338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -13872,8 +14892,11 @@
       <c r="K339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -13904,8 +14927,11 @@
       <c r="K340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -13936,8 +14962,11 @@
       <c r="K341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -13968,8 +14997,11 @@
       <c r="K342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -14000,8 +15032,11 @@
       <c r="K343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -14032,8 +15067,11 @@
       <c r="K344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -14064,8 +15102,11 @@
       <c r="K345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -14096,8 +15137,11 @@
       <c r="K346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -14128,8 +15172,11 @@
       <c r="K347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -14160,8 +15207,11 @@
       <c r="K348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -14192,8 +15242,11 @@
       <c r="K349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -14224,8 +15277,11 @@
       <c r="K350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -14256,8 +15312,11 @@
       <c r="K351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -14288,8 +15347,11 @@
       <c r="K352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -14320,8 +15382,11 @@
       <c r="K353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -14352,8 +15417,11 @@
       <c r="K354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -14384,8 +15452,11 @@
       <c r="K355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -14416,8 +15487,11 @@
       <c r="K356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -14448,8 +15522,11 @@
       <c r="K357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -14480,8 +15557,11 @@
       <c r="K358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -14512,8 +15592,11 @@
       <c r="K359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -14544,8 +15627,11 @@
       <c r="K360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -14576,8 +15662,11 @@
       <c r="K361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -14608,8 +15697,11 @@
       <c r="K362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -14640,8 +15732,11 @@
       <c r="K363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -14672,8 +15767,11 @@
       <c r="K364">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -14704,8 +15802,11 @@
       <c r="K365">
         <v>2</v>
       </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -14736,8 +15837,11 @@
       <c r="K366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -14768,8 +15872,11 @@
       <c r="K367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -14800,8 +15907,11 @@
       <c r="K368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -14832,8 +15942,11 @@
       <c r="K369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -14864,8 +15977,11 @@
       <c r="K370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -14896,8 +16012,11 @@
       <c r="K371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -14922,14 +16041,17 @@
       <c r="I372">
         <v>1</v>
       </c>
-      <c r="J372" s="3">
+      <c r="J372">
         <v>2</v>
       </c>
       <c r="K372">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -14960,8 +16082,11 @@
       <c r="K373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -14992,8 +16117,11 @@
       <c r="K374">
         <v>2</v>
       </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -15024,8 +16152,11 @@
       <c r="K375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -15056,8 +16187,11 @@
       <c r="K376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>397</v>
       </c>
@@ -15088,8 +16222,11 @@
       <c r="K377">
         <v>2</v>
       </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>398</v>
       </c>
@@ -15120,8 +16257,11 @@
       <c r="K378">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>399</v>
       </c>
@@ -15152,8 +16292,11 @@
       <c r="K379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>400</v>
       </c>
@@ -15187,8 +16330,11 @@
       <c r="K380" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>401</v>
       </c>
@@ -15219,8 +16365,11 @@
       <c r="K381">
         <v>2</v>
       </c>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>402</v>
       </c>
@@ -15251,8 +16400,11 @@
       <c r="K382">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>403</v>
       </c>
@@ -15283,8 +16435,11 @@
       <c r="K383">
         <v>2</v>
       </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>404</v>
       </c>
@@ -15315,8 +16470,11 @@
       <c r="K384">
         <v>2</v>
       </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>405</v>
       </c>
@@ -15347,8 +16505,11 @@
       <c r="K385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>406</v>
       </c>
@@ -15379,8 +16540,11 @@
       <c r="K386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>407</v>
       </c>
@@ -15411,8 +16575,11 @@
       <c r="K387">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>408</v>
       </c>
@@ -15443,8 +16610,11 @@
       <c r="K388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>409</v>
       </c>
@@ -15475,8 +16645,11 @@
       <c r="K389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>410</v>
       </c>
@@ -15507,8 +16680,11 @@
       <c r="K390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>411</v>
       </c>
@@ -15539,8 +16715,11 @@
       <c r="K391">
         <v>2</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>412</v>
       </c>
@@ -15571,8 +16750,11 @@
       <c r="K392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>413</v>
       </c>
@@ -15603,8 +16785,11 @@
       <c r="K393">
         <v>2</v>
       </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>414</v>
       </c>
@@ -15635,8 +16820,11 @@
       <c r="K394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>415</v>
       </c>
@@ -15667,8 +16855,11 @@
       <c r="K395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>416</v>
       </c>
@@ -15702,8 +16893,11 @@
       <c r="K396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>417</v>
       </c>
@@ -15734,8 +16928,11 @@
       <c r="K397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>418</v>
       </c>
@@ -15766,8 +16963,11 @@
       <c r="K398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>419</v>
       </c>
@@ -15801,8 +17001,11 @@
       <c r="K399">
         <v>2</v>
       </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>420</v>
       </c>
@@ -15833,8 +17036,11 @@
       <c r="K400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>421</v>
       </c>
@@ -15865,8 +17071,11 @@
       <c r="K401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>422</v>
       </c>
@@ -15897,8 +17106,11 @@
       <c r="K402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>423</v>
       </c>
@@ -15932,8 +17144,11 @@
       <c r="K403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>424</v>
       </c>
@@ -15964,8 +17179,11 @@
       <c r="K404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>425</v>
       </c>
@@ -15996,8 +17214,11 @@
       <c r="K405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>426</v>
       </c>
@@ -16028,8 +17249,11 @@
       <c r="K406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>427</v>
       </c>
@@ -16060,8 +17284,11 @@
       <c r="K407">
         <v>2</v>
       </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>428</v>
       </c>
@@ -16092,8 +17319,11 @@
       <c r="K408">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>429</v>
       </c>
@@ -16124,8 +17354,11 @@
       <c r="K409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>430</v>
       </c>
@@ -16156,8 +17389,11 @@
       <c r="K410">
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -16188,8 +17424,11 @@
       <c r="K411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>432</v>
       </c>
@@ -16220,8 +17459,11 @@
       <c r="K412">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>433</v>
       </c>
@@ -16252,8 +17494,11 @@
       <c r="K413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>434</v>
       </c>
@@ -16284,8 +17529,11 @@
       <c r="K414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>435</v>
       </c>
@@ -16316,8 +17564,11 @@
       <c r="K415">
         <v>2</v>
       </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>436</v>
       </c>
@@ -16348,8 +17599,11 @@
       <c r="K416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>437</v>
       </c>
@@ -16380,8 +17634,11 @@
       <c r="K417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>438</v>
       </c>
@@ -16412,8 +17669,11 @@
       <c r="K418">
         <v>2</v>
       </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>439</v>
       </c>
@@ -16444,8 +17704,11 @@
       <c r="K419">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>440</v>
       </c>
@@ -16476,8 +17739,11 @@
       <c r="K420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>441</v>
       </c>
@@ -16508,8 +17774,11 @@
       <c r="K421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>442</v>
       </c>
@@ -16540,8 +17809,11 @@
       <c r="K422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>443</v>
       </c>
@@ -16572,8 +17844,11 @@
       <c r="K423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>444</v>
       </c>
@@ -16604,8 +17879,11 @@
       <c r="K424">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>445</v>
       </c>
@@ -16636,8 +17914,11 @@
       <c r="K425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>446</v>
       </c>
@@ -16668,8 +17949,11 @@
       <c r="K426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>447</v>
       </c>
@@ -16700,8 +17984,11 @@
       <c r="K427">
         <v>2</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>448</v>
       </c>
@@ -16732,8 +18019,11 @@
       <c r="K428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>449</v>
       </c>
@@ -16764,8 +18054,11 @@
       <c r="K429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>450</v>
       </c>
@@ -16796,8 +18089,11 @@
       <c r="K430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>451</v>
       </c>
@@ -16828,8 +18124,11 @@
       <c r="K431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>452</v>
       </c>
@@ -16860,8 +18159,11 @@
       <c r="K432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>453</v>
       </c>
@@ -16892,8 +18194,11 @@
       <c r="K433">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>454</v>
       </c>
@@ -16927,8 +18232,11 @@
       <c r="K434">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>455</v>
       </c>
@@ -16959,8 +18267,11 @@
       <c r="K435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>456</v>
       </c>
@@ -16991,8 +18302,11 @@
       <c r="K436">
         <v>2</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>457</v>
       </c>
@@ -17023,8 +18337,11 @@
       <c r="K437">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>458</v>
       </c>
@@ -17055,8 +18372,11 @@
       <c r="K438">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>459</v>
       </c>
@@ -17087,8 +18407,11 @@
       <c r="K439">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>460</v>
       </c>
@@ -17119,8 +18442,11 @@
       <c r="K440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>461</v>
       </c>
@@ -17151,8 +18477,11 @@
       <c r="K441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>462</v>
       </c>
@@ -17183,8 +18512,11 @@
       <c r="K442">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>463</v>
       </c>
@@ -17215,8 +18547,11 @@
       <c r="K443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>466</v>
       </c>
@@ -17247,8 +18582,11 @@
       <c r="K444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>467</v>
       </c>
@@ -17279,8 +18617,11 @@
       <c r="K445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>468</v>
       </c>
@@ -17311,8 +18652,11 @@
       <c r="K446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>469</v>
       </c>
@@ -17343,8 +18687,11 @@
       <c r="K447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>470</v>
       </c>
@@ -17375,8 +18722,11 @@
       <c r="K448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>471</v>
       </c>
@@ -17407,8 +18757,11 @@
       <c r="K449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>472</v>
       </c>
@@ -17439,8 +18792,11 @@
       <c r="K450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>473</v>
       </c>
@@ -17471,8 +18827,11 @@
       <c r="K451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>474</v>
       </c>
@@ -17503,8 +18862,11 @@
       <c r="K452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>475</v>
       </c>
@@ -17535,8 +18897,11 @@
       <c r="K453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>476</v>
       </c>
@@ -17567,8 +18932,11 @@
       <c r="K454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>477</v>
       </c>
@@ -17599,8 +18967,11 @@
       <c r="K455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>478</v>
       </c>
@@ -17631,8 +19002,11 @@
       <c r="K456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>479</v>
       </c>
@@ -17663,8 +19037,11 @@
       <c r="K457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>480</v>
       </c>
@@ -17695,8 +19072,11 @@
       <c r="K458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>481</v>
       </c>
@@ -17727,8 +19107,11 @@
       <c r="K459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>482</v>
       </c>
@@ -17759,8 +19142,11 @@
       <c r="K460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>483</v>
       </c>
@@ -17791,8 +19177,11 @@
       <c r="K461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>484</v>
       </c>
@@ -17823,8 +19212,11 @@
       <c r="K462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>485</v>
       </c>
@@ -17855,8 +19247,11 @@
       <c r="K463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>486</v>
       </c>
@@ -17887,8 +19282,11 @@
       <c r="K464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>487</v>
       </c>
@@ -17919,8 +19317,11 @@
       <c r="K465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>488</v>
       </c>
@@ -17951,8 +19352,11 @@
       <c r="K466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>489</v>
       </c>
@@ -17983,8 +19387,11 @@
       <c r="K467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>490</v>
       </c>
@@ -18015,8 +19422,11 @@
       <c r="K468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>491</v>
       </c>
@@ -18047,8 +19457,11 @@
       <c r="K469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>492</v>
       </c>
@@ -18079,8 +19492,11 @@
       <c r="K470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>493</v>
       </c>
@@ -18111,8 +19527,11 @@
       <c r="K471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>494</v>
       </c>
@@ -18143,8 +19562,11 @@
       <c r="K472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>495</v>
       </c>
@@ -18175,8 +19597,11 @@
       <c r="K473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>496</v>
       </c>
@@ -18207,8 +19632,11 @@
       <c r="K474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>497</v>
       </c>
@@ -18239,8 +19667,11 @@
       <c r="K475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>498</v>
       </c>
@@ -18271,8 +19702,11 @@
       <c r="K476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>499</v>
       </c>
@@ -18303,8 +19737,11 @@
       <c r="K477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>500</v>
       </c>
@@ -18335,8 +19772,11 @@
       <c r="K478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>501</v>
       </c>
@@ -18367,8 +19807,11 @@
       <c r="K479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>502</v>
       </c>
@@ -18399,8 +19842,11 @@
       <c r="K480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>503</v>
       </c>
@@ -18431,8 +19877,11 @@
       <c r="K481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>504</v>
       </c>
@@ -18463,8 +19912,11 @@
       <c r="K482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>505</v>
       </c>
@@ -18495,8 +19947,11 @@
       <c r="K483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>506</v>
       </c>
@@ -18527,8 +19982,11 @@
       <c r="K484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>507</v>
       </c>
@@ -18559,8 +20017,11 @@
       <c r="K485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>508</v>
       </c>
@@ -18591,8 +20052,11 @@
       <c r="K486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>509</v>
       </c>
@@ -18623,8 +20087,11 @@
       <c r="K487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>510</v>
       </c>
@@ -18655,8 +20122,11 @@
       <c r="K488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>511</v>
       </c>
@@ -18687,8 +20157,11 @@
       <c r="K489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>512</v>
       </c>
@@ -18719,8 +20192,11 @@
       <c r="K490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>513</v>
       </c>
@@ -18751,8 +20227,11 @@
       <c r="K491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>514</v>
       </c>
@@ -18783,8 +20262,11 @@
       <c r="K492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>515</v>
       </c>
@@ -18815,8 +20297,11 @@
       <c r="K493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>516</v>
       </c>
@@ -18847,8 +20332,11 @@
       <c r="K494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>517</v>
       </c>
@@ -18879,8 +20367,11 @@
       <c r="K495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>518</v>
       </c>
@@ -18911,8 +20402,11 @@
       <c r="K496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>519</v>
       </c>
@@ -18943,8 +20437,11 @@
       <c r="K497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>520</v>
       </c>
@@ -18975,8 +20472,11 @@
       <c r="K498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>521</v>
       </c>
@@ -19007,8 +20507,11 @@
       <c r="K499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>522</v>
       </c>
@@ -19039,8 +20542,11 @@
       <c r="K500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>523</v>
       </c>
@@ -19071,8 +20577,11 @@
       <c r="K501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>524</v>
       </c>
@@ -19103,8 +20612,11 @@
       <c r="K502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>525</v>
       </c>
@@ -19135,8 +20647,11 @@
       <c r="K503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>526</v>
       </c>
@@ -19167,8 +20682,11 @@
       <c r="K504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>527</v>
       </c>
@@ -19199,8 +20717,11 @@
       <c r="K505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>528</v>
       </c>
@@ -19231,8 +20752,11 @@
       <c r="K506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>529</v>
       </c>
@@ -19263,8 +20787,11 @@
       <c r="K507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>530</v>
       </c>
@@ -19295,8 +20822,11 @@
       <c r="K508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>531</v>
       </c>
@@ -19327,8 +20857,11 @@
       <c r="K509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>532</v>
       </c>
@@ -19359,8 +20892,11 @@
       <c r="K510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>533</v>
       </c>
@@ -19391,8 +20927,11 @@
       <c r="K511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>534</v>
       </c>
@@ -19423,8 +20962,11 @@
       <c r="K512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>535</v>
       </c>
@@ -19455,8 +20997,11 @@
       <c r="K513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>536</v>
       </c>
@@ -19487,8 +21032,11 @@
       <c r="K514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>537</v>
       </c>
@@ -19519,8 +21067,11 @@
       <c r="K515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>538</v>
       </c>
@@ -19551,8 +21102,11 @@
       <c r="K516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>539</v>
       </c>
@@ -19583,8 +21137,11 @@
       <c r="K517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>540</v>
       </c>
@@ -19615,8 +21172,11 @@
       <c r="K518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>541</v>
       </c>
@@ -19647,8 +21207,11 @@
       <c r="K519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>542</v>
       </c>
@@ -19679,8 +21242,11 @@
       <c r="K520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>543</v>
       </c>
@@ -19711,8 +21277,11 @@
       <c r="K521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>544</v>
       </c>
@@ -19743,8 +21312,11 @@
       <c r="K522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>545</v>
       </c>
@@ -19775,8 +21347,11 @@
       <c r="K523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>546</v>
       </c>
@@ -19807,8 +21382,11 @@
       <c r="K524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>547</v>
       </c>
@@ -19839,8 +21417,11 @@
       <c r="K525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>548</v>
       </c>
@@ -19871,8 +21452,11 @@
       <c r="K526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>549</v>
       </c>
@@ -19903,8 +21487,11 @@
       <c r="K527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>550</v>
       </c>
@@ -19935,8 +21522,11 @@
       <c r="K528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>551</v>
       </c>
@@ -19967,8 +21557,11 @@
       <c r="K529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>552</v>
       </c>
@@ -19999,8 +21592,11 @@
       <c r="K530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>553</v>
       </c>
@@ -20031,8 +21627,11 @@
       <c r="K531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>556</v>
       </c>
@@ -20063,8 +21662,11 @@
       <c r="K532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>557</v>
       </c>
@@ -20095,8 +21697,11 @@
       <c r="K533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>558</v>
       </c>
@@ -20127,8 +21732,11 @@
       <c r="K534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>559</v>
       </c>
@@ -20159,8 +21767,11 @@
       <c r="K535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>560</v>
       </c>
@@ -20191,8 +21802,11 @@
       <c r="K536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>561</v>
       </c>
@@ -20223,8 +21837,11 @@
       <c r="K537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>562</v>
       </c>
@@ -20255,8 +21872,11 @@
       <c r="K538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>563</v>
       </c>
@@ -20287,8 +21907,11 @@
       <c r="K539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>564</v>
       </c>
@@ -20319,8 +21942,11 @@
       <c r="K540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>565</v>
       </c>
@@ -20351,8 +21977,11 @@
       <c r="K541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>566</v>
       </c>
@@ -20383,8 +22012,11 @@
       <c r="K542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>567</v>
       </c>
@@ -20415,8 +22047,11 @@
       <c r="K543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>568</v>
       </c>
@@ -20447,8 +22082,11 @@
       <c r="K544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>569</v>
       </c>
@@ -20479,8 +22117,11 @@
       <c r="K545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>570</v>
       </c>
@@ -20511,8 +22152,11 @@
       <c r="K546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>571</v>
       </c>
@@ -20543,8 +22187,11 @@
       <c r="K547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>572</v>
       </c>
@@ -20575,8 +22222,11 @@
       <c r="K548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>573</v>
       </c>
@@ -20607,8 +22257,11 @@
       <c r="K549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>574</v>
       </c>
@@ -20639,8 +22292,11 @@
       <c r="K550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>575</v>
       </c>
@@ -20671,8 +22327,11 @@
       <c r="K551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>576</v>
       </c>
@@ -20703,8 +22362,11 @@
       <c r="K552">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>577</v>
       </c>
@@ -20735,8 +22397,11 @@
       <c r="K553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>578</v>
       </c>
@@ -20767,8 +22432,11 @@
       <c r="K554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>579</v>
       </c>
@@ -20799,8 +22467,11 @@
       <c r="K555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>580</v>
       </c>
@@ -20831,8 +22502,11 @@
       <c r="K556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>581</v>
       </c>
@@ -20863,8 +22537,11 @@
       <c r="K557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>582</v>
       </c>
@@ -20895,8 +22572,11 @@
       <c r="K558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>583</v>
       </c>
@@ -20927,8 +22607,11 @@
       <c r="K559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>584</v>
       </c>
@@ -20959,8 +22642,11 @@
       <c r="K560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>585</v>
       </c>
@@ -20991,8 +22677,11 @@
       <c r="K561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>586</v>
       </c>
@@ -21023,8 +22712,11 @@
       <c r="K562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>587</v>
       </c>
@@ -21055,8 +22747,11 @@
       <c r="K563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>588</v>
       </c>
@@ -21087,8 +22782,11 @@
       <c r="K564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>589</v>
       </c>
@@ -21119,8 +22817,11 @@
       <c r="K565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>590</v>
       </c>
@@ -21151,8 +22852,11 @@
       <c r="K566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>591</v>
       </c>
@@ -21183,8 +22887,11 @@
       <c r="K567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>592</v>
       </c>
@@ -21215,8 +22922,11 @@
       <c r="K568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>593</v>
       </c>
@@ -21247,8 +22957,11 @@
       <c r="K569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>594</v>
       </c>
@@ -21279,8 +22992,11 @@
       <c r="K570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>595</v>
       </c>
@@ -21311,8 +23027,11 @@
       <c r="K571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>596</v>
       </c>
@@ -21343,8 +23062,11 @@
       <c r="K572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>597</v>
       </c>
@@ -21375,8 +23097,11 @@
       <c r="K573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>598</v>
       </c>
@@ -21407,8 +23132,11 @@
       <c r="K574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>599</v>
       </c>
@@ -21439,8 +23167,11 @@
       <c r="K575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>600</v>
       </c>
@@ -21471,8 +23202,11 @@
       <c r="K576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>601</v>
       </c>
@@ -21503,8 +23237,11 @@
       <c r="K577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>602</v>
       </c>
@@ -21535,8 +23272,11 @@
       <c r="K578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>603</v>
       </c>
@@ -21567,8 +23307,11 @@
       <c r="K579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>604</v>
       </c>
@@ -21599,8 +23342,11 @@
       <c r="K580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>605</v>
       </c>
@@ -21631,8 +23377,11 @@
       <c r="K581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>606</v>
       </c>
@@ -21663,8 +23412,11 @@
       <c r="K582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>607</v>
       </c>
@@ -21695,8 +23447,11 @@
       <c r="K583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>608</v>
       </c>
@@ -21727,8 +23482,11 @@
       <c r="K584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>609</v>
       </c>
@@ -21759,8 +23517,11 @@
       <c r="K585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>610</v>
       </c>
@@ -21791,8 +23552,11 @@
       <c r="K586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>611</v>
       </c>
@@ -21823,8 +23587,11 @@
       <c r="K587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>612</v>
       </c>
@@ -21855,8 +23622,11 @@
       <c r="K588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>613</v>
       </c>
@@ -21887,8 +23657,11 @@
       <c r="K589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>614</v>
       </c>
@@ -21919,8 +23692,11 @@
       <c r="K590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>615</v>
       </c>
@@ -21951,8 +23727,11 @@
       <c r="K591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>616</v>
       </c>
@@ -21983,8 +23762,11 @@
       <c r="K592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>617</v>
       </c>
@@ -22015,8 +23797,11 @@
       <c r="K593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>618</v>
       </c>
@@ -22047,8 +23832,11 @@
       <c r="K594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>619</v>
       </c>
@@ -22079,8 +23867,11 @@
       <c r="K595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>620</v>
       </c>
@@ -22111,8 +23902,11 @@
       <c r="K596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>621</v>
       </c>
@@ -22143,8 +23937,11 @@
       <c r="K597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>622</v>
       </c>
@@ -22175,8 +23972,11 @@
       <c r="K598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>623</v>
       </c>
@@ -22207,8 +24007,11 @@
       <c r="K599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>624</v>
       </c>
@@ -22239,8 +24042,11 @@
       <c r="K600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>625</v>
       </c>
@@ -22271,8 +24077,11 @@
       <c r="K601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>626</v>
       </c>
@@ -22303,8 +24112,11 @@
       <c r="K602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>627</v>
       </c>
@@ -22335,8 +24147,11 @@
       <c r="K603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>628</v>
       </c>
@@ -22367,8 +24182,11 @@
       <c r="K604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>629</v>
       </c>
@@ -22399,8 +24217,11 @@
       <c r="K605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>630</v>
       </c>
@@ -22431,8 +24252,11 @@
       <c r="K606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>631</v>
       </c>
@@ -22463,8 +24287,11 @@
       <c r="K607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>632</v>
       </c>
@@ -22495,8 +24322,11 @@
       <c r="K608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>633</v>
       </c>
@@ -22527,8 +24357,11 @@
       <c r="K609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>634</v>
       </c>
@@ -22559,8 +24392,11 @@
       <c r="K610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>635</v>
       </c>
@@ -22591,8 +24427,11 @@
       <c r="K611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>636</v>
       </c>
@@ -22623,8 +24462,11 @@
       <c r="K612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>637</v>
       </c>
@@ -22655,8 +24497,11 @@
       <c r="K613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>638</v>
       </c>
@@ -22687,8 +24532,11 @@
       <c r="K614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>639</v>
       </c>
@@ -22719,8 +24567,11 @@
       <c r="K615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>640</v>
       </c>
@@ -22751,8 +24602,11 @@
       <c r="K616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>641</v>
       </c>
@@ -22783,8 +24637,11 @@
       <c r="K617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>642</v>
       </c>
@@ -22815,8 +24672,11 @@
       <c r="K618">
         <v>0</v>
       </c>
-    </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>643</v>
       </c>
@@ -22847,8 +24707,11 @@
       <c r="K619">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>644</v>
       </c>
@@ -22877,6 +24740,9 @@
         <v>0</v>
       </c>
       <c r="K620">
+        <v>0</v>
+      </c>
+      <c r="L620">
         <v>0</v>
       </c>
     </row>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267BB53-AF7E-0D44-A79C-78C1471C3201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FE2F22-5EFD-3246-933B-85958342FCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="740" windowWidth="19980" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -2513,10 +2513,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3037,9 +3038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K274" sqref="K274"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4827,11 +4828,11 @@
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -4904,10 +4905,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>1</v>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D660AD-2B1B-C54A-922E-DEB6263AC2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786CDA29-D7D7-A14C-A4B7-B77A0105F24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="-1820" windowWidth="38080" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3066" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="663">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2022,13 +2022,16 @@
   </si>
   <si>
     <t>83</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2171,8 +2174,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2358,6 +2368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2519,11 +2535,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2569,7 +2587,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2720,33 +2746,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:O621" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O621" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="acer_negundo"/>
-        <filter val="betula_papyrifera"/>
-        <filter val="populus_balsamifera"/>
-        <filter val="prunus_virginiana"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:P621" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:P621" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3069,11 +3087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O621"/>
+  <dimension ref="A1:P621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="Q513" sqref="Q513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3082,7 +3100,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3128,8 +3146,11 @@
       <c r="O1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3172,8 +3193,11 @@
       <c r="O2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3216,8 +3240,11 @@
       <c r="O3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3260,8 +3287,11 @@
       <c r="O4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3304,8 +3334,11 @@
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3348,8 +3381,11 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3392,8 +3428,11 @@
       <c r="O7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3436,8 +3475,11 @@
       <c r="O8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3480,8 +3522,11 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3524,8 +3569,11 @@
       <c r="O10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3568,8 +3616,11 @@
       <c r="O11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3612,8 +3663,11 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3656,8 +3710,11 @@
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3700,8 +3757,11 @@
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3744,8 +3804,11 @@
       <c r="O15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3788,8 +3851,11 @@
       <c r="O16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3832,8 +3898,11 @@
       <c r="O17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3876,8 +3945,11 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3920,8 +3992,11 @@
       <c r="O19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3964,8 +4039,11 @@
       <c r="O20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4008,8 +4086,11 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4052,8 +4133,11 @@
       <c r="O22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4096,8 +4180,11 @@
       <c r="O23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4140,8 +4227,11 @@
       <c r="O24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4184,8 +4274,11 @@
       <c r="O25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4228,8 +4321,11 @@
       <c r="O26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4272,8 +4368,11 @@
       <c r="O27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4316,8 +4415,11 @@
       <c r="O28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4360,8 +4462,11 @@
       <c r="O29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4404,8 +4509,11 @@
       <c r="O30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4448,8 +4556,11 @@
       <c r="O31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4492,8 +4603,11 @@
       <c r="O32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4536,8 +4650,11 @@
       <c r="O33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4580,8 +4697,11 @@
       <c r="O34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4624,8 +4744,11 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4668,8 +4791,11 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4712,8 +4838,11 @@
       <c r="O37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4756,8 +4885,11 @@
       <c r="O38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4800,8 +4932,11 @@
       <c r="O39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4844,8 +4979,11 @@
       <c r="O40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4888,8 +5026,11 @@
       <c r="O41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -4932,8 +5073,11 @@
       <c r="O42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4976,8 +5120,11 @@
       <c r="O43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5020,8 +5167,11 @@
       <c r="O44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5064,8 +5214,11 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5108,8 +5261,11 @@
       <c r="O46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5152,8 +5308,11 @@
       <c r="O47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5196,8 +5355,11 @@
       <c r="O48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5240,8 +5402,11 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5284,8 +5449,11 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5328,8 +5496,11 @@
       <c r="O51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5372,8 +5543,11 @@
       <c r="O52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -5416,8 +5590,11 @@
       <c r="O53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -5460,8 +5637,11 @@
       <c r="O54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5504,8 +5684,11 @@
       <c r="O55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5548,8 +5731,11 @@
       <c r="O56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5592,8 +5778,11 @@
       <c r="O57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -5636,8 +5825,11 @@
       <c r="O58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5680,8 +5872,11 @@
       <c r="O59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5724,8 +5919,11 @@
       <c r="O60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -5768,8 +5966,11 @@
       <c r="O61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -5812,8 +6013,11 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -5856,8 +6060,11 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -5900,8 +6107,11 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -5944,8 +6154,11 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -5988,8 +6201,11 @@
       <c r="O66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -6032,8 +6248,11 @@
       <c r="O67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -6076,8 +6295,11 @@
       <c r="O68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -6120,8 +6342,11 @@
       <c r="O69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -6164,8 +6389,11 @@
       <c r="O70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -6208,8 +6436,11 @@
       <c r="O71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -6252,8 +6483,11 @@
       <c r="O72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -6296,8 +6530,11 @@
       <c r="O73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6340,8 +6577,11 @@
       <c r="O74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6384,8 +6624,11 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -6428,8 +6671,11 @@
       <c r="O76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -6472,8 +6718,11 @@
       <c r="O77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -6516,8 +6765,11 @@
       <c r="O78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -6560,8 +6812,11 @@
       <c r="O79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -6604,8 +6859,11 @@
       <c r="O80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -6648,8 +6906,11 @@
       <c r="O81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -6692,8 +6953,11 @@
       <c r="O82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6736,8 +7000,11 @@
       <c r="O83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -6780,8 +7047,11 @@
       <c r="O84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -6824,8 +7094,11 @@
       <c r="O85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6868,8 +7141,11 @@
       <c r="O86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6912,8 +7188,11 @@
       <c r="O87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -6956,8 +7235,11 @@
       <c r="O88">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -7000,8 +7282,11 @@
       <c r="O89">
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -7044,8 +7329,11 @@
       <c r="O90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -7085,11 +7373,14 @@
       <c r="N91">
         <v>0</v>
       </c>
-      <c r="O91" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -7132,8 +7423,11 @@
       <c r="O92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7176,8 +7470,11 @@
       <c r="O93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -7220,8 +7517,11 @@
       <c r="O94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -7264,8 +7564,11 @@
       <c r="O95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -7308,8 +7611,11 @@
       <c r="O96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -7352,8 +7658,11 @@
       <c r="O97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -7396,8 +7705,11 @@
       <c r="O98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -7440,8 +7752,11 @@
       <c r="O99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -7484,8 +7799,11 @@
       <c r="O100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -7528,8 +7846,11 @@
       <c r="O101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -7572,8 +7893,11 @@
       <c r="O102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -7616,8 +7940,11 @@
       <c r="O103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -7660,8 +7987,11 @@
       <c r="O104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P104" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -7704,8 +8034,11 @@
       <c r="O105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -7745,11 +8078,14 @@
       <c r="N106">
         <v>2</v>
       </c>
-      <c r="O106" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>3</v>
+      </c>
+      <c r="P106" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -7792,8 +8128,11 @@
       <c r="O107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -7836,8 +8175,11 @@
       <c r="O108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P108" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -7880,8 +8222,11 @@
       <c r="O109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -7924,8 +8269,11 @@
       <c r="O110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P110" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -7968,8 +8316,11 @@
       <c r="O111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -8012,8 +8363,11 @@
       <c r="O112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -8056,8 +8410,11 @@
       <c r="O113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P113" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -8100,8 +8457,11 @@
       <c r="O114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P114" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -8144,8 +8504,11 @@
       <c r="O115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -8188,8 +8551,11 @@
       <c r="O116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P116" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -8232,8 +8598,11 @@
       <c r="O117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -8276,8 +8645,11 @@
       <c r="O118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -8320,8 +8692,11 @@
       <c r="O119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P119" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -8364,8 +8739,11 @@
       <c r="O120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P120" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -8408,8 +8786,11 @@
       <c r="O121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -8452,8 +8833,11 @@
       <c r="O122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -8496,8 +8880,11 @@
       <c r="O123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -8540,8 +8927,11 @@
       <c r="O124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -8584,8 +8974,11 @@
       <c r="O125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -8628,8 +9021,11 @@
       <c r="O126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P126" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -8672,8 +9068,11 @@
       <c r="O127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P127" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -8716,8 +9115,11 @@
       <c r="O128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -8760,8 +9162,11 @@
       <c r="O129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P129" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -8804,8 +9209,11 @@
       <c r="O130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -8848,8 +9256,11 @@
       <c r="O131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -8892,8 +9303,11 @@
       <c r="O132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -8936,8 +9350,11 @@
       <c r="O133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P133" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -8980,8 +9397,11 @@
       <c r="O134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P134" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -9024,8 +9444,11 @@
       <c r="O135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -9068,8 +9491,11 @@
       <c r="O136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P136" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -9112,8 +9538,11 @@
       <c r="O137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -9156,8 +9585,11 @@
       <c r="O138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -9200,8 +9632,11 @@
       <c r="O139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -9244,8 +9679,11 @@
       <c r="O140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P140" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -9288,8 +9726,11 @@
       <c r="O141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -9332,8 +9773,11 @@
       <c r="O142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P142" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -9376,8 +9820,11 @@
       <c r="O143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P143" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -9420,8 +9867,11 @@
       <c r="O144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -9464,8 +9914,11 @@
       <c r="O145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -9508,8 +9961,11 @@
       <c r="O146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -9552,8 +10008,11 @@
       <c r="O147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -9596,8 +10055,11 @@
       <c r="O148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -9640,8 +10102,11 @@
       <c r="O149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -9684,8 +10149,11 @@
       <c r="O150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -9728,8 +10196,11 @@
       <c r="O151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -9772,8 +10243,11 @@
       <c r="O152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -9816,8 +10290,11 @@
       <c r="O153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P153" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -9860,8 +10337,11 @@
       <c r="O154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -9904,8 +10384,11 @@
       <c r="O155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P155" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -9948,8 +10431,11 @@
       <c r="O156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -9992,8 +10478,11 @@
       <c r="O157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P157" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -10036,8 +10525,11 @@
       <c r="O158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -10080,8 +10572,11 @@
       <c r="O159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -10124,8 +10619,11 @@
       <c r="O160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -10168,8 +10666,11 @@
       <c r="O161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -10212,8 +10713,11 @@
       <c r="O162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -10256,8 +10760,11 @@
       <c r="O163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P163" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -10300,8 +10807,11 @@
       <c r="O164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P164" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -10344,8 +10854,11 @@
       <c r="O165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P165" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -10388,8 +10901,11 @@
       <c r="O166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -10432,8 +10948,11 @@
       <c r="O167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P167" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -10476,8 +10995,11 @@
       <c r="O168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -10520,8 +11042,11 @@
       <c r="O169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -10564,8 +11089,11 @@
       <c r="O170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P170" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -10608,8 +11136,11 @@
       <c r="O171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P171" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -10652,8 +11183,11 @@
       <c r="O172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -10696,8 +11230,11 @@
       <c r="O173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -10740,8 +11277,11 @@
       <c r="O174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -10784,8 +11324,11 @@
       <c r="O175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P175" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -10828,8 +11371,11 @@
       <c r="O176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -10872,8 +11418,11 @@
       <c r="O177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -10916,8 +11465,11 @@
       <c r="O178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P178" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -10960,8 +11512,11 @@
       <c r="O179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P179" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -11004,8 +11559,11 @@
       <c r="O180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P180" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -11048,8 +11606,11 @@
       <c r="O181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P181" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -11086,8 +11647,17 @@
       <c r="M182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -11124,8 +11694,17 @@
       <c r="M183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -11162,8 +11741,17 @@
       <c r="M184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -11200,8 +11788,17 @@
       <c r="M185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -11238,8 +11835,17 @@
       <c r="M186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -11276,8 +11882,17 @@
       <c r="M187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -11314,8 +11929,17 @@
       <c r="M188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -11352,8 +11976,17 @@
       <c r="M189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -11390,8 +12023,17 @@
       <c r="M190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -11428,8 +12070,17 @@
       <c r="M191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -11466,8 +12117,17 @@
       <c r="M192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -11504,8 +12164,17 @@
       <c r="M193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -11542,8 +12211,17 @@
       <c r="M194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -11580,8 +12258,17 @@
       <c r="M195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -11618,8 +12305,17 @@
       <c r="M196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -11656,8 +12352,17 @@
       <c r="M197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -11694,8 +12399,17 @@
       <c r="M198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -11732,8 +12446,17 @@
       <c r="M199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -11770,8 +12493,17 @@
       <c r="M200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -11808,8 +12540,17 @@
       <c r="M201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -11846,8 +12587,17 @@
       <c r="M202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -11884,8 +12634,17 @@
       <c r="M203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -11922,8 +12681,17 @@
       <c r="M204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -11960,8 +12728,17 @@
       <c r="M205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -11998,8 +12775,17 @@
       <c r="M206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -12036,8 +12822,17 @@
       <c r="M207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -12074,8 +12869,17 @@
       <c r="M208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -12112,8 +12916,17 @@
       <c r="M209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -12150,8 +12963,17 @@
       <c r="M210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -12188,8 +13010,17 @@
       <c r="M211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -12226,8 +13057,17 @@
       <c r="M212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -12264,8 +13104,17 @@
       <c r="M213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -12302,8 +13151,17 @@
       <c r="M214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -12340,8 +13198,17 @@
       <c r="M215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -12378,8 +13245,17 @@
       <c r="M216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -12416,8 +13292,17 @@
       <c r="M217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -12454,8 +13339,17 @@
       <c r="M218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -12492,8 +13386,17 @@
       <c r="M219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -12530,8 +13433,17 @@
       <c r="M220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -12568,8 +13480,17 @@
       <c r="M221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -12606,8 +13527,17 @@
       <c r="M222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -12644,8 +13574,17 @@
       <c r="M223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -12682,8 +13621,17 @@
       <c r="M224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -12720,8 +13668,17 @@
       <c r="M225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -12758,8 +13715,17 @@
       <c r="M226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -12796,8 +13762,17 @@
       <c r="M227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -12834,8 +13809,17 @@
       <c r="M228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -12872,8 +13856,17 @@
       <c r="M229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -12910,8 +13903,17 @@
       <c r="M230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -12948,8 +13950,17 @@
       <c r="M231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -12986,8 +13997,17 @@
       <c r="M232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -13024,8 +14044,17 @@
       <c r="M233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -13062,8 +14091,17 @@
       <c r="M234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -13100,8 +14138,17 @@
       <c r="M235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -13138,8 +14185,17 @@
       <c r="M236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -13176,8 +14232,17 @@
       <c r="M237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -13214,8 +14279,17 @@
       <c r="M238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -13252,8 +14326,17 @@
       <c r="M239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -13290,8 +14373,17 @@
       <c r="M240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -13328,8 +14420,17 @@
       <c r="M241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -13366,8 +14467,17 @@
       <c r="M242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -13404,8 +14514,17 @@
       <c r="M243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -13442,8 +14561,17 @@
       <c r="M244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -13480,8 +14608,17 @@
       <c r="M245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -13518,8 +14655,17 @@
       <c r="M246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -13556,8 +14702,17 @@
       <c r="M247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -13594,8 +14749,17 @@
       <c r="M248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -13632,8 +14796,17 @@
       <c r="M249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -13670,8 +14843,17 @@
       <c r="M250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -13708,8 +14890,17 @@
       <c r="M251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -13746,8 +14937,17 @@
       <c r="M252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -13784,8 +14984,17 @@
       <c r="M253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -13822,8 +15031,17 @@
       <c r="M254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -13860,8 +15078,17 @@
       <c r="M255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -13898,8 +15125,17 @@
       <c r="M256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -13936,8 +15172,17 @@
       <c r="M257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -13974,8 +15219,17 @@
       <c r="M258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -14012,8 +15266,17 @@
       <c r="M259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -14050,8 +15313,17 @@
       <c r="M260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -14088,8 +15360,17 @@
       <c r="M261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -14126,8 +15407,17 @@
       <c r="M262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -14164,8 +15454,17 @@
       <c r="M263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -14202,8 +15501,17 @@
       <c r="M264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -14240,8 +15548,17 @@
       <c r="M265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -14278,8 +15595,17 @@
       <c r="M266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -14316,8 +15642,17 @@
       <c r="M267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -14354,8 +15689,17 @@
       <c r="M268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -14392,8 +15736,17 @@
       <c r="M269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -14430,8 +15783,17 @@
       <c r="M270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -14468,8 +15830,17 @@
       <c r="M271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -14512,8 +15883,11 @@
       <c r="O272">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P272" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -14556,8 +15930,11 @@
       <c r="O273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P273" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -14600,8 +15977,11 @@
       <c r="O274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P274" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -14644,8 +16024,11 @@
       <c r="O275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P275" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -14688,8 +16071,11 @@
       <c r="O276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P276" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -14732,8 +16118,11 @@
       <c r="O277">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P277" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -14776,8 +16165,11 @@
       <c r="O278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P278" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -14820,8 +16212,11 @@
       <c r="O279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P279" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -14864,8 +16259,11 @@
       <c r="O280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P280" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -14908,8 +16306,11 @@
       <c r="O281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P281" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -14952,8 +16353,11 @@
       <c r="O282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>301</v>
       </c>
@@ -14996,8 +16400,11 @@
       <c r="O283" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P283" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -15040,8 +16447,11 @@
       <c r="O284">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P284" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -15084,8 +16494,11 @@
       <c r="O285">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P285" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -15128,8 +16541,11 @@
       <c r="O286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P286" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -15172,8 +16588,11 @@
       <c r="O287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P287" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -15216,8 +16635,11 @@
       <c r="O288">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P288" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -15260,8 +16682,11 @@
       <c r="O289">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P289" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -15304,8 +16729,11 @@
       <c r="O290">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P290" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -15348,8 +16776,11 @@
       <c r="O291">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P291" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -15392,8 +16823,11 @@
       <c r="O292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P292" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -15436,8 +16870,11 @@
       <c r="O293">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P293" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -15480,8 +16917,11 @@
       <c r="O294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P294" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -15524,8 +16964,11 @@
       <c r="O295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P295" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -15568,8 +17011,11 @@
       <c r="O296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P296" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -15612,8 +17058,11 @@
       <c r="O297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -15656,8 +17105,11 @@
       <c r="O298">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -15700,8 +17152,11 @@
       <c r="O299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -15744,8 +17199,11 @@
       <c r="O300">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -15788,8 +17246,11 @@
       <c r="O301">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -15832,8 +17293,11 @@
       <c r="O302">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P302" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -15876,8 +17340,11 @@
       <c r="O303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P303" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -15920,8 +17387,11 @@
       <c r="O304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P304" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -15964,8 +17434,11 @@
       <c r="O305">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P305" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -16008,8 +17481,11 @@
       <c r="O306">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P306" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -16052,8 +17528,11 @@
       <c r="O307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P307" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -16096,8 +17575,11 @@
       <c r="O308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P308" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -16140,8 +17622,11 @@
       <c r="O309">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P309" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -16184,8 +17669,11 @@
       <c r="O310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P310" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -16228,8 +17716,11 @@
       <c r="O311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P311" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -16272,8 +17763,11 @@
       <c r="O312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -16316,8 +17810,11 @@
       <c r="O313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -16360,8 +17857,11 @@
       <c r="O314">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -16404,8 +17904,11 @@
       <c r="O315">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -16448,8 +17951,11 @@
       <c r="O316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P316" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -16492,8 +17998,11 @@
       <c r="O317">
         <v>2</v>
       </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P317" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -16536,8 +18045,11 @@
       <c r="O318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P318" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -16580,8 +18092,11 @@
       <c r="O319">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P319" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -16624,8 +18139,11 @@
       <c r="O320">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P320" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -16668,8 +18186,11 @@
       <c r="O321">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P321" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>340</v>
       </c>
@@ -16712,8 +18233,11 @@
       <c r="O322" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P322" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -16756,8 +18280,11 @@
       <c r="O323">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P323" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>342</v>
       </c>
@@ -16800,8 +18327,11 @@
       <c r="O324" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P324" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -16844,8 +18374,11 @@
       <c r="O325">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P325" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -16888,8 +18421,11 @@
       <c r="O326">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P326" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -16932,8 +18468,11 @@
       <c r="O327">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P327" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -16976,8 +18515,11 @@
       <c r="O328">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P328" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -17020,8 +18562,11 @@
       <c r="O329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P329" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -17064,8 +18609,11 @@
       <c r="O330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P330" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -17108,8 +18656,11 @@
       <c r="O331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P331" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -17152,8 +18703,11 @@
       <c r="O332">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P332" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -17196,8 +18750,11 @@
       <c r="O333">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P333" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -17240,8 +18797,11 @@
       <c r="O334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P334" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -17284,8 +18844,11 @@
       <c r="O335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P335" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -17328,8 +18891,11 @@
       <c r="O336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P336" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -17372,8 +18938,11 @@
       <c r="O337">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P337" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -17416,8 +18985,11 @@
       <c r="O338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P338" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -17460,8 +19032,11 @@
       <c r="O339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P339" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -17504,8 +19079,11 @@
       <c r="O340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P340" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -17548,8 +19126,11 @@
       <c r="O341">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P341" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -17592,8 +19173,11 @@
       <c r="O342">
         <v>2</v>
       </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P342" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -17639,8 +19223,11 @@
       <c r="O343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P343" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -17683,8 +19270,11 @@
       <c r="O344">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P344" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -17727,8 +19317,11 @@
       <c r="O345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P345" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -17771,8 +19364,11 @@
       <c r="O346">
         <v>2</v>
       </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P346" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -17815,8 +19411,11 @@
       <c r="O347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P347" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -17859,8 +19458,11 @@
       <c r="O348">
         <v>2</v>
       </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P348" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -17903,8 +19505,11 @@
       <c r="O349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P349" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -17947,8 +19552,11 @@
       <c r="O350">
         <v>2</v>
       </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P350" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -17991,8 +19599,11 @@
       <c r="O351">
         <v>2</v>
       </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P351" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -18035,8 +19646,11 @@
       <c r="O352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P352" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -18079,8 +19693,11 @@
       <c r="O353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P353" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -18123,8 +19740,11 @@
       <c r="O354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P354" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>373</v>
       </c>
@@ -18167,8 +19787,11 @@
       <c r="O355" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P355" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -18211,8 +19834,11 @@
       <c r="O356">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P356" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -18255,8 +19881,11 @@
       <c r="O357">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -18299,8 +19928,11 @@
       <c r="O358">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -18343,8 +19975,11 @@
       <c r="O359">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -18387,8 +20022,11 @@
       <c r="O360">
         <v>2</v>
       </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -18431,8 +20069,11 @@
       <c r="O361">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -18475,8 +20116,11 @@
       <c r="O362">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -18519,8 +20163,11 @@
       <c r="O363">
         <v>3</v>
       </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -18563,8 +20210,11 @@
       <c r="O364">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -18607,8 +20257,11 @@
       <c r="O365">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -18651,8 +20304,11 @@
       <c r="O366">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -18695,8 +20351,11 @@
       <c r="O367">
         <v>2</v>
       </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P367" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -18739,8 +20398,11 @@
       <c r="O368">
         <v>2</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P368" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -18783,8 +20445,11 @@
       <c r="O369">
         <v>2</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P369" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -18827,8 +20492,11 @@
       <c r="O370">
         <v>2</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P370" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -18871,8 +20539,11 @@
       <c r="O371">
         <v>2</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P371" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -18912,11 +20583,12 @@
       <c r="N372">
         <v>3</v>
       </c>
-      <c r="O372" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O372">
+        <v>3</v>
+      </c>
+      <c r="P372" s="3"/>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -18956,11 +20628,12 @@
       <c r="N373">
         <v>2</v>
       </c>
-      <c r="O373" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O373">
+        <v>2</v>
+      </c>
+      <c r="P373" s="3"/>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -19000,11 +20673,12 @@
       <c r="N374">
         <v>2</v>
       </c>
-      <c r="O374" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O374">
+        <v>2</v>
+      </c>
+      <c r="P374" s="3"/>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>657</v>
       </c>
@@ -19047,11 +20721,12 @@
       <c r="N375">
         <v>3</v>
       </c>
-      <c r="O375" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O375">
+        <v>3</v>
+      </c>
+      <c r="P375" s="3"/>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>395</v>
       </c>
@@ -19091,11 +20766,12 @@
       <c r="N376">
         <v>2</v>
       </c>
-      <c r="O376" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O376">
+        <v>2</v>
+      </c>
+      <c r="P376" s="3"/>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>396</v>
       </c>
@@ -19138,8 +20814,11 @@
       <c r="O377">
         <v>3</v>
       </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P377">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>397</v>
       </c>
@@ -19182,8 +20861,11 @@
       <c r="O378">
         <v>3</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>398</v>
       </c>
@@ -19226,8 +20908,11 @@
       <c r="O379">
         <v>3</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>399</v>
       </c>
@@ -19270,8 +20955,11 @@
       <c r="O380">
         <v>3</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P380">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>400</v>
       </c>
@@ -19317,8 +21005,11 @@
       <c r="O381" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P381" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>401</v>
       </c>
@@ -19361,8 +21052,11 @@
       <c r="O382">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>402</v>
       </c>
@@ -19405,8 +21099,11 @@
       <c r="O383">
         <v>3</v>
       </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>403</v>
       </c>
@@ -19449,8 +21146,11 @@
       <c r="O384">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>404</v>
       </c>
@@ -19493,8 +21193,11 @@
       <c r="O385">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>405</v>
       </c>
@@ -19537,8 +21240,11 @@
       <c r="O386">
         <v>3</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>406</v>
       </c>
@@ -19581,8 +21287,9 @@
       <c r="O387">
         <v>2</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P387" s="3"/>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>407</v>
       </c>
@@ -19625,8 +21332,9 @@
       <c r="O388">
         <v>3</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P388" s="3"/>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>408</v>
       </c>
@@ -19669,8 +21377,9 @@
       <c r="O389">
         <v>2</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P389" s="3"/>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>409</v>
       </c>
@@ -19713,8 +21422,9 @@
       <c r="O390">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P390" s="3"/>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -19757,8 +21467,11 @@
       <c r="O391">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P391" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>411</v>
       </c>
@@ -19801,8 +21514,11 @@
       <c r="O392">
         <v>3</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P392" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>412</v>
       </c>
@@ -19845,8 +21561,11 @@
       <c r="O393">
         <v>3</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P393" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>413</v>
       </c>
@@ -19889,8 +21608,11 @@
       <c r="O394">
         <v>3</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P394" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>414</v>
       </c>
@@ -19933,8 +21655,11 @@
       <c r="O395">
         <v>2</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P395" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>415</v>
       </c>
@@ -19977,8 +21702,11 @@
       <c r="O396">
         <v>2</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P396" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>416</v>
       </c>
@@ -20024,8 +21752,11 @@
       <c r="O397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P397" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>417</v>
       </c>
@@ -20068,8 +21799,11 @@
       <c r="O398">
         <v>2</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P398" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>418</v>
       </c>
@@ -20112,8 +21846,11 @@
       <c r="O399">
         <v>2</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P399" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>419</v>
       </c>
@@ -20159,8 +21896,9 @@
       <c r="O400">
         <v>3</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P400" s="3"/>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>420</v>
       </c>
@@ -20203,8 +21941,9 @@
       <c r="O401">
         <v>2</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P401" s="3"/>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>421</v>
       </c>
@@ -20247,8 +21986,9 @@
       <c r="O402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P402" s="3"/>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>422</v>
       </c>
@@ -20291,8 +22031,9 @@
       <c r="O403">
         <v>2</v>
       </c>
-    </row>
-    <row r="404" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P403" s="3"/>
+    </row>
+    <row r="404" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>423</v>
       </c>
@@ -20338,8 +22079,9 @@
       <c r="O404">
         <v>2</v>
       </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P404" s="3"/>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>424</v>
       </c>
@@ -20382,8 +22124,11 @@
       <c r="O405">
         <v>2</v>
       </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P405" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>425</v>
       </c>
@@ -20426,8 +22171,11 @@
       <c r="O406">
         <v>3</v>
       </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P406" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>426</v>
       </c>
@@ -20470,8 +22218,11 @@
       <c r="O407">
         <v>3</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P407" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>427</v>
       </c>
@@ -20514,8 +22265,11 @@
       <c r="O408">
         <v>3</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P408" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>428</v>
       </c>
@@ -20558,8 +22312,11 @@
       <c r="O409">
         <v>2</v>
       </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P409" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>429</v>
       </c>
@@ -20602,8 +22359,11 @@
       <c r="O410">
         <v>2</v>
       </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P410" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>430</v>
       </c>
@@ -20646,8 +22406,11 @@
       <c r="O411">
         <v>3</v>
       </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P411" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>431</v>
       </c>
@@ -20690,8 +22453,11 @@
       <c r="O412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P412" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>432</v>
       </c>
@@ -20734,8 +22500,11 @@
       <c r="O413">
         <v>2</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P413" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>433</v>
       </c>
@@ -20778,8 +22547,9 @@
       <c r="O414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P414" s="3"/>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>434</v>
       </c>
@@ -20822,8 +22592,9 @@
       <c r="O415">
         <v>3</v>
       </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P415" s="3"/>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>435</v>
       </c>
@@ -20866,8 +22637,9 @@
       <c r="O416">
         <v>2</v>
       </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P416" s="3"/>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>436</v>
       </c>
@@ -20910,8 +22682,11 @@
       <c r="O417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P417" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>437</v>
       </c>
@@ -20954,8 +22729,11 @@
       <c r="O418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P418" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>438</v>
       </c>
@@ -20998,8 +22776,11 @@
       <c r="O419">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P419" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>439</v>
       </c>
@@ -21042,8 +22823,11 @@
       <c r="O420">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P420" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>440</v>
       </c>
@@ -21086,8 +22870,11 @@
       <c r="O421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P421" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>441</v>
       </c>
@@ -21130,8 +22917,11 @@
       <c r="O422">
         <v>2</v>
       </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P422" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>442</v>
       </c>
@@ -21174,8 +22964,11 @@
       <c r="O423">
         <v>2</v>
       </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P423" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>443</v>
       </c>
@@ -21218,8 +23011,11 @@
       <c r="O424">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P424" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>444</v>
       </c>
@@ -21262,8 +23058,9 @@
       <c r="O425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P425" s="3"/>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>445</v>
       </c>
@@ -21306,8 +23103,9 @@
       <c r="O426">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P426" s="3"/>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>446</v>
       </c>
@@ -21350,8 +23148,9 @@
       <c r="O427">
         <v>2</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P427" s="3"/>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>447</v>
       </c>
@@ -21394,8 +23193,9 @@
       <c r="O428">
         <v>3</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P428" s="3"/>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>448</v>
       </c>
@@ -21438,8 +23238,9 @@
       <c r="O429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P429" s="3"/>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>449</v>
       </c>
@@ -21482,8 +23283,11 @@
       <c r="O430">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P430" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -21526,8 +23330,11 @@
       <c r="O431">
         <v>3</v>
       </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P431" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>451</v>
       </c>
@@ -21570,8 +23377,11 @@
       <c r="O432">
         <v>2</v>
       </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P432" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>452</v>
       </c>
@@ -21614,8 +23424,11 @@
       <c r="O433">
         <v>3</v>
       </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P433" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>453</v>
       </c>
@@ -21658,8 +23471,11 @@
       <c r="O434">
         <v>2</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P434" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>454</v>
       </c>
@@ -21705,8 +23521,11 @@
       <c r="O435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P435" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>455</v>
       </c>
@@ -21749,8 +23568,11 @@
       <c r="O436">
         <v>2</v>
       </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P436" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>456</v>
       </c>
@@ -21793,8 +23615,11 @@
       <c r="O437">
         <v>3</v>
       </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P437" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>457</v>
       </c>
@@ -21837,8 +23662,11 @@
       <c r="O438">
         <v>3</v>
       </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P438" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>458</v>
       </c>
@@ -21881,8 +23709,9 @@
       <c r="O439">
         <v>2</v>
       </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P439" s="3"/>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -21925,8 +23754,9 @@
       <c r="O440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P440" s="3"/>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>460</v>
       </c>
@@ -21969,8 +23799,9 @@
       <c r="O441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P441" s="3"/>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>461</v>
       </c>
@@ -22010,11 +23841,12 @@
       <c r="N442">
         <v>1</v>
       </c>
-      <c r="O442" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O442">
+        <v>1</v>
+      </c>
+      <c r="P442" s="3"/>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>462</v>
       </c>
@@ -22057,8 +23889,9 @@
       <c r="O443">
         <v>3</v>
       </c>
-    </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P443" s="3"/>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>463</v>
       </c>
@@ -22095,8 +23928,17 @@
       <c r="M444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N444">
+        <v>0</v>
+      </c>
+      <c r="O444">
+        <v>0</v>
+      </c>
+      <c r="P444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -22133,8 +23975,17 @@
       <c r="M445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N445">
+        <v>0</v>
+      </c>
+      <c r="O445">
+        <v>0</v>
+      </c>
+      <c r="P445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -22171,8 +24022,17 @@
       <c r="M446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N446">
+        <v>0</v>
+      </c>
+      <c r="O446">
+        <v>0</v>
+      </c>
+      <c r="P446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -22209,8 +24069,17 @@
       <c r="M447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N447">
+        <v>0</v>
+      </c>
+      <c r="O447">
+        <v>0</v>
+      </c>
+      <c r="P447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -22247,8 +24116,17 @@
       <c r="M448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N448">
+        <v>0</v>
+      </c>
+      <c r="O448">
+        <v>0</v>
+      </c>
+      <c r="P448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -22285,8 +24163,17 @@
       <c r="M449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N449">
+        <v>0</v>
+      </c>
+      <c r="O449">
+        <v>0</v>
+      </c>
+      <c r="P449" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -22323,8 +24210,17 @@
       <c r="M450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N450">
+        <v>0</v>
+      </c>
+      <c r="O450">
+        <v>0</v>
+      </c>
+      <c r="P450" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -22361,8 +24257,17 @@
       <c r="M451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N451">
+        <v>0</v>
+      </c>
+      <c r="O451">
+        <v>0</v>
+      </c>
+      <c r="P451" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -22399,8 +24304,17 @@
       <c r="M452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N452">
+        <v>0</v>
+      </c>
+      <c r="O452">
+        <v>0</v>
+      </c>
+      <c r="P452" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -22437,8 +24351,17 @@
       <c r="M453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N453">
+        <v>0</v>
+      </c>
+      <c r="O453">
+        <v>0</v>
+      </c>
+      <c r="P453" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -22475,8 +24398,17 @@
       <c r="M454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>0</v>
+      </c>
+      <c r="P454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -22513,8 +24445,17 @@
       <c r="M455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -22551,8 +24492,17 @@
       <c r="M456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N456">
+        <v>0</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -22589,8 +24539,17 @@
       <c r="M457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N457">
+        <v>0</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -22627,8 +24586,17 @@
       <c r="M458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N458">
+        <v>0</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -22665,8 +24633,17 @@
       <c r="M459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>0</v>
+      </c>
+      <c r="P459" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -22703,8 +24680,17 @@
       <c r="M460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N460">
+        <v>0</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -22741,8 +24727,17 @@
       <c r="M461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -22779,8 +24774,17 @@
       <c r="M462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -22817,8 +24821,17 @@
       <c r="M463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N463">
+        <v>0</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -22855,8 +24868,17 @@
       <c r="M464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>0</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -22893,8 +24915,17 @@
       <c r="M465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -22931,8 +24962,17 @@
       <c r="M466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N466">
+        <v>0</v>
+      </c>
+      <c r="O466">
+        <v>0</v>
+      </c>
+      <c r="P466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -22969,8 +25009,17 @@
       <c r="M467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N467">
+        <v>0</v>
+      </c>
+      <c r="O467">
+        <v>0</v>
+      </c>
+      <c r="P467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -23007,8 +25056,17 @@
       <c r="M468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N468">
+        <v>0</v>
+      </c>
+      <c r="O468">
+        <v>0</v>
+      </c>
+      <c r="P468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -23045,8 +25103,17 @@
       <c r="M469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N469">
+        <v>0</v>
+      </c>
+      <c r="O469">
+        <v>0</v>
+      </c>
+      <c r="P469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -23083,8 +25150,17 @@
       <c r="M470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N470">
+        <v>0</v>
+      </c>
+      <c r="O470">
+        <v>0</v>
+      </c>
+      <c r="P470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -23121,8 +25197,17 @@
       <c r="M471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N471">
+        <v>0</v>
+      </c>
+      <c r="O471">
+        <v>0</v>
+      </c>
+      <c r="P471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -23159,8 +25244,17 @@
       <c r="M472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N472">
+        <v>0</v>
+      </c>
+      <c r="O472">
+        <v>0</v>
+      </c>
+      <c r="P472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -23197,8 +25291,17 @@
       <c r="M473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N473">
+        <v>0</v>
+      </c>
+      <c r="O473">
+        <v>0</v>
+      </c>
+      <c r="P473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -23235,8 +25338,17 @@
       <c r="M474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N474">
+        <v>0</v>
+      </c>
+      <c r="O474">
+        <v>0</v>
+      </c>
+      <c r="P474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -23273,8 +25385,17 @@
       <c r="M475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N475">
+        <v>0</v>
+      </c>
+      <c r="O475">
+        <v>0</v>
+      </c>
+      <c r="P475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -23311,8 +25432,17 @@
       <c r="M476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N476">
+        <v>0</v>
+      </c>
+      <c r="O476">
+        <v>0</v>
+      </c>
+      <c r="P476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -23349,8 +25479,17 @@
       <c r="M477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N477">
+        <v>0</v>
+      </c>
+      <c r="O477">
+        <v>0</v>
+      </c>
+      <c r="P477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -23387,8 +25526,17 @@
       <c r="M478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N478">
+        <v>0</v>
+      </c>
+      <c r="O478">
+        <v>0</v>
+      </c>
+      <c r="P478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -23425,8 +25573,17 @@
       <c r="M479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N479">
+        <v>0</v>
+      </c>
+      <c r="O479">
+        <v>0</v>
+      </c>
+      <c r="P479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -23463,8 +25620,17 @@
       <c r="M480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N480">
+        <v>0</v>
+      </c>
+      <c r="O480">
+        <v>0</v>
+      </c>
+      <c r="P480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -23501,8 +25667,17 @@
       <c r="M481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N481">
+        <v>0</v>
+      </c>
+      <c r="O481">
+        <v>0</v>
+      </c>
+      <c r="P481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -23539,8 +25714,17 @@
       <c r="M482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N482">
+        <v>0</v>
+      </c>
+      <c r="O482">
+        <v>0</v>
+      </c>
+      <c r="P482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -23577,8 +25761,17 @@
       <c r="M483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N483">
+        <v>0</v>
+      </c>
+      <c r="O483">
+        <v>0</v>
+      </c>
+      <c r="P483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -23615,8 +25808,17 @@
       <c r="M484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N484">
+        <v>0</v>
+      </c>
+      <c r="O484">
+        <v>0</v>
+      </c>
+      <c r="P484" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -23653,8 +25855,17 @@
       <c r="M485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N485">
+        <v>0</v>
+      </c>
+      <c r="O485">
+        <v>0</v>
+      </c>
+      <c r="P485" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -23691,8 +25902,17 @@
       <c r="M486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N486">
+        <v>0</v>
+      </c>
+      <c r="O486">
+        <v>0</v>
+      </c>
+      <c r="P486" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -23729,8 +25949,17 @@
       <c r="M487">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N487">
+        <v>0</v>
+      </c>
+      <c r="O487">
+        <v>0</v>
+      </c>
+      <c r="P487" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -23767,8 +25996,17 @@
       <c r="M488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N488">
+        <v>0</v>
+      </c>
+      <c r="O488">
+        <v>0</v>
+      </c>
+      <c r="P488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -23805,8 +26043,17 @@
       <c r="M489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N489">
+        <v>0</v>
+      </c>
+      <c r="O489">
+        <v>0</v>
+      </c>
+      <c r="P489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -23843,8 +26090,17 @@
       <c r="M490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N490">
+        <v>0</v>
+      </c>
+      <c r="O490">
+        <v>0</v>
+      </c>
+      <c r="P490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -23881,8 +26137,17 @@
       <c r="M491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N491">
+        <v>0</v>
+      </c>
+      <c r="O491">
+        <v>0</v>
+      </c>
+      <c r="P491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -23919,8 +26184,17 @@
       <c r="M492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N492">
+        <v>0</v>
+      </c>
+      <c r="O492">
+        <v>0</v>
+      </c>
+      <c r="P492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -23957,8 +26231,17 @@
       <c r="M493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N493">
+        <v>0</v>
+      </c>
+      <c r="O493">
+        <v>0</v>
+      </c>
+      <c r="P493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -23995,8 +26278,17 @@
       <c r="M494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N494">
+        <v>0</v>
+      </c>
+      <c r="O494">
+        <v>0</v>
+      </c>
+      <c r="P494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -24033,8 +26325,17 @@
       <c r="M495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N495">
+        <v>0</v>
+      </c>
+      <c r="O495">
+        <v>0</v>
+      </c>
+      <c r="P495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -24071,8 +26372,17 @@
       <c r="M496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N496">
+        <v>0</v>
+      </c>
+      <c r="O496">
+        <v>0</v>
+      </c>
+      <c r="P496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -24109,8 +26419,17 @@
       <c r="M497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N497">
+        <v>0</v>
+      </c>
+      <c r="O497">
+        <v>0</v>
+      </c>
+      <c r="P497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -24147,8 +26466,17 @@
       <c r="M498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N498">
+        <v>0</v>
+      </c>
+      <c r="O498">
+        <v>0</v>
+      </c>
+      <c r="P498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -24185,8 +26513,17 @@
       <c r="M499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N499">
+        <v>0</v>
+      </c>
+      <c r="O499">
+        <v>0</v>
+      </c>
+      <c r="P499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -24223,8 +26560,17 @@
       <c r="M500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N500">
+        <v>0</v>
+      </c>
+      <c r="O500">
+        <v>0</v>
+      </c>
+      <c r="P500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -24261,8 +26607,17 @@
       <c r="M501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N501">
+        <v>0</v>
+      </c>
+      <c r="O501">
+        <v>0</v>
+      </c>
+      <c r="P501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -24299,8 +26654,17 @@
       <c r="M502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N502">
+        <v>0</v>
+      </c>
+      <c r="O502">
+        <v>0</v>
+      </c>
+      <c r="P502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -24337,8 +26701,17 @@
       <c r="M503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N503">
+        <v>0</v>
+      </c>
+      <c r="O503">
+        <v>0</v>
+      </c>
+      <c r="P503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -24375,8 +26748,17 @@
       <c r="M504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N504">
+        <v>0</v>
+      </c>
+      <c r="O504">
+        <v>0</v>
+      </c>
+      <c r="P504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -24413,8 +26795,17 @@
       <c r="M505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N505">
+        <v>0</v>
+      </c>
+      <c r="O505">
+        <v>0</v>
+      </c>
+      <c r="P505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -24451,8 +26842,17 @@
       <c r="M506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N506">
+        <v>0</v>
+      </c>
+      <c r="O506">
+        <v>0</v>
+      </c>
+      <c r="P506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -24489,8 +26889,17 @@
       <c r="M507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N507">
+        <v>0</v>
+      </c>
+      <c r="O507">
+        <v>0</v>
+      </c>
+      <c r="P507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -24527,8 +26936,17 @@
       <c r="M508">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N508">
+        <v>0</v>
+      </c>
+      <c r="O508">
+        <v>0</v>
+      </c>
+      <c r="P508" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -24565,8 +26983,17 @@
       <c r="M509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N509">
+        <v>0</v>
+      </c>
+      <c r="O509">
+        <v>0</v>
+      </c>
+      <c r="P509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -24603,8 +27030,17 @@
       <c r="M510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N510">
+        <v>0</v>
+      </c>
+      <c r="O510">
+        <v>0</v>
+      </c>
+      <c r="P510" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -24641,8 +27077,17 @@
       <c r="M511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N511">
+        <v>0</v>
+      </c>
+      <c r="O511">
+        <v>0</v>
+      </c>
+      <c r="P511" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -24679,8 +27124,17 @@
       <c r="M512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N512">
+        <v>0</v>
+      </c>
+      <c r="O512">
+        <v>0</v>
+      </c>
+      <c r="P512" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -24717,8 +27171,17 @@
       <c r="M513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N513">
+        <v>0</v>
+      </c>
+      <c r="O513">
+        <v>0</v>
+      </c>
+      <c r="P513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -24755,8 +27218,17 @@
       <c r="M514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N514">
+        <v>0</v>
+      </c>
+      <c r="O514">
+        <v>0</v>
+      </c>
+      <c r="P514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -24793,8 +27265,17 @@
       <c r="M515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N515">
+        <v>0</v>
+      </c>
+      <c r="O515">
+        <v>0</v>
+      </c>
+      <c r="P515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -24831,8 +27312,17 @@
       <c r="M516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N516">
+        <v>0</v>
+      </c>
+      <c r="O516">
+        <v>0</v>
+      </c>
+      <c r="P516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -24869,8 +27359,17 @@
       <c r="M517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N517">
+        <v>0</v>
+      </c>
+      <c r="O517">
+        <v>0</v>
+      </c>
+      <c r="P517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -24907,8 +27406,17 @@
       <c r="M518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N518">
+        <v>0</v>
+      </c>
+      <c r="O518">
+        <v>0</v>
+      </c>
+      <c r="P518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -24945,8 +27453,17 @@
       <c r="M519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N519">
+        <v>0</v>
+      </c>
+      <c r="O519">
+        <v>0</v>
+      </c>
+      <c r="P519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -24983,8 +27500,17 @@
       <c r="M520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N520">
+        <v>0</v>
+      </c>
+      <c r="O520">
+        <v>0</v>
+      </c>
+      <c r="P520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -25021,8 +27547,17 @@
       <c r="M521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N521">
+        <v>0</v>
+      </c>
+      <c r="O521">
+        <v>0</v>
+      </c>
+      <c r="P521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -25059,8 +27594,17 @@
       <c r="M522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N522">
+        <v>0</v>
+      </c>
+      <c r="O522">
+        <v>0</v>
+      </c>
+      <c r="P522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -25097,8 +27641,17 @@
       <c r="M523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N523">
+        <v>0</v>
+      </c>
+      <c r="O523">
+        <v>0</v>
+      </c>
+      <c r="P523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -25135,8 +27688,17 @@
       <c r="M524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N524">
+        <v>0</v>
+      </c>
+      <c r="O524">
+        <v>0</v>
+      </c>
+      <c r="P524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -25173,8 +27735,17 @@
       <c r="M525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N525">
+        <v>0</v>
+      </c>
+      <c r="O525">
+        <v>0</v>
+      </c>
+      <c r="P525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -25211,8 +27782,17 @@
       <c r="M526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N526">
+        <v>0</v>
+      </c>
+      <c r="O526">
+        <v>0</v>
+      </c>
+      <c r="P526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -25249,8 +27829,17 @@
       <c r="M527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N527">
+        <v>0</v>
+      </c>
+      <c r="O527">
+        <v>0</v>
+      </c>
+      <c r="P527" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -25287,8 +27876,17 @@
       <c r="M528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N528">
+        <v>0</v>
+      </c>
+      <c r="O528">
+        <v>0</v>
+      </c>
+      <c r="P528" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>550</v>
       </c>
@@ -25325,8 +27923,17 @@
       <c r="M529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N529">
+        <v>0</v>
+      </c>
+      <c r="O529">
+        <v>0</v>
+      </c>
+      <c r="P529" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>551</v>
       </c>
@@ -25363,8 +27970,17 @@
       <c r="M530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N530">
+        <v>0</v>
+      </c>
+      <c r="O530">
+        <v>0</v>
+      </c>
+      <c r="P530" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>552</v>
       </c>
@@ -25401,8 +28017,17 @@
       <c r="M531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="N531">
+        <v>0</v>
+      </c>
+      <c r="O531">
+        <v>0</v>
+      </c>
+      <c r="P531" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>553</v>
       </c>
@@ -25439,8 +28064,9 @@
       <c r="M532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P532" s="3"/>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>556</v>
       </c>
@@ -25477,8 +28103,9 @@
       <c r="M533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P533" s="3"/>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>557</v>
       </c>
@@ -25515,8 +28142,9 @@
       <c r="M534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P534" s="3"/>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>558</v>
       </c>
@@ -25553,8 +28181,9 @@
       <c r="M535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P535" s="3"/>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>559</v>
       </c>
@@ -25591,8 +28220,9 @@
       <c r="M536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P536" s="3"/>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -25629,8 +28259,9 @@
       <c r="M537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P537" s="3"/>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>561</v>
       </c>
@@ -25667,8 +28298,9 @@
       <c r="M538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P538" s="3"/>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>562</v>
       </c>
@@ -25705,8 +28337,9 @@
       <c r="M539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P539" s="3"/>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -25743,8 +28376,9 @@
       <c r="M540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P540" s="3"/>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>564</v>
       </c>
@@ -25781,8 +28415,9 @@
       <c r="M541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P541" s="3"/>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>565</v>
       </c>
@@ -25819,8 +28454,9 @@
       <c r="M542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P542" s="3"/>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>566</v>
       </c>
@@ -25857,8 +28493,9 @@
       <c r="M543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P543" s="3"/>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>567</v>
       </c>
@@ -25895,8 +28532,9 @@
       <c r="M544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P544" s="3"/>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>568</v>
       </c>
@@ -25933,8 +28571,9 @@
       <c r="M545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P545" s="3"/>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>569</v>
       </c>
@@ -25971,8 +28610,9 @@
       <c r="M546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P546" s="3"/>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>570</v>
       </c>
@@ -26009,8 +28649,9 @@
       <c r="M547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P547" s="3"/>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>571</v>
       </c>
@@ -26047,8 +28688,9 @@
       <c r="M548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P548" s="3"/>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>572</v>
       </c>
@@ -26085,8 +28727,9 @@
       <c r="M549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P549" s="3"/>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>573</v>
       </c>
@@ -26123,8 +28766,9 @@
       <c r="M550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P550" s="3"/>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>574</v>
       </c>
@@ -26161,8 +28805,9 @@
       <c r="M551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P551" s="3"/>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>575</v>
       </c>
@@ -26199,8 +28844,9 @@
       <c r="M552">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P552" s="3"/>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>576</v>
       </c>
@@ -26237,8 +28883,9 @@
       <c r="M553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P553" s="3"/>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>577</v>
       </c>
@@ -26275,8 +28922,9 @@
       <c r="M554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P554" s="3"/>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>578</v>
       </c>
@@ -26313,8 +28961,9 @@
       <c r="M555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P555" s="3"/>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>579</v>
       </c>
@@ -26351,8 +29000,9 @@
       <c r="M556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P556" s="3"/>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>580</v>
       </c>
@@ -26389,8 +29039,9 @@
       <c r="M557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P557" s="3"/>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>581</v>
       </c>
@@ -26427,8 +29078,9 @@
       <c r="M558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P558" s="3"/>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>582</v>
       </c>
@@ -26465,8 +29117,9 @@
       <c r="M559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P559" s="3"/>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>583</v>
       </c>
@@ -26503,8 +29156,9 @@
       <c r="M560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P560" s="3"/>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>584</v>
       </c>
@@ -26541,8 +29195,9 @@
       <c r="M561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P561" s="3"/>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>585</v>
       </c>
@@ -26579,8 +29234,9 @@
       <c r="M562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P562" s="3"/>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>586</v>
       </c>
@@ -26617,8 +29273,9 @@
       <c r="M563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P563" s="3"/>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>587</v>
       </c>
@@ -26655,8 +29312,9 @@
       <c r="M564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P564" s="3"/>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>588</v>
       </c>
@@ -26693,8 +29351,9 @@
       <c r="M565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P565" s="3"/>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>589</v>
       </c>
@@ -26731,8 +29390,9 @@
       <c r="M566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P566" s="3"/>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>590</v>
       </c>
@@ -26769,8 +29429,9 @@
       <c r="M567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P567" s="3"/>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>591</v>
       </c>
@@ -26807,8 +29468,9 @@
       <c r="M568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P568" s="3"/>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>592</v>
       </c>
@@ -26845,8 +29507,9 @@
       <c r="M569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P569" s="3"/>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>593</v>
       </c>
@@ -26883,8 +29546,9 @@
       <c r="M570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P570" s="3"/>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>594</v>
       </c>
@@ -26921,8 +29585,9 @@
       <c r="M571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P571" s="3"/>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>595</v>
       </c>
@@ -26959,8 +29624,9 @@
       <c r="M572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P572" s="3"/>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>596</v>
       </c>
@@ -26997,8 +29663,9 @@
       <c r="M573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P573" s="3"/>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>597</v>
       </c>
@@ -27035,8 +29702,9 @@
       <c r="M574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P574" s="3"/>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>598</v>
       </c>
@@ -27073,8 +29741,9 @@
       <c r="M575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P575" s="3"/>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>599</v>
       </c>
@@ -27111,8 +29780,9 @@
       <c r="M576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P576" s="3"/>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>600</v>
       </c>
@@ -27149,8 +29819,9 @@
       <c r="M577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P577" s="3"/>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>601</v>
       </c>
@@ -27187,8 +29858,9 @@
       <c r="M578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P578" s="3"/>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>602</v>
       </c>
@@ -27225,8 +29897,9 @@
       <c r="M579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P579" s="3"/>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>603</v>
       </c>
@@ -27263,8 +29936,9 @@
       <c r="M580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P580" s="3"/>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>604</v>
       </c>
@@ -27301,8 +29975,9 @@
       <c r="M581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P581" s="3"/>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>605</v>
       </c>
@@ -27339,8 +30014,9 @@
       <c r="M582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P582" s="3"/>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>606</v>
       </c>
@@ -27377,8 +30053,9 @@
       <c r="M583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P583" s="3"/>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>607</v>
       </c>
@@ -27415,8 +30092,9 @@
       <c r="M584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P584" s="3"/>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>608</v>
       </c>
@@ -27453,8 +30131,9 @@
       <c r="M585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P585" s="3"/>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>609</v>
       </c>
@@ -27491,8 +30170,9 @@
       <c r="M586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P586" s="3"/>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>610</v>
       </c>
@@ -27529,8 +30209,9 @@
       <c r="M587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P587" s="3"/>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>611</v>
       </c>
@@ -27567,8 +30248,9 @@
       <c r="M588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P588" s="3"/>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>612</v>
       </c>
@@ -27605,8 +30287,9 @@
       <c r="M589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P589" s="3"/>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>613</v>
       </c>
@@ -27643,8 +30326,9 @@
       <c r="M590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P590" s="3"/>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>614</v>
       </c>
@@ -27681,8 +30365,9 @@
       <c r="M591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P591" s="3"/>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>615</v>
       </c>
@@ -27719,8 +30404,9 @@
       <c r="M592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P592" s="3"/>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -27757,8 +30443,9 @@
       <c r="M593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P593" s="3"/>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>617</v>
       </c>
@@ -27795,8 +30482,9 @@
       <c r="M594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P594" s="3"/>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>618</v>
       </c>
@@ -27833,8 +30521,9 @@
       <c r="M595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P595" s="3"/>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>619</v>
       </c>
@@ -27871,8 +30560,9 @@
       <c r="M596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P596" s="3"/>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>620</v>
       </c>
@@ -27909,8 +30599,9 @@
       <c r="M597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P597" s="3"/>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>621</v>
       </c>
@@ -27947,8 +30638,9 @@
       <c r="M598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P598" s="3"/>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>622</v>
       </c>
@@ -27985,8 +30677,9 @@
       <c r="M599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P599" s="3"/>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>623</v>
       </c>
@@ -28023,8 +30716,9 @@
       <c r="M600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P600" s="3"/>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>624</v>
       </c>
@@ -28061,8 +30755,9 @@
       <c r="M601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P601" s="3"/>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>625</v>
       </c>
@@ -28099,8 +30794,9 @@
       <c r="M602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P602" s="3"/>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>626</v>
       </c>
@@ -28137,8 +30833,9 @@
       <c r="M603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P603" s="3"/>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>627</v>
       </c>
@@ -28175,8 +30872,9 @@
       <c r="M604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P604" s="3"/>
+    </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>628</v>
       </c>
@@ -28213,8 +30911,9 @@
       <c r="M605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P605" s="3"/>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>629</v>
       </c>
@@ -28251,8 +30950,9 @@
       <c r="M606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P606" s="3"/>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>630</v>
       </c>
@@ -28289,8 +30989,9 @@
       <c r="M607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P607" s="3"/>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>631</v>
       </c>
@@ -28327,8 +31028,9 @@
       <c r="M608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P608" s="3"/>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>632</v>
       </c>
@@ -28365,8 +31067,9 @@
       <c r="M609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P609" s="3"/>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>633</v>
       </c>
@@ -28403,8 +31106,9 @@
       <c r="M610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P610" s="3"/>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>634</v>
       </c>
@@ -28441,8 +31145,9 @@
       <c r="M611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P611" s="3"/>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>635</v>
       </c>
@@ -28479,8 +31184,9 @@
       <c r="M612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P612" s="3"/>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>636</v>
       </c>
@@ -28517,8 +31223,9 @@
       <c r="M613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P613" s="3"/>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>637</v>
       </c>
@@ -28555,8 +31262,9 @@
       <c r="M614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P614" s="3"/>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>638</v>
       </c>
@@ -28593,8 +31301,9 @@
       <c r="M615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P615" s="3"/>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>639</v>
       </c>
@@ -28631,8 +31340,9 @@
       <c r="M616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P616" s="3"/>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>640</v>
       </c>
@@ -28669,8 +31379,9 @@
       <c r="M617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P617" s="3"/>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>641</v>
       </c>
@@ -28707,8 +31418,9 @@
       <c r="M618">
         <v>0</v>
       </c>
-    </row>
-    <row r="619" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P618" s="3"/>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>642</v>
       </c>
@@ -28745,8 +31457,9 @@
       <c r="M619">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P619" s="3"/>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>643</v>
       </c>
@@ -28783,8 +31496,9 @@
       <c r="M620">
         <v>0</v>
       </c>
-    </row>
-    <row r="621" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P620" s="3"/>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>644</v>
       </c>
@@ -28821,6 +31535,7 @@
       <c r="M621">
         <v>0</v>
       </c>
+      <c r="P621" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03835C6-DC52-1B4B-96AE-523B8A43C41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC69ACC-6881-714D-9005-B3761CA2AEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3111" uniqueCount="665">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2028,6 +2028,9 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
 </sst>
 </file>
@@ -2538,12 +2541,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2589,7 +2593,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2756,26 +2768,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:Q621" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:Q621" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="1"/>
-    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:R621" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R621" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3098,11 +3117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q621"/>
+  <dimension ref="A1:R621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q157" sqref="Q157"/>
+    <sheetView tabSelected="1" topLeftCell="A545" zoomScale="200" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E572" sqref="E572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3111,7 +3130,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3163,8 +3182,11 @@
       <c r="Q1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="5" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3213,8 +3235,11 @@
       <c r="Q2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3263,8 +3288,11 @@
       <c r="Q3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3313,8 +3341,11 @@
       <c r="Q4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3363,8 +3394,11 @@
       <c r="Q5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3413,8 +3447,11 @@
       <c r="Q6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -3463,8 +3500,11 @@
       <c r="Q7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3513,8 +3553,11 @@
       <c r="Q8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3563,8 +3606,11 @@
       <c r="Q9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3613,8 +3659,11 @@
       <c r="Q10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3663,8 +3712,11 @@
       <c r="Q11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -3713,8 +3765,11 @@
       <c r="Q12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3763,8 +3818,11 @@
       <c r="Q13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -3813,8 +3871,11 @@
       <c r="Q14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -3863,8 +3924,11 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3913,8 +3977,11 @@
       <c r="Q16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3963,8 +4030,11 @@
       <c r="Q17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -4013,8 +4083,11 @@
       <c r="Q18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -4063,8 +4136,11 @@
       <c r="Q19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -4113,8 +4189,11 @@
       <c r="Q20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -4163,8 +4242,11 @@
       <c r="Q21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -4213,8 +4295,11 @@
       <c r="Q22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -4263,8 +4348,11 @@
       <c r="Q23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -4313,8 +4401,11 @@
       <c r="Q24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -4363,8 +4454,11 @@
       <c r="Q25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -4413,8 +4507,11 @@
       <c r="Q26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -4463,8 +4560,11 @@
       <c r="Q27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4513,8 +4613,11 @@
       <c r="Q28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -4563,8 +4666,11 @@
       <c r="Q29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -4613,8 +4719,11 @@
       <c r="Q30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -4663,8 +4772,11 @@
       <c r="Q31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -4713,8 +4825,11 @@
       <c r="Q32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4763,8 +4878,11 @@
       <c r="Q33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4813,8 +4931,11 @@
       <c r="Q34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4863,8 +4984,11 @@
       <c r="Q35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -4911,10 +5035,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4963,8 +5090,11 @@
       <c r="Q37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5013,8 +5143,11 @@
       <c r="Q38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -5063,8 +5196,11 @@
       <c r="Q39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -5113,8 +5249,11 @@
       <c r="Q40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -5163,8 +5302,11 @@
       <c r="Q41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -5213,8 +5355,11 @@
       <c r="Q42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -5263,8 +5408,11 @@
       <c r="Q43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -5313,8 +5461,11 @@
       <c r="Q44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -5363,8 +5514,11 @@
       <c r="Q45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -5413,8 +5567,11 @@
       <c r="Q46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -5461,10 +5618,13 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5511,10 +5671,13 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R48" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5563,8 +5726,11 @@
       <c r="Q49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -5611,10 +5777,13 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5661,10 +5830,13 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -5713,8 +5885,11 @@
       <c r="Q52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -5763,8 +5938,11 @@
       <c r="Q53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -5813,8 +5991,11 @@
       <c r="Q54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -5863,8 +6044,11 @@
       <c r="Q55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -5913,8 +6097,11 @@
       <c r="Q56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -5963,8 +6150,11 @@
       <c r="Q57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -6013,8 +6203,11 @@
       <c r="Q58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -6063,8 +6256,11 @@
       <c r="Q59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -6113,8 +6309,11 @@
       <c r="Q60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -6163,8 +6362,11 @@
       <c r="Q61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -6211,10 +6413,13 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -6261,10 +6466,13 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R63" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -6313,8 +6521,11 @@
       <c r="Q64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -6363,8 +6574,11 @@
       <c r="Q65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -6411,10 +6625,13 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="R66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -6463,8 +6680,11 @@
       <c r="Q67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -6513,8 +6733,11 @@
       <c r="Q68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -6563,8 +6786,11 @@
       <c r="Q69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -6613,8 +6839,11 @@
       <c r="Q70">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -6663,8 +6892,11 @@
       <c r="Q71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -6713,8 +6945,11 @@
       <c r="Q72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -6763,8 +6998,11 @@
       <c r="Q73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -6813,8 +7051,11 @@
       <c r="Q74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -6863,8 +7104,11 @@
       <c r="Q75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -6913,8 +7157,11 @@
       <c r="Q76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -6963,8 +7210,11 @@
       <c r="Q77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -7013,8 +7263,11 @@
       <c r="Q78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -7063,8 +7316,11 @@
       <c r="Q79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -7113,8 +7369,11 @@
       <c r="Q80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -7163,8 +7422,11 @@
       <c r="Q81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -7213,8 +7475,11 @@
       <c r="Q82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -7263,8 +7528,11 @@
       <c r="Q83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -7313,8 +7581,11 @@
       <c r="Q84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -7363,8 +7634,11 @@
       <c r="Q85">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -7413,8 +7687,11 @@
       <c r="Q86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -7463,8 +7740,11 @@
       <c r="Q87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -7513,8 +7793,11 @@
       <c r="Q88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -7563,8 +7846,11 @@
       <c r="Q89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -7613,8 +7899,11 @@
       <c r="Q90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -7663,8 +7952,11 @@
       <c r="Q91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -7713,8 +8005,11 @@
       <c r="Q92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -7763,8 +8058,11 @@
       <c r="Q93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>108</v>
       </c>
@@ -7813,8 +8111,11 @@
       <c r="Q94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -7863,8 +8164,11 @@
       <c r="Q95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>110</v>
       </c>
@@ -7913,8 +8217,11 @@
       <c r="Q96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>111</v>
       </c>
@@ -7963,8 +8270,11 @@
       <c r="Q97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>112</v>
       </c>
@@ -8013,8 +8323,11 @@
       <c r="Q98">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>113</v>
       </c>
@@ -8063,8 +8376,11 @@
       <c r="Q99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -8113,8 +8429,11 @@
       <c r="Q100">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -8163,8 +8482,11 @@
       <c r="Q101">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -8213,8 +8535,11 @@
       <c r="Q102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -8263,8 +8588,11 @@
       <c r="Q103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>118</v>
       </c>
@@ -8313,8 +8641,11 @@
       <c r="Q104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -8363,8 +8694,11 @@
       <c r="Q105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>120</v>
       </c>
@@ -8413,8 +8747,11 @@
       <c r="Q106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>121</v>
       </c>
@@ -8463,8 +8800,11 @@
       <c r="Q107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>122</v>
       </c>
@@ -8513,8 +8853,11 @@
       <c r="Q108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>123</v>
       </c>
@@ -8563,8 +8906,11 @@
       <c r="Q109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>124</v>
       </c>
@@ -8613,8 +8959,11 @@
       <c r="Q110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>125</v>
       </c>
@@ -8663,8 +9012,11 @@
       <c r="Q111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -8713,8 +9065,11 @@
       <c r="Q112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>127</v>
       </c>
@@ -8763,8 +9118,11 @@
       <c r="Q113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -8813,8 +9171,11 @@
       <c r="Q114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -8863,8 +9224,11 @@
       <c r="Q115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -8913,8 +9277,11 @@
       <c r="Q116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>131</v>
       </c>
@@ -8961,10 +9328,13 @@
         <v>2</v>
       </c>
       <c r="Q117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="R117" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -9013,8 +9383,11 @@
       <c r="Q118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>133</v>
       </c>
@@ -9063,8 +9436,11 @@
       <c r="Q119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>134</v>
       </c>
@@ -9113,8 +9489,11 @@
       <c r="Q120">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>135</v>
       </c>
@@ -9163,8 +9542,9 @@
       <c r="Q121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121" s="5"/>
+    </row>
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>136</v>
       </c>
@@ -9213,8 +9593,11 @@
       <c r="Q122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>137</v>
       </c>
@@ -9263,8 +9646,11 @@
       <c r="Q123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -9313,8 +9699,11 @@
       <c r="Q124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -9363,8 +9752,11 @@
       <c r="Q125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>140</v>
       </c>
@@ -9413,8 +9805,11 @@
       <c r="Q126">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -9463,8 +9858,11 @@
       <c r="Q127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -9513,8 +9911,11 @@
       <c r="Q128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>143</v>
       </c>
@@ -9563,8 +9964,11 @@
       <c r="Q129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -9613,8 +10017,11 @@
       <c r="Q130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -9663,8 +10070,11 @@
       <c r="Q131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -9713,8 +10123,11 @@
       <c r="Q132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R132" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>147</v>
       </c>
@@ -9763,8 +10176,11 @@
       <c r="Q133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R133" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -9813,8 +10229,11 @@
       <c r="Q134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R134" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>149</v>
       </c>
@@ -9863,8 +10282,11 @@
       <c r="Q135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R135" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>150</v>
       </c>
@@ -9913,8 +10335,11 @@
       <c r="Q136">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R136" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>151</v>
       </c>
@@ -9963,8 +10388,11 @@
       <c r="Q137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R137" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>152</v>
       </c>
@@ -10013,8 +10441,11 @@
       <c r="Q138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R138" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>153</v>
       </c>
@@ -10063,8 +10494,11 @@
       <c r="Q139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R139" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>154</v>
       </c>
@@ -10113,8 +10547,11 @@
       <c r="Q140">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R140" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -10163,8 +10600,11 @@
       <c r="Q141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R141" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>156</v>
       </c>
@@ -10213,8 +10653,11 @@
       <c r="Q142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R142" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>157</v>
       </c>
@@ -10263,8 +10706,11 @@
       <c r="Q143">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R143" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>158</v>
       </c>
@@ -10313,8 +10759,11 @@
       <c r="Q144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R144" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>159</v>
       </c>
@@ -10363,8 +10812,11 @@
       <c r="Q145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R145" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>160</v>
       </c>
@@ -10413,8 +10865,11 @@
       <c r="Q146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R146" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -10463,8 +10918,11 @@
       <c r="Q147">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R147" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>162</v>
       </c>
@@ -10513,8 +10971,11 @@
       <c r="Q148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R148" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>163</v>
       </c>
@@ -10563,8 +11024,11 @@
       <c r="Q149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R149" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -10613,8 +11077,11 @@
       <c r="Q150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R150" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -10663,8 +11130,11 @@
       <c r="Q151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R151" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>166</v>
       </c>
@@ -10713,8 +11183,11 @@
       <c r="Q152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R152" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>167</v>
       </c>
@@ -10763,8 +11236,11 @@
       <c r="Q153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R153" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>168</v>
       </c>
@@ -10813,8 +11289,11 @@
       <c r="Q154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R154" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>169</v>
       </c>
@@ -10863,8 +11342,11 @@
       <c r="Q155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R155" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>170</v>
       </c>
@@ -10913,8 +11395,11 @@
       <c r="Q156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R156" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -10963,8 +11448,11 @@
       <c r="Q157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R157" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>172</v>
       </c>
@@ -11013,8 +11501,11 @@
       <c r="Q158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R158" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>173</v>
       </c>
@@ -11063,8 +11554,11 @@
       <c r="Q159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R159" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>174</v>
       </c>
@@ -11113,8 +11607,11 @@
       <c r="Q160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R160" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>175</v>
       </c>
@@ -11163,8 +11660,11 @@
       <c r="Q161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R161" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -11213,8 +11713,11 @@
       <c r="Q162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>177</v>
       </c>
@@ -11263,8 +11766,11 @@
       <c r="Q163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -11313,8 +11819,11 @@
       <c r="Q164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -11363,8 +11872,11 @@
       <c r="Q165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -11413,8 +11925,11 @@
       <c r="Q166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -11463,8 +11978,11 @@
       <c r="Q167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R167" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>182</v>
       </c>
@@ -11513,8 +12031,11 @@
       <c r="Q168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R168" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>183</v>
       </c>
@@ -11563,8 +12084,11 @@
       <c r="Q169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R169" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>184</v>
       </c>
@@ -11613,8 +12137,11 @@
       <c r="Q170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R170" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>185</v>
       </c>
@@ -11663,8 +12190,11 @@
       <c r="Q171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R171" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>186</v>
       </c>
@@ -11713,8 +12243,11 @@
       <c r="Q172">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R172" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>187</v>
       </c>
@@ -11763,8 +12296,11 @@
       <c r="Q173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R173" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>188</v>
       </c>
@@ -11813,8 +12349,11 @@
       <c r="Q174">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R174" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -11863,8 +12402,11 @@
       <c r="Q175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R175" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -11913,8 +12455,11 @@
       <c r="Q176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R176" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -11963,8 +12508,11 @@
       <c r="Q177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R177" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -12013,8 +12561,11 @@
       <c r="Q178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R178" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>193</v>
       </c>
@@ -12063,8 +12614,11 @@
       <c r="Q179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R179" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>194</v>
       </c>
@@ -12113,8 +12667,11 @@
       <c r="Q180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R180" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>195</v>
       </c>
@@ -12163,8 +12720,11 @@
       <c r="Q181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R181" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -12213,8 +12773,11 @@
       <c r="Q182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -12263,8 +12826,11 @@
       <c r="Q183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -12313,8 +12879,11 @@
       <c r="Q184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -12363,8 +12932,11 @@
       <c r="Q185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -12413,8 +12985,11 @@
       <c r="Q186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -12463,8 +13038,11 @@
       <c r="Q187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R187" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -12513,8 +13091,11 @@
       <c r="Q188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -12563,8 +13144,11 @@
       <c r="Q189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R189" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -12613,8 +13197,11 @@
       <c r="Q190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -12663,8 +13250,11 @@
       <c r="Q191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R191" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -12713,8 +13303,11 @@
       <c r="Q192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -12763,8 +13356,11 @@
       <c r="Q193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -12813,8 +13409,11 @@
       <c r="Q194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -12863,8 +13462,11 @@
       <c r="Q195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -12913,8 +13515,11 @@
       <c r="Q196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -12963,8 +13568,11 @@
       <c r="Q197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R197" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -13013,8 +13621,11 @@
       <c r="Q198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R198" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -13063,8 +13674,11 @@
       <c r="Q199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R199" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -13113,8 +13727,11 @@
       <c r="Q200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -13163,8 +13780,11 @@
       <c r="Q201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R201" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -13213,8 +13833,11 @@
       <c r="Q202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R202" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -13263,8 +13886,11 @@
       <c r="Q203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -13313,8 +13939,11 @@
       <c r="Q204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -13363,8 +13992,11 @@
       <c r="Q205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -13413,8 +14045,11 @@
       <c r="Q206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -13463,8 +14098,11 @@
       <c r="Q207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R207" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -13513,8 +14151,11 @@
       <c r="Q208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R208" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -13563,8 +14204,11 @@
       <c r="Q209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -13613,8 +14257,11 @@
       <c r="Q210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R210" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -13663,8 +14310,11 @@
       <c r="Q211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R211" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -13713,8 +14363,11 @@
       <c r="Q212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -13763,8 +14416,11 @@
       <c r="Q213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -13813,8 +14469,11 @@
       <c r="Q214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -13863,8 +14522,11 @@
       <c r="Q215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -13913,8 +14575,11 @@
       <c r="Q216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R216" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -13963,8 +14628,11 @@
       <c r="Q217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -14013,8 +14681,11 @@
       <c r="Q218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R218" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -14063,8 +14734,11 @@
       <c r="Q219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R219" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -14113,8 +14787,11 @@
       <c r="Q220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R220" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -14163,8 +14840,11 @@
       <c r="Q221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R221" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -14213,8 +14893,11 @@
       <c r="Q222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R222" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -14263,8 +14946,11 @@
       <c r="Q223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R223" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -14313,8 +14999,11 @@
       <c r="Q224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -14363,8 +15052,11 @@
       <c r="Q225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R225" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -14413,8 +15105,11 @@
       <c r="Q226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -14463,8 +15158,11 @@
       <c r="Q227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R227" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -14513,8 +15211,11 @@
       <c r="Q228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R228" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -14563,8 +15264,11 @@
       <c r="Q229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R229" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -14613,8 +15317,11 @@
       <c r="Q230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R230" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -14663,8 +15370,11 @@
       <c r="Q231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R231" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -14713,8 +15423,11 @@
       <c r="Q232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R232" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -14763,8 +15476,11 @@
       <c r="Q233">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R233" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -14813,8 +15529,11 @@
       <c r="Q234">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R234" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -14863,8 +15582,11 @@
       <c r="Q235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R235" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -14913,8 +15635,11 @@
       <c r="Q236">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R236" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -14963,8 +15688,11 @@
       <c r="Q237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -15013,8 +15741,11 @@
       <c r="Q238">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R238" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -15063,8 +15794,11 @@
       <c r="Q239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R239" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -15113,8 +15847,11 @@
       <c r="Q240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R240" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -15163,8 +15900,11 @@
       <c r="Q241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R241" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -15213,8 +15953,11 @@
       <c r="Q242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R242" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -15263,8 +16006,11 @@
       <c r="Q243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R243" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -15313,8 +16059,11 @@
       <c r="Q244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -15363,8 +16112,11 @@
       <c r="Q245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R245" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -15413,8 +16165,11 @@
       <c r="Q246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R246" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -15463,8 +16218,11 @@
       <c r="Q247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -15513,8 +16271,11 @@
       <c r="Q248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R248" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -15563,8 +16324,11 @@
       <c r="Q249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R249" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -15613,8 +16377,11 @@
       <c r="Q250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -15663,8 +16430,11 @@
       <c r="Q251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R251" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -15713,8 +16483,11 @@
       <c r="Q252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -15763,8 +16536,11 @@
       <c r="Q253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -15813,8 +16589,11 @@
       <c r="Q254">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R254" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -15863,8 +16642,11 @@
       <c r="Q255">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R255" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -15913,8 +16695,11 @@
       <c r="Q256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -15963,8 +16748,11 @@
       <c r="Q257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -16013,8 +16801,11 @@
       <c r="Q258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R258" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -16063,8 +16854,11 @@
       <c r="Q259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -16113,8 +16907,11 @@
       <c r="Q260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -16163,8 +16960,11 @@
       <c r="Q261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -16213,8 +17013,11 @@
       <c r="Q262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -16263,8 +17066,11 @@
       <c r="Q263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -16313,8 +17119,11 @@
       <c r="Q264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -16363,8 +17172,11 @@
       <c r="Q265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R265" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -16413,8 +17225,11 @@
       <c r="Q266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -16463,8 +17278,11 @@
       <c r="Q267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R267" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -16513,8 +17331,11 @@
       <c r="Q268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -16563,8 +17384,11 @@
       <c r="Q269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -16613,8 +17437,11 @@
       <c r="Q270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R270" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -16663,8 +17490,11 @@
       <c r="Q271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R271" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>288</v>
       </c>
@@ -16713,8 +17543,11 @@
       <c r="Q272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R272" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>291</v>
       </c>
@@ -16763,8 +17596,11 @@
       <c r="Q273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R273" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>292</v>
       </c>
@@ -16813,8 +17649,11 @@
       <c r="Q274">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R274" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>293</v>
       </c>
@@ -16863,8 +17702,11 @@
       <c r="Q275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R275" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>294</v>
       </c>
@@ -16913,8 +17755,11 @@
       <c r="Q276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R276" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -16963,8 +17808,11 @@
       <c r="Q277">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R277" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>296</v>
       </c>
@@ -17013,8 +17861,11 @@
       <c r="Q278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R278" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>297</v>
       </c>
@@ -17063,8 +17914,11 @@
       <c r="Q279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R279" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>298</v>
       </c>
@@ -17113,8 +17967,11 @@
       <c r="Q280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R280" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>299</v>
       </c>
@@ -17163,8 +18020,11 @@
       <c r="Q281">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R281" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>300</v>
       </c>
@@ -17213,8 +18073,11 @@
       <c r="Q282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R282" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>301</v>
       </c>
@@ -17263,8 +18126,11 @@
       <c r="Q283" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R283" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>302</v>
       </c>
@@ -17313,8 +18179,11 @@
       <c r="Q284">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R284" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>303</v>
       </c>
@@ -17363,8 +18232,11 @@
       <c r="Q285">
         <v>2</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R285" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>304</v>
       </c>
@@ -17413,8 +18285,11 @@
       <c r="Q286">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R286" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>305</v>
       </c>
@@ -17463,8 +18338,11 @@
       <c r="Q287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R287" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>306</v>
       </c>
@@ -17513,8 +18391,11 @@
       <c r="Q288">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R288" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>307</v>
       </c>
@@ -17563,8 +18444,11 @@
       <c r="Q289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R289" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>308</v>
       </c>
@@ -17613,8 +18497,11 @@
       <c r="Q290">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R290" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>309</v>
       </c>
@@ -17663,8 +18550,11 @@
       <c r="Q291">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R291" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>310</v>
       </c>
@@ -17713,8 +18603,11 @@
       <c r="Q292">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R292" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>311</v>
       </c>
@@ -17763,8 +18656,11 @@
       <c r="Q293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R293" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>312</v>
       </c>
@@ -17813,8 +18709,11 @@
       <c r="Q294">
         <v>2</v>
       </c>
-    </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R294" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>313</v>
       </c>
@@ -17863,8 +18762,11 @@
       <c r="Q295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R295" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>314</v>
       </c>
@@ -17913,8 +18815,11 @@
       <c r="Q296">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R296" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>315</v>
       </c>
@@ -17963,8 +18868,11 @@
       <c r="Q297">
         <v>2</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R297" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>316</v>
       </c>
@@ -18013,8 +18921,11 @@
       <c r="Q298">
         <v>2</v>
       </c>
-    </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R298" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>317</v>
       </c>
@@ -18063,8 +18974,11 @@
       <c r="Q299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R299" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>318</v>
       </c>
@@ -18113,8 +19027,11 @@
       <c r="Q300">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R300" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>319</v>
       </c>
@@ -18163,8 +19080,11 @@
       <c r="Q301">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R301" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>320</v>
       </c>
@@ -18213,8 +19133,11 @@
       <c r="Q302">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R302" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>321</v>
       </c>
@@ -18263,8 +19186,11 @@
       <c r="Q303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R303" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>322</v>
       </c>
@@ -18313,8 +19239,11 @@
       <c r="Q304">
         <v>2</v>
       </c>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R304" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>323</v>
       </c>
@@ -18363,8 +19292,11 @@
       <c r="Q305">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R305" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>324</v>
       </c>
@@ -18413,8 +19345,11 @@
       <c r="Q306">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R306" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>325</v>
       </c>
@@ -18463,8 +19398,11 @@
       <c r="Q307">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R307" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>326</v>
       </c>
@@ -18513,8 +19451,11 @@
       <c r="Q308">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R308" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>327</v>
       </c>
@@ -18563,8 +19504,11 @@
       <c r="Q309">
         <v>2</v>
       </c>
-    </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R309" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -18613,8 +19557,11 @@
       <c r="Q310">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R310" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>329</v>
       </c>
@@ -18663,8 +19610,11 @@
       <c r="Q311">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R311" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -18713,8 +19663,11 @@
       <c r="Q312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R312" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>331</v>
       </c>
@@ -18763,8 +19716,11 @@
       <c r="Q313">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -18813,8 +19769,11 @@
       <c r="Q314">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>333</v>
       </c>
@@ -18863,8 +19822,11 @@
       <c r="Q315">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>334</v>
       </c>
@@ -18913,8 +19875,11 @@
       <c r="Q316">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>335</v>
       </c>
@@ -18963,8 +19928,11 @@
       <c r="Q317">
         <v>2</v>
       </c>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R317" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>336</v>
       </c>
@@ -19013,8 +19981,11 @@
       <c r="Q318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R318" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>337</v>
       </c>
@@ -19063,8 +20034,11 @@
       <c r="Q319">
         <v>3</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R319" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>338</v>
       </c>
@@ -19113,8 +20087,11 @@
       <c r="Q320">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R320" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>339</v>
       </c>
@@ -19163,8 +20140,11 @@
       <c r="Q321">
         <v>2</v>
       </c>
-    </row>
-    <row r="322" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R321" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>340</v>
       </c>
@@ -19213,8 +20193,11 @@
       <c r="Q322" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R322" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>341</v>
       </c>
@@ -19263,8 +20246,11 @@
       <c r="Q323">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R323" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>342</v>
       </c>
@@ -19313,8 +20299,11 @@
       <c r="Q324" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R324" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="325" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>343</v>
       </c>
@@ -19363,8 +20352,11 @@
       <c r="Q325">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R325" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -19413,8 +20405,11 @@
       <c r="Q326">
         <v>2</v>
       </c>
-    </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R326" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -19463,8 +20458,11 @@
       <c r="Q327">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R327" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -19513,8 +20511,11 @@
       <c r="Q328">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R328" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>347</v>
       </c>
@@ -19563,8 +20564,11 @@
       <c r="Q329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R329" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>348</v>
       </c>
@@ -19613,8 +20617,11 @@
       <c r="Q330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>349</v>
       </c>
@@ -19663,8 +20670,11 @@
       <c r="Q331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R331" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -19713,8 +20723,11 @@
       <c r="Q332">
         <v>2</v>
       </c>
-    </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R332" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>351</v>
       </c>
@@ -19763,8 +20776,11 @@
       <c r="Q333">
         <v>2</v>
       </c>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R333" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>352</v>
       </c>
@@ -19813,8 +20829,11 @@
       <c r="Q334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R334" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>353</v>
       </c>
@@ -19863,8 +20882,11 @@
       <c r="Q335">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R335" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>354</v>
       </c>
@@ -19913,8 +20935,11 @@
       <c r="Q336">
         <v>2</v>
       </c>
-    </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R336" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>355</v>
       </c>
@@ -19963,8 +20988,11 @@
       <c r="Q337">
         <v>2</v>
       </c>
-    </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R337" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>356</v>
       </c>
@@ -20013,8 +21041,11 @@
       <c r="Q338">
         <v>2</v>
       </c>
-    </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R338" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>357</v>
       </c>
@@ -20063,8 +21094,11 @@
       <c r="Q339">
         <v>2</v>
       </c>
-    </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R339" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>358</v>
       </c>
@@ -20113,8 +21147,11 @@
       <c r="Q340">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R340" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>359</v>
       </c>
@@ -20163,8 +21200,11 @@
       <c r="Q341">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R341" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -20213,8 +21253,11 @@
       <c r="Q342">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R342" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>361</v>
       </c>
@@ -20266,8 +21309,11 @@
       <c r="Q343">
         <v>2</v>
       </c>
-    </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R343" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -20316,8 +21362,11 @@
       <c r="Q344">
         <v>2</v>
       </c>
-    </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R344" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>363</v>
       </c>
@@ -20366,8 +21415,11 @@
       <c r="Q345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>364</v>
       </c>
@@ -20416,8 +21468,11 @@
       <c r="Q346">
         <v>2</v>
       </c>
-    </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R346" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>365</v>
       </c>
@@ -20466,8 +21521,11 @@
       <c r="Q347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R347" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>366</v>
       </c>
@@ -20516,8 +21574,11 @@
       <c r="Q348">
         <v>2</v>
       </c>
-    </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R348" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -20566,8 +21627,11 @@
       <c r="Q349">
         <v>2</v>
       </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R349" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>368</v>
       </c>
@@ -20616,8 +21680,11 @@
       <c r="Q350">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R350" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>369</v>
       </c>
@@ -20666,8 +21733,11 @@
       <c r="Q351">
         <v>2</v>
       </c>
-    </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R351" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -20716,8 +21786,11 @@
       <c r="Q352">
         <v>2</v>
       </c>
-    </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R352" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>371</v>
       </c>
@@ -20766,8 +21839,11 @@
       <c r="Q353">
         <v>2</v>
       </c>
-    </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R353" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>372</v>
       </c>
@@ -20816,8 +21892,11 @@
       <c r="Q354">
         <v>2</v>
       </c>
-    </row>
-    <row r="355" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R354" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>373</v>
       </c>
@@ -20866,8 +21945,11 @@
       <c r="Q355" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R355" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -20916,8 +21998,11 @@
       <c r="Q356">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R356" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>375</v>
       </c>
@@ -20966,8 +22051,11 @@
       <c r="Q357">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R357" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>376</v>
       </c>
@@ -21016,8 +22104,11 @@
       <c r="Q358">
         <v>2</v>
       </c>
-    </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R358" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>377</v>
       </c>
@@ -21066,8 +22157,11 @@
       <c r="Q359">
         <v>2</v>
       </c>
-    </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R359" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -21116,8 +22210,11 @@
       <c r="Q360">
         <v>2</v>
       </c>
-    </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R360" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>379</v>
       </c>
@@ -21166,8 +22263,11 @@
       <c r="Q361">
         <v>2</v>
       </c>
-    </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R361" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>380</v>
       </c>
@@ -21216,8 +22316,11 @@
       <c r="Q362">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R362" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>383</v>
       </c>
@@ -21266,8 +22369,11 @@
       <c r="Q363">
         <v>4</v>
       </c>
-    </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R363" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -21316,8 +22422,11 @@
       <c r="Q364">
         <v>4</v>
       </c>
-    </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R364" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>385</v>
       </c>
@@ -21366,8 +22475,11 @@
       <c r="Q365">
         <v>3</v>
       </c>
-    </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R365" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -21416,8 +22528,11 @@
       <c r="Q366">
         <v>4</v>
       </c>
-    </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R366" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>387</v>
       </c>
@@ -21466,8 +22581,11 @@
       <c r="Q367">
         <v>3</v>
       </c>
-    </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R367" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>388</v>
       </c>
@@ -21516,8 +22634,11 @@
       <c r="Q368">
         <v>4</v>
       </c>
-    </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R368" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>389</v>
       </c>
@@ -21566,8 +22687,11 @@
       <c r="Q369">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R369" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>390</v>
       </c>
@@ -21616,8 +22740,11 @@
       <c r="Q370">
         <v>3</v>
       </c>
-    </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R370" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>391</v>
       </c>
@@ -21666,8 +22793,11 @@
       <c r="Q371">
         <v>3</v>
       </c>
-    </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R371" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -21716,8 +22846,11 @@
       <c r="Q372">
         <v>4</v>
       </c>
-    </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R372" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>393</v>
       </c>
@@ -21766,8 +22899,11 @@
       <c r="Q373">
         <v>3</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R373" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -21816,8 +22952,11 @@
       <c r="Q374">
         <v>3</v>
       </c>
-    </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R374" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>657</v>
       </c>
@@ -21869,8 +23008,11 @@
       <c r="Q375">
         <v>4</v>
       </c>
-    </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R375" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>395</v>
       </c>
@@ -21919,8 +23061,11 @@
       <c r="Q376">
         <v>3</v>
       </c>
-    </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R376" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>396</v>
       </c>
@@ -21969,8 +23114,11 @@
       <c r="Q377">
         <v>4</v>
       </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>397</v>
       </c>
@@ -22019,8 +23167,11 @@
       <c r="Q378">
         <v>4</v>
       </c>
-    </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>398</v>
       </c>
@@ -22069,8 +23220,11 @@
       <c r="Q379">
         <v>4</v>
       </c>
-    </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>399</v>
       </c>
@@ -22119,8 +23273,11 @@
       <c r="Q380">
         <v>4</v>
       </c>
-    </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>400</v>
       </c>
@@ -22172,8 +23329,11 @@
       <c r="Q381" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R381" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="382" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>401</v>
       </c>
@@ -22222,8 +23382,11 @@
       <c r="Q382">
         <v>4</v>
       </c>
-    </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R382">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>402</v>
       </c>
@@ -22272,8 +23435,11 @@
       <c r="Q383">
         <v>4</v>
       </c>
-    </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>403</v>
       </c>
@@ -22322,8 +23488,11 @@
       <c r="Q384">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R384">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>404</v>
       </c>
@@ -22372,8 +23541,11 @@
       <c r="Q385">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R385">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>405</v>
       </c>
@@ -22422,8 +23594,11 @@
       <c r="Q386">
         <v>4</v>
       </c>
-    </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R386">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>406</v>
       </c>
@@ -22472,8 +23647,11 @@
       <c r="Q387">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R387" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>407</v>
       </c>
@@ -22522,8 +23700,11 @@
       <c r="Q388">
         <v>4</v>
       </c>
-    </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R388" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>408</v>
       </c>
@@ -22572,8 +23753,11 @@
       <c r="Q389">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R389" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>409</v>
       </c>
@@ -22622,8 +23806,11 @@
       <c r="Q390">
         <v>3</v>
       </c>
-    </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R390" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>410</v>
       </c>
@@ -22672,8 +23859,11 @@
       <c r="Q391">
         <v>3</v>
       </c>
-    </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R391" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>411</v>
       </c>
@@ -22722,8 +23912,11 @@
       <c r="Q392">
         <v>4</v>
       </c>
-    </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R392" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>412</v>
       </c>
@@ -22772,8 +23965,11 @@
       <c r="Q393">
         <v>4</v>
       </c>
-    </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R393" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>413</v>
       </c>
@@ -22822,8 +24018,11 @@
       <c r="Q394">
         <v>4</v>
       </c>
-    </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R394" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>414</v>
       </c>
@@ -22872,8 +24071,11 @@
       <c r="Q395">
         <v>3</v>
       </c>
-    </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R395" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>415</v>
       </c>
@@ -22922,8 +24124,11 @@
       <c r="Q396">
         <v>3</v>
       </c>
-    </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R396" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>416</v>
       </c>
@@ -22975,8 +24180,11 @@
       <c r="Q397">
         <v>2</v>
       </c>
-    </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R397" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>417</v>
       </c>
@@ -23025,8 +24233,11 @@
       <c r="Q398">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R398" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>418</v>
       </c>
@@ -23075,8 +24286,11 @@
       <c r="Q399">
         <v>3</v>
       </c>
-    </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R399" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>419</v>
       </c>
@@ -23128,8 +24342,11 @@
       <c r="Q400">
         <v>3</v>
       </c>
-    </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R400" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>420</v>
       </c>
@@ -23178,8 +24395,11 @@
       <c r="Q401">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R401" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>421</v>
       </c>
@@ -23228,8 +24448,11 @@
       <c r="Q402">
         <v>2</v>
       </c>
-    </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R402" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>422</v>
       </c>
@@ -23278,8 +24501,11 @@
       <c r="Q403">
         <v>3</v>
       </c>
-    </row>
-    <row r="404" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R403" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>423</v>
       </c>
@@ -23331,8 +24557,11 @@
       <c r="Q404">
         <v>3</v>
       </c>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R404" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>424</v>
       </c>
@@ -23381,8 +24610,11 @@
       <c r="Q405">
         <v>3</v>
       </c>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R405" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>425</v>
       </c>
@@ -23431,8 +24663,11 @@
       <c r="Q406">
         <v>4</v>
       </c>
-    </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R406">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>426</v>
       </c>
@@ -23481,8 +24716,11 @@
       <c r="Q407">
         <v>4</v>
       </c>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>427</v>
       </c>
@@ -23531,8 +24769,11 @@
       <c r="Q408">
         <v>4</v>
       </c>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R408">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>428</v>
       </c>
@@ -23581,8 +24822,11 @@
       <c r="Q409">
         <v>4</v>
       </c>
-    </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R409">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>429</v>
       </c>
@@ -23631,8 +24875,11 @@
       <c r="Q410">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R410" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>430</v>
       </c>
@@ -23681,8 +24928,11 @@
       <c r="Q411">
         <v>4</v>
       </c>
-    </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R411" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>431</v>
       </c>
@@ -23731,8 +24981,11 @@
       <c r="Q412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R412" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>432</v>
       </c>
@@ -23781,8 +25034,11 @@
       <c r="Q413">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R413" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>433</v>
       </c>
@@ -23831,8 +25087,11 @@
       <c r="Q414">
         <v>2</v>
       </c>
-    </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R414" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>434</v>
       </c>
@@ -23881,8 +25140,11 @@
       <c r="Q415">
         <v>4</v>
       </c>
-    </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R415" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>435</v>
       </c>
@@ -23931,8 +25193,11 @@
       <c r="Q416">
         <v>3</v>
       </c>
-    </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R416" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>436</v>
       </c>
@@ -23981,8 +25246,11 @@
       <c r="Q417">
         <v>2</v>
       </c>
-    </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R417" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>437</v>
       </c>
@@ -24031,8 +25299,11 @@
       <c r="Q418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R418" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>438</v>
       </c>
@@ -24081,8 +25352,11 @@
       <c r="Q419">
         <v>3</v>
       </c>
-    </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R419" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>439</v>
       </c>
@@ -24131,8 +25405,11 @@
       <c r="Q420">
         <v>4</v>
       </c>
-    </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R420" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>440</v>
       </c>
@@ -24181,8 +25458,11 @@
       <c r="Q421">
         <v>2</v>
       </c>
-    </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R421" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>441</v>
       </c>
@@ -24231,8 +25511,11 @@
       <c r="Q422">
         <v>3</v>
       </c>
-    </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R422" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>442</v>
       </c>
@@ -24281,8 +25564,11 @@
       <c r="Q423">
         <v>3</v>
       </c>
-    </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R423" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>443</v>
       </c>
@@ -24331,8 +25617,11 @@
       <c r="Q424">
         <v>2</v>
       </c>
-    </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R424" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>444</v>
       </c>
@@ -24381,8 +25670,11 @@
       <c r="Q425">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R425" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>445</v>
       </c>
@@ -24431,8 +25723,11 @@
       <c r="Q426">
         <v>2</v>
       </c>
-    </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R426" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>446</v>
       </c>
@@ -24481,8 +25776,11 @@
       <c r="Q427">
         <v>3</v>
       </c>
-    </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R427" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>447</v>
       </c>
@@ -24531,8 +25829,11 @@
       <c r="Q428">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R428" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>448</v>
       </c>
@@ -24581,8 +25882,11 @@
       <c r="Q429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R429" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>449</v>
       </c>
@@ -24631,8 +25935,11 @@
       <c r="Q430">
         <v>3</v>
       </c>
-    </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R430" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -24681,8 +25988,11 @@
       <c r="Q431">
         <v>4</v>
       </c>
-    </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R431" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>451</v>
       </c>
@@ -24731,8 +26041,11 @@
       <c r="Q432">
         <v>3</v>
       </c>
-    </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R432" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>452</v>
       </c>
@@ -24781,8 +26094,11 @@
       <c r="Q433">
         <v>4</v>
       </c>
-    </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R433" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>453</v>
       </c>
@@ -24831,8 +26147,11 @@
       <c r="Q434">
         <v>3</v>
       </c>
-    </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R434" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>454</v>
       </c>
@@ -24884,8 +26203,11 @@
       <c r="Q435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R435" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>455</v>
       </c>
@@ -24934,8 +26256,11 @@
       <c r="Q436">
         <v>3</v>
       </c>
-    </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R436" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>456</v>
       </c>
@@ -24984,8 +26309,11 @@
       <c r="Q437">
         <v>4</v>
       </c>
-    </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R437" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>457</v>
       </c>
@@ -25034,8 +26362,11 @@
       <c r="Q438">
         <v>4</v>
       </c>
-    </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R438" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>458</v>
       </c>
@@ -25084,8 +26415,11 @@
       <c r="Q439">
         <v>3</v>
       </c>
-    </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R439" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -25134,8 +26468,11 @@
       <c r="Q440">
         <v>3</v>
       </c>
-    </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R440" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>460</v>
       </c>
@@ -25184,8 +26521,11 @@
       <c r="Q441">
         <v>2</v>
       </c>
-    </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R441" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>461</v>
       </c>
@@ -25234,8 +26574,11 @@
       <c r="Q442">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R442" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>462</v>
       </c>
@@ -25284,8 +26627,11 @@
       <c r="Q443">
         <v>3</v>
       </c>
-    </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R443" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>463</v>
       </c>
@@ -25334,8 +26680,11 @@
       <c r="Q444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R444" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -25384,8 +26733,11 @@
       <c r="Q445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R445" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -25434,8 +26786,11 @@
       <c r="Q446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R446" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -25484,8 +26839,11 @@
       <c r="Q447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R447" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -25534,8 +26892,11 @@
       <c r="Q448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R448" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -25584,8 +26945,11 @@
       <c r="Q449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R449" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -25634,8 +26998,11 @@
       <c r="Q450">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R450" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -25684,8 +27051,11 @@
       <c r="Q451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R451" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -25734,8 +27104,11 @@
       <c r="Q452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R452" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -25784,8 +27157,11 @@
       <c r="Q453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R453" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -25834,8 +27210,11 @@
       <c r="Q454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R454" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -25884,8 +27263,11 @@
       <c r="Q455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R455" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -25934,8 +27316,11 @@
       <c r="Q456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R456" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -25984,8 +27369,11 @@
       <c r="Q457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R457" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -26034,8 +27422,11 @@
       <c r="Q458">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R458" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -26084,8 +27475,11 @@
       <c r="Q459">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R459" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -26134,8 +27528,11 @@
       <c r="Q460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R460" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -26184,8 +27581,11 @@
       <c r="Q461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R461" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -26234,8 +27634,11 @@
       <c r="Q462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R462" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -26284,8 +27687,11 @@
       <c r="Q463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R463" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -26334,8 +27740,11 @@
       <c r="Q464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R464" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -26384,8 +27793,11 @@
       <c r="Q465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R465" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -26434,8 +27846,11 @@
       <c r="Q466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R466" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -26484,8 +27899,11 @@
       <c r="Q467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R467" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -26534,8 +27952,11 @@
       <c r="Q468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R468" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -26584,8 +28005,11 @@
       <c r="Q469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R469" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -26634,8 +28058,11 @@
       <c r="Q470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R470" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -26684,8 +28111,11 @@
       <c r="Q471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R471" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -26734,8 +28164,11 @@
       <c r="Q472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R472" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -26784,8 +28217,11 @@
       <c r="Q473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R473" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -26834,8 +28270,11 @@
       <c r="Q474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -26884,8 +28323,11 @@
       <c r="Q475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -26934,8 +28376,11 @@
       <c r="Q476">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -26984,8 +28429,11 @@
       <c r="Q477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -27034,8 +28482,11 @@
       <c r="Q478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -27084,8 +28535,11 @@
       <c r="Q479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R479" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -27134,8 +28588,11 @@
       <c r="Q480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R480" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -27184,8 +28641,11 @@
       <c r="Q481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R481" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -27234,8 +28694,11 @@
       <c r="Q482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R482" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -27284,8 +28747,11 @@
       <c r="Q483">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R483" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -27334,8 +28800,11 @@
       <c r="Q484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R484" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -27384,8 +28853,11 @@
       <c r="Q485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R485" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -27434,8 +28906,11 @@
       <c r="Q486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R486" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -27484,8 +28959,11 @@
       <c r="Q487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R487" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -27534,8 +29012,11 @@
       <c r="Q488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R488" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -27584,8 +29065,11 @@
       <c r="Q489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R489" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -27634,8 +29118,11 @@
       <c r="Q490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R490" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -27684,8 +29171,11 @@
       <c r="Q491">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R491" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -27734,8 +29224,11 @@
       <c r="Q492">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R492" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -27784,8 +29277,11 @@
       <c r="Q493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R493" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -27834,8 +29330,11 @@
       <c r="Q494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R494" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -27884,8 +29383,11 @@
       <c r="Q495">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R495" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -27934,8 +29436,11 @@
       <c r="Q496">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R496" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -27984,8 +29489,11 @@
       <c r="Q497">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R497" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -28034,8 +29542,11 @@
       <c r="Q498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R498" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -28084,8 +29595,11 @@
       <c r="Q499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R499" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -28134,8 +29648,11 @@
       <c r="Q500">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R500" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -28184,8 +29701,11 @@
       <c r="Q501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R501" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -28234,8 +29754,11 @@
       <c r="Q502">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R502" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -28284,8 +29807,11 @@
       <c r="Q503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R503" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -28334,8 +29860,11 @@
       <c r="Q504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R504" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -28384,8 +29913,11 @@
       <c r="Q505">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R505" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -28434,8 +29966,11 @@
       <c r="Q506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R506" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -28484,8 +30019,11 @@
       <c r="Q507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R507" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -28534,8 +30072,11 @@
       <c r="Q508">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R508" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -28584,8 +30125,11 @@
       <c r="Q509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -28634,8 +30178,11 @@
       <c r="Q510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R510" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -28684,8 +30231,11 @@
       <c r="Q511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R511" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -28734,8 +30284,11 @@
       <c r="Q512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R512" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -28784,8 +30337,11 @@
       <c r="Q513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R513" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -28834,8 +30390,11 @@
       <c r="Q514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R514" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -28884,8 +30443,11 @@
       <c r="Q515">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R515" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -28934,8 +30496,11 @@
       <c r="Q516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R516" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -28984,8 +30549,11 @@
       <c r="Q517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R517" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -29034,8 +30602,11 @@
       <c r="Q518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R518" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -29084,8 +30655,11 @@
       <c r="Q519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R519" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -29134,8 +30708,11 @@
       <c r="Q520">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R520" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -29184,8 +30761,11 @@
       <c r="Q521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R521" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -29234,8 +30814,11 @@
       <c r="Q522">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R522" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -29284,8 +30867,11 @@
       <c r="Q523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R523" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -29334,8 +30920,11 @@
       <c r="Q524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R524" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -29384,8 +30973,11 @@
       <c r="Q525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R525" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -29434,8 +31026,11 @@
       <c r="Q526">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R526" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -29484,8 +31079,11 @@
       <c r="Q527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R527" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -29534,8 +31132,11 @@
       <c r="Q528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R528" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>550</v>
       </c>
@@ -29584,8 +31185,11 @@
       <c r="Q529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R529" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>551</v>
       </c>
@@ -29634,8 +31238,11 @@
       <c r="Q530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R530" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>552</v>
       </c>
@@ -29684,8 +31291,11 @@
       <c r="Q531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R531" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>553</v>
       </c>
@@ -29722,8 +31332,9 @@
       <c r="M532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R532" s="5"/>
+    </row>
+    <row r="533" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>556</v>
       </c>
@@ -29760,8 +31371,9 @@
       <c r="M533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R533" s="5"/>
+    </row>
+    <row r="534" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>557</v>
       </c>
@@ -29798,8 +31410,9 @@
       <c r="M534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R534" s="5"/>
+    </row>
+    <row r="535" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>558</v>
       </c>
@@ -29836,8 +31449,9 @@
       <c r="M535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R535" s="5"/>
+    </row>
+    <row r="536" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>559</v>
       </c>
@@ -29874,8 +31488,9 @@
       <c r="M536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R536" s="5"/>
+    </row>
+    <row r="537" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -29912,8 +31527,9 @@
       <c r="M537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R537" s="5"/>
+    </row>
+    <row r="538" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>561</v>
       </c>
@@ -29950,8 +31566,9 @@
       <c r="M538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R538" s="5"/>
+    </row>
+    <row r="539" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>562</v>
       </c>
@@ -29988,8 +31605,9 @@
       <c r="M539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R539" s="5"/>
+    </row>
+    <row r="540" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -30026,8 +31644,9 @@
       <c r="M540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R540" s="5"/>
+    </row>
+    <row r="541" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>564</v>
       </c>
@@ -30064,8 +31683,9 @@
       <c r="M541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R541" s="5"/>
+    </row>
+    <row r="542" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>565</v>
       </c>
@@ -30102,8 +31722,9 @@
       <c r="M542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R542" s="5"/>
+    </row>
+    <row r="543" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>566</v>
       </c>
@@ -30140,8 +31761,9 @@
       <c r="M543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R543" s="5"/>
+    </row>
+    <row r="544" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>567</v>
       </c>
@@ -30178,8 +31800,9 @@
       <c r="M544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R544" s="5"/>
+    </row>
+    <row r="545" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>568</v>
       </c>
@@ -30216,8 +31839,9 @@
       <c r="M545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R545" s="5"/>
+    </row>
+    <row r="546" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>569</v>
       </c>
@@ -30254,8 +31878,9 @@
       <c r="M546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R546" s="5"/>
+    </row>
+    <row r="547" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>570</v>
       </c>
@@ -30292,8 +31917,9 @@
       <c r="M547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R547" s="5"/>
+    </row>
+    <row r="548" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>571</v>
       </c>
@@ -30330,8 +31956,9 @@
       <c r="M548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R548" s="5"/>
+    </row>
+    <row r="549" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>572</v>
       </c>
@@ -30368,8 +31995,9 @@
       <c r="M549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R549" s="5"/>
+    </row>
+    <row r="550" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>573</v>
       </c>
@@ -30406,8 +32034,9 @@
       <c r="M550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R550" s="5"/>
+    </row>
+    <row r="551" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>574</v>
       </c>
@@ -30444,8 +32073,9 @@
       <c r="M551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R551" s="5"/>
+    </row>
+    <row r="552" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>575</v>
       </c>
@@ -30482,8 +32112,9 @@
       <c r="M552">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R552" s="5"/>
+    </row>
+    <row r="553" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>576</v>
       </c>
@@ -30520,8 +32151,9 @@
       <c r="M553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R553" s="5"/>
+    </row>
+    <row r="554" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>577</v>
       </c>
@@ -30558,8 +32190,9 @@
       <c r="M554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R554" s="5"/>
+    </row>
+    <row r="555" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>578</v>
       </c>
@@ -30596,8 +32229,9 @@
       <c r="M555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R555" s="5"/>
+    </row>
+    <row r="556" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>579</v>
       </c>
@@ -30634,8 +32268,9 @@
       <c r="M556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R556" s="5"/>
+    </row>
+    <row r="557" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>580</v>
       </c>
@@ -30672,8 +32307,9 @@
       <c r="M557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R557" s="5"/>
+    </row>
+    <row r="558" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>581</v>
       </c>
@@ -30710,8 +32346,9 @@
       <c r="M558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R558" s="5"/>
+    </row>
+    <row r="559" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>582</v>
       </c>
@@ -30748,8 +32385,9 @@
       <c r="M559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R559" s="5"/>
+    </row>
+    <row r="560" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>583</v>
       </c>
@@ -30786,8 +32424,9 @@
       <c r="M560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R560" s="5"/>
+    </row>
+    <row r="561" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>584</v>
       </c>
@@ -30824,8 +32463,9 @@
       <c r="M561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R561" s="5"/>
+    </row>
+    <row r="562" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>585</v>
       </c>
@@ -30862,8 +32502,9 @@
       <c r="M562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R562" s="5"/>
+    </row>
+    <row r="563" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>586</v>
       </c>
@@ -30900,8 +32541,9 @@
       <c r="M563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R563" s="5"/>
+    </row>
+    <row r="564" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>587</v>
       </c>
@@ -30938,8 +32580,9 @@
       <c r="M564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R564" s="5"/>
+    </row>
+    <row r="565" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>588</v>
       </c>
@@ -30976,8 +32619,9 @@
       <c r="M565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R565" s="5"/>
+    </row>
+    <row r="566" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>589</v>
       </c>
@@ -31014,8 +32658,9 @@
       <c r="M566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R566" s="5"/>
+    </row>
+    <row r="567" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>590</v>
       </c>
@@ -31052,8 +32697,9 @@
       <c r="M567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R567" s="5"/>
+    </row>
+    <row r="568" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>591</v>
       </c>
@@ -31090,8 +32736,9 @@
       <c r="M568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R568" s="5"/>
+    </row>
+    <row r="569" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>592</v>
       </c>
@@ -31128,8 +32775,9 @@
       <c r="M569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R569" s="5"/>
+    </row>
+    <row r="570" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>593</v>
       </c>
@@ -31166,8 +32814,9 @@
       <c r="M570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R570" s="5"/>
+    </row>
+    <row r="571" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>594</v>
       </c>
@@ -31204,8 +32853,9 @@
       <c r="M571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R571" s="5"/>
+    </row>
+    <row r="572" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>595</v>
       </c>
@@ -31242,8 +32892,9 @@
       <c r="M572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R572" s="5"/>
+    </row>
+    <row r="573" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>596</v>
       </c>
@@ -31280,8 +32931,9 @@
       <c r="M573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R573" s="5"/>
+    </row>
+    <row r="574" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>597</v>
       </c>
@@ -31318,8 +32970,9 @@
       <c r="M574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R574" s="5"/>
+    </row>
+    <row r="575" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>598</v>
       </c>
@@ -31356,8 +33009,9 @@
       <c r="M575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R575" s="5"/>
+    </row>
+    <row r="576" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>599</v>
       </c>
@@ -31394,8 +33048,9 @@
       <c r="M576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R576" s="5"/>
+    </row>
+    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>600</v>
       </c>
@@ -31432,8 +33087,9 @@
       <c r="M577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R577" s="5"/>
+    </row>
+    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>601</v>
       </c>
@@ -31470,8 +33126,9 @@
       <c r="M578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R578" s="5"/>
+    </row>
+    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>602</v>
       </c>
@@ -31508,8 +33165,9 @@
       <c r="M579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R579" s="5"/>
+    </row>
+    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>603</v>
       </c>
@@ -31546,8 +33204,9 @@
       <c r="M580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R580" s="5"/>
+    </row>
+    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>604</v>
       </c>
@@ -31584,8 +33243,9 @@
       <c r="M581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R581" s="5"/>
+    </row>
+    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>605</v>
       </c>
@@ -31622,8 +33282,9 @@
       <c r="M582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R582" s="5"/>
+    </row>
+    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>606</v>
       </c>
@@ -31660,8 +33321,9 @@
       <c r="M583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R583" s="5"/>
+    </row>
+    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>607</v>
       </c>
@@ -31698,8 +33360,9 @@
       <c r="M584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R584" s="5"/>
+    </row>
+    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>608</v>
       </c>
@@ -31736,8 +33399,9 @@
       <c r="M585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R585" s="5"/>
+    </row>
+    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>609</v>
       </c>
@@ -31774,8 +33438,9 @@
       <c r="M586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R586" s="5"/>
+    </row>
+    <row r="587" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>610</v>
       </c>
@@ -31812,8 +33477,9 @@
       <c r="M587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R587" s="5"/>
+    </row>
+    <row r="588" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>611</v>
       </c>
@@ -31850,8 +33516,9 @@
       <c r="M588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R588" s="5"/>
+    </row>
+    <row r="589" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>612</v>
       </c>
@@ -31888,8 +33555,9 @@
       <c r="M589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R589" s="5"/>
+    </row>
+    <row r="590" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>613</v>
       </c>
@@ -31926,8 +33594,9 @@
       <c r="M590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R590" s="5"/>
+    </row>
+    <row r="591" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>614</v>
       </c>
@@ -31964,8 +33633,9 @@
       <c r="M591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R591" s="5"/>
+    </row>
+    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>615</v>
       </c>
@@ -32002,8 +33672,9 @@
       <c r="M592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R592" s="5"/>
+    </row>
+    <row r="593" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -32040,8 +33711,9 @@
       <c r="M593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R593" s="5"/>
+    </row>
+    <row r="594" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>617</v>
       </c>
@@ -32078,8 +33750,9 @@
       <c r="M594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R594" s="5"/>
+    </row>
+    <row r="595" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>618</v>
       </c>
@@ -32116,8 +33789,9 @@
       <c r="M595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R595" s="5"/>
+    </row>
+    <row r="596" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>619</v>
       </c>
@@ -32154,8 +33828,9 @@
       <c r="M596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R596" s="5"/>
+    </row>
+    <row r="597" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>620</v>
       </c>
@@ -32192,8 +33867,9 @@
       <c r="M597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R597" s="5"/>
+    </row>
+    <row r="598" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>621</v>
       </c>
@@ -32230,8 +33906,9 @@
       <c r="M598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R598" s="5"/>
+    </row>
+    <row r="599" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>622</v>
       </c>
@@ -32268,8 +33945,9 @@
       <c r="M599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R599" s="5"/>
+    </row>
+    <row r="600" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>623</v>
       </c>
@@ -32306,8 +33984,9 @@
       <c r="M600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R600" s="5"/>
+    </row>
+    <row r="601" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>624</v>
       </c>
@@ -32344,8 +34023,9 @@
       <c r="M601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R601" s="5"/>
+    </row>
+    <row r="602" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>625</v>
       </c>
@@ -32382,8 +34062,9 @@
       <c r="M602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R602" s="5"/>
+    </row>
+    <row r="603" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>626</v>
       </c>
@@ -32420,8 +34101,9 @@
       <c r="M603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R603" s="5"/>
+    </row>
+    <row r="604" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>627</v>
       </c>
@@ -32458,8 +34140,9 @@
       <c r="M604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R604" s="5"/>
+    </row>
+    <row r="605" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>628</v>
       </c>
@@ -32496,8 +34179,9 @@
       <c r="M605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R605" s="5"/>
+    </row>
+    <row r="606" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>629</v>
       </c>
@@ -32534,8 +34218,9 @@
       <c r="M606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R606" s="5"/>
+    </row>
+    <row r="607" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>630</v>
       </c>
@@ -32572,8 +34257,9 @@
       <c r="M607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R607" s="5"/>
+    </row>
+    <row r="608" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>631</v>
       </c>
@@ -32610,8 +34296,9 @@
       <c r="M608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R608" s="5"/>
+    </row>
+    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>632</v>
       </c>
@@ -32648,8 +34335,9 @@
       <c r="M609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R609" s="5"/>
+    </row>
+    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>633</v>
       </c>
@@ -32686,8 +34374,9 @@
       <c r="M610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R610" s="5"/>
+    </row>
+    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>634</v>
       </c>
@@ -32724,8 +34413,9 @@
       <c r="M611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R611" s="5"/>
+    </row>
+    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>635</v>
       </c>
@@ -32762,8 +34452,9 @@
       <c r="M612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R612" s="5"/>
+    </row>
+    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>636</v>
       </c>
@@ -32800,8 +34491,9 @@
       <c r="M613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R613" s="5"/>
+    </row>
+    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>637</v>
       </c>
@@ -32838,8 +34530,9 @@
       <c r="M614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R614" s="5"/>
+    </row>
+    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>638</v>
       </c>
@@ -32876,8 +34569,9 @@
       <c r="M615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R615" s="5"/>
+    </row>
+    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>639</v>
       </c>
@@ -32914,8 +34608,9 @@
       <c r="M616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R616" s="5"/>
+    </row>
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>640</v>
       </c>
@@ -32952,8 +34647,9 @@
       <c r="M617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R617" s="5"/>
+    </row>
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>641</v>
       </c>
@@ -32990,8 +34686,9 @@
       <c r="M618">
         <v>0</v>
       </c>
-    </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R618" s="5"/>
+    </row>
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>642</v>
       </c>
@@ -33028,8 +34725,9 @@
       <c r="M619">
         <v>0</v>
       </c>
-    </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R619" s="5"/>
+    </row>
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>643</v>
       </c>
@@ -33066,8 +34764,9 @@
       <c r="M620">
         <v>0</v>
       </c>
-    </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="R620" s="5"/>
+    </row>
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>644</v>
       </c>
@@ -33104,6 +34803,7 @@
       <c r="M621">
         <v>0</v>
       </c>
+      <c r="R621" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Michiko Samson\Documents\Temporal Ecology Lab\fuelinex\data\monitoringPhenology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63913E5-62E5-4E04-A14C-414A29F18F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51C3D9-6B36-224F-AF87-2A51037C0133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="673">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2580,7 +2580,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2588,9 +2588,6 @@
     <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3201,18 +3198,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W503" sqref="W503"/>
+    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V542" sqref="V542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3279,11 +3276,11 @@
       <c r="V1" t="s">
         <v>670</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3407,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3531,7 +3528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3655,7 +3652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3844,7 +3841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3968,7 +3965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -4033,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4160,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -4222,7 +4219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -4284,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -4535,7 +4532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -4597,7 +4594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -4659,7 +4656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -4724,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4786,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -4848,7 +4845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -4972,7 +4969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -5037,7 +5034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -5161,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -5223,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -5412,7 +5409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5542,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5604,7 +5601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -5666,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -5793,7 +5790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -5855,7 +5852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -5920,7 +5917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -5985,7 +5982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -6050,7 +6047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -6177,7 +6174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -6242,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -6366,7 +6363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -6428,7 +6425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -6552,7 +6549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
@@ -6614,7 +6611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -6676,7 +6673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -6738,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -6924,7 +6921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -6986,7 +6983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -7113,7 +7110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -7177,11 +7174,11 @@
       <c r="V63">
         <v>3</v>
       </c>
-      <c r="W63" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -7243,7 +7240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -7370,7 +7367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -7435,7 +7432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
@@ -7500,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -7562,7 +7559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
@@ -7624,7 +7621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
@@ -7686,7 +7683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -7748,7 +7745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -7872,7 +7869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7936,11 +7933,11 @@
       <c r="V75">
         <v>3</v>
       </c>
-      <c r="W75" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -8002,7 +7999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -8064,7 +8061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -8191,7 +8188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -8253,7 +8250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
@@ -8315,7 +8312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
@@ -8380,7 +8377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
@@ -8442,7 +8439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -8504,7 +8501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
@@ -8566,7 +8563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -8693,7 +8690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -8755,7 +8752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -8817,7 +8814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -8882,7 +8879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -8947,7 +8944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -9009,7 +9006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>107</v>
       </c>
@@ -9071,7 +9068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>108</v>
       </c>
@@ -9133,7 +9130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>109</v>
       </c>
@@ -9195,7 +9192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>110</v>
       </c>
@@ -9257,7 +9254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -9319,7 +9316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -9381,7 +9378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>113</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>114</v>
       </c>
@@ -9505,7 +9502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>115</v>
       </c>
@@ -9567,7 +9564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -9629,7 +9626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -9693,11 +9690,11 @@
       <c r="V103">
         <v>3</v>
       </c>
-      <c r="W103" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>118</v>
       </c>
@@ -9762,7 +9759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>119</v>
       </c>
@@ -9824,7 +9821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
@@ -9886,7 +9883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>121</v>
       </c>
@@ -9948,7 +9945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>122</v>
       </c>
@@ -10010,7 +10007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
@@ -10072,7 +10069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>124</v>
       </c>
@@ -10134,7 +10131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>125</v>
       </c>
@@ -10196,7 +10193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>126</v>
       </c>
@@ -10258,7 +10255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>127</v>
       </c>
@@ -10320,7 +10317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>128</v>
       </c>
@@ -10382,7 +10379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>129</v>
       </c>
@@ -10444,7 +10441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>130</v>
       </c>
@@ -10506,7 +10503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>131</v>
       </c>
@@ -10571,7 +10568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>132</v>
       </c>
@@ -10633,7 +10630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>133</v>
       </c>
@@ -10695,7 +10692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
@@ -10757,7 +10754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>135</v>
       </c>
@@ -10819,7 +10816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
@@ -10881,7 +10878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>137</v>
       </c>
@@ -10943,7 +10940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>138</v>
       </c>
@@ -11005,7 +11002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>139</v>
       </c>
@@ -11069,11 +11066,11 @@
       <c r="V125">
         <v>3</v>
       </c>
-      <c r="W125" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>140</v>
       </c>
@@ -11135,7 +11132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>141</v>
       </c>
@@ -11197,7 +11194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>142</v>
       </c>
@@ -11259,7 +11256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>143</v>
       </c>
@@ -11321,7 +11318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>144</v>
       </c>
@@ -11385,11 +11382,11 @@
       <c r="V130">
         <v>3</v>
       </c>
-      <c r="W130" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>145</v>
       </c>
@@ -11451,7 +11448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -11515,11 +11512,11 @@
       <c r="V132">
         <v>3</v>
       </c>
-      <c r="W132" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>147</v>
       </c>
@@ -11581,7 +11578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>148</v>
       </c>
@@ -11643,7 +11640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>149</v>
       </c>
@@ -11705,7 +11702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>150</v>
       </c>
@@ -11767,7 +11764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>151</v>
       </c>
@@ -11829,7 +11826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
@@ -11891,7 +11888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>153</v>
       </c>
@@ -11953,7 +11950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>154</v>
       </c>
@@ -12015,7 +12012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>155</v>
       </c>
@@ -12077,7 +12074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>156</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>157</v>
       </c>
@@ -12201,7 +12198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>158</v>
       </c>
@@ -12263,7 +12260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>159</v>
       </c>
@@ -12325,7 +12322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>160</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>161</v>
       </c>
@@ -12449,7 +12446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>162</v>
       </c>
@@ -12511,7 +12508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>163</v>
       </c>
@@ -12573,7 +12570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -12637,11 +12634,11 @@
       <c r="V150">
         <v>3</v>
       </c>
-      <c r="W150" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>165</v>
       </c>
@@ -12703,7 +12700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>166</v>
       </c>
@@ -12765,7 +12762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>167</v>
       </c>
@@ -12827,7 +12824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>168</v>
       </c>
@@ -12889,7 +12886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>169</v>
       </c>
@@ -12951,7 +12948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>170</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>171</v>
       </c>
@@ -13075,7 +13072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>172</v>
       </c>
@@ -13140,7 +13137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>173</v>
       </c>
@@ -13202,7 +13199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>174</v>
       </c>
@@ -13267,7 +13264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>175</v>
       </c>
@@ -13329,7 +13326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -13393,11 +13390,11 @@
       <c r="V162">
         <v>3</v>
       </c>
-      <c r="W162" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>177</v>
       </c>
@@ -13459,7 +13456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -13523,11 +13520,11 @@
       <c r="V164">
         <v>3</v>
       </c>
-      <c r="W164" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -13591,11 +13588,11 @@
       <c r="V165">
         <v>3</v>
       </c>
-      <c r="W165" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -13659,11 +13656,11 @@
       <c r="V166">
         <v>3</v>
       </c>
-      <c r="W166" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>181</v>
       </c>
@@ -13725,7 +13722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>182</v>
       </c>
@@ -13787,7 +13784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>183</v>
       </c>
@@ -13852,7 +13849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>184</v>
       </c>
@@ -13914,7 +13911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>185</v>
       </c>
@@ -13976,7 +13973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>186</v>
       </c>
@@ -14038,7 +14035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>187</v>
       </c>
@@ -14100,7 +14097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>188</v>
       </c>
@@ -14162,7 +14159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>189</v>
       </c>
@@ -14224,7 +14221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>190</v>
       </c>
@@ -14286,7 +14283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>191</v>
       </c>
@@ -14351,7 +14348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>192</v>
       </c>
@@ -14415,11 +14412,11 @@
       <c r="V178">
         <v>3</v>
       </c>
-      <c r="W178" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>193</v>
       </c>
@@ -14481,7 +14478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>194</v>
       </c>
@@ -14543,7 +14540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>195</v>
       </c>
@@ -14605,7 +14602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -14672,11 +14669,11 @@
       <c r="V182">
         <v>2</v>
       </c>
-      <c r="W182" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -14740,11 +14737,11 @@
       <c r="V183">
         <v>2</v>
       </c>
-      <c r="W183" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -14808,11 +14805,11 @@
       <c r="V184">
         <v>2</v>
       </c>
-      <c r="W184" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -14876,11 +14873,11 @@
       <c r="V185">
         <v>2</v>
       </c>
-      <c r="W185" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -14944,11 +14941,11 @@
       <c r="V186">
         <v>2</v>
       </c>
-      <c r="W186" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -15012,11 +15009,11 @@
       <c r="V187">
         <v>2</v>
       </c>
-      <c r="W187" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -15080,11 +15077,11 @@
       <c r="V188">
         <v>2</v>
       </c>
-      <c r="W188" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -15148,11 +15145,11 @@
       <c r="V189">
         <v>2</v>
       </c>
-      <c r="W189" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -15216,11 +15213,11 @@
       <c r="V190">
         <v>2</v>
       </c>
-      <c r="W190" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -15284,11 +15281,11 @@
       <c r="V191">
         <v>2</v>
       </c>
-      <c r="W191" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -15352,11 +15349,11 @@
       <c r="V192">
         <v>2</v>
       </c>
-      <c r="W192" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -15420,11 +15417,11 @@
       <c r="V193">
         <v>2</v>
       </c>
-      <c r="W193" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -15488,11 +15485,11 @@
       <c r="V194">
         <v>2</v>
       </c>
-      <c r="W194" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -15556,11 +15553,11 @@
       <c r="V195">
         <v>2</v>
       </c>
-      <c r="W195" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -15624,11 +15621,11 @@
       <c r="V196">
         <v>1</v>
       </c>
-      <c r="W196" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -15692,11 +15689,11 @@
       <c r="V197">
         <v>2</v>
       </c>
-      <c r="W197" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -15760,11 +15757,11 @@
       <c r="V198">
         <v>2</v>
       </c>
-      <c r="W198" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -15828,11 +15825,11 @@
       <c r="V199">
         <v>2</v>
       </c>
-      <c r="W199" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -15896,11 +15893,11 @@
       <c r="V200">
         <v>2</v>
       </c>
-      <c r="W200" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -15964,11 +15961,11 @@
       <c r="V201">
         <v>2</v>
       </c>
-      <c r="W201" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -16032,11 +16029,11 @@
       <c r="V202">
         <v>1</v>
       </c>
-      <c r="W202" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -16100,11 +16097,11 @@
       <c r="V203">
         <v>2</v>
       </c>
-      <c r="W203" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -16168,11 +16165,11 @@
       <c r="V204">
         <v>2</v>
       </c>
-      <c r="W204" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -16236,11 +16233,11 @@
       <c r="V205">
         <v>2</v>
       </c>
-      <c r="W205" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -16304,11 +16301,11 @@
       <c r="V206">
         <v>2</v>
       </c>
-      <c r="W206" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -16372,11 +16369,11 @@
       <c r="V207">
         <v>2</v>
       </c>
-      <c r="W207" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -16440,11 +16437,11 @@
       <c r="V208">
         <v>2</v>
       </c>
-      <c r="W208" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -16508,11 +16505,11 @@
       <c r="V209">
         <v>2</v>
       </c>
-      <c r="W209" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -16576,11 +16573,11 @@
       <c r="V210">
         <v>2</v>
       </c>
-      <c r="W210" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -16644,11 +16641,11 @@
       <c r="V211">
         <v>2</v>
       </c>
-      <c r="W211" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -16712,11 +16709,11 @@
       <c r="V212">
         <v>2</v>
       </c>
-      <c r="W212" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -16780,11 +16777,11 @@
       <c r="V213">
         <v>2</v>
       </c>
-      <c r="W213" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -16848,11 +16845,11 @@
       <c r="V214">
         <v>2</v>
       </c>
-      <c r="W214" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -16916,11 +16913,11 @@
       <c r="V215">
         <v>2</v>
       </c>
-      <c r="W215" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -16984,11 +16981,11 @@
       <c r="V216">
         <v>1</v>
       </c>
-      <c r="W216" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -17052,11 +17049,11 @@
       <c r="V217">
         <v>1</v>
       </c>
-      <c r="W217" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -17120,11 +17117,11 @@
       <c r="V218">
         <v>1</v>
       </c>
-      <c r="W218" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -17188,11 +17185,11 @@
       <c r="V219">
         <v>2</v>
       </c>
-      <c r="W219" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -17256,11 +17253,11 @@
       <c r="V220">
         <v>2</v>
       </c>
-      <c r="W220" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -17324,11 +17321,11 @@
       <c r="V221">
         <v>2</v>
       </c>
-      <c r="W221" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -17392,11 +17389,11 @@
       <c r="V222">
         <v>2</v>
       </c>
-      <c r="W222" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17460,11 +17457,11 @@
       <c r="V223">
         <v>2</v>
       </c>
-      <c r="W223" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -17528,11 +17525,11 @@
       <c r="V224">
         <v>1</v>
       </c>
-      <c r="W224" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -17596,11 +17593,11 @@
       <c r="V225">
         <v>2</v>
       </c>
-      <c r="W225" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -17664,11 +17661,11 @@
       <c r="V226">
         <v>1</v>
       </c>
-      <c r="W226" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -17732,11 +17729,11 @@
       <c r="V227">
         <v>2</v>
       </c>
-      <c r="W227" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -17800,11 +17797,11 @@
       <c r="V228">
         <v>2</v>
       </c>
-      <c r="W228" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -17868,11 +17865,11 @@
       <c r="V229">
         <v>2</v>
       </c>
-      <c r="W229" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -17936,11 +17933,11 @@
       <c r="V230">
         <v>2</v>
       </c>
-      <c r="W230" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -18004,11 +18001,11 @@
       <c r="V231">
         <v>2</v>
       </c>
-      <c r="W231" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -18072,11 +18069,11 @@
       <c r="V232">
         <v>2</v>
       </c>
-      <c r="W232" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -18140,11 +18137,11 @@
       <c r="V233">
         <v>2</v>
       </c>
-      <c r="W233" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -18208,11 +18205,11 @@
       <c r="V234">
         <v>2</v>
       </c>
-      <c r="W234" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -18276,11 +18273,11 @@
       <c r="V235">
         <v>2</v>
       </c>
-      <c r="W235" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -18344,11 +18341,11 @@
       <c r="V236">
         <v>2</v>
       </c>
-      <c r="W236" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -18412,11 +18409,11 @@
       <c r="V237">
         <v>2</v>
       </c>
-      <c r="W237" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -18480,11 +18477,11 @@
       <c r="V238">
         <v>2</v>
       </c>
-      <c r="W238" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -18548,11 +18545,11 @@
       <c r="V239">
         <v>2</v>
       </c>
-      <c r="W239" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -18616,11 +18613,11 @@
       <c r="V240">
         <v>2</v>
       </c>
-      <c r="W240" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -18684,11 +18681,11 @@
       <c r="V241">
         <v>2</v>
       </c>
-      <c r="W241" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -18752,11 +18749,11 @@
       <c r="V242">
         <v>2</v>
       </c>
-      <c r="W242" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -18820,11 +18817,11 @@
       <c r="V243">
         <v>2</v>
       </c>
-      <c r="W243" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -18888,11 +18885,11 @@
       <c r="V244">
         <v>2</v>
       </c>
-      <c r="W244" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -18956,11 +18953,11 @@
       <c r="V245">
         <v>2</v>
       </c>
-      <c r="W245" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -19024,11 +19021,11 @@
       <c r="V246">
         <v>2</v>
       </c>
-      <c r="W246" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -19092,11 +19089,11 @@
       <c r="V247">
         <v>1</v>
       </c>
-      <c r="W247" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -19160,11 +19157,11 @@
       <c r="V248">
         <v>2</v>
       </c>
-      <c r="W248" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -19228,11 +19225,11 @@
       <c r="V249">
         <v>2</v>
       </c>
-      <c r="W249" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -19296,11 +19293,11 @@
       <c r="V250">
         <v>1</v>
       </c>
-      <c r="W250" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -19364,11 +19361,11 @@
       <c r="V251">
         <v>2</v>
       </c>
-      <c r="W251" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -19432,11 +19429,11 @@
       <c r="V252">
         <v>2</v>
       </c>
-      <c r="W252" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -19500,11 +19497,11 @@
       <c r="V253">
         <v>1</v>
       </c>
-      <c r="W253" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -19568,11 +19565,11 @@
       <c r="V254">
         <v>2</v>
       </c>
-      <c r="W254" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -19636,11 +19633,11 @@
       <c r="V255">
         <v>2</v>
       </c>
-      <c r="W255" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -19704,11 +19701,11 @@
       <c r="V256">
         <v>2</v>
       </c>
-      <c r="W256" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W256">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -19772,11 +19769,11 @@
       <c r="V257">
         <v>2</v>
       </c>
-      <c r="W257" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -19840,11 +19837,11 @@
       <c r="V258">
         <v>2</v>
       </c>
-      <c r="W258" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -19908,11 +19905,11 @@
       <c r="V259">
         <v>1</v>
       </c>
-      <c r="W259" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -19976,11 +19973,11 @@
       <c r="V260">
         <v>1</v>
       </c>
-      <c r="W260" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -20044,11 +20041,11 @@
       <c r="V261">
         <v>1</v>
       </c>
-      <c r="W261" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -20112,11 +20109,11 @@
       <c r="V262">
         <v>1</v>
       </c>
-      <c r="W262" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -20180,11 +20177,11 @@
       <c r="V263">
         <v>1</v>
       </c>
-      <c r="W263" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -20248,11 +20245,11 @@
       <c r="V264">
         <v>1</v>
       </c>
-      <c r="W264" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -20316,11 +20313,11 @@
       <c r="V265">
         <v>1</v>
       </c>
-      <c r="W265" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -20384,11 +20381,11 @@
       <c r="V266">
         <v>1</v>
       </c>
-      <c r="W266" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -20452,11 +20449,11 @@
       <c r="V267">
         <v>1</v>
       </c>
-      <c r="W267" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -20520,11 +20517,11 @@
       <c r="V268">
         <v>0</v>
       </c>
-      <c r="W268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -20588,11 +20585,11 @@
       <c r="V269">
         <v>1</v>
       </c>
-      <c r="W269" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -20656,11 +20653,11 @@
       <c r="V270">
         <v>2</v>
       </c>
-      <c r="W270" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -20724,11 +20721,11 @@
       <c r="V271">
         <v>2</v>
       </c>
-      <c r="W271" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>288</v>
       </c>
@@ -20790,7 +20787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>291</v>
       </c>
@@ -20852,7 +20849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>292</v>
       </c>
@@ -20914,7 +20911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>293</v>
       </c>
@@ -20976,7 +20973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>294</v>
       </c>
@@ -21038,7 +21035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>295</v>
       </c>
@@ -21100,7 +21097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>296</v>
       </c>
@@ -21162,7 +21159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>297</v>
       </c>
@@ -21224,7 +21221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>298</v>
       </c>
@@ -21286,7 +21283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>299</v>
       </c>
@@ -21348,7 +21345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>300</v>
       </c>
@@ -21413,7 +21410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>301</v>
       </c>
@@ -21475,7 +21472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>302</v>
       </c>
@@ -21537,7 +21534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>303</v>
       </c>
@@ -21599,7 +21596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>304</v>
       </c>
@@ -21661,7 +21658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>305</v>
       </c>
@@ -21723,7 +21720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>306</v>
       </c>
@@ -21785,7 +21782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>307</v>
       </c>
@@ -21847,7 +21844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>308</v>
       </c>
@@ -21909,7 +21906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>309</v>
       </c>
@@ -21971,7 +21968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>310</v>
       </c>
@@ -22033,7 +22030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>311</v>
       </c>
@@ -22098,7 +22095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>312</v>
       </c>
@@ -22160,7 +22157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>313</v>
       </c>
@@ -22222,7 +22219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>314</v>
       </c>
@@ -22284,7 +22281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>315</v>
       </c>
@@ -22346,7 +22343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>316</v>
       </c>
@@ -22408,7 +22405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>317</v>
       </c>
@@ -22470,7 +22467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>318</v>
       </c>
@@ -22532,7 +22529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>319</v>
       </c>
@@ -22594,7 +22591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>320</v>
       </c>
@@ -22656,7 +22653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>321</v>
       </c>
@@ -22721,7 +22718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>322</v>
       </c>
@@ -22783,7 +22780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>323</v>
       </c>
@@ -22845,7 +22842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>324</v>
       </c>
@@ -22907,7 +22904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>325</v>
       </c>
@@ -22969,7 +22966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>326</v>
       </c>
@@ -23031,7 +23028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>327</v>
       </c>
@@ -23096,7 +23093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>328</v>
       </c>
@@ -23161,7 +23158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>329</v>
       </c>
@@ -23223,7 +23220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -23287,11 +23284,11 @@
       <c r="V312">
         <v>3</v>
       </c>
-      <c r="W312" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W312">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>331</v>
       </c>
@@ -23356,7 +23353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -23420,11 +23417,11 @@
       <c r="V314">
         <v>3</v>
       </c>
-      <c r="W314" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W314">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>333</v>
       </c>
@@ -23486,7 +23483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>334</v>
       </c>
@@ -23548,7 +23545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>335</v>
       </c>
@@ -23610,7 +23607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>336</v>
       </c>
@@ -23672,7 +23669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>337</v>
       </c>
@@ -23734,7 +23731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>338</v>
       </c>
@@ -23796,7 +23793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>339</v>
       </c>
@@ -23858,7 +23855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>340</v>
       </c>
@@ -23920,7 +23917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>341</v>
       </c>
@@ -23982,7 +23979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>342</v>
       </c>
@@ -24044,7 +24041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>343</v>
       </c>
@@ -24106,7 +24103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -24170,11 +24167,11 @@
       <c r="V326">
         <v>3</v>
       </c>
-      <c r="W326" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -24238,11 +24235,11 @@
       <c r="V327">
         <v>3</v>
       </c>
-      <c r="W327" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -24306,11 +24303,11 @@
       <c r="V328">
         <v>4</v>
       </c>
-      <c r="W328" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>347</v>
       </c>
@@ -24372,7 +24369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>348</v>
       </c>
@@ -24434,7 +24431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>349</v>
       </c>
@@ -24496,7 +24493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -24563,11 +24560,11 @@
       <c r="V332">
         <v>3</v>
       </c>
-      <c r="W332" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>351</v>
       </c>
@@ -24632,7 +24629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>352</v>
       </c>
@@ -24694,7 +24691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>353</v>
       </c>
@@ -24756,7 +24753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>354</v>
       </c>
@@ -24821,7 +24818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>355</v>
       </c>
@@ -24883,7 +24880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>356</v>
       </c>
@@ -24945,7 +24942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>357</v>
       </c>
@@ -25007,7 +25004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>358</v>
       </c>
@@ -25075,7 +25072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>359</v>
       </c>
@@ -25140,7 +25137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -25204,11 +25201,11 @@
       <c r="V342">
         <v>3</v>
       </c>
-      <c r="W342" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>361</v>
       </c>
@@ -25270,7 +25267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -25334,11 +25331,11 @@
       <c r="V344">
         <v>3</v>
       </c>
-      <c r="W344" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="345" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>363</v>
       </c>
@@ -25400,7 +25397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>364</v>
       </c>
@@ -25465,7 +25462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>365</v>
       </c>
@@ -25527,7 +25524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>366</v>
       </c>
@@ -25589,7 +25586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -25653,11 +25650,11 @@
       <c r="V349">
         <v>3</v>
       </c>
-      <c r="W349" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="350" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>368</v>
       </c>
@@ -25719,7 +25716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>369</v>
       </c>
@@ -25781,7 +25778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>370</v>
       </c>
@@ -25843,7 +25840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>371</v>
       </c>
@@ -25908,7 +25905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>372</v>
       </c>
@@ -25970,7 +25967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -26034,11 +26031,11 @@
       <c r="V355">
         <v>3</v>
       </c>
-      <c r="W355" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>374</v>
       </c>
@@ -26100,7 +26097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>375</v>
       </c>
@@ -26165,7 +26162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>376</v>
       </c>
@@ -26227,7 +26224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>379</v>
       </c>
@@ -26289,7 +26286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>380</v>
       </c>
@@ -26351,7 +26348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>381</v>
       </c>
@@ -26413,7 +26410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>382</v>
       </c>
@@ -26475,7 +26472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>383</v>
       </c>
@@ -26537,7 +26534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>384</v>
       </c>
@@ -26599,7 +26596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>385</v>
       </c>
@@ -26661,7 +26658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>386</v>
       </c>
@@ -26723,7 +26720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>387</v>
       </c>
@@ -26785,7 +26782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>388</v>
       </c>
@@ -26847,7 +26844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>389</v>
       </c>
@@ -26909,7 +26906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>390</v>
       </c>
@@ -26971,7 +26968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>653</v>
       </c>
@@ -27036,7 +27033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>391</v>
       </c>
@@ -27098,7 +27095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>392</v>
       </c>
@@ -27160,7 +27157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>393</v>
       </c>
@@ -27222,7 +27219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>394</v>
       </c>
@@ -27284,7 +27281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>395</v>
       </c>
@@ -27346,7 +27343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>396</v>
       </c>
@@ -27407,11 +27404,11 @@
       <c r="T377" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="U377" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U377" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>397</v>
       </c>
@@ -27473,7 +27470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>398</v>
       </c>
@@ -27535,7 +27532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>399</v>
       </c>
@@ -27597,7 +27594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>400</v>
       </c>
@@ -27659,7 +27656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>401</v>
       </c>
@@ -27721,7 +27718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>402</v>
       </c>
@@ -27783,7 +27780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>403</v>
       </c>
@@ -27845,7 +27842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>404</v>
       </c>
@@ -27907,7 +27904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>405</v>
       </c>
@@ -27969,7 +27966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>406</v>
       </c>
@@ -28031,7 +28028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>407</v>
       </c>
@@ -28093,7 +28090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>408</v>
       </c>
@@ -28155,7 +28152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>409</v>
       </c>
@@ -28217,7 +28214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>410</v>
       </c>
@@ -28279,7 +28276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>411</v>
       </c>
@@ -28341,7 +28338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>412</v>
       </c>
@@ -28406,7 +28403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>413</v>
       </c>
@@ -28468,7 +28465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>414</v>
       </c>
@@ -28530,7 +28527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>415</v>
       </c>
@@ -28595,7 +28592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>416</v>
       </c>
@@ -28657,7 +28654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>417</v>
       </c>
@@ -28719,7 +28716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>418</v>
       </c>
@@ -28781,7 +28778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>419</v>
       </c>
@@ -28846,7 +28843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>420</v>
       </c>
@@ -28908,7 +28905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>421</v>
       </c>
@@ -28970,7 +28967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>422</v>
       </c>
@@ -29032,7 +29029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>423</v>
       </c>
@@ -29094,7 +29091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>424</v>
       </c>
@@ -29156,7 +29153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>425</v>
       </c>
@@ -29218,7 +29215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>426</v>
       </c>
@@ -29280,7 +29277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>427</v>
       </c>
@@ -29342,7 +29339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>428</v>
       </c>
@@ -29404,7 +29401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>429</v>
       </c>
@@ -29466,7 +29463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>430</v>
       </c>
@@ -29528,7 +29525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>431</v>
       </c>
@@ -29590,7 +29587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>432</v>
       </c>
@@ -29652,7 +29649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>433</v>
       </c>
@@ -29714,7 +29711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>434</v>
       </c>
@@ -29776,7 +29773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>435</v>
       </c>
@@ -29838,7 +29835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>436</v>
       </c>
@@ -29900,7 +29897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>437</v>
       </c>
@@ -29962,7 +29959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>438</v>
       </c>
@@ -30024,7 +30021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>439</v>
       </c>
@@ -30086,7 +30083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>440</v>
       </c>
@@ -30148,7 +30145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>441</v>
       </c>
@@ -30210,7 +30207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>442</v>
       </c>
@@ -30272,7 +30269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>443</v>
       </c>
@@ -30334,7 +30331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>444</v>
       </c>
@@ -30399,7 +30396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>445</v>
       </c>
@@ -30461,7 +30458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>446</v>
       </c>
@@ -30523,7 +30520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>447</v>
       </c>
@@ -30585,7 +30582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>448</v>
       </c>
@@ -30647,7 +30644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>449</v>
       </c>
@@ -30709,7 +30706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -30776,11 +30773,11 @@
       <c r="V431" t="s">
         <v>646</v>
       </c>
-      <c r="W431" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="432" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W431" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>451</v>
       </c>
@@ -30842,7 +30839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>452</v>
       </c>
@@ -30904,7 +30901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>453</v>
       </c>
@@ -30966,7 +30963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>454</v>
       </c>
@@ -31031,7 +31028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>455</v>
       </c>
@@ -31093,7 +31090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>456</v>
       </c>
@@ -31155,7 +31152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>457</v>
       </c>
@@ -31217,7 +31214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>458</v>
       </c>
@@ -31279,7 +31276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -31343,11 +31340,11 @@
       <c r="V440" s="5">
         <v>1</v>
       </c>
-      <c r="W440" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W440" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>462</v>
       </c>
@@ -31411,11 +31408,11 @@
       <c r="V441" s="6">
         <v>2</v>
       </c>
-      <c r="W441" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W441" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>463</v>
       </c>
@@ -31479,11 +31476,11 @@
       <c r="V442">
         <v>1</v>
       </c>
-      <c r="W442" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>464</v>
       </c>
@@ -31547,11 +31544,11 @@
       <c r="V443">
         <v>2</v>
       </c>
-      <c r="W443" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>465</v>
       </c>
@@ -31615,11 +31612,11 @@
       <c r="V444">
         <v>2</v>
       </c>
-      <c r="W444" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -31683,11 +31680,11 @@
       <c r="V445">
         <v>3</v>
       </c>
-      <c r="W445" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -31751,11 +31748,11 @@
       <c r="V446">
         <v>3</v>
       </c>
-      <c r="W446" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -31819,11 +31816,11 @@
       <c r="V447">
         <v>3</v>
       </c>
-      <c r="W447" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -31887,11 +31884,11 @@
       <c r="V448">
         <v>2</v>
       </c>
-      <c r="W448" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -31955,11 +31952,11 @@
       <c r="V449">
         <v>3</v>
       </c>
-      <c r="W449" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -32026,11 +32023,11 @@
       <c r="V450">
         <v>1</v>
       </c>
-      <c r="W450" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -32097,11 +32094,11 @@
       <c r="V451">
         <v>2</v>
       </c>
-      <c r="W451" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -32168,11 +32165,11 @@
       <c r="V452">
         <v>1</v>
       </c>
-      <c r="W452" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -32236,11 +32233,11 @@
       <c r="V453">
         <v>1</v>
       </c>
-      <c r="W453" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -32304,11 +32301,11 @@
       <c r="V454">
         <v>2</v>
       </c>
-      <c r="W454" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -32372,11 +32369,11 @@
       <c r="V455">
         <v>3</v>
       </c>
-      <c r="W455" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -32440,11 +32437,11 @@
       <c r="V456">
         <v>3</v>
       </c>
-      <c r="W456" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -32508,11 +32505,11 @@
       <c r="V457">
         <v>3</v>
       </c>
-      <c r="W457" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -32576,11 +32573,11 @@
       <c r="V458">
         <v>2</v>
       </c>
-      <c r="W458" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -32644,11 +32641,11 @@
       <c r="V459">
         <v>3</v>
       </c>
-      <c r="W459" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -32712,11 +32709,11 @@
       <c r="V460">
         <v>3</v>
       </c>
-      <c r="W460" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -32780,11 +32777,11 @@
       <c r="V461">
         <v>2</v>
       </c>
-      <c r="W461" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -32848,11 +32845,11 @@
       <c r="V462">
         <v>3</v>
       </c>
-      <c r="W462" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -32916,11 +32913,11 @@
       <c r="V463">
         <v>2</v>
       </c>
-      <c r="W463" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -32984,11 +32981,11 @@
       <c r="V464">
         <v>2</v>
       </c>
-      <c r="W464" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W464">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -33052,11 +33049,11 @@
       <c r="V465">
         <v>1</v>
       </c>
-      <c r="W465" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -33120,11 +33117,11 @@
       <c r="V466">
         <v>3</v>
       </c>
-      <c r="W466" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W466">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -33188,11 +33185,11 @@
       <c r="V467">
         <v>2</v>
       </c>
-      <c r="W467" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -33256,11 +33253,11 @@
       <c r="V468">
         <v>2</v>
       </c>
-      <c r="W468" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -33327,11 +33324,11 @@
       <c r="V469">
         <v>1</v>
       </c>
-      <c r="W469" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -33395,11 +33392,11 @@
       <c r="V470">
         <v>1</v>
       </c>
-      <c r="W470" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -33466,11 +33463,11 @@
       <c r="V471">
         <v>1</v>
       </c>
-      <c r="W471" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -33534,11 +33531,11 @@
       <c r="V472">
         <v>1</v>
       </c>
-      <c r="W472" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -33602,11 +33599,11 @@
       <c r="V473">
         <v>0</v>
       </c>
-      <c r="W473" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -33670,11 +33667,11 @@
       <c r="V474">
         <v>1</v>
       </c>
-      <c r="W474" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -33738,11 +33735,11 @@
       <c r="V475">
         <v>2</v>
       </c>
-      <c r="W475" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -33806,11 +33803,11 @@
       <c r="V476">
         <v>0</v>
       </c>
-      <c r="W476" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -33874,11 +33871,11 @@
       <c r="V477">
         <v>1</v>
       </c>
-      <c r="W477" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -33942,11 +33939,11 @@
       <c r="V478">
         <v>1</v>
       </c>
-      <c r="W478" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -34010,11 +34007,11 @@
       <c r="V479">
         <v>1</v>
       </c>
-      <c r="W479" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -34081,11 +34078,11 @@
       <c r="V480">
         <v>1</v>
       </c>
-      <c r="W480" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -34152,11 +34149,11 @@
       <c r="V481">
         <v>1</v>
       </c>
-      <c r="W481" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -34220,11 +34217,11 @@
       <c r="V482">
         <v>0</v>
       </c>
-      <c r="W482" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -34288,11 +34285,11 @@
       <c r="V483">
         <v>3</v>
       </c>
-      <c r="W483" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W483">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -34356,11 +34353,11 @@
       <c r="V484">
         <v>3</v>
       </c>
-      <c r="W484" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -34424,11 +34421,11 @@
       <c r="V485">
         <v>2</v>
       </c>
-      <c r="W485" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -34492,11 +34489,11 @@
       <c r="V486">
         <v>1</v>
       </c>
-      <c r="W486" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -34560,11 +34557,11 @@
       <c r="V487">
         <v>3</v>
       </c>
-      <c r="W487" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -34628,11 +34625,11 @@
       <c r="V488">
         <v>3</v>
       </c>
-      <c r="W488" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -34696,11 +34693,11 @@
       <c r="V489">
         <v>2</v>
       </c>
-      <c r="W489" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -34764,11 +34761,11 @@
       <c r="V490">
         <v>3</v>
       </c>
-      <c r="W490" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -34832,11 +34829,11 @@
       <c r="V491">
         <v>3</v>
       </c>
-      <c r="W491" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -34900,11 +34897,11 @@
       <c r="V492">
         <v>3</v>
       </c>
-      <c r="W492" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -34968,11 +34965,11 @@
       <c r="V493">
         <v>3</v>
       </c>
-      <c r="W493" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W493">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -35036,11 +35033,11 @@
       <c r="V494">
         <v>1</v>
       </c>
-      <c r="W494" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -35104,11 +35101,11 @@
       <c r="V495">
         <v>2</v>
       </c>
-      <c r="W495" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -35172,11 +35169,11 @@
       <c r="V496">
         <v>1</v>
       </c>
-      <c r="W496" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -35243,11 +35240,11 @@
       <c r="V497">
         <v>1</v>
       </c>
-      <c r="W497" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -35311,11 +35308,11 @@
       <c r="V498">
         <v>3</v>
       </c>
-      <c r="W498" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W498">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -35379,11 +35376,11 @@
       <c r="V499">
         <v>1</v>
       </c>
-      <c r="W499" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -35447,11 +35444,11 @@
       <c r="V500">
         <v>2</v>
       </c>
-      <c r="W500" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -35515,11 +35512,11 @@
       <c r="V501">
         <v>1</v>
       </c>
-      <c r="W501" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -35583,11 +35580,11 @@
       <c r="V502">
         <v>1</v>
       </c>
-      <c r="W502" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -35651,11 +35648,11 @@
       <c r="V503">
         <v>3</v>
       </c>
-      <c r="W503" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W503">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -35722,11 +35719,11 @@
       <c r="V504">
         <v>0</v>
       </c>
-      <c r="W504" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -35790,11 +35787,11 @@
       <c r="V505">
         <v>1</v>
       </c>
-      <c r="W505" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -35858,11 +35855,11 @@
       <c r="V506">
         <v>2</v>
       </c>
-      <c r="W506" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -35926,11 +35923,11 @@
       <c r="V507">
         <v>0</v>
       </c>
-      <c r="W507" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -35994,11 +35991,11 @@
       <c r="V508">
         <v>1</v>
       </c>
-      <c r="W508" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -36062,11 +36059,11 @@
       <c r="V509">
         <v>1</v>
       </c>
-      <c r="W509" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -36130,11 +36127,11 @@
       <c r="V510">
         <v>1</v>
       </c>
-      <c r="W510" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -36198,11 +36195,11 @@
       <c r="V511">
         <v>1</v>
       </c>
-      <c r="W511" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -36266,11 +36263,11 @@
       <c r="V512">
         <v>2</v>
       </c>
-      <c r="W512" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -36334,11 +36331,11 @@
       <c r="V513">
         <v>1</v>
       </c>
-      <c r="W513" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -36402,11 +36399,11 @@
       <c r="V514">
         <v>0</v>
       </c>
-      <c r="W514" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -36470,11 +36467,11 @@
       <c r="V515">
         <v>2</v>
       </c>
-      <c r="W515" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -36538,11 +36535,11 @@
       <c r="V516">
         <v>3</v>
       </c>
-      <c r="W516" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W516">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -36606,11 +36603,11 @@
       <c r="V517">
         <v>2</v>
       </c>
-      <c r="W517" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -36674,11 +36671,11 @@
       <c r="V518">
         <v>1</v>
       </c>
-      <c r="W518" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -36742,11 +36739,11 @@
       <c r="V519">
         <v>1</v>
       </c>
-      <c r="W519" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -36810,11 +36807,11 @@
       <c r="V520">
         <v>3</v>
       </c>
-      <c r="W520" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -36878,11 +36875,11 @@
       <c r="V521">
         <v>1</v>
       </c>
-      <c r="W521" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -36946,11 +36943,11 @@
       <c r="V522">
         <v>1</v>
       </c>
-      <c r="W522" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -37017,11 +37014,11 @@
       <c r="V523">
         <v>1</v>
       </c>
-      <c r="W523" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -37088,11 +37085,11 @@
       <c r="V524">
         <v>1</v>
       </c>
-      <c r="W524" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -37156,11 +37153,11 @@
       <c r="V525">
         <v>1</v>
       </c>
-      <c r="W525" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -37224,11 +37221,11 @@
       <c r="V526">
         <v>1</v>
       </c>
-      <c r="W526" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -37292,11 +37289,11 @@
       <c r="V527">
         <v>2</v>
       </c>
-      <c r="W527" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -37333,9 +37330,8 @@
       <c r="M528">
         <v>0</v>
       </c>
-      <c r="W528" s="7"/>
-    </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>552</v>
       </c>
@@ -37372,9 +37368,8 @@
       <c r="M529">
         <v>0</v>
       </c>
-      <c r="W529" s="7"/>
-    </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>553</v>
       </c>
@@ -37411,9 +37406,8 @@
       <c r="M530">
         <v>0</v>
       </c>
-      <c r="W530" s="7"/>
-    </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>554</v>
       </c>
@@ -37450,9 +37444,8 @@
       <c r="M531">
         <v>0</v>
       </c>
-      <c r="W531" s="7"/>
-    </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>555</v>
       </c>
@@ -37489,9 +37482,8 @@
       <c r="M532">
         <v>0</v>
       </c>
-      <c r="W532" s="7"/>
-    </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>556</v>
       </c>
@@ -37528,9 +37520,8 @@
       <c r="M533">
         <v>0</v>
       </c>
-      <c r="W533" s="7"/>
-    </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>557</v>
       </c>
@@ -37567,9 +37558,8 @@
       <c r="M534">
         <v>0</v>
       </c>
-      <c r="W534" s="7"/>
-    </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>558</v>
       </c>
@@ -37606,9 +37596,8 @@
       <c r="M535">
         <v>0</v>
       </c>
-      <c r="W535" s="7"/>
-    </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>559</v>
       </c>
@@ -37645,9 +37634,8 @@
       <c r="M536">
         <v>0</v>
       </c>
-      <c r="W536" s="7"/>
-    </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -37684,9 +37672,8 @@
       <c r="M537">
         <v>0</v>
       </c>
-      <c r="W537" s="7"/>
-    </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>561</v>
       </c>
@@ -37723,9 +37710,8 @@
       <c r="M538">
         <v>0</v>
       </c>
-      <c r="W538" s="7"/>
-    </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>562</v>
       </c>
@@ -37762,9 +37748,8 @@
       <c r="M539">
         <v>0</v>
       </c>
-      <c r="W539" s="7"/>
-    </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -37801,9 +37786,8 @@
       <c r="M540">
         <v>0</v>
       </c>
-      <c r="W540" s="7"/>
-    </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>564</v>
       </c>
@@ -37840,9 +37824,8 @@
       <c r="M541">
         <v>0</v>
       </c>
-      <c r="W541" s="7"/>
-    </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>565</v>
       </c>
@@ -37879,9 +37862,8 @@
       <c r="M542">
         <v>0</v>
       </c>
-      <c r="W542" s="7"/>
-    </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>566</v>
       </c>
@@ -37918,9 +37900,8 @@
       <c r="M543">
         <v>0</v>
       </c>
-      <c r="W543" s="7"/>
-    </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>567</v>
       </c>
@@ -37957,9 +37938,8 @@
       <c r="M544">
         <v>0</v>
       </c>
-      <c r="W544" s="7"/>
-    </row>
-    <row r="545" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>568</v>
       </c>
@@ -37996,9 +37976,8 @@
       <c r="M545">
         <v>0</v>
       </c>
-      <c r="W545" s="7"/>
-    </row>
-    <row r="546" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>569</v>
       </c>
@@ -38035,9 +38014,8 @@
       <c r="M546">
         <v>0</v>
       </c>
-      <c r="W546" s="7"/>
-    </row>
-    <row r="547" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>570</v>
       </c>
@@ -38074,9 +38052,8 @@
       <c r="M547">
         <v>0</v>
       </c>
-      <c r="W547" s="7"/>
-    </row>
-    <row r="548" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>571</v>
       </c>
@@ -38113,9 +38090,8 @@
       <c r="M548">
         <v>0</v>
       </c>
-      <c r="W548" s="7"/>
-    </row>
-    <row r="549" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>572</v>
       </c>
@@ -38152,9 +38128,8 @@
       <c r="M549">
         <v>0</v>
       </c>
-      <c r="W549" s="7"/>
-    </row>
-    <row r="550" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>573</v>
       </c>
@@ -38191,9 +38166,8 @@
       <c r="M550">
         <v>0</v>
       </c>
-      <c r="W550" s="7"/>
-    </row>
-    <row r="551" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>574</v>
       </c>
@@ -38230,9 +38204,8 @@
       <c r="M551">
         <v>0</v>
       </c>
-      <c r="W551" s="7"/>
-    </row>
-    <row r="552" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>575</v>
       </c>
@@ -38269,9 +38242,8 @@
       <c r="M552">
         <v>0</v>
       </c>
-      <c r="W552" s="7"/>
-    </row>
-    <row r="553" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>576</v>
       </c>
@@ -38308,9 +38280,8 @@
       <c r="M553">
         <v>0</v>
       </c>
-      <c r="W553" s="7"/>
-    </row>
-    <row r="554" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>577</v>
       </c>
@@ -38347,9 +38318,8 @@
       <c r="M554">
         <v>0</v>
       </c>
-      <c r="W554" s="7"/>
-    </row>
-    <row r="555" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>578</v>
       </c>
@@ -38386,9 +38356,8 @@
       <c r="M555">
         <v>0</v>
       </c>
-      <c r="W555" s="7"/>
-    </row>
-    <row r="556" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>579</v>
       </c>
@@ -38425,9 +38394,8 @@
       <c r="M556">
         <v>0</v>
       </c>
-      <c r="W556" s="7"/>
-    </row>
-    <row r="557" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>580</v>
       </c>
@@ -38464,9 +38432,8 @@
       <c r="M557">
         <v>0</v>
       </c>
-      <c r="W557" s="7"/>
-    </row>
-    <row r="558" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>581</v>
       </c>
@@ -38503,9 +38470,8 @@
       <c r="M558">
         <v>0</v>
       </c>
-      <c r="W558" s="7"/>
-    </row>
-    <row r="559" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>582</v>
       </c>
@@ -38542,9 +38508,8 @@
       <c r="M559">
         <v>0</v>
       </c>
-      <c r="W559" s="7"/>
-    </row>
-    <row r="560" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>583</v>
       </c>
@@ -38581,9 +38546,8 @@
       <c r="M560">
         <v>0</v>
       </c>
-      <c r="W560" s="7"/>
-    </row>
-    <row r="561" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>584</v>
       </c>
@@ -38620,9 +38584,8 @@
       <c r="M561">
         <v>0</v>
       </c>
-      <c r="W561" s="7"/>
-    </row>
-    <row r="562" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>585</v>
       </c>
@@ -38659,9 +38622,8 @@
       <c r="M562">
         <v>0</v>
       </c>
-      <c r="W562" s="7"/>
-    </row>
-    <row r="563" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>586</v>
       </c>
@@ -38698,9 +38660,8 @@
       <c r="M563">
         <v>0</v>
       </c>
-      <c r="W563" s="7"/>
-    </row>
-    <row r="564" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>587</v>
       </c>
@@ -38737,9 +38698,8 @@
       <c r="M564">
         <v>0</v>
       </c>
-      <c r="W564" s="7"/>
-    </row>
-    <row r="565" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>588</v>
       </c>
@@ -38776,9 +38736,8 @@
       <c r="M565">
         <v>0</v>
       </c>
-      <c r="W565" s="7"/>
-    </row>
-    <row r="566" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>589</v>
       </c>
@@ -38815,9 +38774,8 @@
       <c r="M566">
         <v>0</v>
       </c>
-      <c r="W566" s="7"/>
-    </row>
-    <row r="567" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>590</v>
       </c>
@@ -38854,9 +38812,8 @@
       <c r="M567">
         <v>0</v>
       </c>
-      <c r="W567" s="7"/>
-    </row>
-    <row r="568" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>591</v>
       </c>
@@ -38893,9 +38850,8 @@
       <c r="M568">
         <v>0</v>
       </c>
-      <c r="W568" s="7"/>
-    </row>
-    <row r="569" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>592</v>
       </c>
@@ -38932,9 +38888,8 @@
       <c r="M569">
         <v>0</v>
       </c>
-      <c r="W569" s="7"/>
-    </row>
-    <row r="570" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>593</v>
       </c>
@@ -38971,9 +38926,8 @@
       <c r="M570">
         <v>0</v>
       </c>
-      <c r="W570" s="7"/>
-    </row>
-    <row r="571" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>594</v>
       </c>
@@ -39010,9 +38964,8 @@
       <c r="M571">
         <v>0</v>
       </c>
-      <c r="W571" s="7"/>
-    </row>
-    <row r="572" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>595</v>
       </c>
@@ -39049,9 +39002,8 @@
       <c r="M572">
         <v>0</v>
       </c>
-      <c r="W572" s="7"/>
-    </row>
-    <row r="573" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>596</v>
       </c>
@@ -39088,9 +39040,8 @@
       <c r="M573">
         <v>0</v>
       </c>
-      <c r="W573" s="7"/>
-    </row>
-    <row r="574" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>597</v>
       </c>
@@ -39127,9 +39078,8 @@
       <c r="M574">
         <v>0</v>
       </c>
-      <c r="W574" s="7"/>
-    </row>
-    <row r="575" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>598</v>
       </c>
@@ -39166,9 +39116,8 @@
       <c r="M575">
         <v>0</v>
       </c>
-      <c r="W575" s="7"/>
-    </row>
-    <row r="576" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>599</v>
       </c>
@@ -39205,9 +39154,8 @@
       <c r="M576">
         <v>0</v>
       </c>
-      <c r="W576" s="7"/>
-    </row>
-    <row r="577" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>600</v>
       </c>
@@ -39244,9 +39192,8 @@
       <c r="M577">
         <v>0</v>
       </c>
-      <c r="W577" s="7"/>
-    </row>
-    <row r="578" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>601</v>
       </c>
@@ -39283,9 +39230,8 @@
       <c r="M578">
         <v>0</v>
       </c>
-      <c r="W578" s="7"/>
-    </row>
-    <row r="579" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>602</v>
       </c>
@@ -39322,9 +39268,8 @@
       <c r="M579">
         <v>0</v>
       </c>
-      <c r="W579" s="7"/>
-    </row>
-    <row r="580" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>603</v>
       </c>
@@ -39361,9 +39306,8 @@
       <c r="M580">
         <v>0</v>
       </c>
-      <c r="W580" s="7"/>
-    </row>
-    <row r="581" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>604</v>
       </c>
@@ -39400,9 +39344,8 @@
       <c r="M581">
         <v>0</v>
       </c>
-      <c r="W581" s="7"/>
-    </row>
-    <row r="582" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>605</v>
       </c>
@@ -39439,9 +39382,8 @@
       <c r="M582">
         <v>0</v>
       </c>
-      <c r="W582" s="7"/>
-    </row>
-    <row r="583" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>606</v>
       </c>
@@ -39478,9 +39420,8 @@
       <c r="M583">
         <v>0</v>
       </c>
-      <c r="W583" s="7"/>
-    </row>
-    <row r="584" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>607</v>
       </c>
@@ -39517,9 +39458,8 @@
       <c r="M584">
         <v>0</v>
       </c>
-      <c r="W584" s="7"/>
-    </row>
-    <row r="585" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>608</v>
       </c>
@@ -39556,9 +39496,8 @@
       <c r="M585">
         <v>0</v>
       </c>
-      <c r="W585" s="7"/>
-    </row>
-    <row r="586" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>609</v>
       </c>
@@ -39595,9 +39534,8 @@
       <c r="M586">
         <v>0</v>
       </c>
-      <c r="W586" s="7"/>
-    </row>
-    <row r="587" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>610</v>
       </c>
@@ -39634,9 +39572,8 @@
       <c r="M587">
         <v>0</v>
       </c>
-      <c r="W587" s="7"/>
-    </row>
-    <row r="588" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>611</v>
       </c>
@@ -39673,9 +39610,8 @@
       <c r="M588">
         <v>0</v>
       </c>
-      <c r="W588" s="7"/>
-    </row>
-    <row r="589" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>612</v>
       </c>
@@ -39712,9 +39648,8 @@
       <c r="M589">
         <v>0</v>
       </c>
-      <c r="W589" s="7"/>
-    </row>
-    <row r="590" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>613</v>
       </c>
@@ -39751,9 +39686,8 @@
       <c r="M590">
         <v>0</v>
       </c>
-      <c r="W590" s="7"/>
-    </row>
-    <row r="591" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>614</v>
       </c>
@@ -39790,9 +39724,8 @@
       <c r="M591">
         <v>0</v>
       </c>
-      <c r="W591" s="7"/>
-    </row>
-    <row r="592" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>615</v>
       </c>
@@ -39829,9 +39762,8 @@
       <c r="M592">
         <v>0</v>
       </c>
-      <c r="W592" s="7"/>
-    </row>
-    <row r="593" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -39868,9 +39800,8 @@
       <c r="M593">
         <v>0</v>
       </c>
-      <c r="W593" s="7"/>
-    </row>
-    <row r="594" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>617</v>
       </c>
@@ -39907,9 +39838,8 @@
       <c r="M594">
         <v>0</v>
       </c>
-      <c r="W594" s="7"/>
-    </row>
-    <row r="595" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>618</v>
       </c>
@@ -39946,9 +39876,8 @@
       <c r="M595">
         <v>0</v>
       </c>
-      <c r="W595" s="7"/>
-    </row>
-    <row r="596" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>619</v>
       </c>
@@ -39985,9 +39914,8 @@
       <c r="M596">
         <v>0</v>
       </c>
-      <c r="W596" s="7"/>
-    </row>
-    <row r="597" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>620</v>
       </c>
@@ -40024,9 +39952,8 @@
       <c r="M597">
         <v>0</v>
       </c>
-      <c r="W597" s="7"/>
-    </row>
-    <row r="598" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>621</v>
       </c>
@@ -40063,9 +39990,8 @@
       <c r="M598">
         <v>0</v>
       </c>
-      <c r="W598" s="7"/>
-    </row>
-    <row r="599" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>622</v>
       </c>
@@ -40102,9 +40028,8 @@
       <c r="M599">
         <v>0</v>
       </c>
-      <c r="W599" s="7"/>
-    </row>
-    <row r="600" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>623</v>
       </c>
@@ -40141,9 +40066,8 @@
       <c r="M600">
         <v>0</v>
       </c>
-      <c r="W600" s="7"/>
-    </row>
-    <row r="601" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>624</v>
       </c>
@@ -40180,9 +40104,8 @@
       <c r="M601">
         <v>0</v>
       </c>
-      <c r="W601" s="7"/>
-    </row>
-    <row r="602" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>625</v>
       </c>
@@ -40219,9 +40142,8 @@
       <c r="M602">
         <v>0</v>
       </c>
-      <c r="W602" s="7"/>
-    </row>
-    <row r="603" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>626</v>
       </c>
@@ -40258,9 +40180,8 @@
       <c r="M603">
         <v>0</v>
       </c>
-      <c r="W603" s="7"/>
-    </row>
-    <row r="604" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>627</v>
       </c>
@@ -40297,9 +40218,8 @@
       <c r="M604">
         <v>0</v>
       </c>
-      <c r="W604" s="7"/>
-    </row>
-    <row r="605" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>628</v>
       </c>
@@ -40336,9 +40256,8 @@
       <c r="M605">
         <v>0</v>
       </c>
-      <c r="W605" s="7"/>
-    </row>
-    <row r="606" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>629</v>
       </c>
@@ -40375,9 +40294,8 @@
       <c r="M606">
         <v>0</v>
       </c>
-      <c r="W606" s="7"/>
-    </row>
-    <row r="607" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>630</v>
       </c>
@@ -40414,9 +40332,8 @@
       <c r="M607">
         <v>0</v>
       </c>
-      <c r="W607" s="7"/>
-    </row>
-    <row r="608" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>631</v>
       </c>
@@ -40453,9 +40370,8 @@
       <c r="M608">
         <v>0</v>
       </c>
-      <c r="W608" s="7"/>
-    </row>
-    <row r="609" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>632</v>
       </c>
@@ -40492,9 +40408,8 @@
       <c r="M609">
         <v>0</v>
       </c>
-      <c r="W609" s="7"/>
-    </row>
-    <row r="610" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>633</v>
       </c>
@@ -40531,9 +40446,8 @@
       <c r="M610">
         <v>0</v>
       </c>
-      <c r="W610" s="7"/>
-    </row>
-    <row r="611" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>634</v>
       </c>
@@ -40570,9 +40484,8 @@
       <c r="M611">
         <v>0</v>
       </c>
-      <c r="W611" s="7"/>
-    </row>
-    <row r="612" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>635</v>
       </c>
@@ -40609,9 +40522,8 @@
       <c r="M612">
         <v>0</v>
       </c>
-      <c r="W612" s="7"/>
-    </row>
-    <row r="613" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>636</v>
       </c>
@@ -40648,9 +40560,8 @@
       <c r="M613">
         <v>0</v>
       </c>
-      <c r="W613" s="7"/>
-    </row>
-    <row r="614" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>637</v>
       </c>
@@ -40687,9 +40598,8 @@
       <c r="M614">
         <v>0</v>
       </c>
-      <c r="W614" s="7"/>
-    </row>
-    <row r="615" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>638</v>
       </c>
@@ -40726,9 +40636,8 @@
       <c r="M615">
         <v>0</v>
       </c>
-      <c r="W615" s="7"/>
-    </row>
-    <row r="616" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>639</v>
       </c>
@@ -40765,9 +40674,8 @@
       <c r="M616">
         <v>0</v>
       </c>
-      <c r="W616" s="7"/>
-    </row>
-    <row r="617" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>640</v>
       </c>
@@ -40804,7 +40712,6 @@
       <c r="M617">
         <v>0</v>
       </c>
-      <c r="W617" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Michiko Samson\Documents\Temporal Ecology Lab\fuelinex\data\monitoringPhenology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F51C3D9-6B36-224F-AF87-2A51037C0133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07E125-BA79-4010-8B8C-B82557427705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="674">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2055,6 +2055,9 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>114</t>
   </si>
 </sst>
 </file>
@@ -2580,7 +2583,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2588,6 +2591,7 @@
     <xf numFmtId="1" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2633,7 +2637,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2848,32 +2860,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:W617" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:W617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:X617" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:X617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{610971E3-31C1-49BD-9286-F131BA379911}" name="114" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3196,20 +3209,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W617"/>
+  <dimension ref="A1:X617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V542" sqref="V542"/>
+    <sheetView tabSelected="1" topLeftCell="A510" zoomScale="98" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X528" sqref="X528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3279,8 +3292,11 @@
       <c r="W1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="7" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3404,7 +3420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3528,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3590,7 +3606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3652,7 +3668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3779,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3841,7 +3857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3903,7 +3919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3965,7 +3981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -4030,7 +4046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -4092,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -4219,7 +4235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -4281,7 +4297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4343,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -4405,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -4467,7 +4483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -4532,7 +4548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -4594,7 +4610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -4656,7 +4672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -4721,7 +4737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4783,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -4845,7 +4861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -4907,7 +4923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -4969,7 +4985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -5034,7 +5050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -5096,7 +5112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -5158,7 +5174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -5220,7 +5236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -5282,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -5344,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -5409,7 +5425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -5474,7 +5490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5539,7 +5555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5601,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -5663,7 +5679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -5728,7 +5744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -5790,7 +5806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -5852,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -5917,7 +5933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -5982,7 +5998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -6047,7 +6063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -6112,7 +6128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -6174,7 +6190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -6239,7 +6255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -6301,7 +6317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -6363,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -6425,7 +6441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -6487,7 +6503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -6549,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
@@ -6611,7 +6627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -6673,7 +6689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -6735,7 +6751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -6797,7 +6813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -6859,7 +6875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -6921,7 +6937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -6983,7 +6999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -7045,7 +7061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -7110,7 +7126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -7177,8 +7193,11 @@
       <c r="W63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X63" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -7240,7 +7259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -7302,7 +7321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -7367,7 +7386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -7432,7 +7451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
@@ -7497,7 +7516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -7559,7 +7578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
@@ -7621,7 +7640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
@@ -7683,7 +7702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -7745,7 +7764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -7807,7 +7826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -7869,7 +7888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7936,8 +7955,11 @@
       <c r="W75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X75" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -7999,7 +8021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -8061,7 +8083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -8126,7 +8148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -8188,7 +8210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -8250,7 +8272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
@@ -8312,7 +8334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
@@ -8377,7 +8399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
@@ -8439,7 +8461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -8501,7 +8523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
@@ -8563,7 +8585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -8628,7 +8650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -8690,7 +8712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -8752,7 +8774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -8814,7 +8836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -8879,7 +8901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -8944,7 +8966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -9006,7 +9028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>107</v>
       </c>
@@ -9068,7 +9090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>108</v>
       </c>
@@ -9130,7 +9152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>109</v>
       </c>
@@ -9192,7 +9214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>110</v>
       </c>
@@ -9254,7 +9276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -9316,7 +9338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -9378,7 +9400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>113</v>
       </c>
@@ -9440,7 +9462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>114</v>
       </c>
@@ -9502,7 +9524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>115</v>
       </c>
@@ -9564,7 +9586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -9626,7 +9648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -9693,8 +9715,11 @@
       <c r="W103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X103" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>118</v>
       </c>
@@ -9759,7 +9784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>119</v>
       </c>
@@ -9821,7 +9846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
@@ -9883,7 +9908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>121</v>
       </c>
@@ -9945,7 +9970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>122</v>
       </c>
@@ -10007,7 +10032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
@@ -10069,7 +10094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>124</v>
       </c>
@@ -10131,7 +10156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>125</v>
       </c>
@@ -10193,7 +10218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>126</v>
       </c>
@@ -10255,7 +10280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>127</v>
       </c>
@@ -10317,7 +10342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>128</v>
       </c>
@@ -10379,7 +10404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>129</v>
       </c>
@@ -10441,7 +10466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>130</v>
       </c>
@@ -10503,7 +10528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>131</v>
       </c>
@@ -10568,7 +10593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>132</v>
       </c>
@@ -10630,7 +10655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>133</v>
       </c>
@@ -10692,7 +10717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
@@ -10754,7 +10779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>135</v>
       </c>
@@ -10816,7 +10841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
@@ -10878,7 +10903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>137</v>
       </c>
@@ -10940,7 +10965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>138</v>
       </c>
@@ -11002,75 +11027,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <v>1</v>
-      </c>
-      <c r="R125">
-        <v>2</v>
-      </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>3</v>
-      </c>
-      <c r="V125">
-        <v>3</v>
-      </c>
-      <c r="W125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0</v>
+      </c>
+      <c r="J125" s="3">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
+      </c>
+      <c r="L125" s="3">
+        <v>0</v>
+      </c>
+      <c r="M125" s="3">
+        <v>0</v>
+      </c>
+      <c r="N125" s="3">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3">
+        <v>0</v>
+      </c>
+      <c r="P125" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="3">
+        <v>1</v>
+      </c>
+      <c r="R125" s="3">
+        <v>2</v>
+      </c>
+      <c r="S125" s="3">
+        <v>2</v>
+      </c>
+      <c r="T125" s="3">
+        <v>2</v>
+      </c>
+      <c r="U125" s="3">
+        <v>3</v>
+      </c>
+      <c r="V125" s="3">
+        <v>3</v>
+      </c>
+      <c r="W125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>140</v>
       </c>
@@ -11132,7 +11157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>141</v>
       </c>
@@ -11194,7 +11219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>142</v>
       </c>
@@ -11256,7 +11281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>143</v>
       </c>
@@ -11318,75 +11343,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-      <c r="P130">
-        <v>1</v>
-      </c>
-      <c r="Q130">
-        <v>2</v>
-      </c>
-      <c r="R130">
-        <v>2</v>
-      </c>
-      <c r="S130">
-        <v>2</v>
-      </c>
-      <c r="T130">
-        <v>3</v>
-      </c>
-      <c r="U130">
-        <v>3</v>
-      </c>
-      <c r="V130">
-        <v>3</v>
-      </c>
-      <c r="W130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
+      </c>
+      <c r="L130" s="3">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3">
+        <v>0</v>
+      </c>
+      <c r="N130" s="3">
+        <v>0</v>
+      </c>
+      <c r="O130" s="3">
+        <v>1</v>
+      </c>
+      <c r="P130" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="3">
+        <v>2</v>
+      </c>
+      <c r="R130" s="3">
+        <v>2</v>
+      </c>
+      <c r="S130" s="3">
+        <v>2</v>
+      </c>
+      <c r="T130" s="3">
+        <v>3</v>
+      </c>
+      <c r="U130" s="3">
+        <v>3</v>
+      </c>
+      <c r="V130" s="3">
+        <v>3</v>
+      </c>
+      <c r="W130" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>145</v>
       </c>
@@ -11448,7 +11473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -11515,8 +11540,11 @@
       <c r="W132">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X132" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>147</v>
       </c>
@@ -11578,7 +11606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>148</v>
       </c>
@@ -11640,7 +11668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>149</v>
       </c>
@@ -11702,7 +11730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>150</v>
       </c>
@@ -11764,7 +11792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>151</v>
       </c>
@@ -11826,7 +11854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
@@ -11888,7 +11916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>153</v>
       </c>
@@ -11950,7 +11978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>154</v>
       </c>
@@ -12012,7 +12040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>155</v>
       </c>
@@ -12074,7 +12102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>156</v>
       </c>
@@ -12136,7 +12164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>157</v>
       </c>
@@ -12198,7 +12226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>158</v>
       </c>
@@ -12260,7 +12288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>159</v>
       </c>
@@ -12322,7 +12350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>160</v>
       </c>
@@ -12384,7 +12412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>161</v>
       </c>
@@ -12446,7 +12474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>162</v>
       </c>
@@ -12508,7 +12536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>163</v>
       </c>
@@ -12570,7 +12598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -12637,8 +12665,11 @@
       <c r="W150">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X150" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>165</v>
       </c>
@@ -12700,7 +12731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>166</v>
       </c>
@@ -12762,7 +12793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>167</v>
       </c>
@@ -12824,7 +12855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>168</v>
       </c>
@@ -12886,7 +12917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>169</v>
       </c>
@@ -12948,7 +12979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>170</v>
       </c>
@@ -13010,7 +13041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>171</v>
       </c>
@@ -13072,7 +13103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>172</v>
       </c>
@@ -13137,7 +13168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>173</v>
       </c>
@@ -13199,7 +13230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>174</v>
       </c>
@@ -13264,7 +13295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>175</v>
       </c>
@@ -13326,7 +13357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -13393,8 +13424,11 @@
       <c r="W162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X162" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>177</v>
       </c>
@@ -13456,7 +13490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -13523,8 +13557,11 @@
       <c r="W164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X164" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -13591,8 +13628,11 @@
       <c r="W165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X165" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -13659,8 +13699,11 @@
       <c r="W166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X166" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>181</v>
       </c>
@@ -13722,7 +13765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>182</v>
       </c>
@@ -13784,7 +13827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>183</v>
       </c>
@@ -13849,7 +13892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>184</v>
       </c>
@@ -13911,7 +13954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>185</v>
       </c>
@@ -13973,7 +14016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>186</v>
       </c>
@@ -14035,7 +14078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>187</v>
       </c>
@@ -14097,7 +14140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>188</v>
       </c>
@@ -14159,7 +14202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>189</v>
       </c>
@@ -14221,7 +14264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>190</v>
       </c>
@@ -14283,7 +14326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>191</v>
       </c>
@@ -14348,75 +14391,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B178">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B178" s="3">
+        <v>3</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178">
-        <v>0</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178">
-        <v>2</v>
-      </c>
-      <c r="P178">
-        <v>2</v>
-      </c>
-      <c r="Q178">
-        <v>2</v>
-      </c>
-      <c r="R178">
-        <v>2</v>
-      </c>
-      <c r="S178">
-        <v>3</v>
-      </c>
-      <c r="T178">
-        <v>3</v>
-      </c>
-      <c r="U178">
-        <v>3</v>
-      </c>
-      <c r="V178">
-        <v>3</v>
-      </c>
-      <c r="W178">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0</v>
+      </c>
+      <c r="L178" s="3">
+        <v>1</v>
+      </c>
+      <c r="M178" s="3">
+        <v>1</v>
+      </c>
+      <c r="N178" s="3">
+        <v>1</v>
+      </c>
+      <c r="O178" s="3">
+        <v>2</v>
+      </c>
+      <c r="P178" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>2</v>
+      </c>
+      <c r="R178" s="3">
+        <v>2</v>
+      </c>
+      <c r="S178" s="3">
+        <v>3</v>
+      </c>
+      <c r="T178" s="3">
+        <v>3</v>
+      </c>
+      <c r="U178" s="3">
+        <v>3</v>
+      </c>
+      <c r="V178" s="3">
+        <v>3</v>
+      </c>
+      <c r="W178" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>193</v>
       </c>
@@ -14478,7 +14521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>194</v>
       </c>
@@ -14540,7 +14583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>195</v>
       </c>
@@ -14602,7 +14645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -14672,8 +14715,11 @@
       <c r="W182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X182" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -14740,8 +14786,11 @@
       <c r="W183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X183" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -14808,8 +14857,11 @@
       <c r="W184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X184" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -14876,8 +14928,11 @@
       <c r="W185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X185" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -14944,8 +14999,11 @@
       <c r="W186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X186" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -15012,8 +15070,11 @@
       <c r="W187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X187" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -15080,8 +15141,11 @@
       <c r="W188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X188" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -15148,8 +15212,11 @@
       <c r="W189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X189" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -15216,8 +15283,11 @@
       <c r="W190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X190" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -15284,8 +15354,11 @@
       <c r="W191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X191" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -15352,8 +15425,11 @@
       <c r="W192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X192" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -15420,8 +15496,11 @@
       <c r="W193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X193" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -15488,8 +15567,11 @@
       <c r="W194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X194" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -15556,8 +15638,11 @@
       <c r="W195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X195" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -15624,8 +15709,11 @@
       <c r="W196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -15692,8 +15780,11 @@
       <c r="W197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X197" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -15760,8 +15851,11 @@
       <c r="W198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -15828,8 +15922,11 @@
       <c r="W199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X199" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -15896,8 +15993,11 @@
       <c r="W200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -15964,8 +16064,11 @@
       <c r="W201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X201" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -16032,8 +16135,11 @@
       <c r="W202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -16100,8 +16206,11 @@
       <c r="W203">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X203" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -16168,8 +16277,11 @@
       <c r="W204">
         <v>2</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -16236,8 +16348,11 @@
       <c r="W205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X205" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -16304,8 +16419,11 @@
       <c r="W206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -16372,8 +16490,11 @@
       <c r="W207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X207" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -16440,8 +16561,11 @@
       <c r="W208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -16508,8 +16632,11 @@
       <c r="W209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X209" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -16576,8 +16703,11 @@
       <c r="W210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X210" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -16644,8 +16774,11 @@
       <c r="W211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -16712,8 +16845,11 @@
       <c r="W212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X212" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -16780,8 +16916,11 @@
       <c r="W213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -16848,8 +16987,11 @@
       <c r="W214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X214" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -16916,8 +17058,11 @@
       <c r="W215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -16984,8 +17129,11 @@
       <c r="W216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X216" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -17052,8 +17200,11 @@
       <c r="W217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -17120,8 +17271,11 @@
       <c r="W218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X218" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -17188,8 +17342,11 @@
       <c r="W219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -17256,8 +17413,11 @@
       <c r="W220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X220" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -17324,8 +17484,11 @@
       <c r="W221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -17392,8 +17555,11 @@
       <c r="W222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X222" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17460,8 +17626,11 @@
       <c r="W223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -17528,8 +17697,11 @@
       <c r="W224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X224" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -17596,8 +17768,11 @@
       <c r="W225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -17664,8 +17839,11 @@
       <c r="W226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X226" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -17732,8 +17910,11 @@
       <c r="W227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X227" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -17800,8 +17981,11 @@
       <c r="W228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X228" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -17868,8 +18052,11 @@
       <c r="W229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X229" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -17936,8 +18123,11 @@
       <c r="W230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X230" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -18004,8 +18194,11 @@
       <c r="W231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X231" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -18072,8 +18265,11 @@
       <c r="W232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X232" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -18140,8 +18336,11 @@
       <c r="W233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -18208,8 +18407,11 @@
       <c r="W234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X234" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -18276,8 +18478,11 @@
       <c r="W235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X235" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -18344,8 +18549,11 @@
       <c r="W236">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X236" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -18412,8 +18620,11 @@
       <c r="W237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X237" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -18480,8 +18691,11 @@
       <c r="W238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X238" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -18548,8 +18762,11 @@
       <c r="W239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X239" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -18616,8 +18833,11 @@
       <c r="W240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X240" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -18684,8 +18904,11 @@
       <c r="W241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X241" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -18752,8 +18975,11 @@
       <c r="W242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X242" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -18820,8 +19046,11 @@
       <c r="W243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X243" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -18888,8 +19117,11 @@
       <c r="W244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X244" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -18956,8 +19188,11 @@
       <c r="W245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X245" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -19024,8 +19259,11 @@
       <c r="W246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X246" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -19092,8 +19330,11 @@
       <c r="W247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X247" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -19160,8 +19401,11 @@
       <c r="W248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X248" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -19228,8 +19472,11 @@
       <c r="W249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X249" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -19296,8 +19543,11 @@
       <c r="W250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X250" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -19364,8 +19614,11 @@
       <c r="W251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X251" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -19432,8 +19685,11 @@
       <c r="W252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X252" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -19500,8 +19756,11 @@
       <c r="W253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X253" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -19568,8 +19827,11 @@
       <c r="W254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X254" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -19636,8 +19898,11 @@
       <c r="W255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X255" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -19704,8 +19969,11 @@
       <c r="W256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X256" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -19772,8 +20040,11 @@
       <c r="W257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X257" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -19840,8 +20111,11 @@
       <c r="W258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X258" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -19908,8 +20182,11 @@
       <c r="W259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X259" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -19976,8 +20253,11 @@
       <c r="W260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X260" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -20044,8 +20324,11 @@
       <c r="W261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X261" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -20112,8 +20395,11 @@
       <c r="W262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X262" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -20180,8 +20466,11 @@
       <c r="W263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X263" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -20248,8 +20537,11 @@
       <c r="W264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -20316,8 +20608,11 @@
       <c r="W265">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X265" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -20384,8 +20679,11 @@
       <c r="W266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X266" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -20452,8 +20750,11 @@
       <c r="W267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X267" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -20520,8 +20821,11 @@
       <c r="W268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -20588,8 +20892,11 @@
       <c r="W269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -20656,8 +20963,11 @@
       <c r="W270">
         <v>2</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -20724,8 +21034,11 @@
       <c r="W271">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X271" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>288</v>
       </c>
@@ -20787,7 +21100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>291</v>
       </c>
@@ -20849,7 +21162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>292</v>
       </c>
@@ -20911,7 +21224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>293</v>
       </c>
@@ -20973,7 +21286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>294</v>
       </c>
@@ -21035,7 +21348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>295</v>
       </c>
@@ -21097,7 +21410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>296</v>
       </c>
@@ -21159,7 +21472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>297</v>
       </c>
@@ -21221,7 +21534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>298</v>
       </c>
@@ -21283,7 +21596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>299</v>
       </c>
@@ -21345,7 +21658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>300</v>
       </c>
@@ -21410,7 +21723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>301</v>
       </c>
@@ -21472,7 +21785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>302</v>
       </c>
@@ -21534,7 +21847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>303</v>
       </c>
@@ -21596,7 +21909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>304</v>
       </c>
@@ -21658,7 +21971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>305</v>
       </c>
@@ -21720,7 +22033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>306</v>
       </c>
@@ -21782,7 +22095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>307</v>
       </c>
@@ -21844,7 +22157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>308</v>
       </c>
@@ -21906,7 +22219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>309</v>
       </c>
@@ -21968,7 +22281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>310</v>
       </c>
@@ -22030,7 +22343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>311</v>
       </c>
@@ -22095,7 +22408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>312</v>
       </c>
@@ -22157,7 +22470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>313</v>
       </c>
@@ -22219,7 +22532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>314</v>
       </c>
@@ -22281,7 +22594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>315</v>
       </c>
@@ -22343,7 +22656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>316</v>
       </c>
@@ -22405,7 +22718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>317</v>
       </c>
@@ -22467,7 +22780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>318</v>
       </c>
@@ -22529,7 +22842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>319</v>
       </c>
@@ -22591,7 +22904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>320</v>
       </c>
@@ -22653,7 +22966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>321</v>
       </c>
@@ -22718,7 +23031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>322</v>
       </c>
@@ -22780,7 +23093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>323</v>
       </c>
@@ -22842,7 +23155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>324</v>
       </c>
@@ -22904,7 +23217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>325</v>
       </c>
@@ -22966,7 +23279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>326</v>
       </c>
@@ -23028,7 +23341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>327</v>
       </c>
@@ -23093,7 +23406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>328</v>
       </c>
@@ -23158,7 +23471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>329</v>
       </c>
@@ -23220,7 +23533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -23287,8 +23600,11 @@
       <c r="W312">
         <v>3</v>
       </c>
-    </row>
-    <row r="313" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X312" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>331</v>
       </c>
@@ -23353,7 +23669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -23420,8 +23736,11 @@
       <c r="W314">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X314" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>333</v>
       </c>
@@ -23483,7 +23802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>334</v>
       </c>
@@ -23545,7 +23864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>335</v>
       </c>
@@ -23607,7 +23926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>336</v>
       </c>
@@ -23669,7 +23988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>337</v>
       </c>
@@ -23731,7 +24050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>338</v>
       </c>
@@ -23793,7 +24112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>339</v>
       </c>
@@ -23855,7 +24174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>340</v>
       </c>
@@ -23917,7 +24236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>341</v>
       </c>
@@ -23979,7 +24298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>342</v>
       </c>
@@ -24041,7 +24360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>343</v>
       </c>
@@ -24103,7 +24422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -24170,8 +24489,11 @@
       <c r="W326">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X326" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -24238,8 +24560,11 @@
       <c r="W327">
         <v>3</v>
       </c>
-    </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X327" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>346</v>
       </c>
@@ -24306,8 +24631,11 @@
       <c r="W328">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X328" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>347</v>
       </c>
@@ -24369,7 +24697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>348</v>
       </c>
@@ -24431,7 +24759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>349</v>
       </c>
@@ -24493,7 +24821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -24563,8 +24891,11 @@
       <c r="W332">
         <v>3</v>
       </c>
-    </row>
-    <row r="333" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X332" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>351</v>
       </c>
@@ -24629,7 +24960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>352</v>
       </c>
@@ -24691,7 +25022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>353</v>
       </c>
@@ -24753,7 +25084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>354</v>
       </c>
@@ -24818,7 +25149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>355</v>
       </c>
@@ -24880,7 +25211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>356</v>
       </c>
@@ -24942,7 +25273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>357</v>
       </c>
@@ -25004,7 +25335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>358</v>
       </c>
@@ -25072,7 +25403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>359</v>
       </c>
@@ -25137,7 +25468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -25204,8 +25535,11 @@
       <c r="W342">
         <v>3</v>
       </c>
-    </row>
-    <row r="343" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X342" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>361</v>
       </c>
@@ -25267,7 +25601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>362</v>
       </c>
@@ -25334,8 +25668,11 @@
       <c r="W344">
         <v>3</v>
       </c>
-    </row>
-    <row r="345" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X344" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>363</v>
       </c>
@@ -25397,7 +25734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>364</v>
       </c>
@@ -25462,7 +25799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>365</v>
       </c>
@@ -25524,7 +25861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>366</v>
       </c>
@@ -25586,7 +25923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>367</v>
       </c>
@@ -25653,8 +25990,11 @@
       <c r="W349">
         <v>3</v>
       </c>
-    </row>
-    <row r="350" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X349" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>368</v>
       </c>
@@ -25716,7 +26056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>369</v>
       </c>
@@ -25778,7 +26118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>370</v>
       </c>
@@ -25840,7 +26180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>371</v>
       </c>
@@ -25905,7 +26245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>372</v>
       </c>
@@ -25967,7 +26307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -26034,8 +26374,11 @@
       <c r="W355">
         <v>3</v>
       </c>
-    </row>
-    <row r="356" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X355" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>374</v>
       </c>
@@ -26097,7 +26440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>375</v>
       </c>
@@ -26162,7 +26505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>376</v>
       </c>
@@ -26224,7 +26567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>379</v>
       </c>
@@ -26286,7 +26629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>380</v>
       </c>
@@ -26348,7 +26691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>381</v>
       </c>
@@ -26410,7 +26753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>382</v>
       </c>
@@ -26472,7 +26815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>383</v>
       </c>
@@ -26534,7 +26877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>384</v>
       </c>
@@ -26596,7 +26939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>385</v>
       </c>
@@ -26658,7 +27001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>386</v>
       </c>
@@ -26720,7 +27063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>387</v>
       </c>
@@ -26782,7 +27125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>388</v>
       </c>
@@ -26844,7 +27187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>389</v>
       </c>
@@ -26906,7 +27249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>390</v>
       </c>
@@ -26968,7 +27311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>653</v>
       </c>
@@ -27033,7 +27376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>391</v>
       </c>
@@ -27095,7 +27438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>392</v>
       </c>
@@ -27157,7 +27500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>393</v>
       </c>
@@ -27219,7 +27562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>394</v>
       </c>
@@ -27281,7 +27624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>395</v>
       </c>
@@ -27343,7 +27686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>396</v>
       </c>
@@ -27408,7 +27751,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="378" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>397</v>
       </c>
@@ -27470,7 +27813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>398</v>
       </c>
@@ -27532,7 +27875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>399</v>
       </c>
@@ -27594,7 +27937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>400</v>
       </c>
@@ -27656,7 +27999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>401</v>
       </c>
@@ -27718,7 +28061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="383" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>402</v>
       </c>
@@ -27780,7 +28123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>403</v>
       </c>
@@ -27842,7 +28185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>404</v>
       </c>
@@ -27904,7 +28247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>405</v>
       </c>
@@ -27966,7 +28309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>406</v>
       </c>
@@ -28028,7 +28371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>407</v>
       </c>
@@ -28090,7 +28433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>408</v>
       </c>
@@ -28152,7 +28495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>409</v>
       </c>
@@ -28214,7 +28557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>410</v>
       </c>
@@ -28276,7 +28619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>411</v>
       </c>
@@ -28338,7 +28681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>412</v>
       </c>
@@ -28403,7 +28746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>413</v>
       </c>
@@ -28465,7 +28808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>414</v>
       </c>
@@ -28527,7 +28870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>415</v>
       </c>
@@ -28592,7 +28935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>416</v>
       </c>
@@ -28654,7 +28997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>417</v>
       </c>
@@ -28716,7 +29059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>418</v>
       </c>
@@ -28778,7 +29121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="400" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>419</v>
       </c>
@@ -28843,7 +29186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="401" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>420</v>
       </c>
@@ -28905,7 +29248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="402" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>421</v>
       </c>
@@ -28967,7 +29310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="403" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>422</v>
       </c>
@@ -29029,7 +29372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="404" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>423</v>
       </c>
@@ -29091,7 +29434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="405" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>424</v>
       </c>
@@ -29153,7 +29496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>425</v>
       </c>
@@ -29215,7 +29558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="407" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>426</v>
       </c>
@@ -29277,7 +29620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="408" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>427</v>
       </c>
@@ -29339,7 +29682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>428</v>
       </c>
@@ -29401,7 +29744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>429</v>
       </c>
@@ -29463,7 +29806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>430</v>
       </c>
@@ -29525,7 +29868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="412" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>431</v>
       </c>
@@ -29587,7 +29930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>432</v>
       </c>
@@ -29649,7 +29992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>433</v>
       </c>
@@ -29711,7 +30054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>434</v>
       </c>
@@ -29773,7 +30116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>435</v>
       </c>
@@ -29835,7 +30178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>436</v>
       </c>
@@ -29897,7 +30240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>437</v>
       </c>
@@ -29959,7 +30302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>438</v>
       </c>
@@ -30021,7 +30364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>439</v>
       </c>
@@ -30083,7 +30426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>440</v>
       </c>
@@ -30145,7 +30488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>441</v>
       </c>
@@ -30207,7 +30550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>442</v>
       </c>
@@ -30269,7 +30612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>443</v>
       </c>
@@ -30331,7 +30674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>444</v>
       </c>
@@ -30396,7 +30739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>445</v>
       </c>
@@ -30458,7 +30801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>446</v>
       </c>
@@ -30520,7 +30863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>447</v>
       </c>
@@ -30582,7 +30925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>448</v>
       </c>
@@ -30644,7 +30987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>449</v>
       </c>
@@ -30706,7 +31049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -30776,8 +31119,11 @@
       <c r="W431" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="432" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X431" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="432" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>451</v>
       </c>
@@ -30839,7 +31185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>452</v>
       </c>
@@ -30901,7 +31247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>453</v>
       </c>
@@ -30963,7 +31309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>454</v>
       </c>
@@ -31028,7 +31374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>455</v>
       </c>
@@ -31090,7 +31436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>456</v>
       </c>
@@ -31152,7 +31498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>457</v>
       </c>
@@ -31214,7 +31560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>458</v>
       </c>
@@ -31276,7 +31622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -31343,8 +31689,11 @@
       <c r="W440" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X440" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>462</v>
       </c>
@@ -31411,8 +31760,11 @@
       <c r="W441" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X441" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>463</v>
       </c>
@@ -31479,8 +31831,11 @@
       <c r="W442">
         <v>2</v>
       </c>
-    </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X442" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>464</v>
       </c>
@@ -31547,8 +31902,11 @@
       <c r="W443">
         <v>3</v>
       </c>
-    </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X443" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>465</v>
       </c>
@@ -31615,8 +31973,11 @@
       <c r="W444">
         <v>2</v>
       </c>
-    </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X444" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -31683,8 +32044,11 @@
       <c r="W445">
         <v>3</v>
       </c>
-    </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X445" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -31751,8 +32115,11 @@
       <c r="W446">
         <v>3</v>
       </c>
-    </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X446" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -31819,8 +32186,11 @@
       <c r="W447">
         <v>3</v>
       </c>
-    </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X447" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -31887,8 +32257,11 @@
       <c r="W448">
         <v>3</v>
       </c>
-    </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X448" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -31955,8 +32328,11 @@
       <c r="W449">
         <v>3</v>
       </c>
-    </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X449" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -32026,8 +32402,11 @@
       <c r="W450">
         <v>2</v>
       </c>
-    </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X450" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -32097,8 +32476,11 @@
       <c r="W451">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X451" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -32168,8 +32550,11 @@
       <c r="W452">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X452" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -32236,8 +32621,11 @@
       <c r="W453">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X453" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -32304,8 +32692,11 @@
       <c r="W454">
         <v>3</v>
       </c>
-    </row>
-    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X454" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -32372,8 +32763,11 @@
       <c r="W455">
         <v>3</v>
       </c>
-    </row>
-    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X455" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -32440,8 +32834,11 @@
       <c r="W456">
         <v>3</v>
       </c>
-    </row>
-    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X456" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -32508,8 +32905,11 @@
       <c r="W457">
         <v>3</v>
       </c>
-    </row>
-    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X457" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -32576,8 +32976,11 @@
       <c r="W458">
         <v>3</v>
       </c>
-    </row>
-    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X458" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -32644,8 +33047,11 @@
       <c r="W459">
         <v>3</v>
       </c>
-    </row>
-    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X459" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -32712,8 +33118,11 @@
       <c r="W460">
         <v>3</v>
       </c>
-    </row>
-    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X460" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -32780,8 +33189,11 @@
       <c r="W461">
         <v>2</v>
       </c>
-    </row>
-    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X461" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -32848,8 +33260,11 @@
       <c r="W462">
         <v>3</v>
       </c>
-    </row>
-    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X462" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -32916,8 +33331,11 @@
       <c r="W463">
         <v>3</v>
       </c>
-    </row>
-    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X463" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -32984,8 +33402,11 @@
       <c r="W464">
         <v>3</v>
       </c>
-    </row>
-    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X464" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -33052,8 +33473,11 @@
       <c r="W465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X465" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -33120,8 +33544,11 @@
       <c r="W466">
         <v>3</v>
       </c>
-    </row>
-    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X466" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -33188,8 +33615,11 @@
       <c r="W467">
         <v>2</v>
       </c>
-    </row>
-    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X467" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -33256,8 +33686,11 @@
       <c r="W468">
         <v>2</v>
       </c>
-    </row>
-    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X468" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -33327,8 +33760,11 @@
       <c r="W469">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X469" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -33395,8 +33831,11 @@
       <c r="W470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X470" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -33466,8 +33905,11 @@
       <c r="W471">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X471" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -33534,8 +33976,11 @@
       <c r="W472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X472" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -33602,8 +34047,11 @@
       <c r="W473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X473" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -33670,8 +34118,11 @@
       <c r="W474">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X474" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -33738,8 +34189,11 @@
       <c r="W475">
         <v>2</v>
       </c>
-    </row>
-    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X475" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -33806,8 +34260,11 @@
       <c r="W476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X476" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -33874,8 +34331,11 @@
       <c r="W477">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X477" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -33942,8 +34402,11 @@
       <c r="W478">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X478" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -34010,8 +34473,11 @@
       <c r="W479">
         <v>2</v>
       </c>
-    </row>
-    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X479" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -34081,8 +34547,11 @@
       <c r="W480">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X480" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -34152,8 +34621,11 @@
       <c r="W481">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X481" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -34220,8 +34692,11 @@
       <c r="W482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X482" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -34288,8 +34763,11 @@
       <c r="W483">
         <v>3</v>
       </c>
-    </row>
-    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X483" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -34356,8 +34834,11 @@
       <c r="W484">
         <v>3</v>
       </c>
-    </row>
-    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X484" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -34424,8 +34905,11 @@
       <c r="W485">
         <v>2</v>
       </c>
-    </row>
-    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X485" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -34492,8 +34976,11 @@
       <c r="W486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X486" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -34560,8 +35047,11 @@
       <c r="W487">
         <v>3</v>
       </c>
-    </row>
-    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X487" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -34628,8 +35118,11 @@
       <c r="W488">
         <v>3</v>
       </c>
-    </row>
-    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X488" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -34696,8 +35189,11 @@
       <c r="W489">
         <v>2</v>
       </c>
-    </row>
-    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X489" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -34764,8 +35260,11 @@
       <c r="W490">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X490" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -34832,8 +35331,11 @@
       <c r="W491">
         <v>3</v>
       </c>
-    </row>
-    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X491" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -34900,8 +35402,11 @@
       <c r="W492">
         <v>3</v>
       </c>
-    </row>
-    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X492" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -34968,8 +35473,11 @@
       <c r="W493">
         <v>3</v>
       </c>
-    </row>
-    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X493" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -35036,8 +35544,11 @@
       <c r="W494">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X494" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -35104,8 +35615,11 @@
       <c r="W495">
         <v>2</v>
       </c>
-    </row>
-    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X495" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -35172,8 +35686,11 @@
       <c r="W496">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X496" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -35243,8 +35760,11 @@
       <c r="W497">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X497" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -35311,8 +35831,11 @@
       <c r="W498">
         <v>3</v>
       </c>
-    </row>
-    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X498" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -35379,8 +35902,11 @@
       <c r="W499">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X499" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -35447,8 +35973,11 @@
       <c r="W500">
         <v>2</v>
       </c>
-    </row>
-    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X500" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -35515,8 +36044,11 @@
       <c r="W501">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X501" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -35583,8 +36115,11 @@
       <c r="W502">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X502" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -35651,8 +36186,11 @@
       <c r="W503">
         <v>3</v>
       </c>
-    </row>
-    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X503" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -35722,8 +36260,11 @@
       <c r="W504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X504" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -35790,8 +36331,11 @@
       <c r="W505">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X505" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -35858,8 +36402,11 @@
       <c r="W506">
         <v>2</v>
       </c>
-    </row>
-    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X506" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -35926,8 +36473,11 @@
       <c r="W507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X507" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -35994,8 +36544,11 @@
       <c r="W508">
         <v>2</v>
       </c>
-    </row>
-    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X508" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -36062,8 +36615,11 @@
       <c r="W509">
         <v>2</v>
       </c>
-    </row>
-    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X509" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -36130,8 +36686,11 @@
       <c r="W510">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X510" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -36198,8 +36757,11 @@
       <c r="W511">
         <v>2</v>
       </c>
-    </row>
-    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X511" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -36266,8 +36828,11 @@
       <c r="W512">
         <v>2</v>
       </c>
-    </row>
-    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X512" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -36334,8 +36899,11 @@
       <c r="W513">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X513" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -36402,8 +36970,11 @@
       <c r="W514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X514" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -36470,8 +37041,11 @@
       <c r="W515">
         <v>2</v>
       </c>
-    </row>
-    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X515" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -36538,8 +37112,11 @@
       <c r="W516">
         <v>3</v>
       </c>
-    </row>
-    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X516" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -36606,8 +37183,11 @@
       <c r="W517">
         <v>2</v>
       </c>
-    </row>
-    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X517" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -36674,8 +37254,11 @@
       <c r="W518">
         <v>2</v>
       </c>
-    </row>
-    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X518" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -36742,8 +37325,11 @@
       <c r="W519">
         <v>2</v>
       </c>
-    </row>
-    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X519" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -36810,8 +37396,11 @@
       <c r="W520">
         <v>3</v>
       </c>
-    </row>
-    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X520" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -36878,8 +37467,11 @@
       <c r="W521">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X521" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -36946,8 +37538,11 @@
       <c r="W522">
         <v>2</v>
       </c>
-    </row>
-    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X522" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -37017,8 +37612,11 @@
       <c r="W523">
         <v>2</v>
       </c>
-    </row>
-    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X523" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -37088,8 +37686,11 @@
       <c r="W524">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X524" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -37156,8 +37757,11 @@
       <c r="W525">
         <v>2</v>
       </c>
-    </row>
-    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X525" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -37224,8 +37828,11 @@
       <c r="W526">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X526" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -37292,8 +37899,11 @@
       <c r="W527">
         <v>2</v>
       </c>
-    </row>
-    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X527" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -37330,8 +37940,9 @@
       <c r="M528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X528" s="7"/>
+    </row>
+    <row r="529" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>552</v>
       </c>
@@ -37368,8 +37979,9 @@
       <c r="M529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X529" s="7"/>
+    </row>
+    <row r="530" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>553</v>
       </c>
@@ -37406,8 +38018,9 @@
       <c r="M530">
         <v>0</v>
       </c>
-    </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X530" s="7"/>
+    </row>
+    <row r="531" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>554</v>
       </c>
@@ -37444,8 +38057,9 @@
       <c r="M531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X531" s="7"/>
+    </row>
+    <row r="532" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>555</v>
       </c>
@@ -37482,8 +38096,9 @@
       <c r="M532">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X532" s="7"/>
+    </row>
+    <row r="533" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>556</v>
       </c>
@@ -37520,8 +38135,9 @@
       <c r="M533">
         <v>0</v>
       </c>
-    </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X533" s="7"/>
+    </row>
+    <row r="534" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>557</v>
       </c>
@@ -37558,8 +38174,9 @@
       <c r="M534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X534" s="7"/>
+    </row>
+    <row r="535" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>558</v>
       </c>
@@ -37596,8 +38213,9 @@
       <c r="M535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X535" s="7"/>
+    </row>
+    <row r="536" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>559</v>
       </c>
@@ -37634,8 +38252,9 @@
       <c r="M536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X536" s="7"/>
+    </row>
+    <row r="537" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -37672,8 +38291,9 @@
       <c r="M537">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X537" s="7"/>
+    </row>
+    <row r="538" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>561</v>
       </c>
@@ -37710,8 +38330,9 @@
       <c r="M538">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X538" s="7"/>
+    </row>
+    <row r="539" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>562</v>
       </c>
@@ -37748,8 +38369,9 @@
       <c r="M539">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X539" s="7"/>
+    </row>
+    <row r="540" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -37786,8 +38408,9 @@
       <c r="M540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X540" s="7"/>
+    </row>
+    <row r="541" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>564</v>
       </c>
@@ -37824,8 +38447,9 @@
       <c r="M541">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X541" s="7"/>
+    </row>
+    <row r="542" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>565</v>
       </c>
@@ -37862,8 +38486,9 @@
       <c r="M542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X542" s="7"/>
+    </row>
+    <row r="543" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>566</v>
       </c>
@@ -37900,8 +38525,9 @@
       <c r="M543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X543" s="7"/>
+    </row>
+    <row r="544" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>567</v>
       </c>
@@ -37938,8 +38564,9 @@
       <c r="M544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X544" s="7"/>
+    </row>
+    <row r="545" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>568</v>
       </c>
@@ -37976,8 +38603,9 @@
       <c r="M545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X545" s="7"/>
+    </row>
+    <row r="546" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>569</v>
       </c>
@@ -38014,8 +38642,9 @@
       <c r="M546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X546" s="7"/>
+    </row>
+    <row r="547" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>570</v>
       </c>
@@ -38052,8 +38681,9 @@
       <c r="M547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X547" s="7"/>
+    </row>
+    <row r="548" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>571</v>
       </c>
@@ -38090,8 +38720,9 @@
       <c r="M548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X548" s="7"/>
+    </row>
+    <row r="549" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>572</v>
       </c>
@@ -38128,8 +38759,9 @@
       <c r="M549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X549" s="7"/>
+    </row>
+    <row r="550" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>573</v>
       </c>
@@ -38166,8 +38798,9 @@
       <c r="M550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X550" s="7"/>
+    </row>
+    <row r="551" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>574</v>
       </c>
@@ -38204,8 +38837,9 @@
       <c r="M551">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X551" s="7"/>
+    </row>
+    <row r="552" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>575</v>
       </c>
@@ -38242,8 +38876,9 @@
       <c r="M552">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X552" s="7"/>
+    </row>
+    <row r="553" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>576</v>
       </c>
@@ -38280,8 +38915,9 @@
       <c r="M553">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X553" s="7"/>
+    </row>
+    <row r="554" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>577</v>
       </c>
@@ -38318,8 +38954,9 @@
       <c r="M554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X554" s="7"/>
+    </row>
+    <row r="555" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>578</v>
       </c>
@@ -38356,8 +38993,9 @@
       <c r="M555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X555" s="7"/>
+    </row>
+    <row r="556" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>579</v>
       </c>
@@ -38394,8 +39032,9 @@
       <c r="M556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X556" s="7"/>
+    </row>
+    <row r="557" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>580</v>
       </c>
@@ -38432,8 +39071,9 @@
       <c r="M557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X557" s="7"/>
+    </row>
+    <row r="558" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>581</v>
       </c>
@@ -38470,8 +39110,9 @@
       <c r="M558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X558" s="7"/>
+    </row>
+    <row r="559" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>582</v>
       </c>
@@ -38508,8 +39149,9 @@
       <c r="M559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X559" s="7"/>
+    </row>
+    <row r="560" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>583</v>
       </c>
@@ -38546,8 +39188,9 @@
       <c r="M560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X560" s="7"/>
+    </row>
+    <row r="561" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>584</v>
       </c>
@@ -38584,8 +39227,9 @@
       <c r="M561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X561" s="7"/>
+    </row>
+    <row r="562" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>585</v>
       </c>
@@ -38622,8 +39266,9 @@
       <c r="M562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X562" s="7"/>
+    </row>
+    <row r="563" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>586</v>
       </c>
@@ -38660,8 +39305,9 @@
       <c r="M563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X563" s="7"/>
+    </row>
+    <row r="564" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>587</v>
       </c>
@@ -38698,8 +39344,9 @@
       <c r="M564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X564" s="7"/>
+    </row>
+    <row r="565" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>588</v>
       </c>
@@ -38736,8 +39383,9 @@
       <c r="M565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X565" s="7"/>
+    </row>
+    <row r="566" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>589</v>
       </c>
@@ -38774,8 +39422,9 @@
       <c r="M566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X566" s="7"/>
+    </row>
+    <row r="567" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>590</v>
       </c>
@@ -38812,8 +39461,9 @@
       <c r="M567">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X567" s="7"/>
+    </row>
+    <row r="568" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>591</v>
       </c>
@@ -38850,8 +39500,9 @@
       <c r="M568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X568" s="7"/>
+    </row>
+    <row r="569" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>592</v>
       </c>
@@ -38888,8 +39539,9 @@
       <c r="M569">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X569" s="7"/>
+    </row>
+    <row r="570" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>593</v>
       </c>
@@ -38926,8 +39578,9 @@
       <c r="M570">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X570" s="7"/>
+    </row>
+    <row r="571" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>594</v>
       </c>
@@ -38964,8 +39617,9 @@
       <c r="M571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X571" s="7"/>
+    </row>
+    <row r="572" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>595</v>
       </c>
@@ -39002,8 +39656,9 @@
       <c r="M572">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X572" s="7"/>
+    </row>
+    <row r="573" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>596</v>
       </c>
@@ -39040,8 +39695,9 @@
       <c r="M573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X573" s="7"/>
+    </row>
+    <row r="574" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>597</v>
       </c>
@@ -39078,8 +39734,9 @@
       <c r="M574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X574" s="7"/>
+    </row>
+    <row r="575" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>598</v>
       </c>
@@ -39116,8 +39773,9 @@
       <c r="M575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X575" s="7"/>
+    </row>
+    <row r="576" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>599</v>
       </c>
@@ -39154,8 +39812,9 @@
       <c r="M576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X576" s="7"/>
+    </row>
+    <row r="577" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>600</v>
       </c>
@@ -39192,8 +39851,9 @@
       <c r="M577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X577" s="7"/>
+    </row>
+    <row r="578" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>601</v>
       </c>
@@ -39230,8 +39890,9 @@
       <c r="M578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X578" s="7"/>
+    </row>
+    <row r="579" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>602</v>
       </c>
@@ -39268,8 +39929,9 @@
       <c r="M579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X579" s="7"/>
+    </row>
+    <row r="580" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>603</v>
       </c>
@@ -39306,8 +39968,9 @@
       <c r="M580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X580" s="7"/>
+    </row>
+    <row r="581" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>604</v>
       </c>
@@ -39344,8 +40007,9 @@
       <c r="M581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X581" s="7"/>
+    </row>
+    <row r="582" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>605</v>
       </c>
@@ -39382,8 +40046,9 @@
       <c r="M582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X582" s="7"/>
+    </row>
+    <row r="583" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>606</v>
       </c>
@@ -39420,8 +40085,9 @@
       <c r="M583">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X583" s="7"/>
+    </row>
+    <row r="584" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>607</v>
       </c>
@@ -39458,8 +40124,9 @@
       <c r="M584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X584" s="7"/>
+    </row>
+    <row r="585" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>608</v>
       </c>
@@ -39496,8 +40163,9 @@
       <c r="M585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X585" s="7"/>
+    </row>
+    <row r="586" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>609</v>
       </c>
@@ -39534,8 +40202,9 @@
       <c r="M586">
         <v>0</v>
       </c>
-    </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X586" s="7"/>
+    </row>
+    <row r="587" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>610</v>
       </c>
@@ -39572,8 +40241,9 @@
       <c r="M587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X587" s="7"/>
+    </row>
+    <row r="588" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>611</v>
       </c>
@@ -39610,8 +40280,9 @@
       <c r="M588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X588" s="7"/>
+    </row>
+    <row r="589" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>612</v>
       </c>
@@ -39648,8 +40319,9 @@
       <c r="M589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X589" s="7"/>
+    </row>
+    <row r="590" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>613</v>
       </c>
@@ -39686,8 +40358,9 @@
       <c r="M590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X590" s="7"/>
+    </row>
+    <row r="591" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>614</v>
       </c>
@@ -39724,8 +40397,9 @@
       <c r="M591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X591" s="7"/>
+    </row>
+    <row r="592" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>615</v>
       </c>
@@ -39762,8 +40436,9 @@
       <c r="M592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X592" s="7"/>
+    </row>
+    <row r="593" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -39800,8 +40475,9 @@
       <c r="M593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X593" s="7"/>
+    </row>
+    <row r="594" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>617</v>
       </c>
@@ -39838,8 +40514,9 @@
       <c r="M594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X594" s="7"/>
+    </row>
+    <row r="595" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>618</v>
       </c>
@@ -39876,8 +40553,9 @@
       <c r="M595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X595" s="7"/>
+    </row>
+    <row r="596" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>619</v>
       </c>
@@ -39914,8 +40592,9 @@
       <c r="M596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X596" s="7"/>
+    </row>
+    <row r="597" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>620</v>
       </c>
@@ -39952,8 +40631,9 @@
       <c r="M597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X597" s="7"/>
+    </row>
+    <row r="598" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>621</v>
       </c>
@@ -39990,8 +40670,9 @@
       <c r="M598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X598" s="7"/>
+    </row>
+    <row r="599" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>622</v>
       </c>
@@ -40028,8 +40709,9 @@
       <c r="M599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X599" s="7"/>
+    </row>
+    <row r="600" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>623</v>
       </c>
@@ -40066,8 +40748,9 @@
       <c r="M600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X600" s="7"/>
+    </row>
+    <row r="601" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>624</v>
       </c>
@@ -40104,8 +40787,9 @@
       <c r="M601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X601" s="7"/>
+    </row>
+    <row r="602" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>625</v>
       </c>
@@ -40142,8 +40826,9 @@
       <c r="M602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X602" s="7"/>
+    </row>
+    <row r="603" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>626</v>
       </c>
@@ -40180,8 +40865,9 @@
       <c r="M603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X603" s="7"/>
+    </row>
+    <row r="604" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>627</v>
       </c>
@@ -40218,8 +40904,9 @@
       <c r="M604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X604" s="7"/>
+    </row>
+    <row r="605" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>628</v>
       </c>
@@ -40256,8 +40943,9 @@
       <c r="M605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X605" s="7"/>
+    </row>
+    <row r="606" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>629</v>
       </c>
@@ -40294,8 +40982,9 @@
       <c r="M606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X606" s="7"/>
+    </row>
+    <row r="607" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>630</v>
       </c>
@@ -40332,8 +41021,9 @@
       <c r="M607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X607" s="7"/>
+    </row>
+    <row r="608" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>631</v>
       </c>
@@ -40370,8 +41060,9 @@
       <c r="M608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X608" s="7"/>
+    </row>
+    <row r="609" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>632</v>
       </c>
@@ -40408,8 +41099,9 @@
       <c r="M609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X609" s="7"/>
+    </row>
+    <row r="610" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>633</v>
       </c>
@@ -40446,8 +41138,9 @@
       <c r="M610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X610" s="7"/>
+    </row>
+    <row r="611" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>634</v>
       </c>
@@ -40484,8 +41177,9 @@
       <c r="M611">
         <v>0</v>
       </c>
-    </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X611" s="7"/>
+    </row>
+    <row r="612" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>635</v>
       </c>
@@ -40522,8 +41216,9 @@
       <c r="M612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X612" s="7"/>
+    </row>
+    <row r="613" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>636</v>
       </c>
@@ -40560,8 +41255,9 @@
       <c r="M613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X613" s="7"/>
+    </row>
+    <row r="614" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>637</v>
       </c>
@@ -40598,8 +41294,9 @@
       <c r="M614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X614" s="7"/>
+    </row>
+    <row r="615" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>638</v>
       </c>
@@ -40636,8 +41333,9 @@
       <c r="M615">
         <v>0</v>
       </c>
-    </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X615" s="7"/>
+    </row>
+    <row r="616" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>639</v>
       </c>
@@ -40674,8 +41372,9 @@
       <c r="M616">
         <v>0</v>
       </c>
-    </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="X616" s="7"/>
+    </row>
+    <row r="617" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>640</v>
       </c>
@@ -40712,6 +41411,7 @@
       <c r="M617">
         <v>0</v>
       </c>
+      <c r="X617" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Michiko Samson\Documents\Temporal Ecology Lab\fuelinex\data\monitoringPhenology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07E125-BA79-4010-8B8C-B82557427705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE2252-1388-4D4D-B7A2-6C1578AD108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="675">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2058,6 +2058,9 @@
   </si>
   <si>
     <t>114</t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2640,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2860,33 +2871,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:X617" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:X617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{610971E3-31C1-49BD-9286-F131BA379911}" name="114" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:Y617" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:Y617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="3"/>
+    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{610971E3-31C1-49BD-9286-F131BA379911}" name="114" dataDxfId="1"/>
+    <tableColumn id="25" xr3:uid="{08C7B38B-105F-424D-8161-DF007618D3BB}" name="118" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3209,11 +3221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X617"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A510" zoomScale="98" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X528" sqref="X528"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="98" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y527" sqref="Y527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3222,7 +3234,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3292,11 +3304,14 @@
       <c r="W1" t="s">
         <v>672</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3358,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3420,7 +3435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3544,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3606,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3668,7 +3683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3730,7 +3745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3795,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3857,7 +3872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3919,7 +3934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3981,7 +3996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -4046,7 +4061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -4108,7 +4123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4173,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -7126,74 +7141,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63">
-        <v>1</v>
-      </c>
-      <c r="S63">
-        <v>1</v>
-      </c>
-      <c r="T63">
-        <v>2</v>
-      </c>
-      <c r="U63">
-        <v>3</v>
-      </c>
-      <c r="V63">
-        <v>3</v>
-      </c>
-      <c r="W63">
-        <v>3</v>
-      </c>
-      <c r="X63" s="7">
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>1</v>
+      </c>
+      <c r="R63" s="3">
+        <v>1</v>
+      </c>
+      <c r="S63" s="3">
+        <v>1</v>
+      </c>
+      <c r="T63" s="3">
+        <v>2</v>
+      </c>
+      <c r="U63" s="3">
+        <v>3</v>
+      </c>
+      <c r="V63" s="3">
+        <v>3</v>
+      </c>
+      <c r="W63" s="3">
+        <v>3</v>
+      </c>
+      <c r="X63" s="3">
         <v>4</v>
       </c>
     </row>
@@ -7259,7 +7274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -7321,7 +7336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -7386,7 +7401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -7451,7 +7466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
@@ -7516,7 +7531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -7578,7 +7593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
@@ -7640,7 +7655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
@@ -7702,7 +7717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -7764,7 +7779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -7826,7 +7841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -7888,7 +7903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7955,11 +7970,14 @@
       <c r="W75">
         <v>3</v>
       </c>
-      <c r="X75" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X75">
+        <v>3</v>
+      </c>
+      <c r="Y75" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -8021,7 +8039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -8083,7 +8101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -8148,7 +8166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -8210,7 +8228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -9648,74 +9666,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B103">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="3">
+        <v>3</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>2</v>
-      </c>
-      <c r="Q103">
-        <v>2</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>2</v>
-      </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>3</v>
-      </c>
-      <c r="V103">
-        <v>3</v>
-      </c>
-      <c r="W103">
-        <v>3</v>
-      </c>
-      <c r="X103" s="7">
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>1</v>
+      </c>
+      <c r="M103" s="3">
+        <v>1</v>
+      </c>
+      <c r="N103" s="3">
+        <v>1</v>
+      </c>
+      <c r="O103" s="3">
+        <v>1</v>
+      </c>
+      <c r="P103" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>2</v>
+      </c>
+      <c r="R103" s="3">
+        <v>2</v>
+      </c>
+      <c r="S103" s="3">
+        <v>2</v>
+      </c>
+      <c r="T103" s="3">
+        <v>3</v>
+      </c>
+      <c r="U103" s="3">
+        <v>3</v>
+      </c>
+      <c r="V103" s="3">
+        <v>3</v>
+      </c>
+      <c r="W103" s="3">
+        <v>3</v>
+      </c>
+      <c r="X103" s="3">
         <v>4</v>
       </c>
     </row>
@@ -11281,7 +11299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>143</v>
       </c>
@@ -11343,7 +11361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>144</v>
       </c>
@@ -11411,7 +11429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>145</v>
       </c>
@@ -11473,7 +11491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -11540,11 +11558,14 @@
       <c r="W132">
         <v>3</v>
       </c>
-      <c r="X132" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X132">
+        <v>3</v>
+      </c>
+      <c r="Y132" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>147</v>
       </c>
@@ -11606,7 +11627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>148</v>
       </c>
@@ -11668,7 +11689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>149</v>
       </c>
@@ -11730,7 +11751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>150</v>
       </c>
@@ -11792,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>151</v>
       </c>
@@ -11854,7 +11875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
@@ -11916,7 +11937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>153</v>
       </c>
@@ -11978,7 +11999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>154</v>
       </c>
@@ -12040,7 +12061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>155</v>
       </c>
@@ -12102,7 +12123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>156</v>
       </c>
@@ -12164,7 +12185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>157</v>
       </c>
@@ -12226,7 +12247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>158</v>
       </c>
@@ -12598,74 +12619,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B150">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B150" s="3">
+        <v>3</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
-      <c r="M150">
-        <v>1</v>
-      </c>
-      <c r="N150">
-        <v>1</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150">
-        <v>2</v>
-      </c>
-      <c r="Q150">
-        <v>2</v>
-      </c>
-      <c r="R150">
-        <v>2</v>
-      </c>
-      <c r="S150">
-        <v>3</v>
-      </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>3</v>
-      </c>
-      <c r="V150">
-        <v>3</v>
-      </c>
-      <c r="W150">
-        <v>3</v>
-      </c>
-      <c r="X150" s="7">
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0</v>
+      </c>
+      <c r="L150" s="3">
+        <v>1</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1</v>
+      </c>
+      <c r="N150" s="3">
+        <v>1</v>
+      </c>
+      <c r="O150" s="3">
+        <v>1</v>
+      </c>
+      <c r="P150" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q150" s="3">
+        <v>2</v>
+      </c>
+      <c r="R150" s="3">
+        <v>2</v>
+      </c>
+      <c r="S150" s="3">
+        <v>3</v>
+      </c>
+      <c r="T150" s="3">
+        <v>3</v>
+      </c>
+      <c r="U150" s="3">
+        <v>3</v>
+      </c>
+      <c r="V150" s="3">
+        <v>3</v>
+      </c>
+      <c r="W150" s="3">
+        <v>3</v>
+      </c>
+      <c r="X150" s="3">
         <v>4</v>
       </c>
     </row>
@@ -13295,7 +13316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>175</v>
       </c>
@@ -13357,7 +13378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -13424,11 +13445,14 @@
       <c r="W162">
         <v>3</v>
       </c>
-      <c r="X162" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X162">
+        <v>3</v>
+      </c>
+      <c r="Y162" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>177</v>
       </c>
@@ -13490,7 +13514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -13557,11 +13581,14 @@
       <c r="W164">
         <v>3</v>
       </c>
-      <c r="X164" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X164">
+        <v>3</v>
+      </c>
+      <c r="Y164" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -13628,82 +13655,85 @@
       <c r="W165">
         <v>3</v>
       </c>
-      <c r="X165" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B166">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B166" s="3">
+        <v>3</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>0</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>1</v>
-      </c>
-      <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166">
-        <v>1</v>
-      </c>
-      <c r="N166">
-        <v>1</v>
-      </c>
-      <c r="O166">
-        <v>1</v>
-      </c>
-      <c r="P166">
-        <v>1</v>
-      </c>
-      <c r="Q166">
-        <v>2</v>
-      </c>
-      <c r="R166">
-        <v>2</v>
-      </c>
-      <c r="S166">
-        <v>2</v>
-      </c>
-      <c r="T166">
-        <v>2</v>
-      </c>
-      <c r="U166">
-        <v>3</v>
-      </c>
-      <c r="V166">
-        <v>3</v>
-      </c>
-      <c r="W166">
-        <v>3</v>
-      </c>
-      <c r="X166" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <v>0</v>
+      </c>
+      <c r="K166" s="3">
+        <v>1</v>
+      </c>
+      <c r="L166" s="3">
+        <v>1</v>
+      </c>
+      <c r="M166" s="3">
+        <v>1</v>
+      </c>
+      <c r="N166" s="3">
+        <v>1</v>
+      </c>
+      <c r="O166" s="3">
+        <v>1</v>
+      </c>
+      <c r="P166" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="3">
+        <v>2</v>
+      </c>
+      <c r="R166" s="3">
+        <v>2</v>
+      </c>
+      <c r="S166" s="3">
+        <v>2</v>
+      </c>
+      <c r="T166" s="3">
+        <v>2</v>
+      </c>
+      <c r="U166" s="3">
+        <v>3</v>
+      </c>
+      <c r="V166" s="3">
+        <v>3</v>
+      </c>
+      <c r="W166" s="3">
+        <v>3</v>
+      </c>
+      <c r="X166" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>181</v>
       </c>
@@ -13765,7 +13795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>182</v>
       </c>
@@ -13827,7 +13857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>183</v>
       </c>
@@ -13892,7 +13922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>184</v>
       </c>
@@ -13954,7 +13984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>185</v>
       </c>
@@ -14016,7 +14046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>186</v>
       </c>
@@ -14078,7 +14108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>187</v>
       </c>
@@ -14140,7 +14170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>188</v>
       </c>
@@ -14202,7 +14232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>189</v>
       </c>
@@ -14264,7 +14294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>190</v>
       </c>
@@ -14326,7 +14356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>191</v>
       </c>
@@ -14391,7 +14421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>192</v>
       </c>
@@ -14459,7 +14489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>193</v>
       </c>
@@ -14521,7 +14551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>194</v>
       </c>
@@ -14583,7 +14613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>195</v>
       </c>
@@ -14645,7 +14675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -14715,11 +14745,14 @@
       <c r="W182">
         <v>2</v>
       </c>
-      <c r="X182" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X182">
+        <v>2</v>
+      </c>
+      <c r="Y182" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -14786,11 +14819,14 @@
       <c r="W183">
         <v>2</v>
       </c>
-      <c r="X183" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X183">
+        <v>2</v>
+      </c>
+      <c r="Y183" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -14857,11 +14893,14 @@
       <c r="W184">
         <v>2</v>
       </c>
-      <c r="X184" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X184">
+        <v>2</v>
+      </c>
+      <c r="Y184" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -14928,11 +14967,14 @@
       <c r="W185">
         <v>2</v>
       </c>
-      <c r="X185" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X185">
+        <v>2</v>
+      </c>
+      <c r="Y185" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -14999,11 +15041,14 @@
       <c r="W186">
         <v>2</v>
       </c>
-      <c r="X186" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X186">
+        <v>2</v>
+      </c>
+      <c r="Y186" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -15070,11 +15115,14 @@
       <c r="W187">
         <v>2</v>
       </c>
-      <c r="X187" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X187">
+        <v>2</v>
+      </c>
+      <c r="Y187" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -15141,11 +15189,14 @@
       <c r="W188">
         <v>2</v>
       </c>
-      <c r="X188" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X188">
+        <v>2</v>
+      </c>
+      <c r="Y188" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -15212,11 +15263,14 @@
       <c r="W189">
         <v>2</v>
       </c>
-      <c r="X189" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X189">
+        <v>2</v>
+      </c>
+      <c r="Y189" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -15283,11 +15337,14 @@
       <c r="W190">
         <v>2</v>
       </c>
-      <c r="X190" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X190">
+        <v>2</v>
+      </c>
+      <c r="Y190" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -15354,11 +15411,14 @@
       <c r="W191">
         <v>2</v>
       </c>
-      <c r="X191" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X191">
+        <v>2</v>
+      </c>
+      <c r="Y191" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -15425,11 +15485,14 @@
       <c r="W192">
         <v>2</v>
       </c>
-      <c r="X192" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X192">
+        <v>2</v>
+      </c>
+      <c r="Y192" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -15496,11 +15559,14 @@
       <c r="W193">
         <v>2</v>
       </c>
-      <c r="X193" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X193">
+        <v>2</v>
+      </c>
+      <c r="Y193" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -15567,11 +15633,14 @@
       <c r="W194">
         <v>2</v>
       </c>
-      <c r="X194" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X194">
+        <v>2</v>
+      </c>
+      <c r="Y194" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -15638,11 +15707,14 @@
       <c r="W195">
         <v>2</v>
       </c>
-      <c r="X195" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X195">
+        <v>2</v>
+      </c>
+      <c r="Y195" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -15709,11 +15781,14 @@
       <c r="W196">
         <v>1</v>
       </c>
-      <c r="X196" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X196">
+        <v>1</v>
+      </c>
+      <c r="Y196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -15780,11 +15855,14 @@
       <c r="W197">
         <v>2</v>
       </c>
-      <c r="X197" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X197">
+        <v>2</v>
+      </c>
+      <c r="Y197" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -15851,11 +15929,14 @@
       <c r="W198">
         <v>2</v>
       </c>
-      <c r="X198" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X198">
+        <v>2</v>
+      </c>
+      <c r="Y198" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -15922,11 +16003,14 @@
       <c r="W199">
         <v>2</v>
       </c>
-      <c r="X199" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X199">
+        <v>2</v>
+      </c>
+      <c r="Y199" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -15993,11 +16077,14 @@
       <c r="W200">
         <v>2</v>
       </c>
-      <c r="X200" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X200">
+        <v>2</v>
+      </c>
+      <c r="Y200" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -16064,11 +16151,14 @@
       <c r="W201">
         <v>2</v>
       </c>
-      <c r="X201" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X201">
+        <v>2</v>
+      </c>
+      <c r="Y201" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -16135,11 +16225,14 @@
       <c r="W202">
         <v>1</v>
       </c>
-      <c r="X202" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X202">
+        <v>1</v>
+      </c>
+      <c r="Y202" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -16206,11 +16299,14 @@
       <c r="W203">
         <v>2</v>
       </c>
-      <c r="X203" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X203">
+        <v>2</v>
+      </c>
+      <c r="Y203" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -16277,11 +16373,14 @@
       <c r="W204">
         <v>2</v>
       </c>
-      <c r="X204" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X204">
+        <v>2</v>
+      </c>
+      <c r="Y204" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -16348,11 +16447,14 @@
       <c r="W205">
         <v>2</v>
       </c>
-      <c r="X205" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X205">
+        <v>2</v>
+      </c>
+      <c r="Y205" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -16419,11 +16521,14 @@
       <c r="W206">
         <v>2</v>
       </c>
-      <c r="X206" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X206">
+        <v>2</v>
+      </c>
+      <c r="Y206" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -16490,11 +16595,14 @@
       <c r="W207">
         <v>2</v>
       </c>
-      <c r="X207" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X207">
+        <v>2</v>
+      </c>
+      <c r="Y207" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -16561,11 +16669,14 @@
       <c r="W208">
         <v>2</v>
       </c>
-      <c r="X208" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X208">
+        <v>2</v>
+      </c>
+      <c r="Y208" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -16632,11 +16743,14 @@
       <c r="W209">
         <v>2</v>
       </c>
-      <c r="X209" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X209">
+        <v>2</v>
+      </c>
+      <c r="Y209" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -16703,11 +16817,14 @@
       <c r="W210">
         <v>2</v>
       </c>
-      <c r="X210" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X210">
+        <v>2</v>
+      </c>
+      <c r="Y210" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -16774,11 +16891,14 @@
       <c r="W211">
         <v>2</v>
       </c>
-      <c r="X211" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X211">
+        <v>2</v>
+      </c>
+      <c r="Y211" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -16845,11 +16965,14 @@
       <c r="W212">
         <v>2</v>
       </c>
-      <c r="X212" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X212">
+        <v>2</v>
+      </c>
+      <c r="Y212" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -16916,11 +17039,14 @@
       <c r="W213">
         <v>2</v>
       </c>
-      <c r="X213" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X213">
+        <v>2</v>
+      </c>
+      <c r="Y213" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -16987,11 +17113,14 @@
       <c r="W214">
         <v>2</v>
       </c>
-      <c r="X214" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X214">
+        <v>2</v>
+      </c>
+      <c r="Y214" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -17058,11 +17187,14 @@
       <c r="W215">
         <v>2</v>
       </c>
-      <c r="X215" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X215">
+        <v>2</v>
+      </c>
+      <c r="Y215" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -17129,11 +17261,14 @@
       <c r="W216">
         <v>1</v>
       </c>
-      <c r="X216" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X216">
+        <v>1</v>
+      </c>
+      <c r="Y216" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -17200,11 +17335,14 @@
       <c r="W217">
         <v>1</v>
       </c>
-      <c r="X217" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X217">
+        <v>1</v>
+      </c>
+      <c r="Y217" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -17271,11 +17409,14 @@
       <c r="W218">
         <v>2</v>
       </c>
-      <c r="X218" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X218">
+        <v>2</v>
+      </c>
+      <c r="Y218" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -17342,11 +17483,14 @@
       <c r="W219">
         <v>2</v>
       </c>
-      <c r="X219" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X219">
+        <v>2</v>
+      </c>
+      <c r="Y219" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -17413,11 +17557,14 @@
       <c r="W220">
         <v>2</v>
       </c>
-      <c r="X220" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X220">
+        <v>2</v>
+      </c>
+      <c r="Y220" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -17484,11 +17631,14 @@
       <c r="W221">
         <v>2</v>
       </c>
-      <c r="X221" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X221">
+        <v>2</v>
+      </c>
+      <c r="Y221" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -17555,11 +17705,14 @@
       <c r="W222">
         <v>2</v>
       </c>
-      <c r="X222" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X222">
+        <v>2</v>
+      </c>
+      <c r="Y222" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17626,11 +17779,14 @@
       <c r="W223">
         <v>2</v>
       </c>
-      <c r="X223" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X223">
+        <v>2</v>
+      </c>
+      <c r="Y223" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -17697,11 +17853,14 @@
       <c r="W224">
         <v>1</v>
       </c>
-      <c r="X224" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -17768,11 +17927,14 @@
       <c r="W225">
         <v>2</v>
       </c>
-      <c r="X225" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X225">
+        <v>2</v>
+      </c>
+      <c r="Y225" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -17839,11 +18001,14 @@
       <c r="W226">
         <v>1</v>
       </c>
-      <c r="X226" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -17910,11 +18075,14 @@
       <c r="W227">
         <v>2</v>
       </c>
-      <c r="X227" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X227">
+        <v>2</v>
+      </c>
+      <c r="Y227" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -17981,11 +18149,14 @@
       <c r="W228">
         <v>2</v>
       </c>
-      <c r="X228" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X228">
+        <v>2</v>
+      </c>
+      <c r="Y228" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -18052,11 +18223,14 @@
       <c r="W229">
         <v>2</v>
       </c>
-      <c r="X229" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X229">
+        <v>2</v>
+      </c>
+      <c r="Y229" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -18123,11 +18297,14 @@
       <c r="W230">
         <v>2</v>
       </c>
-      <c r="X230" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X230">
+        <v>2</v>
+      </c>
+      <c r="Y230" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -18194,11 +18371,14 @@
       <c r="W231">
         <v>2</v>
       </c>
-      <c r="X231" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X231">
+        <v>2</v>
+      </c>
+      <c r="Y231" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -18265,11 +18445,14 @@
       <c r="W232">
         <v>2</v>
       </c>
-      <c r="X232" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X232">
+        <v>2</v>
+      </c>
+      <c r="Y232" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -18336,11 +18519,14 @@
       <c r="W233">
         <v>2</v>
       </c>
-      <c r="X233" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X233">
+        <v>2</v>
+      </c>
+      <c r="Y233" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -18407,11 +18593,14 @@
       <c r="W234">
         <v>2</v>
       </c>
-      <c r="X234" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X234">
+        <v>2</v>
+      </c>
+      <c r="Y234" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -18478,11 +18667,14 @@
       <c r="W235">
         <v>2</v>
       </c>
-      <c r="X235" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X235">
+        <v>2</v>
+      </c>
+      <c r="Y235" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -18549,11 +18741,14 @@
       <c r="W236">
         <v>2</v>
       </c>
-      <c r="X236" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X236">
+        <v>2</v>
+      </c>
+      <c r="Y236" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -18620,11 +18815,14 @@
       <c r="W237">
         <v>2</v>
       </c>
-      <c r="X237" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X237">
+        <v>2</v>
+      </c>
+      <c r="Y237" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -18691,11 +18889,14 @@
       <c r="W238">
         <v>2</v>
       </c>
-      <c r="X238" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X238">
+        <v>2</v>
+      </c>
+      <c r="Y238" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -18762,11 +18963,14 @@
       <c r="W239">
         <v>2</v>
       </c>
-      <c r="X239" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X239">
+        <v>2</v>
+      </c>
+      <c r="Y239" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -18833,11 +19037,14 @@
       <c r="W240">
         <v>2</v>
       </c>
-      <c r="X240" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X240">
+        <v>2</v>
+      </c>
+      <c r="Y240" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -18904,11 +19111,14 @@
       <c r="W241">
         <v>2</v>
       </c>
-      <c r="X241" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X241">
+        <v>2</v>
+      </c>
+      <c r="Y241" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -18975,11 +19185,14 @@
       <c r="W242">
         <v>2</v>
       </c>
-      <c r="X242" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X242">
+        <v>2</v>
+      </c>
+      <c r="Y242" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -19046,11 +19259,14 @@
       <c r="W243">
         <v>2</v>
       </c>
-      <c r="X243" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X243">
+        <v>2</v>
+      </c>
+      <c r="Y243" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -19117,11 +19333,14 @@
       <c r="W244">
         <v>2</v>
       </c>
-      <c r="X244" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X244">
+        <v>2</v>
+      </c>
+      <c r="Y244" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -19188,11 +19407,14 @@
       <c r="W245">
         <v>2</v>
       </c>
-      <c r="X245" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X245">
+        <v>2</v>
+      </c>
+      <c r="Y245" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -19259,11 +19481,14 @@
       <c r="W246">
         <v>2</v>
       </c>
-      <c r="X246" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X246">
+        <v>2</v>
+      </c>
+      <c r="Y246" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -19330,11 +19555,14 @@
       <c r="W247">
         <v>1</v>
       </c>
-      <c r="X247" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X247">
+        <v>1</v>
+      </c>
+      <c r="Y247" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -19401,11 +19629,14 @@
       <c r="W248">
         <v>2</v>
       </c>
-      <c r="X248" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X248">
+        <v>2</v>
+      </c>
+      <c r="Y248" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -19472,11 +19703,14 @@
       <c r="W249">
         <v>2</v>
       </c>
-      <c r="X249" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X249">
+        <v>2</v>
+      </c>
+      <c r="Y249" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -19543,11 +19777,14 @@
       <c r="W250">
         <v>1</v>
       </c>
-      <c r="X250" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X250">
+        <v>1</v>
+      </c>
+      <c r="Y250" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -19614,11 +19851,14 @@
       <c r="W251">
         <v>2</v>
       </c>
-      <c r="X251" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X251">
+        <v>2</v>
+      </c>
+      <c r="Y251" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -19685,11 +19925,14 @@
       <c r="W252">
         <v>2</v>
       </c>
-      <c r="X252" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X252">
+        <v>2</v>
+      </c>
+      <c r="Y252" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -19756,11 +19999,14 @@
       <c r="W253">
         <v>1</v>
       </c>
-      <c r="X253" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X253">
+        <v>1</v>
+      </c>
+      <c r="Y253" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -19827,11 +20073,14 @@
       <c r="W254">
         <v>2</v>
       </c>
-      <c r="X254" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X254">
+        <v>2</v>
+      </c>
+      <c r="Y254" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -19898,11 +20147,14 @@
       <c r="W255">
         <v>2</v>
       </c>
-      <c r="X255" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X255">
+        <v>2</v>
+      </c>
+      <c r="Y255" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -19969,11 +20221,14 @@
       <c r="W256">
         <v>2</v>
       </c>
-      <c r="X256" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X256">
+        <v>2</v>
+      </c>
+      <c r="Y256" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -20040,11 +20295,14 @@
       <c r="W257">
         <v>2</v>
       </c>
-      <c r="X257" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X257">
+        <v>2</v>
+      </c>
+      <c r="Y257" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -20111,11 +20369,14 @@
       <c r="W258">
         <v>2</v>
       </c>
-      <c r="X258" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X258">
+        <v>2</v>
+      </c>
+      <c r="Y258" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -20182,11 +20443,14 @@
       <c r="W259">
         <v>1</v>
       </c>
-      <c r="X259" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X259">
+        <v>1</v>
+      </c>
+      <c r="Y259" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -20253,11 +20517,14 @@
       <c r="W260">
         <v>1</v>
       </c>
-      <c r="X260" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X260">
+        <v>1</v>
+      </c>
+      <c r="Y260" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -20324,11 +20591,14 @@
       <c r="W261">
         <v>1</v>
       </c>
-      <c r="X261" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X261">
+        <v>1</v>
+      </c>
+      <c r="Y261" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -20395,11 +20665,14 @@
       <c r="W262">
         <v>1</v>
       </c>
-      <c r="X262" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X262">
+        <v>1</v>
+      </c>
+      <c r="Y262" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -20466,11 +20739,14 @@
       <c r="W263">
         <v>1</v>
       </c>
-      <c r="X263" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X263">
+        <v>2</v>
+      </c>
+      <c r="Y263" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -20537,11 +20813,14 @@
       <c r="W264">
         <v>1</v>
       </c>
-      <c r="X264" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X264">
+        <v>1</v>
+      </c>
+      <c r="Y264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -20608,11 +20887,14 @@
       <c r="W265">
         <v>2</v>
       </c>
-      <c r="X265" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X265">
+        <v>2</v>
+      </c>
+      <c r="Y265" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>282</v>
       </c>
@@ -20679,11 +20961,14 @@
       <c r="W266">
         <v>1</v>
       </c>
-      <c r="X266" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X266">
+        <v>1</v>
+      </c>
+      <c r="Y266" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>283</v>
       </c>
@@ -20750,11 +21035,14 @@
       <c r="W267">
         <v>1</v>
       </c>
-      <c r="X267" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X267">
+        <v>1</v>
+      </c>
+      <c r="Y267" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>284</v>
       </c>
@@ -20821,11 +21109,14 @@
       <c r="W268">
         <v>0</v>
       </c>
-      <c r="X268" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>285</v>
       </c>
@@ -20892,11 +21183,14 @@
       <c r="W269">
         <v>1</v>
       </c>
-      <c r="X269" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X269">
+        <v>1</v>
+      </c>
+      <c r="Y269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>286</v>
       </c>
@@ -20963,11 +21257,14 @@
       <c r="W270">
         <v>2</v>
       </c>
-      <c r="X270" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X270">
+        <v>2</v>
+      </c>
+      <c r="Y270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>287</v>
       </c>
@@ -21034,11 +21331,14 @@
       <c r="W271">
         <v>2</v>
       </c>
-      <c r="X271" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X271">
+        <v>2</v>
+      </c>
+      <c r="Y271" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>288</v>
       </c>
@@ -23093,7 +23393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>323</v>
       </c>
@@ -23155,7 +23455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>324</v>
       </c>
@@ -23217,7 +23517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>325</v>
       </c>
@@ -23279,7 +23579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>326</v>
       </c>
@@ -23341,7 +23641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>327</v>
       </c>
@@ -23406,7 +23706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>328</v>
       </c>
@@ -23471,7 +23771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>329</v>
       </c>
@@ -23533,7 +23833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>330</v>
       </c>
@@ -23600,11 +23900,14 @@
       <c r="W312">
         <v>3</v>
       </c>
-      <c r="X312" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X312">
+        <v>3</v>
+      </c>
+      <c r="Y312" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>331</v>
       </c>
@@ -23669,7 +23972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>332</v>
       </c>
@@ -23736,11 +24039,14 @@
       <c r="W314">
         <v>3</v>
       </c>
-      <c r="X314" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X314">
+        <v>3</v>
+      </c>
+      <c r="Y314" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>333</v>
       </c>
@@ -23802,7 +24108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>334</v>
       </c>
@@ -23864,7 +24170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>335</v>
       </c>
@@ -23926,7 +24232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>336</v>
       </c>
@@ -23988,7 +24294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>337</v>
       </c>
@@ -24050,7 +24356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>338</v>
       </c>
@@ -24112,7 +24418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>339</v>
       </c>
@@ -24174,7 +24480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>340</v>
       </c>
@@ -24236,7 +24542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>341</v>
       </c>
@@ -24298,7 +24604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>342</v>
       </c>
@@ -24360,7 +24666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>343</v>
       </c>
@@ -24422,7 +24728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>344</v>
       </c>
@@ -24489,11 +24795,14 @@
       <c r="W326">
         <v>3</v>
       </c>
-      <c r="X326" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X326">
+        <v>3</v>
+      </c>
+      <c r="Y326" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>345</v>
       </c>
@@ -24560,82 +24869,85 @@
       <c r="W327">
         <v>3</v>
       </c>
-      <c r="X327" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="X327">
+        <v>3</v>
+      </c>
+      <c r="Y327" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B328">
-        <v>3</v>
-      </c>
-      <c r="C328" t="s">
+      <c r="B328" s="3">
+        <v>3</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G328" t="s">
-        <v>646</v>
-      </c>
-      <c r="H328" t="s">
-        <v>646</v>
-      </c>
-      <c r="I328" t="s">
-        <v>646</v>
-      </c>
-      <c r="J328" t="s">
-        <v>646</v>
-      </c>
-      <c r="K328" t="s">
-        <v>646</v>
-      </c>
-      <c r="L328" t="s">
-        <v>646</v>
-      </c>
-      <c r="M328">
-        <v>0</v>
-      </c>
-      <c r="N328">
-        <v>0</v>
-      </c>
-      <c r="O328">
-        <v>0</v>
-      </c>
-      <c r="P328">
-        <v>0</v>
-      </c>
-      <c r="Q328">
-        <v>1</v>
-      </c>
-      <c r="R328">
-        <v>2</v>
-      </c>
-      <c r="S328">
-        <v>2</v>
-      </c>
-      <c r="T328">
-        <v>3</v>
-      </c>
-      <c r="U328">
-        <v>3</v>
-      </c>
-      <c r="V328">
-        <v>4</v>
-      </c>
-      <c r="W328">
-        <v>3</v>
-      </c>
-      <c r="X328" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M328" s="3">
+        <v>0</v>
+      </c>
+      <c r="N328" s="3">
+        <v>0</v>
+      </c>
+      <c r="O328" s="3">
+        <v>0</v>
+      </c>
+      <c r="P328" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="3">
+        <v>1</v>
+      </c>
+      <c r="R328" s="3">
+        <v>2</v>
+      </c>
+      <c r="S328" s="3">
+        <v>2</v>
+      </c>
+      <c r="T328" s="3">
+        <v>3</v>
+      </c>
+      <c r="U328" s="3">
+        <v>3</v>
+      </c>
+      <c r="V328" s="3">
+        <v>4</v>
+      </c>
+      <c r="W328" s="3">
+        <v>3</v>
+      </c>
+      <c r="X328" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>347</v>
       </c>
@@ -24697,7 +25009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>348</v>
       </c>
@@ -24759,7 +25071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>349</v>
       </c>
@@ -24821,7 +25133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>350</v>
       </c>
@@ -24891,11 +25203,14 @@
       <c r="W332">
         <v>3</v>
       </c>
-      <c r="X332" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X332">
+        <v>3</v>
+      </c>
+      <c r="Y332" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>351</v>
       </c>
@@ -24960,7 +25275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>352</v>
       </c>
@@ -25022,7 +25337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>353</v>
       </c>
@@ -25084,7 +25399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>354</v>
       </c>
@@ -25149,7 +25464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>355</v>
       </c>
@@ -25211,7 +25526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>356</v>
       </c>
@@ -25273,7 +25588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>357</v>
       </c>
@@ -25335,7 +25650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>358</v>
       </c>
@@ -25403,7 +25718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>359</v>
       </c>
@@ -25468,7 +25783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>360</v>
       </c>
@@ -25535,11 +25850,14 @@
       <c r="W342">
         <v>3</v>
       </c>
-      <c r="X342" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X342">
+        <v>3</v>
+      </c>
+      <c r="Y342" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>361</v>
       </c>
@@ -25601,78 +25919,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="344" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B344">
-        <v>1</v>
-      </c>
-      <c r="C344" t="s">
+      <c r="B344" s="3">
+        <v>1</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G344" t="s">
-        <v>646</v>
-      </c>
-      <c r="H344" t="s">
-        <v>646</v>
-      </c>
-      <c r="I344" t="s">
-        <v>646</v>
-      </c>
-      <c r="J344" t="s">
-        <v>646</v>
-      </c>
-      <c r="K344" t="s">
-        <v>646</v>
-      </c>
-      <c r="L344" t="s">
-        <v>646</v>
-      </c>
-      <c r="M344">
-        <v>0</v>
-      </c>
-      <c r="N344">
-        <v>1</v>
-      </c>
-      <c r="O344">
-        <v>1</v>
-      </c>
-      <c r="P344">
-        <v>1</v>
-      </c>
-      <c r="Q344">
-        <v>1</v>
-      </c>
-      <c r="R344">
-        <v>2</v>
-      </c>
-      <c r="S344">
-        <v>2</v>
-      </c>
-      <c r="T344">
-        <v>2</v>
-      </c>
-      <c r="U344">
-        <v>3</v>
-      </c>
-      <c r="V344">
-        <v>3</v>
-      </c>
-      <c r="W344">
-        <v>3</v>
-      </c>
-      <c r="X344" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="345" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M344" s="3">
+        <v>0</v>
+      </c>
+      <c r="N344" s="3">
+        <v>1</v>
+      </c>
+      <c r="O344" s="3">
+        <v>1</v>
+      </c>
+      <c r="P344" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q344" s="3">
+        <v>1</v>
+      </c>
+      <c r="R344" s="3">
+        <v>2</v>
+      </c>
+      <c r="S344" s="3">
+        <v>2</v>
+      </c>
+      <c r="T344" s="3">
+        <v>2</v>
+      </c>
+      <c r="U344" s="3">
+        <v>3</v>
+      </c>
+      <c r="V344" s="3">
+        <v>3</v>
+      </c>
+      <c r="W344" s="3">
+        <v>3</v>
+      </c>
+      <c r="X344" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>363</v>
       </c>
@@ -25734,7 +26052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>364</v>
       </c>
@@ -25799,7 +26117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>365</v>
       </c>
@@ -25861,7 +26179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>366</v>
       </c>
@@ -25923,78 +26241,78 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row r="349" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B349">
-        <v>2</v>
-      </c>
-      <c r="C349" t="s">
+      <c r="B349" s="3">
+        <v>2</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E349" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G349" t="s">
-        <v>646</v>
-      </c>
-      <c r="H349" t="s">
-        <v>646</v>
-      </c>
-      <c r="I349" t="s">
-        <v>646</v>
-      </c>
-      <c r="J349" t="s">
-        <v>646</v>
-      </c>
-      <c r="K349" t="s">
-        <v>646</v>
-      </c>
-      <c r="L349" t="s">
-        <v>646</v>
-      </c>
-      <c r="M349">
-        <v>0</v>
-      </c>
-      <c r="N349">
-        <v>0</v>
-      </c>
-      <c r="O349">
-        <v>0</v>
-      </c>
-      <c r="P349">
-        <v>1</v>
-      </c>
-      <c r="Q349">
-        <v>2</v>
-      </c>
-      <c r="R349">
-        <v>2</v>
-      </c>
-      <c r="S349">
-        <v>3</v>
-      </c>
-      <c r="T349">
-        <v>3</v>
-      </c>
-      <c r="U349">
-        <v>3</v>
-      </c>
-      <c r="V349">
-        <v>3</v>
-      </c>
-      <c r="W349">
-        <v>3</v>
-      </c>
-      <c r="X349" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="350" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="M349" s="3">
+        <v>0</v>
+      </c>
+      <c r="N349" s="3">
+        <v>0</v>
+      </c>
+      <c r="O349" s="3">
+        <v>0</v>
+      </c>
+      <c r="P349" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q349" s="3">
+        <v>2</v>
+      </c>
+      <c r="R349" s="3">
+        <v>2</v>
+      </c>
+      <c r="S349" s="3">
+        <v>3</v>
+      </c>
+      <c r="T349" s="3">
+        <v>3</v>
+      </c>
+      <c r="U349" s="3">
+        <v>3</v>
+      </c>
+      <c r="V349" s="3">
+        <v>3</v>
+      </c>
+      <c r="W349" s="3">
+        <v>3</v>
+      </c>
+      <c r="X349" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>368</v>
       </c>
@@ -26056,7 +26374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>369</v>
       </c>
@@ -26118,7 +26436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>370</v>
       </c>
@@ -26180,7 +26498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>371</v>
       </c>
@@ -26245,7 +26563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>372</v>
       </c>
@@ -26307,7 +26625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>373</v>
       </c>
@@ -26374,11 +26692,14 @@
       <c r="W355">
         <v>3</v>
       </c>
-      <c r="X355" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X355">
+        <v>3</v>
+      </c>
+      <c r="Y355" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>374</v>
       </c>
@@ -26440,7 +26761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>375</v>
       </c>
@@ -26505,7 +26826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>376</v>
       </c>
@@ -26567,7 +26888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>379</v>
       </c>
@@ -26629,7 +26950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>380</v>
       </c>
@@ -26691,7 +27012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>381</v>
       </c>
@@ -26753,7 +27074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>382</v>
       </c>
@@ -26815,7 +27136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>383</v>
       </c>
@@ -26877,7 +27198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>384</v>
       </c>
@@ -26939,7 +27260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>385</v>
       </c>
@@ -27001,7 +27322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>386</v>
       </c>
@@ -27063,7 +27384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>387</v>
       </c>
@@ -27125,7 +27446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>388</v>
       </c>
@@ -30178,7 +30499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="417" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>436</v>
       </c>
@@ -30240,7 +30561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>437</v>
       </c>
@@ -30302,7 +30623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="419" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>438</v>
       </c>
@@ -30364,7 +30685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>439</v>
       </c>
@@ -30426,7 +30747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>440</v>
       </c>
@@ -30488,7 +30809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>441</v>
       </c>
@@ -30550,7 +30871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>442</v>
       </c>
@@ -30612,7 +30933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
         <v>443</v>
       </c>
@@ -30674,7 +30995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="425" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="3" t="s">
         <v>444</v>
       </c>
@@ -30739,7 +31060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="3" t="s">
         <v>445</v>
       </c>
@@ -30801,7 +31122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="427" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="3" t="s">
         <v>446</v>
       </c>
@@ -30863,7 +31184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="3" t="s">
         <v>447</v>
       </c>
@@ -30925,7 +31246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="3" t="s">
         <v>448</v>
       </c>
@@ -30987,7 +31308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="430" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
         <v>449</v>
       </c>
@@ -31049,7 +31370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>450</v>
       </c>
@@ -31119,11 +31440,14 @@
       <c r="W431" t="s">
         <v>646</v>
       </c>
-      <c r="X431" s="7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="432" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X431" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y431" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="432" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="3" t="s">
         <v>451</v>
       </c>
@@ -31185,7 +31509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="433" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
         <v>452</v>
       </c>
@@ -31247,7 +31571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="3" t="s">
         <v>453</v>
       </c>
@@ -31309,7 +31633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="3" t="s">
         <v>454</v>
       </c>
@@ -31374,7 +31698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="3" t="s">
         <v>455</v>
       </c>
@@ -31436,7 +31760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="437" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="3" t="s">
         <v>456</v>
       </c>
@@ -31498,7 +31822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="438" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="3" t="s">
         <v>457</v>
       </c>
@@ -31560,7 +31884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="439" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
         <v>458</v>
       </c>
@@ -31622,7 +31946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>459</v>
       </c>
@@ -31689,11 +32013,14 @@
       <c r="W440" s="5">
         <v>1</v>
       </c>
-      <c r="X440" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X440">
+        <v>2</v>
+      </c>
+      <c r="Y440" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>462</v>
       </c>
@@ -31760,11 +32087,14 @@
       <c r="W441" s="6">
         <v>2</v>
       </c>
-      <c r="X441" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X441">
+        <v>3</v>
+      </c>
+      <c r="Y441" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>463</v>
       </c>
@@ -31831,11 +32161,14 @@
       <c r="W442">
         <v>2</v>
       </c>
-      <c r="X442" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X442">
+        <v>2</v>
+      </c>
+      <c r="Y442" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>464</v>
       </c>
@@ -31902,11 +32235,14 @@
       <c r="W443">
         <v>3</v>
       </c>
-      <c r="X443" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X443">
+        <v>3</v>
+      </c>
+      <c r="Y443" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>465</v>
       </c>
@@ -31973,11 +32309,14 @@
       <c r="W444">
         <v>2</v>
       </c>
-      <c r="X444" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X444">
+        <v>3</v>
+      </c>
+      <c r="Y444" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>466</v>
       </c>
@@ -32044,11 +32383,14 @@
       <c r="W445">
         <v>3</v>
       </c>
-      <c r="X445" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X445">
+        <v>3</v>
+      </c>
+      <c r="Y445" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>467</v>
       </c>
@@ -32115,11 +32457,14 @@
       <c r="W446">
         <v>3</v>
       </c>
-      <c r="X446" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X446">
+        <v>3</v>
+      </c>
+      <c r="Y446" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>468</v>
       </c>
@@ -32186,11 +32531,14 @@
       <c r="W447">
         <v>3</v>
       </c>
-      <c r="X447" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X447">
+        <v>3</v>
+      </c>
+      <c r="Y447" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>469</v>
       </c>
@@ -32257,11 +32605,14 @@
       <c r="W448">
         <v>3</v>
       </c>
-      <c r="X448" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X448">
+        <v>3</v>
+      </c>
+      <c r="Y448" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>470</v>
       </c>
@@ -32328,11 +32679,14 @@
       <c r="W449">
         <v>3</v>
       </c>
-      <c r="X449" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X449">
+        <v>3</v>
+      </c>
+      <c r="Y449" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>471</v>
       </c>
@@ -32402,11 +32756,14 @@
       <c r="W450">
         <v>2</v>
       </c>
-      <c r="X450" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X450">
+        <v>2</v>
+      </c>
+      <c r="Y450" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>472</v>
       </c>
@@ -32476,11 +32833,14 @@
       <c r="W451">
         <v>2</v>
       </c>
-      <c r="X451" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X451">
+        <v>3</v>
+      </c>
+      <c r="Y451" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>473</v>
       </c>
@@ -32550,11 +32910,14 @@
       <c r="W452">
         <v>1</v>
       </c>
-      <c r="X452" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X452">
+        <v>2</v>
+      </c>
+      <c r="Y452" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>474</v>
       </c>
@@ -32621,11 +32984,14 @@
       <c r="W453">
         <v>1</v>
       </c>
-      <c r="X453" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X453">
+        <v>1</v>
+      </c>
+      <c r="Y453" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>475</v>
       </c>
@@ -32692,11 +33058,14 @@
       <c r="W454">
         <v>3</v>
       </c>
-      <c r="X454" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X454">
+        <v>3</v>
+      </c>
+      <c r="Y454" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>476</v>
       </c>
@@ -32763,11 +33132,14 @@
       <c r="W455">
         <v>3</v>
       </c>
-      <c r="X455" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X455">
+        <v>3</v>
+      </c>
+      <c r="Y455" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>477</v>
       </c>
@@ -32834,11 +33206,14 @@
       <c r="W456">
         <v>3</v>
       </c>
-      <c r="X456" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X456">
+        <v>4</v>
+      </c>
+      <c r="Y456" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>478</v>
       </c>
@@ -32905,11 +33280,14 @@
       <c r="W457">
         <v>3</v>
       </c>
-      <c r="X457" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X457">
+        <v>3</v>
+      </c>
+      <c r="Y457" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>479</v>
       </c>
@@ -32976,11 +33354,14 @@
       <c r="W458">
         <v>3</v>
       </c>
-      <c r="X458" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X458">
+        <v>3</v>
+      </c>
+      <c r="Y458" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>480</v>
       </c>
@@ -33047,11 +33428,14 @@
       <c r="W459">
         <v>3</v>
       </c>
-      <c r="X459" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X459">
+        <v>3</v>
+      </c>
+      <c r="Y459" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>481</v>
       </c>
@@ -33118,11 +33502,14 @@
       <c r="W460">
         <v>3</v>
       </c>
-      <c r="X460" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X460">
+        <v>4</v>
+      </c>
+      <c r="Y460" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>482</v>
       </c>
@@ -33189,11 +33576,14 @@
       <c r="W461">
         <v>2</v>
       </c>
-      <c r="X461" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X461">
+        <v>2</v>
+      </c>
+      <c r="Y461" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>483</v>
       </c>
@@ -33260,11 +33650,14 @@
       <c r="W462">
         <v>3</v>
       </c>
-      <c r="X462" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X462">
+        <v>3</v>
+      </c>
+      <c r="Y462" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>484</v>
       </c>
@@ -33331,11 +33724,14 @@
       <c r="W463">
         <v>3</v>
       </c>
-      <c r="X463" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X463">
+        <v>3</v>
+      </c>
+      <c r="Y463" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>485</v>
       </c>
@@ -33402,11 +33798,14 @@
       <c r="W464">
         <v>3</v>
       </c>
-      <c r="X464" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X464">
+        <v>3</v>
+      </c>
+      <c r="Y464" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>486</v>
       </c>
@@ -33473,11 +33872,14 @@
       <c r="W465">
         <v>1</v>
       </c>
-      <c r="X465" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X465">
+        <v>1</v>
+      </c>
+      <c r="Y465" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>487</v>
       </c>
@@ -33544,11 +33946,14 @@
       <c r="W466">
         <v>3</v>
       </c>
-      <c r="X466" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X466">
+        <v>3</v>
+      </c>
+      <c r="Y466" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>488</v>
       </c>
@@ -33615,11 +34020,14 @@
       <c r="W467">
         <v>2</v>
       </c>
-      <c r="X467" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X467">
+        <v>2</v>
+      </c>
+      <c r="Y467" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>489</v>
       </c>
@@ -33686,11 +34094,14 @@
       <c r="W468">
         <v>2</v>
       </c>
-      <c r="X468" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X468">
+        <v>3</v>
+      </c>
+      <c r="Y468" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>490</v>
       </c>
@@ -33760,11 +34171,14 @@
       <c r="W469">
         <v>1</v>
       </c>
-      <c r="X469" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X469">
+        <v>1</v>
+      </c>
+      <c r="Y469" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>491</v>
       </c>
@@ -33831,11 +34245,14 @@
       <c r="W470">
         <v>1</v>
       </c>
-      <c r="X470" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X470">
+        <v>2</v>
+      </c>
+      <c r="Y470" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>492</v>
       </c>
@@ -33905,11 +34322,14 @@
       <c r="W471">
         <v>1</v>
       </c>
-      <c r="X471" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X471">
+        <v>1</v>
+      </c>
+      <c r="Y471" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>493</v>
       </c>
@@ -33976,11 +34396,14 @@
       <c r="W472">
         <v>1</v>
       </c>
-      <c r="X472" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X472">
+        <v>1</v>
+      </c>
+      <c r="Y472" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>494</v>
       </c>
@@ -34047,11 +34470,14 @@
       <c r="W473">
         <v>0</v>
       </c>
-      <c r="X473" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X473">
+        <v>1</v>
+      </c>
+      <c r="Y473" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>495</v>
       </c>
@@ -34118,11 +34544,14 @@
       <c r="W474">
         <v>1</v>
       </c>
-      <c r="X474" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X474">
+        <v>2</v>
+      </c>
+      <c r="Y474" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>496</v>
       </c>
@@ -34189,11 +34618,14 @@
       <c r="W475">
         <v>2</v>
       </c>
-      <c r="X475" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X475">
+        <v>3</v>
+      </c>
+      <c r="Y475" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>497</v>
       </c>
@@ -34260,11 +34692,14 @@
       <c r="W476">
         <v>1</v>
       </c>
-      <c r="X476" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X476">
+        <v>2</v>
+      </c>
+      <c r="Y476" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>498</v>
       </c>
@@ -34331,11 +34766,14 @@
       <c r="W477">
         <v>1</v>
       </c>
-      <c r="X477" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X477">
+        <v>1</v>
+      </c>
+      <c r="Y477" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>499</v>
       </c>
@@ -34402,11 +34840,14 @@
       <c r="W478">
         <v>1</v>
       </c>
-      <c r="X478" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X478">
+        <v>1</v>
+      </c>
+      <c r="Y478" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>500</v>
       </c>
@@ -34473,11 +34914,14 @@
       <c r="W479">
         <v>2</v>
       </c>
-      <c r="X479" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X479">
+        <v>2</v>
+      </c>
+      <c r="Y479" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>501</v>
       </c>
@@ -34547,11 +34991,14 @@
       <c r="W480">
         <v>1</v>
       </c>
-      <c r="X480" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X480">
+        <v>1</v>
+      </c>
+      <c r="Y480" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>502</v>
       </c>
@@ -34621,11 +35068,14 @@
       <c r="W481">
         <v>1</v>
       </c>
-      <c r="X481" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X481">
+        <v>1</v>
+      </c>
+      <c r="Y481" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>503</v>
       </c>
@@ -34692,11 +35142,14 @@
       <c r="W482">
         <v>0</v>
       </c>
-      <c r="X482" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>504</v>
       </c>
@@ -34763,11 +35216,14 @@
       <c r="W483">
         <v>3</v>
       </c>
-      <c r="X483" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X483">
+        <v>3</v>
+      </c>
+      <c r="Y483" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>505</v>
       </c>
@@ -34834,11 +35290,14 @@
       <c r="W484">
         <v>3</v>
       </c>
-      <c r="X484" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X484">
+        <v>3</v>
+      </c>
+      <c r="Y484" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>506</v>
       </c>
@@ -34905,11 +35364,14 @@
       <c r="W485">
         <v>2</v>
       </c>
-      <c r="X485" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X485">
+        <v>2</v>
+      </c>
+      <c r="Y485" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>507</v>
       </c>
@@ -34976,11 +35438,14 @@
       <c r="W486">
         <v>1</v>
       </c>
-      <c r="X486" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X486">
+        <v>1</v>
+      </c>
+      <c r="Y486" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>508</v>
       </c>
@@ -35047,11 +35512,14 @@
       <c r="W487">
         <v>3</v>
       </c>
-      <c r="X487" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X487">
+        <v>4</v>
+      </c>
+      <c r="Y487" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>509</v>
       </c>
@@ -35118,11 +35586,14 @@
       <c r="W488">
         <v>3</v>
       </c>
-      <c r="X488" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X488">
+        <v>3</v>
+      </c>
+      <c r="Y488" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>510</v>
       </c>
@@ -35189,11 +35660,14 @@
       <c r="W489">
         <v>2</v>
       </c>
-      <c r="X489" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X489">
+        <v>3</v>
+      </c>
+      <c r="Y489" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>511</v>
       </c>
@@ -35260,11 +35734,14 @@
       <c r="W490">
         <v>3</v>
       </c>
-      <c r="X490" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X490">
+        <v>3</v>
+      </c>
+      <c r="Y490" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>512</v>
       </c>
@@ -35331,11 +35808,14 @@
       <c r="W491">
         <v>3</v>
       </c>
-      <c r="X491" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X491">
+        <v>4</v>
+      </c>
+      <c r="Y491" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>513</v>
       </c>
@@ -35402,11 +35882,14 @@
       <c r="W492">
         <v>3</v>
       </c>
-      <c r="X492" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X492">
+        <v>4</v>
+      </c>
+      <c r="Y492" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>514</v>
       </c>
@@ -35473,11 +35956,14 @@
       <c r="W493">
         <v>3</v>
       </c>
-      <c r="X493" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X493">
+        <v>4</v>
+      </c>
+      <c r="Y493" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>515</v>
       </c>
@@ -35544,11 +36030,14 @@
       <c r="W494">
         <v>2</v>
       </c>
-      <c r="X494" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X494">
+        <v>2</v>
+      </c>
+      <c r="Y494" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>516</v>
       </c>
@@ -35615,11 +36104,14 @@
       <c r="W495">
         <v>2</v>
       </c>
-      <c r="X495" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X495">
+        <v>3</v>
+      </c>
+      <c r="Y495" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>517</v>
       </c>
@@ -35686,11 +36178,14 @@
       <c r="W496">
         <v>1</v>
       </c>
-      <c r="X496" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X496">
+        <v>1</v>
+      </c>
+      <c r="Y496" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>518</v>
       </c>
@@ -35760,11 +36255,14 @@
       <c r="W497">
         <v>1</v>
       </c>
-      <c r="X497" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X497">
+        <v>1</v>
+      </c>
+      <c r="Y497" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>519</v>
       </c>
@@ -35831,11 +36329,14 @@
       <c r="W498">
         <v>3</v>
       </c>
-      <c r="X498" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X498">
+        <v>3</v>
+      </c>
+      <c r="Y498" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>520</v>
       </c>
@@ -35902,11 +36403,14 @@
       <c r="W499">
         <v>1</v>
       </c>
-      <c r="X499" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X499">
+        <v>2</v>
+      </c>
+      <c r="Y499" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>521</v>
       </c>
@@ -35973,11 +36477,14 @@
       <c r="W500">
         <v>2</v>
       </c>
-      <c r="X500" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X500">
+        <v>3</v>
+      </c>
+      <c r="Y500" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>522</v>
       </c>
@@ -36044,11 +36551,14 @@
       <c r="W501">
         <v>1</v>
       </c>
-      <c r="X501" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X501">
+        <v>2</v>
+      </c>
+      <c r="Y501" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>523</v>
       </c>
@@ -36115,11 +36625,14 @@
       <c r="W502">
         <v>1</v>
       </c>
-      <c r="X502" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X502">
+        <v>2</v>
+      </c>
+      <c r="Y502" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>524</v>
       </c>
@@ -36186,11 +36699,14 @@
       <c r="W503">
         <v>3</v>
       </c>
-      <c r="X503" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X503">
+        <v>3</v>
+      </c>
+      <c r="Y503" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>525</v>
       </c>
@@ -36260,11 +36776,14 @@
       <c r="W504">
         <v>0</v>
       </c>
-      <c r="X504" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X504">
+        <v>0</v>
+      </c>
+      <c r="Y504" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>526</v>
       </c>
@@ -36331,11 +36850,14 @@
       <c r="W505">
         <v>1</v>
       </c>
-      <c r="X505" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X505">
+        <v>2</v>
+      </c>
+      <c r="Y505" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>527</v>
       </c>
@@ -36402,11 +36924,14 @@
       <c r="W506">
         <v>2</v>
       </c>
-      <c r="X506" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X506">
+        <v>3</v>
+      </c>
+      <c r="Y506" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>528</v>
       </c>
@@ -36473,11 +36998,14 @@
       <c r="W507">
         <v>0</v>
       </c>
-      <c r="X507" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X507">
+        <v>0</v>
+      </c>
+      <c r="Y507" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>529</v>
       </c>
@@ -36544,11 +37072,14 @@
       <c r="W508">
         <v>2</v>
       </c>
-      <c r="X508" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X508">
+        <v>2</v>
+      </c>
+      <c r="Y508" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>530</v>
       </c>
@@ -36615,11 +37146,14 @@
       <c r="W509">
         <v>2</v>
       </c>
-      <c r="X509" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X509">
+        <v>2</v>
+      </c>
+      <c r="Y509" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>531</v>
       </c>
@@ -36686,11 +37220,14 @@
       <c r="W510">
         <v>1</v>
       </c>
-      <c r="X510" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X510">
+        <v>2</v>
+      </c>
+      <c r="Y510" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>532</v>
       </c>
@@ -36757,11 +37294,14 @@
       <c r="W511">
         <v>2</v>
       </c>
-      <c r="X511" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X511">
+        <v>2</v>
+      </c>
+      <c r="Y511" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>533</v>
       </c>
@@ -36828,11 +37368,14 @@
       <c r="W512">
         <v>2</v>
       </c>
-      <c r="X512" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X512">
+        <v>3</v>
+      </c>
+      <c r="Y512" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>534</v>
       </c>
@@ -36899,11 +37442,14 @@
       <c r="W513">
         <v>1</v>
       </c>
-      <c r="X513" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X513">
+        <v>1</v>
+      </c>
+      <c r="Y513" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>535</v>
       </c>
@@ -36970,11 +37516,14 @@
       <c r="W514">
         <v>0</v>
       </c>
-      <c r="X514" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X514">
+        <v>0</v>
+      </c>
+      <c r="Y514" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>536</v>
       </c>
@@ -37041,11 +37590,14 @@
       <c r="W515">
         <v>2</v>
       </c>
-      <c r="X515" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X515">
+        <v>3</v>
+      </c>
+      <c r="Y515" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>537</v>
       </c>
@@ -37112,11 +37664,14 @@
       <c r="W516">
         <v>3</v>
       </c>
-      <c r="X516" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X516">
+        <v>3</v>
+      </c>
+      <c r="Y516" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>538</v>
       </c>
@@ -37183,11 +37738,14 @@
       <c r="W517">
         <v>2</v>
       </c>
-      <c r="X517" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X517">
+        <v>2</v>
+      </c>
+      <c r="Y517" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>539</v>
       </c>
@@ -37254,11 +37812,14 @@
       <c r="W518">
         <v>2</v>
       </c>
-      <c r="X518" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X518">
+        <v>2</v>
+      </c>
+      <c r="Y518" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>540</v>
       </c>
@@ -37325,11 +37886,14 @@
       <c r="W519">
         <v>2</v>
       </c>
-      <c r="X519" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X519">
+        <v>2</v>
+      </c>
+      <c r="Y519" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>541</v>
       </c>
@@ -37396,11 +37960,14 @@
       <c r="W520">
         <v>3</v>
       </c>
-      <c r="X520" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X520">
+        <v>4</v>
+      </c>
+      <c r="Y520" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>542</v>
       </c>
@@ -37467,11 +38034,14 @@
       <c r="W521">
         <v>1</v>
       </c>
-      <c r="X521" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X521">
+        <v>1</v>
+      </c>
+      <c r="Y521" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>543</v>
       </c>
@@ -37538,11 +38108,14 @@
       <c r="W522">
         <v>2</v>
       </c>
-      <c r="X522" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X522">
+        <v>2</v>
+      </c>
+      <c r="Y522" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>544</v>
       </c>
@@ -37612,11 +38185,14 @@
       <c r="W523">
         <v>2</v>
       </c>
-      <c r="X523" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X523">
+        <v>2</v>
+      </c>
+      <c r="Y523" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>545</v>
       </c>
@@ -37686,11 +38262,14 @@
       <c r="W524">
         <v>1</v>
       </c>
-      <c r="X524" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X524">
+        <v>1</v>
+      </c>
+      <c r="Y524" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>546</v>
       </c>
@@ -37757,11 +38336,14 @@
       <c r="W525">
         <v>2</v>
       </c>
-      <c r="X525" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X525">
+        <v>2</v>
+      </c>
+      <c r="Y525" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>547</v>
       </c>
@@ -37828,11 +38410,14 @@
       <c r="W526">
         <v>1</v>
       </c>
-      <c r="X526" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X526">
+        <v>1</v>
+      </c>
+      <c r="Y526" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>548</v>
       </c>
@@ -37899,11 +38484,14 @@
       <c r="W527">
         <v>2</v>
       </c>
-      <c r="X527" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X527">
+        <v>2</v>
+      </c>
+      <c r="Y527" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>549</v>
       </c>
@@ -37940,9 +38528,9 @@
       <c r="M528">
         <v>0</v>
       </c>
-      <c r="X528" s="7"/>
-    </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y528" s="7"/>
+    </row>
+    <row r="529" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>552</v>
       </c>
@@ -37979,9 +38567,9 @@
       <c r="M529">
         <v>0</v>
       </c>
-      <c r="X529" s="7"/>
-    </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y529" s="7"/>
+    </row>
+    <row r="530" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>553</v>
       </c>
@@ -38018,9 +38606,9 @@
       <c r="M530">
         <v>0</v>
       </c>
-      <c r="X530" s="7"/>
-    </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y530" s="7"/>
+    </row>
+    <row r="531" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>554</v>
       </c>
@@ -38057,9 +38645,9 @@
       <c r="M531">
         <v>0</v>
       </c>
-      <c r="X531" s="7"/>
-    </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y531" s="7"/>
+    </row>
+    <row r="532" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>555</v>
       </c>
@@ -38096,9 +38684,9 @@
       <c r="M532">
         <v>0</v>
       </c>
-      <c r="X532" s="7"/>
-    </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y532" s="7"/>
+    </row>
+    <row r="533" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>556</v>
       </c>
@@ -38135,9 +38723,9 @@
       <c r="M533">
         <v>0</v>
       </c>
-      <c r="X533" s="7"/>
-    </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y533" s="7"/>
+    </row>
+    <row r="534" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>557</v>
       </c>
@@ -38174,9 +38762,9 @@
       <c r="M534">
         <v>0</v>
       </c>
-      <c r="X534" s="7"/>
-    </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y534" s="7"/>
+    </row>
+    <row r="535" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>558</v>
       </c>
@@ -38213,9 +38801,9 @@
       <c r="M535">
         <v>0</v>
       </c>
-      <c r="X535" s="7"/>
-    </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y535" s="7"/>
+    </row>
+    <row r="536" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>559</v>
       </c>
@@ -38252,9 +38840,9 @@
       <c r="M536">
         <v>0</v>
       </c>
-      <c r="X536" s="7"/>
-    </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y536" s="7"/>
+    </row>
+    <row r="537" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>560</v>
       </c>
@@ -38291,9 +38879,9 @@
       <c r="M537">
         <v>0</v>
       </c>
-      <c r="X537" s="7"/>
-    </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y537" s="7"/>
+    </row>
+    <row r="538" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>561</v>
       </c>
@@ -38330,9 +38918,9 @@
       <c r="M538">
         <v>0</v>
       </c>
-      <c r="X538" s="7"/>
-    </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y538" s="7"/>
+    </row>
+    <row r="539" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>562</v>
       </c>
@@ -38369,9 +38957,9 @@
       <c r="M539">
         <v>0</v>
       </c>
-      <c r="X539" s="7"/>
-    </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y539" s="7"/>
+    </row>
+    <row r="540" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>563</v>
       </c>
@@ -38408,9 +38996,9 @@
       <c r="M540">
         <v>0</v>
       </c>
-      <c r="X540" s="7"/>
-    </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y540" s="7"/>
+    </row>
+    <row r="541" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>564</v>
       </c>
@@ -38447,9 +39035,9 @@
       <c r="M541">
         <v>0</v>
       </c>
-      <c r="X541" s="7"/>
-    </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y541" s="7"/>
+    </row>
+    <row r="542" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>565</v>
       </c>
@@ -38486,9 +39074,9 @@
       <c r="M542">
         <v>0</v>
       </c>
-      <c r="X542" s="7"/>
-    </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y542" s="7"/>
+    </row>
+    <row r="543" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>566</v>
       </c>
@@ -38525,9 +39113,9 @@
       <c r="M543">
         <v>0</v>
       </c>
-      <c r="X543" s="7"/>
-    </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y543" s="7"/>
+    </row>
+    <row r="544" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>567</v>
       </c>
@@ -38564,9 +39152,9 @@
       <c r="M544">
         <v>0</v>
       </c>
-      <c r="X544" s="7"/>
-    </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y544" s="7"/>
+    </row>
+    <row r="545" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>568</v>
       </c>
@@ -38603,9 +39191,9 @@
       <c r="M545">
         <v>0</v>
       </c>
-      <c r="X545" s="7"/>
-    </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y545" s="7"/>
+    </row>
+    <row r="546" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>569</v>
       </c>
@@ -38642,9 +39230,9 @@
       <c r="M546">
         <v>0</v>
       </c>
-      <c r="X546" s="7"/>
-    </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y546" s="7"/>
+    </row>
+    <row r="547" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>570</v>
       </c>
@@ -38681,9 +39269,9 @@
       <c r="M547">
         <v>0</v>
       </c>
-      <c r="X547" s="7"/>
-    </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y547" s="7"/>
+    </row>
+    <row r="548" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>571</v>
       </c>
@@ -38720,9 +39308,9 @@
       <c r="M548">
         <v>0</v>
       </c>
-      <c r="X548" s="7"/>
-    </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y548" s="7"/>
+    </row>
+    <row r="549" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>572</v>
       </c>
@@ -38759,9 +39347,9 @@
       <c r="M549">
         <v>0</v>
       </c>
-      <c r="X549" s="7"/>
-    </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y549" s="7"/>
+    </row>
+    <row r="550" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>573</v>
       </c>
@@ -38798,9 +39386,9 @@
       <c r="M550">
         <v>0</v>
       </c>
-      <c r="X550" s="7"/>
-    </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y550" s="7"/>
+    </row>
+    <row r="551" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>574</v>
       </c>
@@ -38837,9 +39425,9 @@
       <c r="M551">
         <v>0</v>
       </c>
-      <c r="X551" s="7"/>
-    </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y551" s="7"/>
+    </row>
+    <row r="552" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>575</v>
       </c>
@@ -38876,9 +39464,9 @@
       <c r="M552">
         <v>0</v>
       </c>
-      <c r="X552" s="7"/>
-    </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y552" s="7"/>
+    </row>
+    <row r="553" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>576</v>
       </c>
@@ -38915,9 +39503,9 @@
       <c r="M553">
         <v>0</v>
       </c>
-      <c r="X553" s="7"/>
-    </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y553" s="7"/>
+    </row>
+    <row r="554" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>577</v>
       </c>
@@ -38954,9 +39542,9 @@
       <c r="M554">
         <v>0</v>
       </c>
-      <c r="X554" s="7"/>
-    </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y554" s="7"/>
+    </row>
+    <row r="555" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>578</v>
       </c>
@@ -38993,9 +39581,9 @@
       <c r="M555">
         <v>0</v>
       </c>
-      <c r="X555" s="7"/>
-    </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y555" s="7"/>
+    </row>
+    <row r="556" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>579</v>
       </c>
@@ -39032,9 +39620,9 @@
       <c r="M556">
         <v>0</v>
       </c>
-      <c r="X556" s="7"/>
-    </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y556" s="7"/>
+    </row>
+    <row r="557" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>580</v>
       </c>
@@ -39071,9 +39659,9 @@
       <c r="M557">
         <v>0</v>
       </c>
-      <c r="X557" s="7"/>
-    </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y557" s="7"/>
+    </row>
+    <row r="558" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>581</v>
       </c>
@@ -39110,9 +39698,9 @@
       <c r="M558">
         <v>0</v>
       </c>
-      <c r="X558" s="7"/>
-    </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y558" s="7"/>
+    </row>
+    <row r="559" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>582</v>
       </c>
@@ -39149,9 +39737,9 @@
       <c r="M559">
         <v>0</v>
       </c>
-      <c r="X559" s="7"/>
-    </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y559" s="7"/>
+    </row>
+    <row r="560" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>583</v>
       </c>
@@ -39188,9 +39776,9 @@
       <c r="M560">
         <v>0</v>
       </c>
-      <c r="X560" s="7"/>
-    </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y560" s="7"/>
+    </row>
+    <row r="561" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>584</v>
       </c>
@@ -39227,9 +39815,9 @@
       <c r="M561">
         <v>0</v>
       </c>
-      <c r="X561" s="7"/>
-    </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y561" s="7"/>
+    </row>
+    <row r="562" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>585</v>
       </c>
@@ -39266,9 +39854,9 @@
       <c r="M562">
         <v>0</v>
       </c>
-      <c r="X562" s="7"/>
-    </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y562" s="7"/>
+    </row>
+    <row r="563" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>586</v>
       </c>
@@ -39305,9 +39893,9 @@
       <c r="M563">
         <v>0</v>
       </c>
-      <c r="X563" s="7"/>
-    </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y563" s="7"/>
+    </row>
+    <row r="564" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>587</v>
       </c>
@@ -39344,9 +39932,9 @@
       <c r="M564">
         <v>0</v>
       </c>
-      <c r="X564" s="7"/>
-    </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y564" s="7"/>
+    </row>
+    <row r="565" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>588</v>
       </c>
@@ -39383,9 +39971,9 @@
       <c r="M565">
         <v>0</v>
       </c>
-      <c r="X565" s="7"/>
-    </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y565" s="7"/>
+    </row>
+    <row r="566" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>589</v>
       </c>
@@ -39422,9 +40010,9 @@
       <c r="M566">
         <v>0</v>
       </c>
-      <c r="X566" s="7"/>
-    </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y566" s="7"/>
+    </row>
+    <row r="567" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>590</v>
       </c>
@@ -39461,9 +40049,9 @@
       <c r="M567">
         <v>0</v>
       </c>
-      <c r="X567" s="7"/>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y567" s="7"/>
+    </row>
+    <row r="568" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>591</v>
       </c>
@@ -39500,9 +40088,9 @@
       <c r="M568">
         <v>0</v>
       </c>
-      <c r="X568" s="7"/>
-    </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y568" s="7"/>
+    </row>
+    <row r="569" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>592</v>
       </c>
@@ -39539,9 +40127,9 @@
       <c r="M569">
         <v>0</v>
       </c>
-      <c r="X569" s="7"/>
-    </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y569" s="7"/>
+    </row>
+    <row r="570" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>593</v>
       </c>
@@ -39578,9 +40166,9 @@
       <c r="M570">
         <v>0</v>
       </c>
-      <c r="X570" s="7"/>
-    </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y570" s="7"/>
+    </row>
+    <row r="571" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>594</v>
       </c>
@@ -39617,9 +40205,9 @@
       <c r="M571">
         <v>0</v>
       </c>
-      <c r="X571" s="7"/>
-    </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y571" s="7"/>
+    </row>
+    <row r="572" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>595</v>
       </c>
@@ -39656,9 +40244,9 @@
       <c r="M572">
         <v>0</v>
       </c>
-      <c r="X572" s="7"/>
-    </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y572" s="7"/>
+    </row>
+    <row r="573" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>596</v>
       </c>
@@ -39695,9 +40283,9 @@
       <c r="M573">
         <v>0</v>
       </c>
-      <c r="X573" s="7"/>
-    </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y573" s="7"/>
+    </row>
+    <row r="574" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>597</v>
       </c>
@@ -39734,9 +40322,9 @@
       <c r="M574">
         <v>0</v>
       </c>
-      <c r="X574" s="7"/>
-    </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y574" s="7"/>
+    </row>
+    <row r="575" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>598</v>
       </c>
@@ -39773,9 +40361,9 @@
       <c r="M575">
         <v>0</v>
       </c>
-      <c r="X575" s="7"/>
-    </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y575" s="7"/>
+    </row>
+    <row r="576" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>599</v>
       </c>
@@ -39812,9 +40400,9 @@
       <c r="M576">
         <v>0</v>
       </c>
-      <c r="X576" s="7"/>
-    </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y576" s="7"/>
+    </row>
+    <row r="577" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>600</v>
       </c>
@@ -39851,9 +40439,9 @@
       <c r="M577">
         <v>0</v>
       </c>
-      <c r="X577" s="7"/>
-    </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y577" s="7"/>
+    </row>
+    <row r="578" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>601</v>
       </c>
@@ -39890,9 +40478,9 @@
       <c r="M578">
         <v>0</v>
       </c>
-      <c r="X578" s="7"/>
-    </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y578" s="7"/>
+    </row>
+    <row r="579" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>602</v>
       </c>
@@ -39929,9 +40517,9 @@
       <c r="M579">
         <v>0</v>
       </c>
-      <c r="X579" s="7"/>
-    </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y579" s="7"/>
+    </row>
+    <row r="580" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>603</v>
       </c>
@@ -39968,9 +40556,9 @@
       <c r="M580">
         <v>0</v>
       </c>
-      <c r="X580" s="7"/>
-    </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y580" s="7"/>
+    </row>
+    <row r="581" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>604</v>
       </c>
@@ -40007,9 +40595,9 @@
       <c r="M581">
         <v>0</v>
       </c>
-      <c r="X581" s="7"/>
-    </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y581" s="7"/>
+    </row>
+    <row r="582" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>605</v>
       </c>
@@ -40046,9 +40634,9 @@
       <c r="M582">
         <v>0</v>
       </c>
-      <c r="X582" s="7"/>
-    </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y582" s="7"/>
+    </row>
+    <row r="583" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>606</v>
       </c>
@@ -40085,9 +40673,9 @@
       <c r="M583">
         <v>0</v>
       </c>
-      <c r="X583" s="7"/>
-    </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y583" s="7"/>
+    </row>
+    <row r="584" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>607</v>
       </c>
@@ -40124,9 +40712,9 @@
       <c r="M584">
         <v>0</v>
       </c>
-      <c r="X584" s="7"/>
-    </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y584" s="7"/>
+    </row>
+    <row r="585" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>608</v>
       </c>
@@ -40163,9 +40751,9 @@
       <c r="M585">
         <v>0</v>
       </c>
-      <c r="X585" s="7"/>
-    </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y585" s="7"/>
+    </row>
+    <row r="586" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>609</v>
       </c>
@@ -40202,9 +40790,9 @@
       <c r="M586">
         <v>0</v>
       </c>
-      <c r="X586" s="7"/>
-    </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y586" s="7"/>
+    </row>
+    <row r="587" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>610</v>
       </c>
@@ -40241,9 +40829,9 @@
       <c r="M587">
         <v>0</v>
       </c>
-      <c r="X587" s="7"/>
-    </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y587" s="7"/>
+    </row>
+    <row r="588" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>611</v>
       </c>
@@ -40280,9 +40868,9 @@
       <c r="M588">
         <v>0</v>
       </c>
-      <c r="X588" s="7"/>
-    </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y588" s="7"/>
+    </row>
+    <row r="589" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>612</v>
       </c>
@@ -40319,9 +40907,9 @@
       <c r="M589">
         <v>0</v>
       </c>
-      <c r="X589" s="7"/>
-    </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y589" s="7"/>
+    </row>
+    <row r="590" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>613</v>
       </c>
@@ -40358,9 +40946,9 @@
       <c r="M590">
         <v>0</v>
       </c>
-      <c r="X590" s="7"/>
-    </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y590" s="7"/>
+    </row>
+    <row r="591" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>614</v>
       </c>
@@ -40397,9 +40985,9 @@
       <c r="M591">
         <v>0</v>
       </c>
-      <c r="X591" s="7"/>
-    </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y591" s="7"/>
+    </row>
+    <row r="592" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>615</v>
       </c>
@@ -40436,9 +41024,9 @@
       <c r="M592">
         <v>0</v>
       </c>
-      <c r="X592" s="7"/>
-    </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y592" s="7"/>
+    </row>
+    <row r="593" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>616</v>
       </c>
@@ -40475,9 +41063,9 @@
       <c r="M593">
         <v>0</v>
       </c>
-      <c r="X593" s="7"/>
-    </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y593" s="7"/>
+    </row>
+    <row r="594" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>617</v>
       </c>
@@ -40514,9 +41102,9 @@
       <c r="M594">
         <v>0</v>
       </c>
-      <c r="X594" s="7"/>
-    </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y594" s="7"/>
+    </row>
+    <row r="595" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>618</v>
       </c>
@@ -40553,9 +41141,9 @@
       <c r="M595">
         <v>0</v>
       </c>
-      <c r="X595" s="7"/>
-    </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y595" s="7"/>
+    </row>
+    <row r="596" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>619</v>
       </c>
@@ -40592,9 +41180,9 @@
       <c r="M596">
         <v>0</v>
       </c>
-      <c r="X596" s="7"/>
-    </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y596" s="7"/>
+    </row>
+    <row r="597" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>620</v>
       </c>
@@ -40631,9 +41219,9 @@
       <c r="M597">
         <v>0</v>
       </c>
-      <c r="X597" s="7"/>
-    </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y597" s="7"/>
+    </row>
+    <row r="598" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>621</v>
       </c>
@@ -40670,9 +41258,9 @@
       <c r="M598">
         <v>0</v>
       </c>
-      <c r="X598" s="7"/>
-    </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y598" s="7"/>
+    </row>
+    <row r="599" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>622</v>
       </c>
@@ -40709,9 +41297,9 @@
       <c r="M599">
         <v>0</v>
       </c>
-      <c r="X599" s="7"/>
-    </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y599" s="7"/>
+    </row>
+    <row r="600" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>623</v>
       </c>
@@ -40748,9 +41336,9 @@
       <c r="M600">
         <v>0</v>
       </c>
-      <c r="X600" s="7"/>
-    </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y600" s="7"/>
+    </row>
+    <row r="601" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>624</v>
       </c>
@@ -40787,9 +41375,9 @@
       <c r="M601">
         <v>0</v>
       </c>
-      <c r="X601" s="7"/>
-    </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y601" s="7"/>
+    </row>
+    <row r="602" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>625</v>
       </c>
@@ -40826,9 +41414,9 @@
       <c r="M602">
         <v>0</v>
       </c>
-      <c r="X602" s="7"/>
-    </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y602" s="7"/>
+    </row>
+    <row r="603" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>626</v>
       </c>
@@ -40865,9 +41453,9 @@
       <c r="M603">
         <v>0</v>
       </c>
-      <c r="X603" s="7"/>
-    </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y603" s="7"/>
+    </row>
+    <row r="604" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>627</v>
       </c>
@@ -40904,9 +41492,9 @@
       <c r="M604">
         <v>0</v>
       </c>
-      <c r="X604" s="7"/>
-    </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y604" s="7"/>
+    </row>
+    <row r="605" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>628</v>
       </c>
@@ -40943,9 +41531,9 @@
       <c r="M605">
         <v>0</v>
       </c>
-      <c r="X605" s="7"/>
-    </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y605" s="7"/>
+    </row>
+    <row r="606" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>629</v>
       </c>
@@ -40982,9 +41570,9 @@
       <c r="M606">
         <v>0</v>
       </c>
-      <c r="X606" s="7"/>
-    </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y606" s="7"/>
+    </row>
+    <row r="607" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>630</v>
       </c>
@@ -41021,9 +41609,9 @@
       <c r="M607">
         <v>0</v>
       </c>
-      <c r="X607" s="7"/>
-    </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y607" s="7"/>
+    </row>
+    <row r="608" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>631</v>
       </c>
@@ -41060,9 +41648,9 @@
       <c r="M608">
         <v>0</v>
       </c>
-      <c r="X608" s="7"/>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y608" s="7"/>
+    </row>
+    <row r="609" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>632</v>
       </c>
@@ -41099,9 +41687,9 @@
       <c r="M609">
         <v>0</v>
       </c>
-      <c r="X609" s="7"/>
-    </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y609" s="7"/>
+    </row>
+    <row r="610" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>633</v>
       </c>
@@ -41138,9 +41726,9 @@
       <c r="M610">
         <v>0</v>
       </c>
-      <c r="X610" s="7"/>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y610" s="7"/>
+    </row>
+    <row r="611" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>634</v>
       </c>
@@ -41177,9 +41765,9 @@
       <c r="M611">
         <v>0</v>
       </c>
-      <c r="X611" s="7"/>
-    </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y611" s="7"/>
+    </row>
+    <row r="612" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>635</v>
       </c>
@@ -41216,9 +41804,9 @@
       <c r="M612">
         <v>0</v>
       </c>
-      <c r="X612" s="7"/>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y612" s="7"/>
+    </row>
+    <row r="613" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>636</v>
       </c>
@@ -41255,9 +41843,9 @@
       <c r="M613">
         <v>0</v>
       </c>
-      <c r="X613" s="7"/>
-    </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y613" s="7"/>
+    </row>
+    <row r="614" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>637</v>
       </c>
@@ -41294,9 +41882,9 @@
       <c r="M614">
         <v>0</v>
       </c>
-      <c r="X614" s="7"/>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y614" s="7"/>
+    </row>
+    <row r="615" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>638</v>
       </c>
@@ -41333,9 +41921,9 @@
       <c r="M615">
         <v>0</v>
       </c>
-      <c r="X615" s="7"/>
-    </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y615" s="7"/>
+    </row>
+    <row r="616" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>639</v>
       </c>
@@ -41372,9 +41960,9 @@
       <c r="M616">
         <v>0</v>
       </c>
-      <c r="X616" s="7"/>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y616" s="7"/>
+    </row>
+    <row r="617" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>640</v>
       </c>
@@ -41411,7 +41999,7 @@
       <c r="M617">
         <v>0</v>
       </c>
-      <c r="X617" s="7"/>
+      <c r="Y617" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/data/monitoringPhenology/2025BudburstToBudset.xlsx
+++ b/data/monitoringPhenology/2025BudburstToBudset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ken Michiko Samson\Documents\Temporal Ecology Lab\fuelinex\data\monitoringPhenology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/fuelinex/data/monitoringPhenology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE2252-1388-4D4D-B7A2-6C1578AD108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0A69FD-C369-BE44-8D4A-A3DF42CE8744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="phenological_monitoring" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="676">
   <si>
     <t>tree_ID</t>
   </si>
@@ -2051,9 +2051,6 @@
     <t>107</t>
   </si>
   <si>
-    <t>doy107: looks dead</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
@@ -2061,6 +2058,12 @@
   </si>
   <si>
     <t>118</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>doy107: looks dead; doy121: resprouts from bottom. Invalid height and diameter measurements.</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2643,15 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2871,34 +2882,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:Y617" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:Y617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="3"/>
-    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{610971E3-31C1-49BD-9286-F131BA379911}" name="114" dataDxfId="1"/>
-    <tableColumn id="25" xr3:uid="{08C7B38B-105F-424D-8161-DF007618D3BB}" name="118" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}" name="Table1" displayName="Table1" ref="A1:Z617" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:Z617" xr:uid="{C09BEA22-6943-C148-893B-096C13910EF5}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{6B7D526F-2D16-104C-916C-5A8D81E298F2}" name="tree_ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E0C9A5F2-2115-B942-922F-AAB1B58E7971}" name="bloc" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{E831DF9D-4509-C149-9035-113E17D3C47E}" name="treatment" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{46E4B496-98D7-EF4E-B917-63C59D470B0E}" name="genus" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{E4287BC7-5F13-E048-B92E-B0AB4354A540}" name="species" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{DF32B4C3-F5AF-944B-B9F9-6C3DFC458380}" name="Notes" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{89D6A816-7A56-364B-816E-0B82780B394B}" name="57" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{F2085F24-54AA-6D4C-8BF8-8D7BF505E6CF}" name="59" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{72696102-DD3B-7F4D-A098-9B8AD4B6DB40}" name="62" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{23B102EE-E7DA-2843-8349-07D82AFC90E1}" name="65" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{36AAA3F3-1E4A-BC4D-8796-4412F9F17415}" name="69" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{42738E0B-03A1-B143-956E-18E905DC7669}" name="72" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{B888351C-3580-534A-A615-E859D11661A5}" name="76" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{65531A37-454A-7442-963C-AFEC5579D34C}" name="79" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{FF4A6802-60D8-DF4A-94F2-191455701878}" name="83" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{FB2BE431-BEA2-CF4E-969F-E657641A0533}" name="86" dataDxfId="10"/>
+    <tableColumn id="17" xr3:uid="{8042CBE3-8FE3-4140-AD98-7338BE4D08A5}" name="90" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{E22F4BF2-E940-5748-B96D-78D33A85A31C}" name="93" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{A6AF48ED-98EE-224E-AFC0-57231367638F}" name="97" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{50B2D6E5-A5F5-7D4B-933D-D6977615E1BB}" name="100" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{69100433-500D-0D47-8F8B-014E0F928A36}" name="104" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{8B8BF533-1960-774E-BA7D-2FE43B984A46}" name="107" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{55D37DFE-CCD2-409F-A71D-3F09B31DCFF5}" name="111" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{610971E3-31C1-49BD-9286-F131BA379911}" name="114" dataDxfId="2"/>
+    <tableColumn id="25" xr3:uid="{08C7B38B-105F-424D-8161-DF007618D3BB}" name="118" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{24C8C3FA-ECAF-A542-8FCB-7A9AC7BDB5D8}" name="121" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3221,20 +3233,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y617"/>
+  <dimension ref="A1:Z617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" zoomScale="98" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y527" sqref="Y527"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScale="162" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Z513" sqref="Z513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3302,16 +3314,19 @@
         <v>670</v>
       </c>
       <c r="W1" t="s">
+        <v>671</v>
+      </c>
+      <c r="X1" t="s">
         <v>672</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>673</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -3372,8 +3387,9 @@
       <c r="U2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3434,8 +3450,9 @@
       <c r="U3" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3496,8 +3513,9 @@
       <c r="U4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3558,8 +3576,9 @@
       <c r="U5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3620,8 +3639,9 @@
       <c r="U6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3682,8 +3702,9 @@
       <c r="U7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3744,8 +3765,9 @@
       <c r="U8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3809,8 +3831,9 @@
       <c r="V9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3871,8 +3894,9 @@
       <c r="U10" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3933,8 +3957,9 @@
       <c r="U11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="7"/>
+    </row>
+    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3995,8 +4020,9 @@
       <c r="U12" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="7"/>
+    </row>
+    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -4060,8 +4086,9 @@
       <c r="V13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="7"/>
+    </row>
+    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -4122,8 +4149,9 @@
       <c r="U14" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z14" s="7"/>
+    </row>
+    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -4187,8 +4215,9 @@
       <c r="V15" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="7"/>
+    </row>
+    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -4249,8 +4278,9 @@
       <c r="U16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="7"/>
+    </row>
+    <row r="17" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -4311,8 +4341,9 @@
       <c r="U17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="7"/>
+    </row>
+    <row r="18" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -4373,8 +4404,9 @@
       <c r="U18" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -4435,8 +4467,9 @@
       <c r="U19" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="7"/>
+    </row>
+    <row r="20" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -4497,8 +4530,9 @@
       <c r="U20" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="7"/>
+    </row>
+    <row r="21" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -4562,8 +4596,9 @@
       <c r="U21" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
@@ -4624,8 +4659,9 @@
       <c r="U22" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="7"/>
+    </row>
+    <row r="23" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>31</v>
       </c>
@@ -4686,8 +4722,9 @@
       <c r="U23" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="7"/>
+    </row>
+    <row r="24" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -4751,8 +4788,9 @@
       <c r="V24" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -4813,8 +4851,9 @@
       <c r="U25" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -4875,8 +4914,9 @@
       <c r="U26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -4937,8 +4977,9 @@
       <c r="U27" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -4999,8 +5040,9 @@
       <c r="U28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z28" s="7"/>
+    </row>
+    <row r="29" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -5064,8 +5106,9 @@
       <c r="V29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z29" s="7"/>
+    </row>
+    <row r="30" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -5126,8 +5169,9 @@
       <c r="U30" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z30" s="7"/>
+    </row>
+    <row r="31" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -5188,8 +5232,9 @@
       <c r="U31" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z31" s="7"/>
+    </row>
+    <row r="32" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -5250,8 +5295,9 @@
       <c r="U32" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -5312,8 +5358,9 @@
       <c r="U33" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z33" s="7"/>
+    </row>
+    <row r="34" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -5374,8 +5421,9 @@
       <c r="U34" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z34" s="7"/>
+    </row>
+    <row r="35" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -5439,8 +5487,9 @@
       <c r="V35" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z35" s="7"/>
+    </row>
+    <row r="36" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>45</v>
       </c>
@@ -5504,8 +5553,9 @@
       <c r="V36" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z36" s="7"/>
+    </row>
+    <row r="37" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>46</v>
       </c>
@@ -5569,8 +5619,9 @@
       <c r="V37" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z37" s="7"/>
+    </row>
+    <row r="38" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -5631,8 +5682,9 @@
       <c r="U38" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -5693,8 +5745,9 @@
       <c r="U39" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z39" s="7"/>
+    </row>
+    <row r="40" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>49</v>
       </c>
@@ -5758,8 +5811,9 @@
       <c r="V40" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z40" s="7"/>
+    </row>
+    <row r="41" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -5820,8 +5874,9 @@
       <c r="U41" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z41" s="7"/>
+    </row>
+    <row r="42" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>51</v>
       </c>
@@ -5882,8 +5937,9 @@
       <c r="U42" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z42" s="7"/>
+    </row>
+    <row r="43" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -5947,8 +6003,9 @@
       <c r="V43" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z43" s="7"/>
+    </row>
+    <row r="44" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>53</v>
       </c>
@@ -6012,8 +6069,9 @@
       <c r="V44" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z44" s="7"/>
+    </row>
+    <row r="45" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>54</v>
       </c>
@@ -6077,8 +6135,9 @@
       <c r="V45" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z45" s="7"/>
+    </row>
+    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>55</v>
       </c>
@@ -6142,8 +6201,9 @@
       <c r="V46" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -6204,8 +6264,9 @@
       <c r="U47" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z47" s="7"/>
+    </row>
+    <row r="48" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -6269,8 +6330,9 @@
       <c r="V48" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z48" s="7"/>
+    </row>
+    <row r="49" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>59</v>
       </c>
@@ -6331,8 +6393,9 @@
       <c r="U49" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z49" s="7"/>
+    </row>
+    <row r="50" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>60</v>
       </c>
@@ -6393,8 +6456,9 @@
       <c r="U50" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z50" s="7"/>
+    </row>
+    <row r="51" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>61</v>
       </c>
@@ -6455,8 +6519,9 @@
       <c r="U51" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z51" s="7"/>
+    </row>
+    <row r="52" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -6517,8 +6582,9 @@
       <c r="U52" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z52" s="7"/>
+    </row>
+    <row r="53" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>63</v>
       </c>
@@ -6579,8 +6645,9 @@
       <c r="U53" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z53" s="7"/>
+    </row>
+    <row r="54" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>64</v>
       </c>
@@ -6641,8 +6708,9 @@
       <c r="U54" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z54" s="7"/>
+    </row>
+    <row r="55" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>65</v>
       </c>
@@ -6703,8 +6771,9 @@
       <c r="U55" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z55" s="7"/>
+    </row>
+    <row r="56" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -6765,8 +6834,9 @@
       <c r="U56" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z56" s="7"/>
+    </row>
+    <row r="57" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>67</v>
       </c>
@@ -6827,8 +6897,9 @@
       <c r="U57" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z57" s="7"/>
+    </row>
+    <row r="58" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>68</v>
       </c>
@@ -6889,8 +6960,9 @@
       <c r="U58" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z58" s="7"/>
+    </row>
+    <row r="59" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>69</v>
       </c>
@@ -6951,8 +7023,9 @@
       <c r="U59" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z59" s="7"/>
+    </row>
+    <row r="60" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
@@ -7013,8 +7086,9 @@
       <c r="U60" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z60" s="7"/>
+    </row>
+    <row r="61" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>71</v>
       </c>
@@ -7075,8 +7149,9 @@
       <c r="U61" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z61" s="7"/>
+    </row>
+    <row r="62" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>72</v>
       </c>
@@ -7140,8 +7215,9 @@
       <c r="V62" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z62" s="7"/>
+    </row>
+    <row r="63" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>74</v>
       </c>
@@ -7211,8 +7287,9 @@
       <c r="X63" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z63" s="7"/>
+    </row>
+    <row r="64" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>75</v>
       </c>
@@ -7273,8 +7350,9 @@
       <c r="U64" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z64" s="7"/>
+    </row>
+    <row r="65" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>76</v>
       </c>
@@ -7335,8 +7413,9 @@
       <c r="U65" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z65" s="7"/>
+    </row>
+    <row r="66" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>77</v>
       </c>
@@ -7400,8 +7479,9 @@
       <c r="V66" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z66" s="7"/>
+    </row>
+    <row r="67" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>78</v>
       </c>
@@ -7465,8 +7545,9 @@
       <c r="V67" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
@@ -7530,8 +7611,9 @@
       <c r="V68" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z68" s="7"/>
+    </row>
+    <row r="69" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>80</v>
       </c>
@@ -7592,8 +7674,9 @@
       <c r="U69" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z69" s="7"/>
+    </row>
+    <row r="70" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
@@ -7654,8 +7737,9 @@
       <c r="U70" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z70" s="7"/>
+    </row>
+    <row r="71" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>82</v>
       </c>
@@ -7716,8 +7800,9 @@
       <c r="U71" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z71" s="7"/>
+    </row>
+    <row r="72" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>83</v>
       </c>
@@ -7778,8 +7863,9 @@
       <c r="U72" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z72" s="7"/>
+    </row>
+    <row r="73" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -7840,8 +7926,9 @@
       <c r="U73" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z73" s="7"/>
+    </row>
+    <row r="74" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -7902,8 +7989,9 @@
       <c r="U74" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z74" s="7"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -7973,11 +8061,12 @@
       <c r="X75">
         <v>3</v>
       </c>
-      <c r="Y75" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y75">
+        <v>4</v>
+      </c>
+      <c r="Z75" s="7"/>
+    </row>
+    <row r="76" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -8038,8 +8127,9 @@
       <c r="U76" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z76" s="7"/>
+    </row>
+    <row r="77" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -8100,8 +8190,9 @@
       <c r="U77" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z77" s="7"/>
+    </row>
+    <row r="78" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>90</v>
       </c>
@@ -8165,8 +8256,9 @@
       <c r="U78" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z78" s="7"/>
+    </row>
+    <row r="79" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>91</v>
       </c>
@@ -8227,8 +8319,9 @@
       <c r="U79" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z79" s="7"/>
+    </row>
+    <row r="80" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>92</v>
       </c>
@@ -8289,8 +8382,9 @@
       <c r="U80" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z80" s="7"/>
+    </row>
+    <row r="81" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>93</v>
       </c>
@@ -8351,8 +8445,9 @@
       <c r="U81" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z81" s="7"/>
+    </row>
+    <row r="82" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>94</v>
       </c>
@@ -8416,8 +8511,9 @@
       <c r="V82" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z82" s="7"/>
+    </row>
+    <row r="83" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>95</v>
       </c>
@@ -8478,8 +8574,9 @@
       <c r="U83" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z83" s="7"/>
+    </row>
+    <row r="84" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
@@ -8540,8 +8637,9 @@
       <c r="U84" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z84" s="7"/>
+    </row>
+    <row r="85" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>97</v>
       </c>
@@ -8602,8 +8700,9 @@
       <c r="U85" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z85" s="7"/>
+    </row>
+    <row r="86" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -8667,8 +8766,9 @@
       <c r="V86" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z86" s="7"/>
+    </row>
+    <row r="87" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -8729,8 +8829,9 @@
       <c r="U87" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z87" s="7"/>
+    </row>
+    <row r="88" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -8791,8 +8892,9 @@
       <c r="U88" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z88" s="7"/>
+    </row>
+    <row r="89" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -8853,8 +8955,9 @@
       <c r="U89" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z89" s="7"/>
+    </row>
+    <row r="90" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -8918,8 +9021,9 @@
       <c r="V90" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z90" s="7"/>
+    </row>
+    <row r="91" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -8983,8 +9087,9 @@
       <c r="V91" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z91" s="7"/>
+    </row>
+    <row r="92" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -9045,8 +9150,9 @@
       <c r="U92" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z92" s="7"/>
+    </row>
+    <row r="93" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>107</v>
       </c>
@@ -9107,8 +9213,9 @@
       <c r="U93" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z93" s="7"/>
+    </row>
+    <row r="94" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>108</v>
       </c>
@@ -9169,8 +9276,9 @@
       <c r="U94" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z94" s="7"/>
+    </row>
+    <row r="95" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>109</v>
       </c>
@@ -9231,8 +9339,9 @@
       <c r="U95" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z95" s="7"/>
+    </row>
+    <row r="96" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>110</v>
       </c>
@@ -9293,8 +9402,9 @@
       <c r="U96" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z96" s="7"/>
+    </row>
+    <row r="97" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -9355,8 +9465,9 @@
       <c r="U97" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z97" s="7"/>
+    </row>
+    <row r="98" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -9417,8 +9528,9 @@
       <c r="U98" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z98" s="7"/>
+    </row>
+    <row r="99" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>113</v>
       </c>
@@ -9479,8 +9591,9 @@
       <c r="U99" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z99" s="7"/>
+    </row>
+    <row r="100" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>114</v>
       </c>
@@ -9541,8 +9654,9 @@
       <c r="U100" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z100" s="7"/>
+    </row>
+    <row r="101" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>115</v>
       </c>
@@ -9603,8 +9717,9 @@
       <c r="U101" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z101" s="7"/>
+    </row>
+    <row r="102" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -9665,8 +9780,9 @@
       <c r="U102" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z102" s="7"/>
+    </row>
+    <row r="103" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>117</v>
       </c>
@@ -9736,8 +9852,9 @@
       <c r="X103" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z103" s="7"/>
+    </row>
+    <row r="104" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>118</v>
       </c>
@@ -9801,8 +9918,9 @@
       <c r="V104" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z104" s="7"/>
+    </row>
+    <row r="105" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>119</v>
       </c>
@@ -9863,8 +9981,9 @@
       <c r="U105" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z105" s="7"/>
+    </row>
+    <row r="106" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>120</v>
       </c>
@@ -9925,8 +10044,9 @@
       <c r="U106" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z106" s="7"/>
+    </row>
+    <row r="107" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>121</v>
       </c>
@@ -9987,8 +10107,9 @@
       <c r="U107" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z107" s="7"/>
+    </row>
+    <row r="108" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>122</v>
       </c>
@@ -10049,8 +10170,9 @@
       <c r="U108" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z108" s="7"/>
+    </row>
+    <row r="109" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>123</v>
       </c>
@@ -10111,8 +10233,9 @@
       <c r="U109" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z109" s="7"/>
+    </row>
+    <row r="110" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>124</v>
       </c>
@@ -10173,8 +10296,9 @@
       <c r="U110" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z110" s="7"/>
+    </row>
+    <row r="111" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>125</v>
       </c>
@@ -10235,8 +10359,9 @@
       <c r="U111" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z111" s="7"/>
+    </row>
+    <row r="112" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>126</v>
       </c>
@@ -10297,8 +10422,9 @@
       <c r="U112" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z112" s="7"/>
+    </row>
+    <row r="113" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>127</v>
       </c>
@@ -10359,8 +10485,9 @@
       <c r="U113" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z113" s="7"/>
+    </row>
+    <row r="114" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>128</v>
       </c>
@@ -10421,8 +10548,9 @@
       <c r="U114" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z114" s="7"/>
+    </row>
+    <row r="115" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>129</v>
       </c>
@@ -10483,8 +10611,9 @@
       <c r="U115" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z115" s="7"/>
+    </row>
+    <row r="116" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>130</v>
       </c>
@@ -10545,8 +10674,9 @@
       <c r="U116" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z116" s="7"/>
+    </row>
+    <row r="117" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>131</v>
       </c>
@@ -10610,8 +10740,9 @@
       <c r="V117" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z117" s="7"/>
+    </row>
+    <row r="118" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>132</v>
       </c>
@@ -10672,8 +10803,9 @@
       <c r="U118" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z118" s="7"/>
+    </row>
+    <row r="119" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>133</v>
       </c>
@@ -10734,8 +10866,9 @@
       <c r="U119" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z119" s="7"/>
+    </row>
+    <row r="120" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>134</v>
       </c>
@@ -10796,8 +10929,9 @@
       <c r="U120" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z120" s="7"/>
+    </row>
+    <row r="121" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>135</v>
       </c>
@@ -10858,8 +10992,9 @@
       <c r="U121" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z121" s="7"/>
+    </row>
+    <row r="122" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>136</v>
       </c>
@@ -10920,8 +11055,9 @@
       <c r="U122" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z122" s="7"/>
+    </row>
+    <row r="123" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>137</v>
       </c>
@@ -10982,8 +11118,9 @@
       <c r="U123" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z123" s="7"/>
+    </row>
+    <row r="124" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>138</v>
       </c>
@@ -11044,8 +11181,9 @@
       <c r="U124" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z124" s="7"/>
+    </row>
+    <row r="125" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>139</v>
       </c>
@@ -11112,8 +11250,9 @@
       <c r="W125" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z125" s="7"/>
+    </row>
+    <row r="126" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>140</v>
       </c>
@@ -11174,8 +11313,9 @@
       <c r="U126" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z126" s="7"/>
+    </row>
+    <row r="127" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>141</v>
       </c>
@@ -11236,8 +11376,9 @@
       <c r="U127" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z127" s="7"/>
+    </row>
+    <row r="128" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>142</v>
       </c>
@@ -11298,8 +11439,9 @@
       <c r="U128" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z128" s="7"/>
+    </row>
+    <row r="129" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>143</v>
       </c>
@@ -11360,8 +11502,9 @@
       <c r="U129" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z129" s="7"/>
+    </row>
+    <row r="130" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>144</v>
       </c>
@@ -11428,8 +11571,9 @@
       <c r="W130" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z130" s="7"/>
+    </row>
+    <row r="131" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>145</v>
       </c>
@@ -11490,8 +11634,9 @@
       <c r="U131" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z131" s="7"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>146</v>
       </c>
@@ -11561,11 +11706,14 @@
       <c r="X132">
         <v>3</v>
       </c>
-      <c r="Y132" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y132">
+        <v>3</v>
+      </c>
+      <c r="Z132" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>147</v>
       </c>
@@ -11626,8 +11774,9 @@
       <c r="U133" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z133" s="7"/>
+    </row>
+    <row r="134" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>148</v>
       </c>
@@ -11688,8 +11837,9 @@
       <c r="U134" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z134" s="7"/>
+    </row>
+    <row r="135" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>149</v>
       </c>
@@ -11750,8 +11900,9 @@
       <c r="U135" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z135" s="7"/>
+    </row>
+    <row r="136" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>150</v>
       </c>
@@ -11812,8 +11963,9 @@
       <c r="U136" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z136" s="7"/>
+    </row>
+    <row r="137" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>151</v>
       </c>
@@ -11874,8 +12026,9 @@
       <c r="U137" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z137" s="7"/>
+    </row>
+    <row r="138" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>152</v>
       </c>
@@ -11936,8 +12089,9 @@
       <c r="U138" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z138" s="7"/>
+    </row>
+    <row r="139" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>153</v>
       </c>
@@ -11998,8 +12152,9 @@
       <c r="U139" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z139" s="7"/>
+    </row>
+    <row r="140" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>154</v>
       </c>
@@ -12060,8 +12215,9 @@
       <c r="U140" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z140" s="7"/>
+    </row>
+    <row r="141" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>155</v>
       </c>
@@ -12122,8 +12278,9 @@
       <c r="U141" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z141" s="7"/>
+    </row>
+    <row r="142" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>156</v>
       </c>
@@ -12184,8 +12341,9 @@
       <c r="U142" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z142" s="7"/>
+    </row>
+    <row r="143" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>157</v>
       </c>
@@ -12246,8 +12404,9 @@
       <c r="U143" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z143" s="7"/>
+    </row>
+    <row r="144" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>158</v>
       </c>
@@ -12308,8 +12467,9 @@
       <c r="U144" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z144" s="7"/>
+    </row>
+    <row r="145" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>159</v>
       </c>
@@ -12370,8 +12530,9 @@
       <c r="U145" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="146" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z145" s="7"/>
+    </row>
+    <row r="146" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>160</v>
       </c>
@@ -12432,8 +12593,9 @@
       <c r="U146" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z146" s="7"/>
+    </row>
+    <row r="147" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>161</v>
       </c>
@@ -12494,8 +12656,9 @@
       <c r="U147" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z147" s="7"/>
+    </row>
+    <row r="148" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>162</v>
       </c>
@@ -12556,8 +12719,9 @@
       <c r="U148" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z148" s="7"/>
+    </row>
+    <row r="149" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>163</v>
       </c>
@@ -12618,8 +12782,9 @@
       <c r="U149" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z149" s="7"/>
+    </row>
+    <row r="150" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>164</v>
       </c>
@@ -12689,8 +12854,9 @@
       <c r="X150" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z150" s="7"/>
+    </row>
+    <row r="151" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>165</v>
       </c>
@@ -12751,8 +12917,9 @@
       <c r="U151" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z151" s="7"/>
+    </row>
+    <row r="152" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>166</v>
       </c>
@@ -12813,8 +12980,9 @@
       <c r="U152" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z152" s="7"/>
+    </row>
+    <row r="153" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>167</v>
       </c>
@@ -12875,8 +13043,9 @@
       <c r="U153" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z153" s="7"/>
+    </row>
+    <row r="154" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>168</v>
       </c>
@@ -12937,8 +13106,9 @@
       <c r="U154" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="155" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z154" s="7"/>
+    </row>
+    <row r="155" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>169</v>
       </c>
@@ -12999,8 +13169,9 @@
       <c r="U155" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="156" spans="1:24" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z155" s="7"/>
+    </row>
+    <row r="156" spans="1:26" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>170</v>
       </c>
@@ -13061,8 +13232,9 @@
       <c r="U156" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z156" s="7"/>
+    </row>
+    <row r="157" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>171</v>
       </c>
@@ -13123,8 +13295,9 @@
       <c r="U157" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z157" s="7"/>
+    </row>
+    <row r="158" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>172</v>
       </c>
@@ -13188,8 +13361,9 @@
       <c r="V158" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z158" s="7"/>
+    </row>
+    <row r="159" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>173</v>
       </c>
@@ -13250,8 +13424,9 @@
       <c r="U159" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="160" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z159" s="7"/>
+    </row>
+    <row r="160" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>174</v>
       </c>
@@ -13315,8 +13490,9 @@
       <c r="V160" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z160" s="7"/>
+    </row>
+    <row r="161" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>175</v>
       </c>
@@ -13377,8 +13553,9 @@
       <c r="U161" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z161" s="7"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -13448,11 +13625,14 @@
       <c r="X162">
         <v>3</v>
       </c>
-      <c r="Y162" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y162">
+        <v>3</v>
+      </c>
+      <c r="Z162" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>177</v>
       </c>
@@ -13513,8 +13693,9 @@
       <c r="U163" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z163" s="7"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>178</v>
       </c>
@@ -13584,11 +13765,14 @@
       <c r="X164">
         <v>3</v>
       </c>
-      <c r="Y164" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y164">
+        <v>3</v>
+      </c>
+      <c r="Z164" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -13658,11 +13842,14 @@
       <c r="X165">
         <v>3</v>
       </c>
-      <c r="Y165" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:25" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y165">
+        <v>3</v>
+      </c>
+      <c r="Z165" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>180</v>
       </c>
@@ -13732,8 +13919,9 @@
       <c r="X166" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z166" s="7"/>
+    </row>
+    <row r="167" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>181</v>
       </c>
@@ -13794,8 +13982,9 @@
       <c r="U167" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z167" s="7"/>
+    </row>
+    <row r="168" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>182</v>
       </c>
@@ -13856,8 +14045,9 @@
       <c r="U168" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z168" s="7"/>
+    </row>
+    <row r="169" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>183</v>
       </c>
@@ -13921,8 +14111,9 @@
       <c r="V169" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z169" s="7"/>
+    </row>
+    <row r="170" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>184</v>
       </c>
@@ -13983,8 +14174,9 @@
       <c r="U170" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z170" s="7"/>
+    </row>
+    <row r="171" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>185</v>
       </c>
@@ -14045,8 +14237,9 @@
       <c r="U171" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z171" s="7"/>
+    </row>
+    <row r="172" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>186</v>
       </c>
@@ -14107,8 +14300,9 @@
       <c r="U172" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z172" s="7"/>
+    </row>
+    <row r="173" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>187</v>
       </c>
@@ -14169,8 +14363,9 @@
       <c r="U173" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z173" s="7"/>
+    </row>
+    <row r="174" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>188</v>
       </c>
@@ -14231,8 +14426,9 @@
       <c r="U174" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z174" s="7"/>
+    </row>
+    <row r="175" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>189</v>
       </c>
@@ -14293,8 +14489,9 @@
       <c r="U175" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z175" s="7"/>
+    </row>
+    <row r="176" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>190</v>
       </c>
@@ -14355,8 +14552,9 @@
       <c r="U176" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z176" s="7"/>
+    </row>
+    <row r="177" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>191</v>
       </c>
@@ -14420,8 +14618,9 @@
       <c r="V177" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z177" s="7"/>
+    </row>
+    <row r="178" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>192</v>
       </c>
@@ -14488,8 +14687,9 @@
       <c r="W178" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z178" s="7"/>
+    </row>
+    <row r="179" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>193</v>
       </c>
@@ -14550,8 +14750,9 @@
       <c r="U179" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z179" s="7"/>
+    </row>
+    <row r="180" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>194</v>
       </c>
@@ -14612,8 +14813,9 @@
       <c r="U180" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z180" s="7"/>
+    </row>
+    <row r="181" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>195</v>
       </c>
@@ -14674,8 +14876,9 @@
       <c r="U181" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z181" s="7"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>196</v>
       </c>
@@ -14748,11 +14951,14 @@
       <c r="X182">
         <v>2</v>
       </c>
-      <c r="Y182" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y182">
+        <v>2</v>
+      </c>
+      <c r="Z182" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>199</v>
       </c>
@@ -14822,11 +15028,14 @@
       <c r="X183">
         <v>2</v>
       </c>
-      <c r="Y183" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y183">
+        <v>2</v>
+      </c>
+      <c r="Z183" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>200</v>
       </c>
@@ -14896,11 +15105,14 @@
       <c r="X184">
         <v>2</v>
       </c>
-      <c r="Y184" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y184">
+        <v>2</v>
+      </c>
+      <c r="Z184" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>201</v>
       </c>
@@ -14970,11 +15182,14 @@
       <c r="X185">
         <v>2</v>
       </c>
-      <c r="Y185" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y185">
+        <v>2</v>
+      </c>
+      <c r="Z185" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>202</v>
       </c>
@@ -15044,11 +15259,14 @@
       <c r="X186">
         <v>2</v>
       </c>
-      <c r="Y186" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y186">
+        <v>2</v>
+      </c>
+      <c r="Z186" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>203</v>
       </c>
@@ -15118,11 +15336,14 @@
       <c r="X187">
         <v>2</v>
       </c>
-      <c r="Y187" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y187">
+        <v>2</v>
+      </c>
+      <c r="Z187" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>204</v>
       </c>
@@ -15192,11 +15413,14 @@
       <c r="X188">
         <v>2</v>
       </c>
-      <c r="Y188" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y188">
+        <v>2</v>
+      </c>
+      <c r="Z188" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>205</v>
       </c>
@@ -15266,11 +15490,14 @@
       <c r="X189">
         <v>2</v>
       </c>
-      <c r="Y189" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y189">
+        <v>2</v>
+      </c>
+      <c r="Z189" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>206</v>
       </c>
@@ -15340,11 +15567,14 @@
       <c r="X190">
         <v>2</v>
       </c>
-      <c r="Y190" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y190">
+        <v>2</v>
+      </c>
+      <c r="Z190" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>207</v>
       </c>
@@ -15414,11 +15644,14 @@
       <c r="X191">
         <v>2</v>
       </c>
-      <c r="Y191" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y191">
+        <v>2</v>
+      </c>
+      <c r="Z191" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>208</v>
       </c>
@@ -15488,11 +15721,14 @@
       <c r="X192">
         <v>2</v>
       </c>
-      <c r="Y192" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y192">
+        <v>2</v>
+      </c>
+      <c r="Z192" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>209</v>
       </c>
@@ -15562,11 +15798,14 @@
       <c r="X193">
         <v>2</v>
       </c>
-      <c r="Y193" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y193">
+        <v>2</v>
+      </c>
+      <c r="Z193" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>210</v>
       </c>
@@ -15636,11 +15875,14 @@
       <c r="X194">
         <v>2</v>
       </c>
-      <c r="Y194" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y194">
+        <v>2</v>
+      </c>
+      <c r="Z194" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>211</v>
       </c>
@@ -15710,11 +15952,14 @@
       <c r="X195">
         <v>2</v>
       </c>
-      <c r="Y195" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y195">
+        <v>2</v>
+      </c>
+      <c r="Z195" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>212</v>
       </c>
@@ -15784,11 +16029,14 @@
       <c r="X196">
         <v>1</v>
       </c>
-      <c r="Y196" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y196">
+        <v>1</v>
+      </c>
+      <c r="Z196" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>213</v>
       </c>
@@ -15858,11 +16106,14 @@
       <c r="X197">
         <v>2</v>
       </c>
-      <c r="Y197" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y197">
+        <v>2</v>
+      </c>
+      <c r="Z197" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>214</v>
       </c>
@@ -15932,11 +16183,14 @@
       <c r="X198">
         <v>2</v>
       </c>
-      <c r="Y198" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y198">
+        <v>2</v>
+      </c>
+      <c r="Z198" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>215</v>
       </c>
@@ -16006,11 +16260,14 @@
       <c r="X199">
         <v>2</v>
       </c>
-      <c r="Y199" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y199">
+        <v>2</v>
+      </c>
+      <c r="Z199" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>216</v>
       </c>
@@ -16080,11 +16337,14 @@
       <c r="X200">
         <v>2</v>
       </c>
-      <c r="Y200" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y200">
+        <v>2</v>
+      </c>
+      <c r="Z200" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>217</v>
       </c>
@@ -16154,11 +16414,14 @@
       <c r="X201">
         <v>2</v>
       </c>
-      <c r="Y201" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y201">
+        <v>2</v>
+      </c>
+      <c r="Z201" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>218</v>
       </c>
@@ -16228,11 +16491,14 @@
       <c r="X202">
         <v>1</v>
       </c>
-      <c r="Y202" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y202">
+        <v>2</v>
+      </c>
+      <c r="Z202" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>219</v>
       </c>
@@ -16302,11 +16568,14 @@
       <c r="X203">
         <v>2</v>
       </c>
-      <c r="Y203" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y203">
+        <v>2</v>
+      </c>
+      <c r="Z203" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -16376,11 +16645,14 @@
       <c r="X204">
         <v>2</v>
       </c>
-      <c r="Y204" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y204">
+        <v>2</v>
+      </c>
+      <c r="Z204" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -16450,11 +16722,14 @@
       <c r="X205">
         <v>2</v>
       </c>
-      <c r="Y205" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y205">
+        <v>2</v>
+      </c>
+      <c r="Z205" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -16524,11 +16799,14 @@
       <c r="X206">
         <v>2</v>
       </c>
-      <c r="Y206" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y206">
+        <v>2</v>
+      </c>
+      <c r="Z206" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -16598,11 +16876,14 @@
       <c r="X207">
         <v>2</v>
       </c>
-      <c r="Y207" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y207">
+        <v>2</v>
+      </c>
+      <c r="Z207" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -16672,11 +16953,14 @@
       <c r="X208">
         <v>2</v>
       </c>
-      <c r="Y208" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y208">
+        <v>2</v>
+      </c>
+      <c r="Z208" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -16746,11 +17030,14 @@
       <c r="X209">
         <v>2</v>
       </c>
-      <c r="Y209" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y209">
+        <v>2</v>
+      </c>
+      <c r="Z209" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -16820,11 +17107,14 @@
       <c r="X210">
         <v>2</v>
       </c>
-      <c r="Y210" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y210">
+        <v>2</v>
+      </c>
+      <c r="Z210" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -16894,11 +17184,14 @@
       <c r="X211">
         <v>2</v>
       </c>
-      <c r="Y211" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y211">
+        <v>2</v>
+      </c>
+      <c r="Z211" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -16968,11 +17261,14 @@
       <c r="X212">
         <v>2</v>
       </c>
-      <c r="Y212" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y212">
+        <v>2</v>
+      </c>
+      <c r="Z212" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -17042,11 +17338,14 @@
       <c r="X213">
         <v>2</v>
       </c>
-      <c r="Y213" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y213">
+        <v>2</v>
+      </c>
+      <c r="Z213" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -17116,11 +17415,14 @@
       <c r="X214">
         <v>2</v>
       </c>
-      <c r="Y214" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y214">
+        <v>2</v>
+      </c>
+      <c r="Z214" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -17190,11 +17492,14 @@
       <c r="X215">
         <v>2</v>
       </c>
-      <c r="Y215" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y215">
+        <v>2</v>
+      </c>
+      <c r="Z215" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -17264,11 +17569,14 @@
       <c r="X216">
         <v>1</v>
       </c>
-      <c r="Y216" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y216">
+        <v>1</v>
+      </c>
+      <c r="Z216" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -17338,11 +17646,14 @@
       <c r="X217">
         <v>1</v>
       </c>
-      <c r="Y217" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y217">
+        <v>1</v>
+      </c>
+      <c r="Z217" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -17412,11 +17723,14 @@
       <c r="X218">
         <v>2</v>
       </c>
-      <c r="Y218" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y218">
+        <v>2</v>
+      </c>
+      <c r="Z218" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -17486,11 +17800,14 @@
       <c r="X219">
         <v>2</v>
       </c>
-      <c r="Y219" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y219">
+        <v>2</v>
+      </c>
+      <c r="Z219" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -17560,11 +17877,14 @@
       <c r="X220">
         <v>2</v>
       </c>
-      <c r="Y220" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y220">
+        <v>2</v>
+      </c>
+      <c r="Z220" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -17634,11 +17954,14 @@
       <c r="X221">
         <v>2</v>
       </c>
-      <c r="Y221" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y221">
+        <v>2</v>
+      </c>
+      <c r="Z221" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -17708,11 +18031,14 @@
       <c r="X222">
         <v>2</v>
       </c>
-      <c r="Y222" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y222">
+        <v>2</v>
+      </c>
+      <c r="Z222" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -17782,11 +18108,14 @@
       <c r="X223">
         <v>2</v>
       </c>
-      <c r="Y223" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y223">
+        <v>2</v>
+      </c>
+      <c r="Z223" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -17856,11 +18185,14 @@
       <c r="X224">
         <v>1</v>
       </c>
-      <c r="Y224" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -17930,11 +18262,14 @@
       <c r="X225">
         <v>2</v>
       </c>
-      <c r="Y225" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y225">
+        <v>2</v>
+      </c>
+      <c r="Z225" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -18004,11 +18339,14 @@
       <c r="X226">
         <v>1</v>
       </c>
-      <c r="Y226" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -18078,11 +18416,14 @@
       <c r="X227">
         <v>2</v>
       </c>
-      <c r="Y227" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y227">
+        <v>2</v>
+      </c>
+      <c r="Z227" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -18152,11 +18493,14 @@
       <c r="X228">
         <v>2</v>
       </c>
-      <c r="Y228" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y228">
+        <v>2</v>
+      </c>
+      <c r="Z228" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -18226,11 +18570,14 @@
       <c r="X229">
         <v>2</v>
       </c>
-      <c r="Y229" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y229">
+        <v>2</v>
+      </c>
+      <c r="Z229" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -18300,11 +18647,14 @@
       <c r="X230">
         <v>2</v>
       </c>
-      <c r="Y230" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y230">
+        <v>2</v>
+      </c>
+      <c r="Z230" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -18374,11 +18724,14 @@
       <c r="X231">
         <v>2</v>
       </c>
-      <c r="Y231" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y231">
+        <v>2</v>
+      </c>
+      <c r="Z231" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -18448,11 +18801,14 @@
       <c r="X232">
         <v>2</v>
       </c>
-      <c r="Y232" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y232">
+        <v>2</v>
+      </c>
+      <c r="Z232" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -18522,11 +18878,14 @@
       <c r="X233">
         <v>2</v>
       </c>
-      <c r="Y233" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y233">
+        <v>2</v>
+      </c>
+      <c r="Z233" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -18596,11 +18955,14 @@
       <c r="X234">
         <v>2</v>
       </c>
-      <c r="Y234" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y234">
+        <v>2</v>
+      </c>
+      <c r="Z234" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -18670,11 +19032,14 @@
       <c r="X235">
         <v>2</v>
       </c>
-      <c r="Y235" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y235">
+        <v>2</v>
+      </c>
+      <c r="Z235" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -18744,11 +19109,14 @@
       <c r="X236">
         <v>2</v>
       </c>
-      <c r="Y236" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y236">
+        <v>2</v>
+      </c>
+      <c r="Z236" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -18818,11 +19186,14 @@
       <c r="X237">
         <v>2</v>
       </c>
-      <c r="Y237" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y237">
+        <v>2</v>
+      </c>
+      <c r="Z237" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -18892,11 +19263,14 @@
       <c r="X238">
         <v>2</v>
       </c>
-      <c r="Y238" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y238">
+        <v>2</v>
+      </c>
+      <c r="Z238" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -18966,11 +19340,14 @@
       <c r="X239">
         <v>2</v>
       </c>
-      <c r="Y239" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y239">
+        <v>2</v>
+      </c>
+      <c r="Z239" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -19040,11 +19417,14 @@
       <c r="X240">
         <v>2</v>
       </c>
-      <c r="Y240" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y240">
+        <v>2</v>
+      </c>
+      <c r="Z240" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -19114,11 +19494,14 @@
       <c r="X241">
         <v>2</v>
       </c>
-      <c r="Y241" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y241">
+        <v>2</v>
+      </c>
+      <c r="Z241" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -19188,11 +19571,14 @@
       <c r="X242">
         <v>2</v>
       </c>
-      <c r="Y242" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y242">
+        <v>2</v>
+      </c>
+      <c r="Z242" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -19262,11 +19648,14 @@
       <c r="X243">
         <v>2</v>
       </c>
-      <c r="Y243" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y243">
+        <v>2</v>
+      </c>
+      <c r="Z243" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -19336,11 +19725,14 @@
       <c r="X244">
         <v>2</v>
       </c>
-      <c r="Y244" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y244">
+        <v>2</v>
+      </c>
+      <c r="Z244" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -19410,11 +19802,14 @@
       <c r="X245">
         <v>2</v>
       </c>
-      <c r="Y245" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y245">
+        <v>2</v>
+      </c>
+      <c r="Z245" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -19484,11 +19879,14 @@
       <c r="X246">
         <v>2</v>
       </c>
-      <c r="Y246" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y246">
+        <v>2</v>
+      </c>
+      <c r="Z246" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -19558,11 +19956,14 @@
       <c r="X247">
         <v>1</v>
       </c>
-      <c r="Y247" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y247">
+        <v>2</v>
+      </c>
+      <c r="Z247" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -19632,11 +20033,14 @@
       <c r="X248">
         <v>2</v>
       </c>
-      <c r="Y248" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y248">
+        <v>2</v>
+      </c>
+      <c r="Z248" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -19706,11 +20110,14 @@
       <c r="X249">
         <v>2</v>
       </c>
-      <c r="Y249" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y249">
+        <v>2</v>
+      </c>
+      <c r="Z249" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -19780,11 +20187,14 @@
       <c r="X250">
         <v>1</v>
       </c>
-      <c r="Y250" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y250">
+        <v>1</v>
+      </c>
+      <c r="Z250" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>267</v>
       </c>
@@ -19854,11 +20264,14 @@
       <c r="X251">
         <v>2</v>
       </c>
-      <c r="Y251" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y251">
+        <v>2</v>
+      </c>
+      <c r="Z251" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>268</v>
       </c>
@@ -19928,11 +20341,14 @@
       <c r="X252">
         <v>2</v>
       </c>
-      <c r="Y252" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y252">
+        <v>2</v>
+      </c>
+      <c r="Z252" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>269</v>
       </c>
@@ -20002,11 +20418,14 @@
       <c r="X253">
         <v>1</v>
       </c>
-      <c r="Y253" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y253">
+        <v>1</v>
+      </c>
+      <c r="Z253" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>270</v>
       </c>
@@ -20076,11 +20495,14 @@
       <c r="X254">
         <v>2</v>
       </c>
-      <c r="Y254" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y254">
+        <v>2</v>
+      </c>
+      <c r="Z254" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>271</v>
       </c>
@@ -20150,11 +20572,14 @@
       <c r="X255">
         <v>2</v>
       </c>
-      <c r="Y255" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y255">
+        <v>2</v>
+      </c>
+      <c r="Z255" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>272</v>
       </c>
@@ -20224,11 +20649,14 @@
       <c r="X256">
         <v>2</v>
       </c>
-      <c r="Y256" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y256">
+        <v>2</v>
+      </c>
+      <c r="Z256" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>273</v>
       </c>
@@ -20298,11 +20726,14 @@
       <c r="X257">
         <v>2</v>
       </c>
-      <c r="Y257" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y257">
+        <v>2</v>
+      </c>
+      <c r="Z257" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>274</v>
       </c>
@@ -20372,11 +20803,14 @@
       <c r="X258">
         <v>2</v>
       </c>
-      <c r="Y258" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y258">
+        <v>2</v>
+      </c>
+      <c r="Z258" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>275</v>
       </c>
@@ -20446,11 +20880,14 @@
       <c r="X259">
         <v>1</v>
       </c>
-      <c r="Y259" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y259">
+        <v>1</v>
+      </c>
+      <c r="Z259" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>276</v>
       </c>
@@ -20520,11 +20957,14 @@
       <c r="X260">
         <v>1</v>
       </c>
-      <c r="Y260" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y260">
+        <v>1</v>
+      </c>
+      <c r="Z260" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>277</v>
       </c>
@@ -20594,11 +21034,14 @@
       <c r="X261">
         <v>1</v>
       </c>
-      <c r="Y261" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y261">
+        <v>1</v>
+      </c>
+      <c r="Z261" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>278</v>
       </c>
@@ -20668,11 +21111,14 @@
       <c r="X262">
         <v>1</v>
       </c>
-      <c r="Y262" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y262">
+        <v>2</v>
+      </c>
+      <c r="Z262" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>279</v>
       </c>
@@ -20742,11 +21188,14 @@
       <c r="X263">
         <v>2</v>
       </c>
-      <c r="Y263" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y263">
+        <v>2</v>
+      </c>
+      <c r="Z263" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>280</v>
       </c>
@@ -20816,11 +21265,14 @@
       <c r="X264">
         <v>1</v>
       </c>
-      <c r="Y264" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y264">
+        <v>1</v>
+      </c>
+      <c r="Z264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>281</v>
       </c>
@@ -20890,11 +21342,14 @@
       <c r="X265">
         <v>2</v>